--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -157,6 +157,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -2714,10 +2747,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -2791,104 +2824,126 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="P2" t="n">
-        <v>259970.3387</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2859616.9693</v>
+        <v>706619</v>
       </c>
       <c r="R2" t="n">
-        <v>37395112.3396</v>
+        <v>2956821.51</v>
       </c>
       <c r="S2" t="n">
-        <v>6905530.6119</v>
+        <v>49117194</v>
       </c>
       <c r="T2" t="n">
-        <v>2964059.6022</v>
+        <v>799505</v>
       </c>
       <c r="U2" t="n">
-        <v>2483962.762</v>
+        <v>1724347</v>
       </c>
       <c r="V2" t="n">
-        <v>20853329.1778</v>
+        <v>72817815.07</v>
       </c>
       <c r="W2" t="n">
-        <v>18042618.5187</v>
+        <v>17949329.7799</v>
       </c>
       <c r="X2" t="n">
-        <v>748090.0618</v>
+        <v>607122.832</v>
       </c>
       <c r="Y2" t="n">
-        <v>673627.1341</v>
+        <v>740014.064</v>
       </c>
       <c r="Z2" t="n">
-        <v>-47306.6795</v>
+        <v>-177796.4375</v>
       </c>
       <c r="AA2" t="n">
-        <v>-140641.9013</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-3648.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-52150.8511</v>
-      </c>
-      <c r="AD2"/>
+        <v>0</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2" t="n">
+        <v>30000</v>
+      </c>
       <c r="AE2" t="n">
-        <v>3579792.2708</v>
+        <v>1738.23</v>
       </c>
       <c r="AF2" t="n">
-        <v>-245</v>
+        <v>1345852</v>
       </c>
       <c r="AG2" t="n">
-        <v>-233000.0781</v>
+        <v>-212795.3672</v>
       </c>
       <c r="AH2" t="n">
-        <v>465885</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>314555.625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>376316</v>
+        <v>10000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980919.7685</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>325137.2418</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
+        <v>51</v>
+      </c>
+      <c r="P3" t="n">
+        <v>201634.95</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>271382.0206</v>
+      </c>
+      <c r="R3" t="n">
+        <v>783968.7195</v>
+      </c>
+      <c r="S3" t="n">
+        <v>743138.2439</v>
+      </c>
       <c r="T3" t="n">
-        <v>2885.2</v>
-      </c>
-      <c r="U3"/>
+        <v>1982656.0366</v>
+      </c>
+      <c r="U3" t="n">
+        <v>747418.1223</v>
+      </c>
       <c r="V3" t="n">
-        <v>35030</v>
-      </c>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
+        <v>390867.2895</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-146825.09</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-37894.2093</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-36404.48</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-1077.86</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-8501.94</v>
+      </c>
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
@@ -2896,62 +2951,38 @@
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
+      <c r="AK3" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>304883.1617</v>
+      </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21752651.142</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4" t="n">
-        <v>3205250.8653</v>
-      </c>
-      <c r="R4" t="n">
-        <v>36446887.0404</v>
-      </c>
-      <c r="S4" t="n">
-        <v>52492571.5798</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2676800.9804</v>
-      </c>
-      <c r="U4" t="n">
-        <v>863359</v>
-      </c>
-      <c r="V4" t="n">
-        <v>67611390</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-37033.4688</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-192700.6617</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>-24487.7109</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>-3.86</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>-2829.1001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-47572.2695</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
       <c r="AD4"/>
-      <c r="AE4" t="n">
-        <v>-1.07</v>
-      </c>
+      <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
@@ -2962,178 +2993,228 @@
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+        <v>470776.0781</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>542500.9312</v>
+      </c>
+      <c r="R5" t="n">
+        <v>620175.2402</v>
+      </c>
+      <c r="S5" t="n">
+        <v>460229.8087</v>
+      </c>
+      <c r="T5" t="n">
+        <v>216395.7656</v>
+      </c>
       <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
+      <c r="V5" t="n">
+        <v>629147.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5212.27</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-8772.9297</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-32729.2511</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-14921.4499</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-2570.84</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-1574.29</v>
+      </c>
       <c r="AD5"/>
-      <c r="AE5"/>
+      <c r="AE5" t="n">
+        <v>-2315.6101</v>
+      </c>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5"/>
+      <c r="AK5" t="n">
+        <v>16169.9902</v>
+      </c>
       <c r="AL5"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P6" t="n">
-        <v>1968247</v>
+        <v>3049178</v>
       </c>
       <c r="Q6" t="n">
-        <v>1506412</v>
+        <v>1011697</v>
       </c>
       <c r="R6" t="n">
-        <v>9236544</v>
+        <v>39925920</v>
       </c>
       <c r="S6" t="n">
-        <v>16133355</v>
+        <v>5338005</v>
       </c>
       <c r="T6" t="n">
-        <v>1436950</v>
+        <v>1411950</v>
       </c>
       <c r="U6" t="n">
-        <v>431106.3301</v>
+        <v>103650</v>
       </c>
       <c r="V6" t="n">
-        <v>9419920.8799</v>
+        <v>7029712.3506</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>-151143.5508</v>
+        <v>118813.3594</v>
       </c>
       <c r="Y6" t="n">
-        <v>14525.3794</v>
+        <v>263786.5391</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2907.3301</v>
-      </c>
-      <c r="AA6"/>
+        <v>-3177.3301</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-62617.5313</v>
+      </c>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6"/>
+      <c r="AE6"/>
+      <c r="AF6" t="n">
+        <v>-245</v>
+      </c>
       <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
+      <c r="AH6" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>376316</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>59840</v>
       </c>
       <c r="AL6"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>26302680.0243</v>
       </c>
       <c r="Q7" t="n">
-        <v>7800</v>
+        <v>7293017.4607</v>
       </c>
       <c r="R7" t="n">
-        <v>523464.7188</v>
+        <v>39787465.7045</v>
       </c>
       <c r="S7" t="n">
-        <v>21271.0625</v>
-      </c>
-      <c r="T7"/>
-      <c r="U7"/>
+        <v>20082433.1214</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2667688.9804</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1227221</v>
+      </c>
       <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7"/>
+        <v>28880752.3476</v>
+      </c>
+      <c r="W7" t="n">
+        <v>93043</v>
+      </c>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7"/>
+        <v>-202294.9525</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-17632.4698</v>
+      </c>
       <c r="Z7" t="n">
-        <v>-177796.4375</v>
-      </c>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-24569.5601</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-2829.1001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-47572.2695</v>
+      </c>
       <c r="AD7"/>
-      <c r="AE7"/>
+      <c r="AE7" t="n">
+        <v>3582106.8109</v>
+      </c>
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
-      <c r="AJ7"/>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
       <c r="AK7"/>
-      <c r="AL7"/>
+      <c r="AL7" t="n">
+        <v>20254.0801</v>
+      </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P8" t="n">
-        <v>48443</v>
+        <v>-520917.0438</v>
       </c>
       <c r="Q8" t="n">
-        <v>12475</v>
+        <v>-7782.4696</v>
       </c>
       <c r="R8" t="n">
-        <v>461178</v>
-      </c>
-      <c r="S8" t="n">
-        <v>37618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S8"/>
       <c r="T8"/>
-      <c r="U8" t="n">
-        <v>5986</v>
-      </c>
-      <c r="V8" t="n">
-        <v>11200894</v>
-      </c>
-      <c r="W8" t="n">
-        <v>42000</v>
-      </c>
-      <c r="X8" t="n">
-        <v>-28097.4801</v>
-      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
+      <c r="Z8" t="n">
+        <v>-2322.43</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-2312.08</v>
+      </c>
       <c r="AB8"/>
-      <c r="AC8"/>
+      <c r="AC8" t="n">
+        <v>-42074.6211</v>
+      </c>
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
@@ -3145,80 +3226,58 @@
       <c r="AL8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>5474040.5279</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2233679.1083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q9"/>
       <c r="R9" t="n">
-        <v>11165.0754</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150653.9198</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>18222.0302</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>627730.75</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-8105.15</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>298015.6198</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>-1421.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z9"/>
       <c r="AA9" t="n">
-        <v>-179.34</v>
+        <v>0</v>
       </c>
       <c r="AB9"/>
       <c r="AC9"/>
-      <c r="AD9" t="n">
-        <v>30000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1738.23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>20204.7109</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10000</v>
-      </c>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
       <c r="AK9"/>
-      <c r="AL9" t="n">
-        <v>10000</v>
-      </c>
+      <c r="AL9"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -3292,104 +3351,126 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="P14" t="n">
-        <v>420041.888286259</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4510980.397657</v>
+        <v>1114675.31904885</v>
       </c>
       <c r="R14" t="n">
-        <v>58073332.062003</v>
+        <v>4591842.80124401</v>
       </c>
       <c r="S14" t="n">
-        <v>10522912.2745836</v>
+        <v>74846663.1579375</v>
       </c>
       <c r="T14" t="n">
-        <v>4408977.38726487</v>
+        <v>1189247.16068086</v>
       </c>
       <c r="U14" t="n">
-        <v>3585984.53121384</v>
+        <v>2489361.66155175</v>
       </c>
       <c r="V14" t="n">
-        <v>29155764.8718985</v>
+        <v>101809120.096108</v>
       </c>
       <c r="W14" t="n">
-        <v>24552700.9928803</v>
+        <v>24425752.0964446</v>
       </c>
       <c r="X14" t="n">
-        <v>997215.850995582</v>
+        <v>809304.310386079</v>
       </c>
       <c r="Y14" t="n">
-        <v>888922.404373904</v>
+        <v>976526.995041935</v>
       </c>
       <c r="Z14" t="n">
-        <v>-61887.9092779453</v>
+        <v>-232598.227359032</v>
       </c>
       <c r="AA14" t="n">
-        <v>-180356.768050973</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>-4594.80790912331</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>-64493.338663492</v>
-      </c>
-      <c r="AD14"/>
+        <v>0</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14" t="n">
+        <v>35983.4270122674</v>
+      </c>
       <c r="AE14" t="n">
-        <v>4258485.17767974</v>
+        <v>2067.7810695267</v>
       </c>
       <c r="AF14" t="n">
-        <v>-286.337355131209</v>
+        <v>1572929.39623693</v>
       </c>
       <c r="AG14" t="n">
-        <v>-266065.46819104</v>
+        <v>-242993.47650284</v>
       </c>
       <c r="AH14" t="n">
-        <v>521779.598543694</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>347656.572563343</v>
       </c>
       <c r="AJ14" t="n">
-        <v>402390.030571531</v>
+        <v>10692.875949243</v>
       </c>
       <c r="AK14" t="n">
-        <v>980919.7685</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>310115.37432291</v>
+        <v>9537.98379435319</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
+        <v>51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>325787.647798704</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>428098.933649431</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1217476.64133996</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1132422.54476028</v>
+      </c>
       <c r="T15" t="n">
-        <v>4291.67535912399</v>
-      </c>
-      <c r="U15"/>
+        <v>2949159.87033643</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1079013.6897055</v>
+      </c>
       <c r="V15" t="n">
-        <v>48976.6614603623</v>
-      </c>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
+        <v>546485.153119352</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-195720.160644237</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-49574.2548854623</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-46684.4823248724</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-1357.34909774102</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-10514.0852766771</v>
+      </c>
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
@@ -3397,62 +3478,38 @@
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
-      <c r="AK15"/>
-      <c r="AL15"/>
+      <c r="AK15" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>290797.065546576</v>
+      </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" t="n">
-        <v>35146412.1122751</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16"/>
       <c r="Q16" t="n">
-        <v>5056209.96733726</v>
-      </c>
-      <c r="R16" t="n">
-        <v>56600770.563325</v>
-      </c>
-      <c r="S16" t="n">
-        <v>79990192.9114113</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3981686.12535063</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1246392.28342999</v>
-      </c>
-      <c r="V16" t="n">
-        <v>94529836.108893</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-50395.7718350672</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-256873.021253893</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-32035.5021029061</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-4.94999796107532</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>-3562.68575525024</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>-58831.1489293108</v>
-      </c>
+        <v>12304.3216904457</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
       <c r="AD16"/>
-      <c r="AE16" t="n">
-        <v>-1.27286132697835</v>
-      </c>
+      <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
@@ -3463,178 +3520,228 @@
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
+        <v>760647.056098648</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>855782.817288609</v>
+      </c>
+      <c r="R17" t="n">
+        <v>963110.963103804</v>
+      </c>
+      <c r="S17" t="n">
+        <v>701315.825716976</v>
+      </c>
+      <c r="T17" t="n">
+        <v>321884.228145117</v>
+      </c>
       <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
+      <c r="V17" t="n">
+        <v>879633.353134417</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7092.94533227105</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-11694.453653695</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-42817.3134157914</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-19135.0120676911</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-3237.45881138229</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-1946.87557313036</v>
+      </c>
       <c r="AD17"/>
-      <c r="AE17"/>
+      <c r="AE17" t="n">
+        <v>-2754.62667724342</v>
+      </c>
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
       <c r="AJ17"/>
-      <c r="AK17"/>
+      <c r="AK17" t="n">
+        <v>16169.9902</v>
+      </c>
       <c r="AL17"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P18" t="n">
-        <v>3180155.82326802</v>
+        <v>4926648.52169506</v>
       </c>
       <c r="Q18" t="n">
-        <v>2376330.4931215</v>
+        <v>1595928.88990498</v>
       </c>
       <c r="R18" t="n">
-        <v>14344037.3155205</v>
+        <v>62003589.9072731</v>
       </c>
       <c r="S18" t="n">
-        <v>24584624.832038</v>
+        <v>8134256.65501954</v>
       </c>
       <c r="T18" t="n">
-        <v>2137433.42135492</v>
+        <v>2100246.43813778</v>
       </c>
       <c r="U18" t="n">
-        <v>622368.682291448</v>
+        <v>149634.810290411</v>
       </c>
       <c r="V18" t="n">
-        <v>13170319.0384887</v>
+        <v>9828485.35424104</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-201476.736999898</v>
+        <v>158380.081963167</v>
       </c>
       <c r="Y18" t="n">
-        <v>19167.777732027</v>
+        <v>348094.298326518</v>
       </c>
       <c r="Z18" t="n">
-        <v>-3803.44981663403</v>
-      </c>
-      <c r="AA18"/>
+        <v>-4156.67129997752</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-80299.6508452254</v>
+      </c>
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18"/>
+      <c r="AE18"/>
+      <c r="AF18" t="n">
+        <v>-286.337355131209</v>
+      </c>
       <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
+      <c r="AH18" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>402390.030571531</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>59840</v>
       </c>
       <c r="AL18"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>42498030.5047248</v>
       </c>
       <c r="Q19" t="n">
-        <v>12304.3216904457</v>
+        <v>11504568.3244218</v>
       </c>
       <c r="R19" t="n">
-        <v>812922.826960562</v>
+        <v>61788575.1159025</v>
       </c>
       <c r="S19" t="n">
-        <v>32413.6604780178</v>
-      </c>
-      <c r="T19"/>
-      <c r="U19"/>
+        <v>30602381.4639988</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3968132.21370764</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1771683.37211199</v>
+      </c>
       <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19"/>
+        <v>40379184.4261766</v>
+      </c>
+      <c r="W19" t="n">
+        <v>126614.490912884</v>
+      </c>
       <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19"/>
+        <v>-269662.362208109</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-23267.9128500478</v>
+      </c>
       <c r="Z19" t="n">
-        <v>-232598.227359032</v>
-      </c>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-31507.5835231911</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-3562.68575525024</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-58831.1489293108</v>
+      </c>
       <c r="AD19"/>
-      <c r="AE19"/>
+      <c r="AE19" t="n">
+        <v>4261238.53149565</v>
+      </c>
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
-      <c r="AJ19"/>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
       <c r="AK19"/>
-      <c r="AL19"/>
+      <c r="AL19" t="n">
+        <v>19318.3087763331</v>
+      </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P20" t="n">
-        <v>78270.810800968</v>
+        <v>-841661.321104584</v>
       </c>
       <c r="Q20" t="n">
-        <v>19679.0273190141</v>
+        <v>-12276.6678851941</v>
       </c>
       <c r="R20" t="n">
-        <v>716193.680352423</v>
-      </c>
-      <c r="S20" t="n">
-        <v>57323.7505113849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20"/>
       <c r="T20"/>
-      <c r="U20" t="n">
-        <v>8641.71707089626</v>
-      </c>
-      <c r="V20" t="n">
-        <v>15660359.5058922</v>
-      </c>
-      <c r="W20" t="n">
-        <v>57154.3116445204</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-37454.3841169806</v>
-      </c>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
+      <c r="Z20" t="n">
+        <v>-3038.26729467196</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-2964.97183571063</v>
+      </c>
       <c r="AB20"/>
-      <c r="AC20"/>
+      <c r="AC20" t="n">
+        <v>-52032.3778136845</v>
+      </c>
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
@@ -3646,73 +3753,51 @@
       <c r="AL20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
-        <v>8844571.77458233</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3523577.73099373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q21"/>
       <c r="R21" t="n">
-        <v>17338.9807018945</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>229572.218410798</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-3718.69832171426</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>26306.3196534793</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>877652.196146426</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-10804.2927816059</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>393263.198412475</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>-1859.64569841769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z21"/>
       <c r="AA21" t="n">
-        <v>-229.982547756282</v>
+        <v>0</v>
       </c>
       <c r="AB21"/>
       <c r="AC21"/>
-      <c r="AD21" t="n">
-        <v>35983.4270122674</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>2067.7810695267</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1572929.39623693</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>23071.9916881998</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10692.875949243</v>
-      </c>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
       <c r="AK21"/>
-      <c r="AL21" t="n">
-        <v>9537.98379435319</v>
-      </c>
+      <c r="AL21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -196,14 +197,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,8 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1762,73 +1775,74 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="1" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="1" t="n">
         <v>2859616.9693</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="1" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="1" t="n">
         <v>6905530.6119</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="1" t="n">
         <v>2964059.6022</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="1" t="n">
         <v>2483962.762</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="1" t="n">
         <v>20853329.1778</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="1" t="n">
         <v>18042618.5187</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="1" t="n">
         <v>748090.0618</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="1" t="n">
         <v>673627.1341</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="1" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2"/>
-      <c r="AE2" t="n">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AI2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>325137.2418</v>
       </c>
+      <c r="AM2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -1840,33 +1854,34 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3"/>
-      <c r="V3" t="n">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="n">
         <v>35030</v>
       </c>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -1878,59 +1893,60 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="1" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="1" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="1" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="1" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="1" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="1" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="1" t="n">
         <v>67611390</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="1" t="n">
         <v>-37033.4688</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="1" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="Y4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4"/>
-      <c r="AE4" t="n">
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -1942,31 +1958,32 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -1978,57 +1995,58 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="1" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="1" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="1" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="1" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="1" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="1" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="1" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
         <v>-151143.5508</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="1" t="n">
         <v>14525.3794</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="1" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -2040,43 +2058,44 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="1" t="n">
         <v>523464.7188</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="1" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7"/>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -2088,45 +2107,46 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="1" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="1" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="1" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="1" t="n">
         <v>37618</v>
       </c>
-      <c r="T8"/>
-      <c r="U8" t="n">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="1" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="1" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" s="1" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -2136,69 +2156,70 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>2233679.1083</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>11165.0754</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9" t="n">
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9"/>
-      <c r="AL9" t="n">
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1" t="n">
         <v>10000</v>
       </c>
+      <c r="AM9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -2290,73 +2311,74 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="1" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="1" t="n">
         <v>4510980.397657</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="1" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="1" t="n">
         <v>10522912.2745836</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="1" t="n">
         <v>4408977.38726487</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="1" t="n">
         <v>3585984.53121384</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="1" t="n">
         <v>29155764.8718985</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="1" t="n">
         <v>24552700.9928803</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="1" t="n">
         <v>997215.850995582</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="1" t="n">
         <v>888922.404373904</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="1" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14"/>
-      <c r="AE14" t="n">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AI14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>310115.37432291</v>
       </c>
+      <c r="AM14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -2368,33 +2390,34 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15"/>
-      <c r="V15" t="n">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
-      <c r="AL15"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -2406,59 +2429,60 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="1" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="1" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="1" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="1" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="1" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="1" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="1" t="n">
         <v>94529836.108893</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="1" t="n">
         <v>-50395.7718350672</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" s="1" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="Y16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16"/>
-      <c r="AE16" t="n">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -2470,31 +2494,32 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -2506,57 +2531,58 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="1" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="1" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="1" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="1" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="1" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="1" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="1" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="W18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="n">
         <v>-201476.736999898</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="1" t="n">
         <v>19167.777732027</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" s="1" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -2568,43 +2594,44 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="1" t="n">
         <v>812922.826960562</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="1" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19"/>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -2616,45 +2643,46 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="1" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="1" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="1" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="1" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20"/>
-      <c r="U20" t="n">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" s="1" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="1" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20" s="1" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
-      <c r="AL20"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -2664,69 +2692,70 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>3523577.73099373</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>17338.9807018945</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="W21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21" t="n">
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AH21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21"/>
-      <c r="AL21" t="n">
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1" t="n">
         <v>9537.98379435319</v>
       </c>
+      <c r="AM21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,71 +2858,72 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>706619</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="2" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="2" t="n">
         <v>49117194</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="2" t="n">
         <v>799505</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="2" t="n">
         <v>1724347</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="2" t="n">
         <v>72817815.07</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="2" t="n">
         <v>17949329.7799</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="2" t="n">
         <v>607122.832</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="2" t="n">
         <v>740014.064</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="2" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2" t="n">
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2" t="n">
         <v>10000</v>
       </c>
+      <c r="AM2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -2902,61 +2932,62 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="2" t="n">
         <v>201634.95</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>271382.0206</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="2" t="n">
         <v>783968.7195</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="2" t="n">
         <v>743138.2439</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="2" t="n">
         <v>1982656.0366</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="2" t="n">
         <v>747418.1223</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="2" t="n">
         <v>390867.2895</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3" t="n">
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2" t="n">
         <v>904909.7783</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>304883.1617</v>
       </c>
+      <c r="AM3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -2965,31 +2996,32 @@
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="n">
         <v>7800</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -2998,59 +3030,60 @@
       <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="2" t="n">
         <v>470776.0781</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="2" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="2" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="2" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="2" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="U5"/>
-      <c r="V5" t="n">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="n">
         <v>629147.75</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="2" t="n">
         <v>5212.27</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="2" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
         <v>-32729.2511</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>-14921.4499</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>-1574.29</v>
       </c>
-      <c r="AD5"/>
-      <c r="AE5" t="n">
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5" t="n">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AL5"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -3059,63 +3092,64 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="2" t="n">
         <v>3049178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="2" t="n">
         <v>1011697</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="2" t="n">
         <v>39925920</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="2" t="n">
         <v>5338005</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="2" t="n">
         <v>1411950</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="2" t="n">
         <v>103650</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="2" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="2" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="2" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6" t="n">
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2" t="n">
         <v>-245</v>
       </c>
-      <c r="AG6"/>
-      <c r="AH6" t="n">
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="n">
         <v>465885</v>
       </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
         <v>376316</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>59840</v>
       </c>
-      <c r="AL6"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -3124,63 +3158,64 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="2" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="2" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="2" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="2" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="2" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="2" t="n">
         <v>1227221</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="2" t="n">
         <v>28880752.3476</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="2" t="n">
         <v>93043</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="2" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="2" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
         <v>-24569.5601</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD7"/>
-      <c r="AE7" t="n">
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7"/>
-      <c r="AL7" t="n">
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2" t="n">
         <v>20254.0801</v>
       </c>
+      <c r="AM7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -3189,88 +3224,90 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="2" t="n">
         <v>-520917.0438</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="2" t="n">
         <v>-7782.4696</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>-2322.43</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>-2312.08</v>
       </c>
-      <c r="AB8"/>
-      <c r="AC8" t="n">
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2" t="n">
         <v>-42074.6211</v>
       </c>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9"/>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -3356,71 +3393,72 @@
       <c r="O14" t="s">
         <v>50</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
         <v>1114675.31904885</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="2" t="n">
         <v>4591842.80124401</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="2" t="n">
         <v>74846663.1579375</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="2" t="n">
         <v>1189247.16068086</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="2" t="n">
         <v>2489361.66155175</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="2" t="n">
         <v>101809120.096108</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="2" t="n">
         <v>24425752.0964446</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="2" t="n">
         <v>809304.310386079</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="2" t="n">
         <v>976526.995041935</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="2" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14" t="n">
+      <c r="AA14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AK14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2" t="n">
         <v>9537.98379435319</v>
       </c>
+      <c r="AM14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -3429,61 +3467,62 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="2" t="n">
         <v>325787.647798704</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="2" t="n">
         <v>428098.933649431</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="2" t="n">
         <v>1217476.64133996</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="2" t="n">
         <v>1132422.54476028</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="2" t="n">
         <v>2949159.87033643</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="2" t="n">
         <v>1079013.6897055</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="2" t="n">
         <v>546485.153119352</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="W15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="n">
         <v>-195720.160644237</v>
       </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="Y15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2" t="n">
         <v>-49574.2548854623</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>-46684.4823248724</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>-1357.34909774102</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>-10514.0852766771</v>
       </c>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15" t="n">
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2" t="n">
         <v>904909.7783</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>290797.065546576</v>
       </c>
+      <c r="AM15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -3492,31 +3531,32 @@
       <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -3525,59 +3565,60 @@
       <c r="O17" t="s">
         <v>54</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="2" t="n">
         <v>760647.056098648</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="2" t="n">
         <v>855782.817288609</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="2" t="n">
         <v>963110.963103804</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="2" t="n">
         <v>701315.825716976</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="2" t="n">
         <v>321884.228145117</v>
       </c>
-      <c r="U17"/>
-      <c r="V17" t="n">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="n">
         <v>879633.353134417</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="2" t="n">
         <v>7092.94533227105</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="2" t="n">
         <v>-11694.453653695</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="Y17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2" t="n">
         <v>-42817.3134157914</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>-19135.0120676911</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>-3237.45881138229</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>-1946.87557313036</v>
       </c>
-      <c r="AD17"/>
-      <c r="AE17" t="n">
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17" t="n">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AL17"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -3586,63 +3627,64 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="2" t="n">
         <v>4926648.52169506</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="2" t="n">
         <v>1595928.88990498</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="2" t="n">
         <v>62003589.9072731</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="2" t="n">
         <v>8134256.65501954</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="2" t="n">
         <v>2100246.43813778</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="2" t="n">
         <v>149634.810290411</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="2" t="n">
         <v>9828485.35424104</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
         <v>158380.081963167</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="2" t="n">
         <v>348094.298326518</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" s="2" t="n">
         <v>-4156.67129997752</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>-80299.6508452254</v>
       </c>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18" t="n">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG18"/>
-      <c r="AH18" t="n">
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AI18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>59840</v>
       </c>
-      <c r="AL18"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -3651,63 +3693,64 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="2" t="n">
         <v>42498030.5047248</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="2" t="n">
         <v>11504568.3244218</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="2" t="n">
         <v>61788575.1159025</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="2" t="n">
         <v>30602381.4639988</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="2" t="n">
         <v>3968132.21370764</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="2" t="n">
         <v>1771683.37211199</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" s="2" t="n">
         <v>40379184.4261766</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="2" t="n">
         <v>126614.490912884</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" s="2" t="n">
         <v>-269662.362208109</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="2" t="n">
         <v>-23267.9128500478</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="Z19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2" t="n">
         <v>-31507.5835231911</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD19"/>
-      <c r="AE19" t="n">
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2" t="n">
         <v>4261238.53149565</v>
       </c>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19"/>
-      <c r="AL19" t="n">
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2" t="n">
         <v>19318.3087763331</v>
       </c>
+      <c r="AM19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -3716,88 +3759,1177 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="2" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="2" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AB20"/>
-      <c r="AC20" t="n">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
-      <c r="AL20"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21"/>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21"/>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
-      <c r="AL21"/>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>706619</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>2956821.51</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>49117194</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>799505</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1724347</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>72817815.07</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>17949329.7799</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>607122.832</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>740014.064</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>-177796.4375</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1738.23</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1345852</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>314555.625</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>201634.95</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>271382.0206</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>783968.7195</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>743138.2439</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>1982656.0366</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>747418.1223</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>390867.2895</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>-146825.09</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>-37894.2093</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>-36404.48</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>-1077.86</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>-8501.94</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>304883.1617</v>
+      </c>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="n">
+        <v>7800</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>470776.0781</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>542500.9312</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>620175.2402</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>460229.8087</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>216395.7656</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="n">
+        <v>629147.75</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>5212.27</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>-8772.9297</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>-32729.2511</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>-14921.4499</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>-2570.84</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>-1574.29</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3" t="n">
+        <v>-2315.6101</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3" t="n">
+        <v>16169.9902</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>3049178</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1011697</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>39925920</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>5338005</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1411950</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>103650</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>7029712.3506</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>118813.3594</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>263786.5391</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>-3177.3301</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>-62617.5313</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="n">
+        <v>-245</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>376316</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>59840</v>
+      </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>26302680.0243</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>7293017.4607</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>39787465.7045</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>20082433.1214</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>2667688.9804</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1227221</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>28880752.3476</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>93043</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>-202294.9525</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>-17632.4698</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>-24569.5601</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>-2829.1001</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>-47572.2695</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3" t="n">
+        <v>3582106.8109</v>
+      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3" t="n">
+        <v>20254.0801</v>
+      </c>
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>-520917.0438</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>-7782.4696</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>-2322.43</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>-2312.08</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="n">
+        <v>-42074.6211</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>1114675.31904885</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>4591842.80124401</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>74846663.1579375</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>1189247.16068086</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>2489361.66155175</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>101809120.096108</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>24425752.0964446</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>809304.310386079</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>976526.995041935</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>-232598.227359032</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>2067.7810695267</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>1572929.39623693</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>10692.875949243</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>9537.98379435319</v>
+      </c>
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>325787.647798704</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>428098.933649431</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>1217476.64133996</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>1132422.54476028</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>2949159.87033643</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>1079013.6897055</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <v>546485.153119352</v>
+      </c>
+      <c r="V15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>-195720.160644237</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>-49574.2548854623</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>-46684.4823248724</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>-1357.34909774102</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>-10514.0852766771</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>290797.065546576</v>
+      </c>
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="n">
+        <v>12304.3216904457</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>760647.056098648</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>855782.817288609</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>963110.963103804</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>701315.825716976</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>321884.228145117</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="n">
+        <v>879633.353134417</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>7092.94533227105</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>-11694.453653695</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>-42817.3134157914</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>-19135.0120676911</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>-3237.45881138229</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>-1946.87557313036</v>
+      </c>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3" t="n">
+        <v>-2754.62667724342</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3" t="n">
+        <v>16169.9902</v>
+      </c>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>4926648.52169506</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>1595928.88990498</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>62003589.9072731</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>8134256.65501954</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>2100246.43813778</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>149634.810290411</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>9828485.35424104</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>158380.081963167</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>348094.298326518</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>-4156.67129997752</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>-80299.6508452254</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3" t="n">
+        <v>-286.337355131209</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>402390.030571531</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>59840</v>
+      </c>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>42498030.5047248</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>11504568.3244218</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>61788575.1159025</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>30602381.4639988</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>3968132.21370764</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>1771683.37211199</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <v>40379184.4261766</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <v>126614.490912884</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>-269662.362208109</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>-23267.9128500478</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>-31507.5835231911</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>-3562.68575525024</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>-58831.1489293108</v>
+      </c>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3" t="n">
+        <v>4261238.53149565</v>
+      </c>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3" t="n">
+        <v>19318.3087763331</v>
+      </c>
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>-841661.321104584</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>-12276.6678851941</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>-3038.26729467196</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>-2964.97183571063</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="n">
+        <v>-52032.3778136845</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -191,16 +193,30 @@
   </si>
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS
+INSTRUMENTS,
+MEDICAL LABORATORY
+USE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -236,11 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4935,4 +4953,698 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2"/>
+      <c r="N2" s="4" t="n">
+        <v>29503352.0086</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>9825233.9429</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>84074351.1742</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>75741000.174</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>7078195.7826</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>3802636.1223</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>109748294.8077</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>18047585.0499</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>368043.2192</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>986168.1333</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>-253919.658</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>-140825.1013</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>-6477.8001</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>-99723.1206</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>3581529.4308</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1345607</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>314555.625</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>386316</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>980919.7685</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>335137.2418</v>
+      </c>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="M7"/>
+      <c r="N7" s="4" t="n">
+        <v>47669452.4092127</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>15499081.938119</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>130564595.428863</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>115417039.647433</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>10528669.9110078</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>5489693.53365965</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>153442908.382779</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>24559459.5326898</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>490607.415843205</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1301353.38051841</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>-332184.734254936</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>-180591.700596691</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>-8157.49366437355</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>-123324.487592803</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>4260551.68588794</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1572643.0588818</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>413082.906520774</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>980919.7685</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>319653.358117263</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="n">
+        <v>980919.7685</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>325137.2418</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3"/>
+      <c r="N3" s="5" t="n">
+        <v>29503352.0086</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>9825233.9429</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>84074351.1742</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>75741000.174</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>7078195.7826</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>3802636.1223</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>109748294.8077</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>18047585.0499</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>368043.2192</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>986168.1333</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>-253919.658</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>-140825.1013</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>-6477.8001</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>-99723.1206</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>3581529.4308</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>1345607</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>314555.625</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>386316</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5" t="n">
+        <v>980919.7685</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>310115.37432291</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9" s="5" t="n">
+        <v>47669452.4092127</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>15499081.938119</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>130564595.428863</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>115417039.647433</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>10528669.9110078</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>5489693.53365965</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>153442908.382779</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>24559459.5326898</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>490607.415843205</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>1301353.38051841</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>-332184.734254936</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>-180591.700596691</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>-8157.49366437355</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>-123324.487592803</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>4260551.68588794</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>1572643.0588818</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>413082.906520774</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>9537.98379435319</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -13,12 +13,14 @@
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -205,18 +207,26 @@
 INSTRUMENTS,
 MEDICAL LABORATORY
 USE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -252,13 +262,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5114,6 +5126,46 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
     </row>
+    <row r="3">
+      <c r="M3" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="str">
+        <f>Sum(A2:A2)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="M5" t="str">
+        <f>Sum(B2:B2)</f>
+      </c>
+    </row>
     <row r="6">
       <c r="M6" t="s">
         <v>58</v>
@@ -5261,6 +5313,86 @@
       </c>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="str">
+        <f>Sum(A7:A7)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="M10" t="str">
+        <f>Sum(B7:B7)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="M11" t="str">
+        <f>Sum(C7:C7)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="M12" t="str">
+        <f>Sum(D7:D7)</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="M13" t="str">
+        <f>Sum(E7:E7)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="str">
+        <f>Sum(F7:F7)</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" t="str">
+        <f>Sum(G7:G7)</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="str">
+        <f>Sum(H7:H7)</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="str">
+        <f>Sum(I7:I7)</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" t="str">
+        <f>Sum(J7:J7)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5647,4 +5779,419 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2" s="6" t="n">
+        <v>47669452.4092127</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>15499081.938119</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>130564595.428863</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>115417039.647433</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>10528669.9110078</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>5489693.53365965</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>153442908.382779</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>24559459.5326898</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>490607.415843205</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>1301353.38051841</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>-332184.734254936</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>-180591.700596691</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>-8157.49366437355</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>-123324.487592803</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>4260551.68588794</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>1572643.0588818</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>413082.906520774</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>980919.7685</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>319653.358117263</v>
+      </c>
+      <c r="AL2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" s="7" t="n">
+        <v>47669452.4092127</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>15499081.938119</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>130564595.428863</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>115417039.647433</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>10528669.9110078</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>5489693.53365965</v>
+      </c>
+      <c r="W2" s="7" t="n">
+        <v>153442908.382779</v>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>24559459.5326898</v>
+      </c>
+      <c r="Y2" s="7" t="n">
+        <v>490607.415843205</v>
+      </c>
+      <c r="Z2" s="7" t="n">
+        <v>1301353.38051841</v>
+      </c>
+      <c r="AA2" s="7" t="n">
+        <v>-332184.734254936</v>
+      </c>
+      <c r="AB2" s="7" t="n">
+        <v>-180591.700596691</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>-8157.49366437355</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>-123324.487592803</v>
+      </c>
+      <c r="AE2" s="7" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AF2" s="7" t="n">
+        <v>4260551.68588794</v>
+      </c>
+      <c r="AG2" s="7" t="n">
+        <v>1572643.0588818</v>
+      </c>
+      <c r="AH2" s="7" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AI2" s="7" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AK2" s="7" t="n">
+        <v>413082.906520774</v>
+      </c>
+      <c r="AL2" s="7" t="n">
+        <v>980919.7685</v>
+      </c>
+      <c r="AM2" s="7" t="n">
+        <v>319653.358117263</v>
+      </c>
+      <c r="AN2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="P3" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="P4" t="str">
+        <f>Sum(A2:A2)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="P5" t="str">
+        <f>Sum(B2:B2)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="P6" t="str">
+        <f>Sum(C2:C2)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="P7" t="str">
+        <f>Sum(D2:D2)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="P8" t="str">
+        <f>Sum(E2:E2)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="P9" t="str">
+        <f>Sum(F2:F2)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="P10" t="str">
+        <f>Sum(G2:G2)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="P11" t="str">
+        <f>Sum(H2:H2)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="P12" t="str">
+        <f>Sum(I2:I2)</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="P13" t="str">
+        <f>Sum(J2:J2)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -214,19 +214,26 @@
   <si>
     <t xml:space="preserve">ProjectID</t>
   </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -262,15 +269,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4979,6 +4988,9 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
       <c r="M1" t="s">
         <v>58</v>
       </c>
@@ -5053,108 +5065,160 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
       <c r="M2"/>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="5" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="5" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="5" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="5" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>30000</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>465885</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>386316</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="5" t="n">
         <v>335137.2418</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
-      <c r="M3" t="str">
-        <f>Grand Total</f>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f>Sum(N2:N2)</f>
+      </c>
+      <c r="O3" s="5" t="str">
+        <f>Sum(O2:O2)</f>
+      </c>
+      <c r="P3" s="5" t="str">
+        <f>Sum(P2:P2)</f>
+      </c>
+      <c r="Q3" s="5" t="str">
+        <f>Sum(Q2:Q2)</f>
+      </c>
+      <c r="R3" s="5" t="str">
+        <f>Sum(R2:R2)</f>
+      </c>
+      <c r="S3" s="5" t="str">
+        <f>Sum(S2:S2)</f>
+      </c>
+      <c r="T3" s="5" t="str">
+        <f>Sum(T2:T2)</f>
+      </c>
+      <c r="U3" s="5" t="str">
+        <f>Sum(U2:U2)</f>
+      </c>
+      <c r="V3" s="5" t="str">
+        <f>Sum(V2:V2)</f>
+      </c>
+      <c r="W3" s="5" t="str">
+        <f>Sum(W2:W2)</f>
+      </c>
+      <c r="X3" s="5" t="str">
+        <f>Sum(X2:X2)</f>
+      </c>
+      <c r="Y3" s="5" t="str">
+        <f>Sum(Y2:Y2)</f>
+      </c>
+      <c r="Z3" s="5" t="str">
+        <f>Sum(Z2:Z2)</f>
+      </c>
+      <c r="AA3" s="5" t="str">
+        <f>Sum(AA2:AA2)</f>
+      </c>
+      <c r="AB3" s="5" t="str">
+        <f>Sum(AB2:AB2)</f>
+      </c>
+      <c r="AC3" s="5" t="str">
+        <f>Sum(AC2:AC2)</f>
+      </c>
+      <c r="AD3" s="5" t="str">
+        <f>Sum(AD2:AD2)</f>
+      </c>
+      <c r="AE3" s="5" t="str">
+        <f>Sum(AE2:AE2)</f>
+      </c>
+      <c r="AF3" s="5" t="str">
+        <f>Sum(AF2:AF2)</f>
+      </c>
+      <c r="AG3" s="5" t="str">
+        <f>Sum(AG2:AG2)</f>
+      </c>
+      <c r="AH3" s="5" t="str">
+        <f>Sum(AH2:AH2)</f>
+      </c>
+      <c r="AI3" s="5" t="str">
+        <f>Sum(AI2:AI2)</f>
+      </c>
+      <c r="AJ3" s="5" t="str">
+        <f>Sum(AJ2:AJ2)</f>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="M4" t="str">
@@ -5167,6 +5231,36 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>AB6</f>
+      </c>
+      <c r="C6" t="str">
+        <f>AH6</f>
+      </c>
+      <c r="D6" t="str">
+        <f>AI6</f>
+      </c>
+      <c r="E6" t="str">
+        <f>AJ6</f>
+      </c>
+      <c r="F6" t="str">
+        <f>AH6&amp;"-"&amp;AI6</f>
+      </c>
+      <c r="G6" t="str">
+        <f>AB6&amp;"-"&amp;AI6</f>
+      </c>
+      <c r="H6" t="str">
+        <f>AJ6&amp;"/"&amp;AI6</f>
+      </c>
+      <c r="I6" t="str">
+        <f>"Share "&amp;AI6</f>
+      </c>
+      <c r="J6" t="str">
+        <f>"Share "&amp;AJ6</f>
+      </c>
       <c r="M6" t="s">
         <v>58</v>
       </c>
@@ -5241,108 +5335,214 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>AB7</f>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>AH7</f>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>AI7</f>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f>AJ7</f>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>AI7/AH7-1</f>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>AI7/AB7-1</f>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>AJ7/AI7</f>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>AI7/Sum(AI$6:AI$7)</f>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>AJ7/Sum(AJ6:AJ$7)</f>
+      </c>
       <c r="M7"/>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="5" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="5" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="5" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="5" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="5" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="5" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="5" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="5" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="5" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="5" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="5" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="5" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="5" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="5" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="5" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="5" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="5" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="5" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="5" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="5" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
-      <c r="M8" t="str">
-        <f>Grand Total</f>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>AB8</f>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>AH8</f>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>AI8</f>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f>AJ8</f>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>AI8/AH8-1</f>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>AI8/AB8-1</f>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>AJ8/AI8</f>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>Sum(I$6:I$7)</f>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>Sum(J$6:J$7)</f>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f>Sum(N7:N7)</f>
+      </c>
+      <c r="O8" s="5" t="str">
+        <f>Sum(O7:O7)</f>
+      </c>
+      <c r="P8" s="5" t="str">
+        <f>Sum(P7:P7)</f>
+      </c>
+      <c r="Q8" s="5" t="str">
+        <f>Sum(Q7:Q7)</f>
+      </c>
+      <c r="R8" s="5" t="str">
+        <f>Sum(R7:R7)</f>
+      </c>
+      <c r="S8" s="5" t="str">
+        <f>Sum(S7:S7)</f>
+      </c>
+      <c r="T8" s="5" t="str">
+        <f>Sum(T7:T7)</f>
+      </c>
+      <c r="U8" s="5" t="str">
+        <f>Sum(U7:U7)</f>
+      </c>
+      <c r="V8" s="5" t="str">
+        <f>Sum(V7:V7)</f>
+      </c>
+      <c r="W8" s="5" t="str">
+        <f>Sum(W7:W7)</f>
+      </c>
+      <c r="X8" s="5" t="str">
+        <f>Sum(X7:X7)</f>
+      </c>
+      <c r="Y8" s="5" t="str">
+        <f>Sum(Y7:Y7)</f>
+      </c>
+      <c r="Z8" s="5" t="str">
+        <f>Sum(Z7:Z7)</f>
+      </c>
+      <c r="AA8" s="5" t="str">
+        <f>Sum(AA7:AA7)</f>
+      </c>
+      <c r="AB8" s="5" t="str">
+        <f>Sum(AB7:AB7)</f>
+      </c>
+      <c r="AC8" s="5" t="str">
+        <f>Sum(AC7:AC7)</f>
+      </c>
+      <c r="AD8" s="5" t="str">
+        <f>Sum(AD7:AD7)</f>
+      </c>
+      <c r="AE8" s="5" t="str">
+        <f>Sum(AE7:AE7)</f>
+      </c>
+      <c r="AF8" s="5" t="str">
+        <f>Sum(AF7:AF7)</f>
+      </c>
+      <c r="AG8" s="5" t="str">
+        <f>Sum(AG7:AG7)</f>
+      </c>
+      <c r="AH8" s="5" t="str">
+        <f>Sum(AH7:AH7)</f>
+      </c>
+      <c r="AI8" s="5" t="str">
+        <f>Sum(AI7:AI7)</f>
+      </c>
+      <c r="AJ8" s="5" t="str">
+        <f>Sum(AJ7:AJ7)</f>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="M9" t="str">
@@ -5412,6 +5612,9 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
       <c r="M1" t="s">
         <v>59</v>
       </c>
@@ -5486,114 +5689,229 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
       <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5" t="n">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="5" t="n">
+      <c r="AJ2" s="6" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
       <c r="M3"/>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="6" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="6" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="6" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="6" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="6" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="6" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="6" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AB3" s="6" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AC3" s="6" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="5" t="n">
+      <c r="AD3" s="6" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AE3" s="6" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF3" s="5" t="n">
+      <c r="AF3" s="6" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="5" t="n">
+      <c r="AG3" s="6" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH3" s="5" t="n">
+      <c r="AH3" s="6" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="5" t="n">
+      <c r="AI3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="6" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="6" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="6" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="6" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="6" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="6" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="6" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="6" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="6" t="str">
+        <f>Sum(W2:W3)</f>
+      </c>
+      <c r="X4" s="6" t="str">
+        <f>Sum(X2:X3)</f>
+      </c>
+      <c r="Y4" s="6" t="str">
+        <f>Sum(Y2:Y3)</f>
+      </c>
+      <c r="Z4" s="6" t="str">
+        <f>Sum(Z2:Z3)</f>
+      </c>
+      <c r="AA4" s="6" t="str">
+        <f>Sum(AA2:AA3)</f>
+      </c>
+      <c r="AB4" s="6" t="str">
+        <f>Sum(AB2:AB3)</f>
+      </c>
+      <c r="AC4" s="6" t="str">
+        <f>Sum(AC2:AC3)</f>
+      </c>
+      <c r="AD4" s="6" t="str">
+        <f>Sum(AD2:AD3)</f>
+      </c>
+      <c r="AE4" s="6" t="str">
+        <f>Sum(AE2:AE3)</f>
+      </c>
+      <c r="AF4" s="6" t="str">
+        <f>Sum(AF2:AF3)</f>
+      </c>
+      <c r="AG4" s="6" t="str">
+        <f>Sum(AG2:AG3)</f>
+      </c>
+      <c r="AH4" s="6" t="str">
+        <f>Sum(AH2:AH3)</f>
+      </c>
+      <c r="AI4" s="6" t="str">
+        <f>Sum(AI2:AI3)</f>
+      </c>
+      <c r="AJ4" s="6" t="str">
+        <f>Sum(AJ2:AJ3)</f>
+      </c>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>AB7</f>
+      </c>
+      <c r="C7" t="str">
+        <f>AH7</f>
+      </c>
+      <c r="D7" t="str">
+        <f>AI7</f>
+      </c>
+      <c r="E7" t="str">
+        <f>AJ7</f>
+      </c>
+      <c r="F7" t="str">
+        <f>AH7&amp;"-"&amp;AI7</f>
+      </c>
+      <c r="G7" t="str">
+        <f>AB7&amp;"-"&amp;AI7</f>
+      </c>
+      <c r="H7" t="str">
+        <f>AJ7&amp;"/"&amp;AI7</f>
+      </c>
+      <c r="I7" t="str">
+        <f>"Share "&amp;AI7</f>
+      </c>
+      <c r="J7" t="str">
+        <f>"Share "&amp;AJ7</f>
+      </c>
       <c r="M7" t="s">
         <v>59</v>
       </c>
@@ -5668,112 +5986,278 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>AB8</f>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>AH8</f>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>AI8</f>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>AJ8</f>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>AI8/AH8-1</f>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>AI8/AB8-1</f>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>AJ8/AI8</f>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>AI8/Sum(AI$7:AI$9)</f>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>AJ8/Sum(AJ7:AJ$9)</f>
+      </c>
       <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5" t="n">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ8" s="5" t="n">
+      <c r="AJ8" s="6" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>AB9</f>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>AH9</f>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>AI9</f>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>AJ9</f>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>AI9/AH9-1</f>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>AI9/AB9-1</f>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>AJ9/AI9</f>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>AI9/Sum(AI$7:AI$9)</f>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>AJ9/Sum(AJ7:AJ$9)</f>
+      </c>
       <c r="M9"/>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="6" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="6" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="6" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="6" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="6" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="6" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="6" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="6" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="6" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="5" t="n">
+      <c r="Z9" s="6" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="5" t="n">
+      <c r="AA9" s="6" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="5" t="n">
+      <c r="AB9" s="6" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="5" t="n">
+      <c r="AC9" s="6" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="5" t="n">
+      <c r="AD9" s="6" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="5" t="n">
+      <c r="AE9" s="6" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF9" s="5" t="n">
+      <c r="AF9" s="6" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="5" t="n">
+      <c r="AG9" s="6" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH9" s="5" t="n">
+      <c r="AH9" s="6" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
+      <c r="AI9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>AB10</f>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>AH10</f>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>AI10</f>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>AJ10</f>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>AI10/AH10-1</f>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>AI10/AB10-1</f>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>AJ10/AI10</f>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>Sum(I$7:I$9)</f>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>Sum(J$7:J$9)</f>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>Sum(N8:N9)</f>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f>Sum(O8:O9)</f>
+      </c>
+      <c r="P10" s="6" t="str">
+        <f>Sum(P8:P9)</f>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f>Sum(Q8:Q9)</f>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f>Sum(R8:R9)</f>
+      </c>
+      <c r="S10" s="6" t="str">
+        <f>Sum(S8:S9)</f>
+      </c>
+      <c r="T10" s="6" t="str">
+        <f>Sum(T8:T9)</f>
+      </c>
+      <c r="U10" s="6" t="str">
+        <f>Sum(U8:U9)</f>
+      </c>
+      <c r="V10" s="6" t="str">
+        <f>Sum(V8:V9)</f>
+      </c>
+      <c r="W10" s="6" t="str">
+        <f>Sum(W8:W9)</f>
+      </c>
+      <c r="X10" s="6" t="str">
+        <f>Sum(X8:X9)</f>
+      </c>
+      <c r="Y10" s="6" t="str">
+        <f>Sum(Y8:Y9)</f>
+      </c>
+      <c r="Z10" s="6" t="str">
+        <f>Sum(Z8:Z9)</f>
+      </c>
+      <c r="AA10" s="6" t="str">
+        <f>Sum(AA8:AA9)</f>
+      </c>
+      <c r="AB10" s="6" t="str">
+        <f>Sum(AB8:AB9)</f>
+      </c>
+      <c r="AC10" s="6" t="str">
+        <f>Sum(AC8:AC9)</f>
+      </c>
+      <c r="AD10" s="6" t="str">
+        <f>Sum(AD8:AD9)</f>
+      </c>
+      <c r="AE10" s="6" t="str">
+        <f>Sum(AE8:AE9)</f>
+      </c>
+      <c r="AF10" s="6" t="str">
+        <f>Sum(AF8:AF9)</f>
+      </c>
+      <c r="AG10" s="6" t="str">
+        <f>Sum(AG8:AG9)</f>
+      </c>
+      <c r="AH10" s="6" t="str">
+        <f>Sum(AH8:AH9)</f>
+      </c>
+      <c r="AI10" s="6" t="str">
+        <f>Sum(AI8:AI9)</f>
+      </c>
+      <c r="AJ10" s="6" t="str">
+        <f>Sum(AJ8:AJ9)</f>
+      </c>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5872,76 +6356,76 @@
     <row r="2">
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="7" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="7" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="7" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="7" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="7" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="7" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="7" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="7" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="Y2" s="6" t="n">
+      <c r="Y2" s="7" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Z2" s="6" t="n">
+      <c r="Z2" s="7" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AA2" s="6" t="n">
+      <c r="AA2" s="7" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB2" s="6" t="n">
+      <c r="AB2" s="7" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC2" s="6" t="n">
+      <c r="AC2" s="7" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD2" s="6" t="n">
+      <c r="AD2" s="7" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AE2" s="6" t="n">
+      <c r="AE2" s="7" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AF2" s="6" t="n">
+      <c r="AF2" s="7" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG2" s="6" t="n">
+      <c r="AG2" s="7" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH2" s="6" t="n">
+      <c r="AH2" s="7" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI2" s="6" t="n">
+      <c r="AI2" s="7" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AJ2" s="6" t="n">
+      <c r="AJ2" s="7" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AK2" s="6" t="n">
+      <c r="AK2" s="7" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AL2" s="6"/>
+      <c r="AL2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5961,6 +6445,39 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>P1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AE1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AK1</f>
+      </c>
+      <c r="E1" t="str">
+        <f>AL1</f>
+      </c>
+      <c r="F1" t="str">
+        <f>AM1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>AK1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="H1" t="str">
+        <f>AE1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="I1" t="str">
+        <f>AM1&amp;"/"&amp;AL1</f>
+      </c>
+      <c r="J1" t="str">
+        <f>"Share "&amp;AL1</f>
+      </c>
+      <c r="K1" t="str">
+        <f>"Share "&amp;AM1</f>
+      </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
@@ -6038,107 +6555,220 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>P2</f>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>AE2</f>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>AK2</f>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f>AL2</f>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>AM2</f>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>AL2/AK2-1</f>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>AL2/AE2-1</f>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>AM2/AL2</f>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>AL2/Sum(AL$1:AL$2)</f>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>AM2/Sum(AM1:AM$2)</f>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="9" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="9" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="9" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="T2" s="7" t="n">
+      <c r="T2" s="9" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="9" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="V2" s="9" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="W2" s="9" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="X2" s="7" t="n">
+      <c r="X2" s="9" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Y2" s="9" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="Z2" s="7" t="n">
+      <c r="Z2" s="9" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="AA2" s="7" t="n">
+      <c r="AA2" s="9" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="AB2" s="7" t="n">
+      <c r="AB2" s="9" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AC2" s="9" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AD2" s="9" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AE2" s="7" t="n">
+      <c r="AE2" s="9" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AF2" s="7" t="n">
+      <c r="AF2" s="9" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AG2" s="7" t="n">
+      <c r="AG2" s="9" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AH2" s="7" t="n">
+      <c r="AH2" s="9" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AI2" s="7" t="n">
+      <c r="AI2" s="9" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AJ2" s="9" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AK2" s="7" t="n">
+      <c r="AK2" s="9" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AL2" s="7" t="n">
+      <c r="AL2" s="9" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AM2" s="7" t="n">
+      <c r="AM2" s="9" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AN2" s="7"/>
+      <c r="AN2" s="9"/>
     </row>
     <row r="3">
-      <c r="P3" t="str">
-        <f>Grand Total</f>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
+      <c r="A3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>P3</f>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>AE3</f>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>AK3</f>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>AL3</f>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f>AM3</f>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>AL3/AK3-1</f>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>AL3/AE3-1</f>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>AM3/AL3</f>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>Sum(J$1:J$2)</f>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f>Sum(K$1:K$2)</f>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="9" t="str">
+        <f>Sum(Q2:Q2)</f>
+      </c>
+      <c r="R3" s="9" t="str">
+        <f>Sum(R2:R2)</f>
+      </c>
+      <c r="S3" s="9" t="str">
+        <f>Sum(S2:S2)</f>
+      </c>
+      <c r="T3" s="9" t="str">
+        <f>Sum(T2:T2)</f>
+      </c>
+      <c r="U3" s="9" t="str">
+        <f>Sum(U2:U2)</f>
+      </c>
+      <c r="V3" s="9" t="str">
+        <f>Sum(V2:V2)</f>
+      </c>
+      <c r="W3" s="9" t="str">
+        <f>Sum(W2:W2)</f>
+      </c>
+      <c r="X3" s="9" t="str">
+        <f>Sum(X2:X2)</f>
+      </c>
+      <c r="Y3" s="9" t="str">
+        <f>Sum(Y2:Y2)</f>
+      </c>
+      <c r="Z3" s="9" t="str">
+        <f>Sum(Z2:Z2)</f>
+      </c>
+      <c r="AA3" s="9" t="str">
+        <f>Sum(AA2:AA2)</f>
+      </c>
+      <c r="AB3" s="9" t="str">
+        <f>Sum(AB2:AB2)</f>
+      </c>
+      <c r="AC3" s="9" t="str">
+        <f>Sum(AC2:AC2)</f>
+      </c>
+      <c r="AD3" s="9" t="str">
+        <f>Sum(AD2:AD2)</f>
+      </c>
+      <c r="AE3" s="9" t="str">
+        <f>Sum(AE2:AE2)</f>
+      </c>
+      <c r="AF3" s="9" t="str">
+        <f>Sum(AF2:AF2)</f>
+      </c>
+      <c r="AG3" s="9" t="str">
+        <f>Sum(AG2:AG2)</f>
+      </c>
+      <c r="AH3" s="9" t="str">
+        <f>Sum(AH2:AH2)</f>
+      </c>
+      <c r="AI3" s="9" t="str">
+        <f>Sum(AI2:AI2)</f>
+      </c>
+      <c r="AJ3" s="9" t="str">
+        <f>Sum(AJ2:AJ2)</f>
+      </c>
+      <c r="AK3" s="9" t="str">
+        <f>Sum(AK2:AK2)</f>
+      </c>
+      <c r="AL3" s="9" t="str">
+        <f>Sum(AL2:AL2)</f>
+      </c>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
     </row>
     <row r="4">
       <c r="P4" t="str">

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -225,15 +225,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="9">
+    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -269,17 +270,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,11 +571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -648,112 +656,204 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2" t="n">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>325137.2418</v>
       </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
       <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="1" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="1" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="1" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="1" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="1" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="1" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="1" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="1" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="1" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="1" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="1" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="1" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AI3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
         <v>10000</v>
       </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f>Sum(W2:W3)</f>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f>Sum(X2:X3)</f>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f>Sum(Y2:Y3)</f>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f>Sum(Z2:Z3)</f>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <f>Sum(AA2:AA3)</f>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f>Sum(AB2:AB3)</f>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f>Sum(AC2:AC3)</f>
+      </c>
+      <c r="AD4" s="1" t="str">
+        <f>Sum(AD2:AD3)</f>
+      </c>
+      <c r="AE4" s="1" t="str">
+        <f>Sum(AE2:AE3)</f>
+      </c>
+      <c r="AF4" s="1" t="str">
+        <f>Sum(AF2:AF3)</f>
+      </c>
+      <c r="AG4" s="1" t="str">
+        <f>Sum(AG2:AG3)</f>
+      </c>
+      <c r="AH4" s="1" t="str">
+        <f>Sum(AH2:AH3)</f>
+      </c>
+      <c r="AI4" s="1" t="str">
+        <f>Sum(AI2:AI3)</f>
+      </c>
+      <c r="AJ4" s="1" t="str">
+        <f>Sum(AJ2:AJ3)</f>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
       <c r="M7" t="s">
         <v>0</v>
       </c>
@@ -828,110 +928,150 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
       <c r="M8" t="s">
         <v>24</v>
       </c>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8" t="n">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>310115.37432291</v>
       </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
       <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="1" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="1" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
         <v>9537.98379435319</v>
       </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1725,6 +1865,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="M1" t="s">
         <v>33</v>
       </c>
@@ -1805,6 +1951,12 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
@@ -1814,76 +1966,82 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="10" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="10" t="n">
         <v>2859616.9693</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="10" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="10" t="n">
         <v>6905530.6119</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="10" t="n">
         <v>2964059.6022</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="10" t="n">
         <v>2483962.762</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="10" t="n">
         <v>20853329.1778</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="10" t="n">
         <v>18042618.5187</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="10" t="n">
         <v>748090.0618</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="10" t="n">
         <v>673627.1341</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="10" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AA2" s="10" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AB2" s="10" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AC2" s="10" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="n">
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AF2" s="10" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" s="1" t="n">
+      <c r="AG2" s="10" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AH2" s="10" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AI2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="10" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="10" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="10" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AM2" s="1"/>
+      <c r="AM2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="M3" t="s">
         <v>37</v>
       </c>
@@ -1893,36 +2051,42 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="n">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1" t="n">
+      <c r="U3" s="10"/>
+      <c r="V3" s="10" t="n">
         <v>35030</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="M4" t="s">
         <v>37</v>
       </c>
@@ -1932,62 +2096,68 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="10" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="10" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="10" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="10" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="10" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="10" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="10" t="n">
         <v>67611390</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="10" t="n">
         <v>-37033.4688</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="10" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="n">
+      <c r="Y4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="10" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AB4" s="10" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AC4" s="10" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="n">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="M5" t="s">
         <v>40</v>
       </c>
@@ -1997,34 +2167,40 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="P5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="M6" t="s">
         <v>41</v>
       </c>
@@ -2034,60 +2210,66 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="10" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="10" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="10" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="10" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="10" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="10" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="V6" s="10" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="n">
+      <c r="W6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10" t="n">
         <v>-151143.5508</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Y6" s="10" t="n">
         <v>14525.3794</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="Z6" s="10" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="M7" t="s">
         <v>43</v>
       </c>
@@ -2097,46 +2279,52 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="P7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="10" t="n">
         <v>523464.7188</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="10" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1" t="n">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="M8" t="s">
         <v>45</v>
       </c>
@@ -2146,48 +2334,54 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="10" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="10" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="10" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="10" t="n">
         <v>37618</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="n">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="V8" s="10" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="W8" s="10" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="X8" s="10" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="M9" t="s">
         <v>45</v>
       </c>
@@ -2195,72 +2389,160 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="10" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="10" t="n">
         <v>2233679.1083</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="10" t="n">
         <v>11165.0754</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="10" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="10" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="10" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="10" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="n">
+      <c r="W9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Y9" s="10" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="Z9" s="10" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AA9" s="10" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1" t="n">
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AE9" s="10" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AF9" s="10" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" s="1" t="n">
+      <c r="AG9" s="10" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AH9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="10" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1" t="n">
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="1"/>
+      <c r="AM9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="10" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="10" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="10" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="10" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="10" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="10" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="10" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="10" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="10" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="10" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="10" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="10" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="10" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="10" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="10" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="10" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="10" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="10" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="10" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="10" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="10" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="10" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="M13" t="s">
         <v>33</v>
       </c>
@@ -2341,6 +2623,12 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="M14" t="s">
         <v>35</v>
       </c>
@@ -2350,76 +2638,82 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="10" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="10" t="n">
         <v>4510980.397657</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="R14" s="10" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="S14" s="10" t="n">
         <v>10522912.2745836</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="T14" s="10" t="n">
         <v>4408977.38726487</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="10" t="n">
         <v>3585984.53121384</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="V14" s="10" t="n">
         <v>29155764.8718985</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="W14" s="10" t="n">
         <v>24552700.9928803</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="X14" s="10" t="n">
         <v>997215.850995582</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Y14" s="10" t="n">
         <v>888922.404373904</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="Z14" s="10" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AA14" s="10" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AB14" s="10" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AC14" s="10" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1" t="n">
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" s="1" t="n">
+      <c r="AF14" s="10" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" s="1" t="n">
+      <c r="AG14" s="10" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AH14" s="1" t="n">
+      <c r="AH14" s="10" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="AI14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="10" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="AK14" s="10" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL14" s="1" t="n">
+      <c r="AL14" s="10" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AM14" s="1"/>
+      <c r="AM14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
@@ -2429,36 +2723,42 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1" t="n">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
+      <c r="U15" s="10"/>
+      <c r="V15" s="10" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="M16" t="s">
         <v>37</v>
       </c>
@@ -2468,62 +2768,68 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="10" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="10" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="R16" s="10" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="S16" s="10" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="T16" s="10" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="U16" s="10" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="V16" s="10" t="n">
         <v>94529836.108893</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="W16" s="10" t="n">
         <v>-50395.7718350672</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="X16" s="10" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="n">
+      <c r="Y16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AA16" s="10" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AB16" s="10" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" s="1" t="n">
+      <c r="AC16" s="10" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1" t="n">
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="M17" t="s">
         <v>40</v>
       </c>
@@ -2533,34 +2839,40 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
+      <c r="P17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="M18" t="s">
         <v>41</v>
       </c>
@@ -2570,60 +2882,66 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P18" s="10" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="Q18" s="10" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="R18" s="10" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="S18" s="10" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="T18" s="10" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="U18" s="10" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="V18" s="10" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1" t="n">
+      <c r="W18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10" t="n">
         <v>-201476.736999898</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="Y18" s="10" t="n">
         <v>19167.777732027</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="Z18" s="10" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="M19" t="s">
         <v>43</v>
       </c>
@@ -2633,46 +2951,52 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="n">
+      <c r="P19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="R19" s="10" t="n">
         <v>812922.826960562</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="S19" s="10" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="n">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="M20" t="s">
         <v>45</v>
       </c>
@@ -2682,48 +3006,54 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="P20" s="10" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="Q20" s="10" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" s="1" t="n">
+      <c r="R20" s="10" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="S20" s="10" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="n">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="V20" s="10" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="W20" s="10" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="X20" s="10" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="M21" t="s">
         <v>45</v>
       </c>
@@ -2731,70 +3061,102 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="1" t="n">
+      <c r="P21" s="10" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="Q21" s="10" t="n">
         <v>3523577.73099373</v>
       </c>
-      <c r="R21" s="1" t="n">
+      <c r="R21" s="10" t="n">
         <v>17338.9807018945</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="S21" s="10" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="T21" s="10" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="U21" s="10" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="V21" s="10" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1" t="n">
+      <c r="W21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="Y21" s="10" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" s="1" t="n">
+      <c r="Z21" s="10" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AA21" s="10" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1" t="n">
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" s="1" t="n">
+      <c r="AE21" s="10" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" s="1" t="n">
+      <c r="AF21" s="10" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" s="1" t="n">
+      <c r="AG21" s="10" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1" t="n">
+      <c r="AH21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="10" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AJ21" s="1" t="n">
+      <c r="AJ21" s="10" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1" t="n">
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AM21" s="1"/>
+      <c r="AM21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2897,72 +3259,72 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>706619</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>49117194</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>799505</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>1724347</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>72817815.07</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>17949329.7799</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>607122.832</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>740014.064</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AM2" s="2"/>
+      <c r="AM2" s="3"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -2971,1162 +3333,74 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>201634.95</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>271382.0206</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>783968.7195</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="3" t="n">
         <v>743138.2439</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>1982656.0366</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>747418.1223</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>390867.2895</v>
       </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="n">
+      <c r="W3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
+      <c r="Y3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AA3" s="3" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="3" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="3" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>304883.1617</v>
-      </c>
-      <c r="AM3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="n">
-        <v>7800</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>470776.0781</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>542500.9312</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>620175.2402</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>460229.8087</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>216395.7656</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="n">
-        <v>629147.75</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>5212.27</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>-8772.9297</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>-32729.2511</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>-14921.4499</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>-2570.84</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>-1574.29</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2" t="n">
-        <v>-2315.6101</v>
-      </c>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2" t="n">
-        <v>16169.9902</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>3049178</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>1011697</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>39925920</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>5338005</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>1411950</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>103650</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>7029712.3506</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>118813.3594</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>263786.5391</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>-3177.3301</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>-62617.5313</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2" t="n">
-        <v>-245</v>
-      </c>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2" t="n">
-        <v>465885</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>376316</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>59840</v>
-      </c>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>26302680.0243</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>7293017.4607</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>39787465.7045</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>20082433.1214</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>2667688.9804</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>1227221</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>28880752.3476</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>93043</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>-202294.9525</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>-17632.4698</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>-24569.5601</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>-2829.1001</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>-47572.2695</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2" t="n">
-        <v>3582106.8109</v>
-      </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2" t="n">
-        <v>20254.0801</v>
-      </c>
-      <c r="AM7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>-520917.0438</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>-7782.4696</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="n">
-        <v>-2322.43</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>-2312.08</v>
-      </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2" t="n">
-        <v>-42074.6211</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-    </row>
-    <row r="13">
-      <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="N14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>1114675.31904885</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>4591842.80124401</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>74846663.1579375</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>1189247.16068086</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>2489361.66155175</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>101809120.096108</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>24425752.0964446</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>809304.310386079</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>976526.995041935</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>-232598.227359032</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2" t="n">
-        <v>35983.4270122674</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>2067.7810695267</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>1572929.39623693</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>-242993.47650284</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>10692.875949243</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>9537.98379435319</v>
-      </c>
-      <c r="AM14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>325787.647798704</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>428098.933649431</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>1217476.64133996</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>1132422.54476028</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>2949159.87033643</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>1079013.6897055</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>546485.153119352</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>-195720.160644237</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>-49574.2548854623</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>-46684.4823248724</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>-1357.34909774102</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>-10514.0852766771</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>290797.065546576</v>
-      </c>
-      <c r="AM15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="n">
-        <v>12304.3216904457</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>760647.056098648</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>855782.817288609</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>963110.963103804</v>
-      </c>
-      <c r="S17" s="2" t="n">
-        <v>701315.825716976</v>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>321884.228145117</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2" t="n">
-        <v>879633.353134417</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>7092.94533227105</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>-11694.453653695</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2" t="n">
-        <v>-42817.3134157914</v>
-      </c>
-      <c r="AA17" s="2" t="n">
-        <v>-19135.0120676911</v>
-      </c>
-      <c r="AB17" s="2" t="n">
-        <v>-3237.45881138229</v>
-      </c>
-      <c r="AC17" s="2" t="n">
-        <v>-1946.87557313036</v>
-      </c>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2" t="n">
-        <v>-2754.62667724342</v>
-      </c>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2" t="n">
-        <v>16169.9902</v>
-      </c>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>4926648.52169506</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>1595928.88990498</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>62003589.9072731</v>
-      </c>
-      <c r="S18" s="2" t="n">
-        <v>8134256.65501954</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>2100246.43813778</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>149634.810290411</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>9828485.35424104</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>158380.081963167</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>348094.298326518</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>-4156.67129997752</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>-80299.6508452254</v>
-      </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2" t="n">
-        <v>-286.337355131209</v>
-      </c>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2" t="n">
-        <v>521779.598543694</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2" t="n">
-        <v>402390.030571531</v>
-      </c>
-      <c r="AK18" s="2" t="n">
-        <v>59840</v>
-      </c>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="N19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>42498030.5047248</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>11504568.3244218</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>61788575.1159025</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>30602381.4639988</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>3968132.21370764</v>
-      </c>
-      <c r="U19" s="2" t="n">
-        <v>1771683.37211199</v>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>40379184.4261766</v>
-      </c>
-      <c r="W19" s="2" t="n">
-        <v>126614.490912884</v>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>-269662.362208109</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>-23267.9128500478</v>
-      </c>
-      <c r="Z19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2" t="n">
-        <v>-31507.5835231911</v>
-      </c>
-      <c r="AB19" s="2" t="n">
-        <v>-3562.68575525024</v>
-      </c>
-      <c r="AC19" s="2" t="n">
-        <v>-58831.1489293108</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2" t="n">
-        <v>4261238.53149565</v>
-      </c>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2" t="n">
-        <v>19318.3087763331</v>
-      </c>
-      <c r="AM19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="N20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>-841661.321104584</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>-12276.6678851941</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="n">
-        <v>-3038.26729467196</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>-2964.97183571063</v>
-      </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2" t="n">
-        <v>-52032.3778136845</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>706619</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>2956821.51</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>49117194</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>799505</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1724347</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>72817815.07</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>17949329.7799</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>607122.832</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>740014.064</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>-177796.4375</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1738.23</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>-212795.3672</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AL2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>201634.95</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>271382.0206</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>783968.7195</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>743138.2439</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1982656.0366</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>747418.1223</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>390867.2895</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>-146825.09</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>-37894.2093</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>-36404.48</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>-1077.86</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>-8501.94</v>
-      </c>
-      <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3" t="n">
         <v>904909.7783</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AL3" s="3" t="n">
         <v>304883.1617</v>
       </c>
-      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
     </row>
     <row r="4">
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="n">
         <v>7800</v>
       </c>
-      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -4148,235 +3422,235 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
     </row>
     <row r="5">
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="P5" s="3" t="n">
         <v>470776.0781</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="Q5" s="3" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="R5" s="3" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="S5" s="3" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="T5" s="3" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="n">
         <v>629147.75</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="W5" s="3" t="n">
         <v>5212.27</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="X5" s="3" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="X5" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="n">
         <v>-32729.2511</v>
       </c>
-      <c r="Z5" s="3" t="n">
+      <c r="AA5" s="3" t="n">
         <v>-14921.4499</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AB5" s="3" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AC5" s="3" t="n">
         <v>-1574.29</v>
       </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3" t="n">
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="3" t="n">
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
     </row>
     <row r="6">
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="P6" s="3" t="n">
         <v>3049178</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1011697</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="R6" s="3" t="n">
         <v>39925920</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="S6" s="3" t="n">
         <v>5338005</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="T6" s="3" t="n">
         <v>1411950</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="U6" s="3" t="n">
         <v>103650</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="V6" s="3" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="V6" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="X6" s="3" t="n">
+      <c r="Y6" s="3" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="Y6" s="3" t="n">
+      <c r="Z6" s="3" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="Z6" s="3" t="n">
+      <c r="AA6" s="3" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3" t="n">
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3" t="n">
         <v>-245</v>
       </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3" t="n">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3" t="n">
         <v>465885</v>
       </c>
-      <c r="AH6" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="AI6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
         <v>376316</v>
       </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AK6" s="3" t="n">
         <v>59840</v>
       </c>
-      <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
     </row>
     <row r="7">
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="P7" s="3" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="Q7" s="3" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="R7" s="3" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="S7" s="3" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="T7" s="3" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="U7" s="3" t="n">
         <v>1227221</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="V7" s="3" t="n">
         <v>28880752.3476</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="W7" s="3" t="n">
         <v>93043</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="X7" s="3" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="Y7" s="3" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="Y7" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Z7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="n">
         <v>-24569.5601</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AB7" s="3" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AC7" s="3" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3" t="n">
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3" t="n">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3" t="n">
         <v>20254.0801</v>
       </c>
-      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
     </row>
     <row r="8">
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>52</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="P8" s="3" t="n">
         <v>-520917.0438</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="Q8" s="3" t="n">
         <v>-7782.4696</v>
       </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="n">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>-2322.43</v>
       </c>
-      <c r="Z8" s="3" t="n">
+      <c r="AA8" s="3" t="n">
         <v>-2312.08</v>
       </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="n">
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="n">
         <v>-42074.6211</v>
       </c>
-      <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
@@ -4386,17 +3660,15 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
     </row>
     <row r="9">
-      <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O9"/>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3" t="n">
         <v>0</v>
       </c>
@@ -4418,11 +3690,13 @@
       <c r="X9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3"/>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -4434,234 +3708,234 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
     </row>
     <row r="13">
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>48</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>3</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>4</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>5</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>6</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>7</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>8</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>9</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>10</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>11</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>12</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>14</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>15</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>17</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>18</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>19</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>20</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>21</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>22</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14">
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="n">
         <v>1114675.31904885</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="R14" s="3" t="n">
         <v>4591842.80124401</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="S14" s="3" t="n">
         <v>74846663.1579375</v>
       </c>
-      <c r="S14" s="3" t="n">
+      <c r="T14" s="3" t="n">
         <v>1189247.16068086</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="U14" s="3" t="n">
         <v>2489361.66155175</v>
       </c>
-      <c r="U14" s="3" t="n">
+      <c r="V14" s="3" t="n">
         <v>101809120.096108</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="W14" s="3" t="n">
         <v>24425752.0964446</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="X14" s="3" t="n">
         <v>809304.310386079</v>
       </c>
-      <c r="X14" s="3" t="n">
+      <c r="Y14" s="3" t="n">
         <v>976526.995041935</v>
       </c>
-      <c r="Y14" s="3" t="n">
+      <c r="Z14" s="3" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="Z14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="3" t="n">
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD14" s="3" t="n">
+      <c r="AE14" s="3" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AE14" s="3" t="n">
+      <c r="AF14" s="3" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AF14" s="3" t="n">
+      <c r="AG14" s="3" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI14" s="3" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AJ14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
     </row>
     <row r="15">
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>49</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="P15" s="3" t="n">
         <v>325787.647798704</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="Q15" s="3" t="n">
         <v>428098.933649431</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="R15" s="3" t="n">
         <v>1217476.64133996</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="S15" s="3" t="n">
         <v>1132422.54476028</v>
       </c>
-      <c r="S15" s="3" t="n">
+      <c r="T15" s="3" t="n">
         <v>2949159.87033643</v>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="U15" s="3" t="n">
         <v>1079013.6897055</v>
       </c>
-      <c r="U15" s="3" t="n">
+      <c r="V15" s="3" t="n">
         <v>546485.153119352</v>
       </c>
-      <c r="V15" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="n">
         <v>-195720.160644237</v>
       </c>
-      <c r="X15" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="n">
         <v>-49574.2548854623</v>
       </c>
-      <c r="Z15" s="3" t="n">
+      <c r="AA15" s="3" t="n">
         <v>-46684.4823248724</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AB15" s="3" t="n">
         <v>-1357.34909774102</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AC15" s="3" t="n">
         <v>-10514.0852766771</v>
       </c>
-      <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3" t="n">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3" t="n">
         <v>904909.7783</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AL15" s="3" t="n">
         <v>290797.065546576</v>
       </c>
-      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
     </row>
     <row r="16">
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -4683,235 +3957,235 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
     </row>
     <row r="17">
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="P17" s="3" t="n">
         <v>760647.056098648</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="Q17" s="3" t="n">
         <v>855782.817288609</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="R17" s="3" t="n">
         <v>963110.963103804</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="S17" s="3" t="n">
         <v>701315.825716976</v>
       </c>
-      <c r="S17" s="3" t="n">
+      <c r="T17" s="3" t="n">
         <v>321884.228145117</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3" t="n">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="n">
         <v>879633.353134417</v>
       </c>
-      <c r="V17" s="3" t="n">
+      <c r="W17" s="3" t="n">
         <v>7092.94533227105</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="X17" s="3" t="n">
         <v>-11694.453653695</v>
       </c>
-      <c r="X17" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3" t="n">
         <v>-42817.3134157914</v>
       </c>
-      <c r="Z17" s="3" t="n">
+      <c r="AA17" s="3" t="n">
         <v>-19135.0120676911</v>
       </c>
-      <c r="AA17" s="3" t="n">
+      <c r="AB17" s="3" t="n">
         <v>-3237.45881138229</v>
       </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AC17" s="3" t="n">
         <v>-1946.87557313036</v>
       </c>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3" t="n">
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3" t="n">
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
     </row>
     <row r="18">
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>52</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="P18" s="3" t="n">
         <v>4926648.52169506</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="Q18" s="3" t="n">
         <v>1595928.88990498</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="R18" s="3" t="n">
         <v>62003589.9072731</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="S18" s="3" t="n">
         <v>8134256.65501954</v>
       </c>
-      <c r="S18" s="3" t="n">
+      <c r="T18" s="3" t="n">
         <v>2100246.43813778</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="U18" s="3" t="n">
         <v>149634.810290411</v>
       </c>
-      <c r="U18" s="3" t="n">
+      <c r="V18" s="3" t="n">
         <v>9828485.35424104</v>
       </c>
-      <c r="V18" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
         <v>158380.081963167</v>
       </c>
-      <c r="X18" s="3" t="n">
+      <c r="Y18" s="3" t="n">
         <v>348094.298326518</v>
       </c>
-      <c r="Y18" s="3" t="n">
+      <c r="Z18" s="3" t="n">
         <v>-4156.67129997752</v>
       </c>
-      <c r="Z18" s="3" t="n">
+      <c r="AA18" s="3" t="n">
         <v>-80299.6508452254</v>
       </c>
-      <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="3" t="n">
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3" t="n">
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH18" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="AI18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AK18" s="3" t="n">
         <v>59840</v>
       </c>
-      <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
     </row>
     <row r="19">
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>52</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="P19" s="3" t="n">
         <v>42498030.5047248</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="Q19" s="3" t="n">
         <v>11504568.3244218</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="R19" s="3" t="n">
         <v>61788575.1159025</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="S19" s="3" t="n">
         <v>30602381.4639988</v>
       </c>
-      <c r="S19" s="3" t="n">
+      <c r="T19" s="3" t="n">
         <v>3968132.21370764</v>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="U19" s="3" t="n">
         <v>1771683.37211199</v>
       </c>
-      <c r="U19" s="3" t="n">
+      <c r="V19" s="3" t="n">
         <v>40379184.4261766</v>
       </c>
-      <c r="V19" s="3" t="n">
+      <c r="W19" s="3" t="n">
         <v>126614.490912884</v>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="X19" s="3" t="n">
         <v>-269662.362208109</v>
       </c>
-      <c r="X19" s="3" t="n">
+      <c r="Y19" s="3" t="n">
         <v>-23267.9128500478</v>
       </c>
-      <c r="Y19" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Z19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3" t="n">
         <v>-31507.5835231911</v>
       </c>
-      <c r="AA19" s="3" t="n">
+      <c r="AB19" s="3" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AC19" s="3" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3" t="n">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3" t="n">
         <v>4261238.53149565</v>
       </c>
-      <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3" t="n">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3" t="n">
         <v>19318.3087763331</v>
       </c>
-      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
     </row>
     <row r="20">
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>52</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="P20" s="3" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="Q20" s="3" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="Q20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="n">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="Z20" s="3" t="n">
+      <c r="AA20" s="3" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="n">
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -4921,17 +4195,15 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
     </row>
     <row r="21">
-      <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O21"/>
+      <c r="P21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3" t="n">
         <v>0</v>
       </c>
@@ -4953,11 +4225,13 @@
       <c r="X21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3"/>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -4969,6 +4243,1094 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>706619</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2956821.51</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>49117194</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>799505</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1724347</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>72817815.07</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>17949329.7799</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>607122.832</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>740014.064</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>-177796.4375</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1738.23</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>1345852</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>314555.625</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AL2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>201634.95</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>271382.0206</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>783968.7195</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>743138.2439</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1982656.0366</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>747418.1223</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>390867.2895</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>-146825.09</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>-37894.2093</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>-36404.48</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>-1077.86</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>-8501.94</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>304883.1617</v>
+      </c>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
+        <v>7800</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>470776.0781</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>542500.9312</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>620175.2402</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>460229.8087</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>216395.7656</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>629147.75</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5212.27</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>-8772.9297</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>-32729.2511</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>-14921.4499</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>-2570.84</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>-1574.29</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4" t="n">
+        <v>-2315.6101</v>
+      </c>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4" t="n">
+        <v>16169.9902</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3049178</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1011697</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>39925920</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>5338005</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1411950</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>103650</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7029712.3506</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>118813.3594</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>263786.5391</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>-3177.3301</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>-62617.5313</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4" t="n">
+        <v>-245</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>376316</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>59840</v>
+      </c>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>26302680.0243</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>7293017.4607</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>39787465.7045</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>20082433.1214</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>2667688.9804</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1227221</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>28880752.3476</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>93043</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>-202294.9525</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>-17632.4698</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>-24569.5601</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>-2829.1001</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>-47572.2695</v>
+      </c>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4" t="n">
+        <v>3582106.8109</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4" t="n">
+        <v>20254.0801</v>
+      </c>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>-520917.0438</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>-7782.4696</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="n">
+        <v>-2322.43</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>-2312.08</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4" t="n">
+        <v>-42074.6211</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>1114675.31904885</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>4591842.80124401</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>74846663.1579375</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>1189247.16068086</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>2489361.66155175</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>101809120.096108</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>24425752.0964446</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>809304.310386079</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>976526.995041935</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>-232598.227359032</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>2067.7810695267</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>1572929.39623693</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>10692.875949243</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>9537.98379435319</v>
+      </c>
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>325787.647798704</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>428098.933649431</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>1217476.64133996</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>1132422.54476028</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>2949159.87033643</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>1079013.6897055</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>546485.153119352</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>-195720.160644237</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>-49574.2548854623</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>-46684.4823248724</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>-1357.34909774102</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>-10514.0852766771</v>
+      </c>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>290797.065546576</v>
+      </c>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="n">
+        <v>12304.3216904457</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>760647.056098648</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>855782.817288609</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>963110.963103804</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>701315.825716976</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>321884.228145117</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
+        <v>879633.353134417</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>7092.94533227105</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>-11694.453653695</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>-42817.3134157914</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>-19135.0120676911</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>-3237.45881138229</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>-1946.87557313036</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4" t="n">
+        <v>-2754.62667724342</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4" t="n">
+        <v>16169.9902</v>
+      </c>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>4926648.52169506</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>1595928.88990498</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>62003589.9072731</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>8134256.65501954</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>2100246.43813778</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>149634.810290411</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>9828485.35424104</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>158380.081963167</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>348094.298326518</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>-4156.67129997752</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>-80299.6508452254</v>
+      </c>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4" t="n">
+        <v>-286.337355131209</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>402390.030571531</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>59840</v>
+      </c>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>42498030.5047248</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>11504568.3244218</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>61788575.1159025</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>30602381.4639988</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>3968132.21370764</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>1771683.37211199</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>40379184.4261766</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>126614.490912884</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>-269662.362208109</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>-23267.9128500478</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>-31507.5835231911</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>-3562.68575525024</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>-58831.1489293108</v>
+      </c>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4" t="n">
+        <v>4261238.53149565</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4" t="n">
+        <v>19318.3087763331</v>
+      </c>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>-841661.321104584</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>-12276.6678851941</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4" t="n">
+        <v>-3038.26729467196</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>-2964.97183571063</v>
+      </c>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4" t="n">
+        <v>-52032.3778136845</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5069,77 +5431,77 @@
         <f>M2</f>
       </c>
       <c r="M2"/>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="6" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="6" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="6" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="6" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z2" s="5" t="n">
+      <c r="Z2" s="6" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="6" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AB2" s="6" t="n">
         <v>30000</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="AC2" s="6" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AD2" s="6" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE2" s="5" t="n">
+      <c r="AE2" s="6" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF2" s="5" t="n">
+      <c r="AF2" s="6" t="n">
         <v>465885</v>
       </c>
-      <c r="AG2" s="5" t="n">
+      <c r="AG2" s="6" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH2" s="5" t="n">
+      <c r="AH2" s="6" t="n">
         <v>386316</v>
       </c>
-      <c r="AI2" s="5" t="n">
+      <c r="AI2" s="6" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="5" t="n">
+      <c r="AJ2" s="6" t="n">
         <v>335137.2418</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5148,77 +5510,77 @@
       <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="N3" s="6" t="str">
         <f>Sum(N2:N2)</f>
       </c>
-      <c r="O3" s="5" t="str">
+      <c r="O3" s="6" t="str">
         <f>Sum(O2:O2)</f>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="P3" s="6" t="str">
         <f>Sum(P2:P2)</f>
       </c>
-      <c r="Q3" s="5" t="str">
+      <c r="Q3" s="6" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="5" t="str">
+      <c r="R3" s="6" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="5" t="str">
+      <c r="S3" s="6" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="5" t="str">
+      <c r="T3" s="6" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="5" t="str">
+      <c r="U3" s="6" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="5" t="str">
+      <c r="V3" s="6" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="5" t="str">
+      <c r="W3" s="6" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="5" t="str">
+      <c r="X3" s="6" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="5" t="str">
+      <c r="Y3" s="6" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="5" t="str">
+      <c r="Z3" s="6" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="5" t="str">
+      <c r="AA3" s="6" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="5" t="str">
+      <c r="AB3" s="6" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="5" t="str">
+      <c r="AC3" s="6" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="5" t="str">
+      <c r="AD3" s="6" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="5" t="str">
+      <c r="AE3" s="6" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="5" t="str">
+      <c r="AF3" s="6" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="5" t="str">
+      <c r="AG3" s="6" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="5" t="str">
+      <c r="AH3" s="6" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="5" t="str">
+      <c r="AI3" s="6" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="5" t="str">
+      <c r="AJ3" s="6" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
     </row>
     <row r="4">
       <c r="M4" t="str">
@@ -5338,211 +5700,211 @@
       <c r="A7" t="str">
         <f>M7</f>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="6" t="str">
         <f>AB7</f>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="6" t="str">
         <f>AH7</f>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="6" t="str">
         <f>AI7</f>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="6" t="str">
         <f>AJ7</f>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="5" t="str">
         <f>AI7/AH7-1</f>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="5" t="str">
         <f>AI7/AB7-1</f>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="5" t="str">
         <f>AJ7/AI7</f>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="5" t="str">
         <f>AI7/Sum(AI$6:AI$7)</f>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="5" t="str">
         <f>AJ7/Sum(AJ6:AJ$7)</f>
       </c>
       <c r="M7"/>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="6" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="6" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="6" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="6" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="6" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="6" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="6" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="6" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="6" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z7" s="5" t="n">
+      <c r="Z7" s="6" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="6" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB7" s="5" t="n">
+      <c r="AB7" s="6" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="6" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD7" s="5" t="n">
+      <c r="AD7" s="6" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE7" s="5" t="n">
+      <c r="AE7" s="6" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF7" s="5" t="n">
+      <c r="AF7" s="6" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG7" s="5" t="n">
+      <c r="AG7" s="6" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH7" s="5" t="n">
+      <c r="AH7" s="6" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI7" s="5" t="n">
+      <c r="AI7" s="6" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ7" s="5" t="n">
+      <c r="AJ7" s="6" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="6" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="6" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="6" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="6" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="5" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="5" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="5" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="5" t="str">
         <f>Sum(I$6:I$7)</f>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="5" t="str">
         <f>Sum(J$6:J$7)</f>
       </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="N8" s="6" t="str">
         <f>Sum(N7:N7)</f>
       </c>
-      <c r="O8" s="5" t="str">
+      <c r="O8" s="6" t="str">
         <f>Sum(O7:O7)</f>
       </c>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="6" t="str">
         <f>Sum(P7:P7)</f>
       </c>
-      <c r="Q8" s="5" t="str">
+      <c r="Q8" s="6" t="str">
         <f>Sum(Q7:Q7)</f>
       </c>
-      <c r="R8" s="5" t="str">
+      <c r="R8" s="6" t="str">
         <f>Sum(R7:R7)</f>
       </c>
-      <c r="S8" s="5" t="str">
+      <c r="S8" s="6" t="str">
         <f>Sum(S7:S7)</f>
       </c>
-      <c r="T8" s="5" t="str">
+      <c r="T8" s="6" t="str">
         <f>Sum(T7:T7)</f>
       </c>
-      <c r="U8" s="5" t="str">
+      <c r="U8" s="6" t="str">
         <f>Sum(U7:U7)</f>
       </c>
-      <c r="V8" s="5" t="str">
+      <c r="V8" s="6" t="str">
         <f>Sum(V7:V7)</f>
       </c>
-      <c r="W8" s="5" t="str">
+      <c r="W8" s="6" t="str">
         <f>Sum(W7:W7)</f>
       </c>
-      <c r="X8" s="5" t="str">
+      <c r="X8" s="6" t="str">
         <f>Sum(X7:X7)</f>
       </c>
-      <c r="Y8" s="5" t="str">
+      <c r="Y8" s="6" t="str">
         <f>Sum(Y7:Y7)</f>
       </c>
-      <c r="Z8" s="5" t="str">
+      <c r="Z8" s="6" t="str">
         <f>Sum(Z7:Z7)</f>
       </c>
-      <c r="AA8" s="5" t="str">
+      <c r="AA8" s="6" t="str">
         <f>Sum(AA7:AA7)</f>
       </c>
-      <c r="AB8" s="5" t="str">
+      <c r="AB8" s="6" t="str">
         <f>Sum(AB7:AB7)</f>
       </c>
-      <c r="AC8" s="5" t="str">
+      <c r="AC8" s="6" t="str">
         <f>Sum(AC7:AC7)</f>
       </c>
-      <c r="AD8" s="5" t="str">
+      <c r="AD8" s="6" t="str">
         <f>Sum(AD7:AD7)</f>
       </c>
-      <c r="AE8" s="5" t="str">
+      <c r="AE8" s="6" t="str">
         <f>Sum(AE7:AE7)</f>
       </c>
-      <c r="AF8" s="5" t="str">
+      <c r="AF8" s="6" t="str">
         <f>Sum(AF7:AF7)</f>
       </c>
-      <c r="AG8" s="5" t="str">
+      <c r="AG8" s="6" t="str">
         <f>Sum(AG7:AG7)</f>
       </c>
-      <c r="AH8" s="5" t="str">
+      <c r="AH8" s="6" t="str">
         <f>Sum(AH7:AH7)</f>
       </c>
-      <c r="AI8" s="5" t="str">
+      <c r="AI8" s="6" t="str">
         <f>Sum(AI7:AI7)</f>
       </c>
-      <c r="AJ8" s="5" t="str">
+      <c r="AJ8" s="6" t="str">
         <f>Sum(AJ7:AJ7)</f>
       </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
     </row>
     <row r="9">
       <c r="M9" t="str">
@@ -5695,112 +6057,112 @@
       <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6" t="n">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="6" t="n">
+      <c r="AJ2" s="7" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <f>M3</f>
       </c>
       <c r="M3"/>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="7" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="7" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="7" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="R3" s="7" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="7" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="T3" s="7" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="7" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="V3" s="7" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="7" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="X3" s="7" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="7" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="6" t="n">
+      <c r="Z3" s="7" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="7" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="6" t="n">
+      <c r="AB3" s="7" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="7" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="6" t="n">
+      <c r="AD3" s="7" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="6" t="n">
+      <c r="AE3" s="7" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF3" s="6" t="n">
+      <c r="AF3" s="7" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="6" t="n">
+      <c r="AG3" s="7" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH3" s="6" t="n">
+      <c r="AH3" s="7" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="6" t="n">
+      <c r="AI3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5809,77 +6171,77 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="N4" s="7" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="6" t="str">
+      <c r="O4" s="7" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="P4" s="7" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="6" t="str">
+      <c r="Q4" s="7" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="6" t="str">
+      <c r="R4" s="7" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="6" t="str">
+      <c r="S4" s="7" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="6" t="str">
+      <c r="T4" s="7" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="6" t="str">
+      <c r="U4" s="7" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="6" t="str">
+      <c r="V4" s="7" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="6" t="str">
+      <c r="W4" s="7" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="6" t="str">
+      <c r="X4" s="7" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="6" t="str">
+      <c r="Y4" s="7" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="6" t="str">
+      <c r="Z4" s="7" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="6" t="str">
+      <c r="AA4" s="7" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="6" t="str">
+      <c r="AB4" s="7" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="6" t="str">
+      <c r="AC4" s="7" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="6" t="str">
+      <c r="AD4" s="7" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="6" t="str">
+      <c r="AE4" s="7" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="6" t="str">
+      <c r="AF4" s="7" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="6" t="str">
+      <c r="AG4" s="7" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="6" t="str">
+      <c r="AH4" s="7" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="6" t="str">
+      <c r="AI4" s="7" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="6" t="str">
+      <c r="AJ4" s="7" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5989,275 +6351,275 @@
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="7" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="7" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="7" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="7" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="5" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="5" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="5" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="5" t="str">
         <f>AI8/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="5" t="str">
         <f>AJ8/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6" t="n">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ8" s="6" t="n">
+      <c r="AJ8" s="7" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <f>M9</f>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="7" t="str">
         <f>AB9</f>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="7" t="str">
         <f>AH9</f>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="7" t="str">
         <f>AI9</f>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="7" t="str">
         <f>AJ9</f>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="5" t="str">
         <f>AI9/AH9-1</f>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="5" t="str">
         <f>AI9/AB9-1</f>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="5" t="str">
         <f>AJ9/AI9</f>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="5" t="str">
         <f>AI9/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="5" t="str">
         <f>AJ9/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M9"/>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="7" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="7" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="7" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="7" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="7" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="7" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X9" s="6" t="n">
+      <c r="X9" s="7" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="6" t="n">
+      <c r="Y9" s="7" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="6" t="n">
+      <c r="Z9" s="7" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="6" t="n">
+      <c r="AA9" s="7" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="6" t="n">
+      <c r="AB9" s="7" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="6" t="n">
+      <c r="AC9" s="7" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="6" t="n">
+      <c r="AD9" s="7" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="6" t="n">
+      <c r="AE9" s="7" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF9" s="6" t="n">
+      <c r="AF9" s="7" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="6" t="n">
+      <c r="AG9" s="7" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH9" s="6" t="n">
+      <c r="AH9" s="7" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="6" t="n">
+      <c r="AI9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="7" t="str">
         <f>AB10</f>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="7" t="str">
         <f>AH10</f>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="7" t="str">
         <f>AI10</f>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" s="7" t="str">
         <f>AJ10</f>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="F10" s="5" t="str">
         <f>AI10/AH10-1</f>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="5" t="str">
         <f>AI10/AB10-1</f>
       </c>
-      <c r="H10" s="4" t="str">
+      <c r="H10" s="5" t="str">
         <f>AJ10/AI10</f>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="I10" s="5" t="str">
         <f>Sum(I$7:I$9)</f>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="5" t="str">
         <f>Sum(J$7:J$9)</f>
       </c>
       <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="N10" s="7" t="str">
         <f>Sum(N8:N9)</f>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="O10" s="7" t="str">
         <f>Sum(O8:O9)</f>
       </c>
-      <c r="P10" s="6" t="str">
+      <c r="P10" s="7" t="str">
         <f>Sum(P8:P9)</f>
       </c>
-      <c r="Q10" s="6" t="str">
+      <c r="Q10" s="7" t="str">
         <f>Sum(Q8:Q9)</f>
       </c>
-      <c r="R10" s="6" t="str">
+      <c r="R10" s="7" t="str">
         <f>Sum(R8:R9)</f>
       </c>
-      <c r="S10" s="6" t="str">
+      <c r="S10" s="7" t="str">
         <f>Sum(S8:S9)</f>
       </c>
-      <c r="T10" s="6" t="str">
+      <c r="T10" s="7" t="str">
         <f>Sum(T8:T9)</f>
       </c>
-      <c r="U10" s="6" t="str">
+      <c r="U10" s="7" t="str">
         <f>Sum(U8:U9)</f>
       </c>
-      <c r="V10" s="6" t="str">
+      <c r="V10" s="7" t="str">
         <f>Sum(V8:V9)</f>
       </c>
-      <c r="W10" s="6" t="str">
+      <c r="W10" s="7" t="str">
         <f>Sum(W8:W9)</f>
       </c>
-      <c r="X10" s="6" t="str">
+      <c r="X10" s="7" t="str">
         <f>Sum(X8:X9)</f>
       </c>
-      <c r="Y10" s="6" t="str">
+      <c r="Y10" s="7" t="str">
         <f>Sum(Y8:Y9)</f>
       </c>
-      <c r="Z10" s="6" t="str">
+      <c r="Z10" s="7" t="str">
         <f>Sum(Z8:Z9)</f>
       </c>
-      <c r="AA10" s="6" t="str">
+      <c r="AA10" s="7" t="str">
         <f>Sum(AA8:AA9)</f>
       </c>
-      <c r="AB10" s="6" t="str">
+      <c r="AB10" s="7" t="str">
         <f>Sum(AB8:AB9)</f>
       </c>
-      <c r="AC10" s="6" t="str">
+      <c r="AC10" s="7" t="str">
         <f>Sum(AC8:AC9)</f>
       </c>
-      <c r="AD10" s="6" t="str">
+      <c r="AD10" s="7" t="str">
         <f>Sum(AD8:AD9)</f>
       </c>
-      <c r="AE10" s="6" t="str">
+      <c r="AE10" s="7" t="str">
         <f>Sum(AE8:AE9)</f>
       </c>
-      <c r="AF10" s="6" t="str">
+      <c r="AF10" s="7" t="str">
         <f>Sum(AF8:AF9)</f>
       </c>
-      <c r="AG10" s="6" t="str">
+      <c r="AG10" s="7" t="str">
         <f>Sum(AG8:AG9)</f>
       </c>
-      <c r="AH10" s="6" t="str">
+      <c r="AH10" s="7" t="str">
         <f>Sum(AH8:AH9)</f>
       </c>
-      <c r="AI10" s="6" t="str">
+      <c r="AI10" s="7" t="str">
         <f>Sum(AI8:AI9)</f>
       </c>
-      <c r="AJ10" s="6" t="str">
+      <c r="AJ10" s="7" t="str">
         <f>Sum(AJ8:AJ9)</f>
       </c>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6356,76 +6718,76 @@
     <row r="2">
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="8" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="8" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="8" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="8" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="8" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="T2" s="7" t="n">
+      <c r="T2" s="8" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="8" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="V2" s="8" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="W2" s="8" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="X2" s="7" t="n">
+      <c r="X2" s="8" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Y2" s="8" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Z2" s="7" t="n">
+      <c r="Z2" s="8" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AA2" s="7" t="n">
+      <c r="AA2" s="8" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB2" s="7" t="n">
+      <c r="AB2" s="8" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AC2" s="8" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AD2" s="8" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AE2" s="7" t="n">
+      <c r="AE2" s="8" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AF2" s="7" t="n">
+      <c r="AF2" s="8" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG2" s="7" t="n">
+      <c r="AG2" s="8" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH2" s="7" t="n">
+      <c r="AH2" s="8" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI2" s="7" t="n">
+      <c r="AI2" s="8" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AJ2" s="8" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AK2" s="7" t="n">
+      <c r="AK2" s="8" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AL2" s="7"/>
+      <c r="AL2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6573,19 +6935,19 @@
       <c r="F2" s="9" t="str">
         <f>AM2</f>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="5" t="str">
         <f>AL2/AK2-1</f>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="5" t="str">
         <f>AL2/AE2-1</f>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="5" t="str">
         <f>AM2/AL2</f>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="5" t="str">
         <f>AL2/Sum(AL$1:AL$2)</f>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" s="5" t="str">
         <f>AM2/Sum(AM1:AM$2)</f>
       </c>
       <c r="O2"/>
@@ -6680,19 +7042,19 @@
       <c r="F3" s="9" t="str">
         <f>AM3</f>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="5" t="str">
         <f>AL3/AK3-1</f>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="5" t="str">
         <f>AL3/AE3-1</f>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="5" t="str">
         <f>AM3/AL3</f>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="5" t="str">
         <f>Sum(J$1:J$2)</f>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="5" t="str">
         <f>Sum(K$1:K$2)</f>
       </c>
       <c r="O3" t="s">

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -227,14 +227,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -273,7 +273,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -281,7 +281,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,11 +1083,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>26</v>
       </c>
@@ -1165,309 +1174,432 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="O2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10" t="n">
         <v>25000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>1008658.0938</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="10" t="n">
         <v>-7400</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10" t="n">
         <v>-8083</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="10" t="n">
         <v>-4570.1802</v>
       </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="10" t="n">
         <v>514330.9375</v>
       </c>
-      <c r="AK2"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>29</v>
       </c>
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>27267805.0086</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>8888055.1128</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>39684406.7842</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>71426429.6506</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>5077939.746</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>2870495</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>101347014.6806</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="10" t="n">
         <v>18050012.0499</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="10" t="n">
         <v>434590.0786</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="10" t="n">
         <v>651359.784</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="10" t="n">
         <v>-225463.3186</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="10" t="n">
         <v>-108059.5713</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="10" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="10" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AC3"/>
-      <c r="AD3" t="n">
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10" t="n">
         <v>3582107.8809</v>
       </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AE3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="10" t="n">
         <v>465885</v>
       </c>
-      <c r="AH3"/>
-      <c r="AI3" t="n">
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10" t="n">
         <v>376316</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>228600.1484</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="10" t="n">
         <v>16138.8101</v>
       </c>
+      <c r="AL3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4"/>
-      <c r="T4" t="n">
+      <c r="O4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="n">
         <v>2350</v>
       </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4" t="n">
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10" t="n">
         <v>59772.4893</v>
       </c>
-      <c r="AK4"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>32</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="10" t="n">
         <v>22446</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="10" t="n">
         <v>311148.8301</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="10" t="n">
         <v>41107091.14</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="10" t="n">
         <v>2995459.4296</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="10" t="n">
         <v>38350</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="10" t="n">
         <v>415117</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="10" t="n">
         <v>6847111.0876</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="10" t="n">
         <v>-2427</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="W5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10" t="n">
         <v>48177.3391</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="10" t="n">
         <v>-1374</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="10" t="n">
         <v>-4965.14</v>
       </c>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5" t="n">
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="10" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="10" t="n">
         <v>1345852</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="10" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AG5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="10" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>162046.2031</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="10" t="n">
         <v>10000</v>
       </c>
+      <c r="AL5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="10" t="n">
         <v>2213101</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="10" t="n">
         <v>626030</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="10" t="n">
         <v>3257853.25</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="10" t="n">
         <v>310453</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="10" t="n">
         <v>1969306.0366</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="10" t="n">
         <v>514674.1223</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="10" t="n">
         <v>1554169.0395</v>
       </c>
-      <c r="V6"/>
-      <c r="W6" t="n">
+      <c r="V6" s="10"/>
+      <c r="W6" s="10" t="n">
         <v>-58463.8594</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="10" t="n">
         <v>291201.1904</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="10" t="n">
         <v>-27082.3394</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="10" t="n">
         <v>-27800.39</v>
       </c>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6" t="n">
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10" t="n">
         <v>-2316.6801</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="10" t="n">
         <v>-245</v>
       </c>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6"/>
-      <c r="AJ6" t="n">
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="10" t="n">
         <v>308998.4317</v>
       </c>
+      <c r="AL6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="10" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="10" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="10" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="10" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="10" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="10" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="10" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="10" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="10" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="10" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>26</v>
       </c>
@@ -1545,307 +1677,374 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>28</v>
       </c>
       <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="O11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10" t="n">
         <v>38824.1460104571</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="10" t="n">
         <v>1537031.87092031</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="10" t="n">
         <v>-11007.3470322742</v>
       </c>
-      <c r="T11"/>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10" t="n">
         <v>-10774.7664822638</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="10" t="n">
         <v>-6030.83718893504</v>
       </c>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="10" t="n">
         <v>514330.9375</v>
       </c>
-      <c r="AK11"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>29</v>
       </c>
       <c r="N12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="10" t="n">
         <v>44057411.9436413</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="10" t="n">
         <v>14020703.757731</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="10" t="n">
         <v>61628528.1331262</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="10" t="n">
         <v>108842331.681907</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="10" t="n">
         <v>7553330.40448654</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="10" t="n">
         <v>4144003.61567363</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="10" t="n">
         <v>141696786.412507</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="10" t="n">
         <v>24562762.2354127</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="10" t="n">
         <v>579315.428977319</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="10" t="n">
         <v>859538.275695101</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="10" t="n">
         <v>-294957.362353477</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="10" t="n">
         <v>-138573.745494734</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="10" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="10" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC12"/>
-      <c r="AD12" t="n">
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10" t="n">
         <v>4261239.80435698</v>
       </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AE12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="10" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="10" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH12"/>
-      <c r="AI12" t="n">
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="10" t="n">
         <v>228600.1484</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="10" t="n">
         <v>15393.1709193944</v>
       </c>
+      <c r="AL12" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>30</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13"/>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13"/>
-      <c r="T13" t="n">
+      <c r="O13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10" t="n">
         <v>3392.58855940632</v>
       </c>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13" t="n">
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10" t="n">
         <v>59772.4893</v>
       </c>
-      <c r="AK13"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>32</v>
       </c>
       <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="10" t="n">
         <v>36266.6766971188</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="10" t="n">
         <v>490830.166558492</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="10" t="n">
         <v>63837908.3393811</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="10" t="n">
         <v>4564595.91178068</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="10" t="n">
         <v>57044.8322550968</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="10" t="n">
         <v>599285.610644712</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="10" t="n">
         <v>9573184.17695912</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="10" t="n">
         <v>-3302.70272288693</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="W14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10" t="n">
         <v>63575.105486697</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="10" t="n">
         <v>-1797.50488190356</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="10" t="n">
         <v>-6367.2105897548</v>
       </c>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14" t="n">
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="10" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="10" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="10" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AG14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="10" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="10" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>162046.2031</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="10" t="n">
         <v>9537.98379435319</v>
       </c>
+      <c r="AL14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>31</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="10" t="n">
         <v>3575773.7888742</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="10" t="n">
         <v>987548.013829452</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="10" t="n">
         <v>5059334.81034569</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="10" t="n">
         <v>473080.182825003</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="10" t="n">
         <v>2929302.02129847</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="10" t="n">
         <v>743011.718781901</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="10" t="n">
         <v>2172937.79331339</v>
       </c>
-      <c r="V15"/>
-      <c r="W15" t="n">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10" t="n">
         <v>-77933.24665185</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="10" t="n">
         <v>384270.836525543</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="10" t="n">
         <v>-35429.8670195553</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="10" t="n">
         <v>-35650.7445122018</v>
       </c>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15" t="n">
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10" t="n">
         <v>-2755.8995385704</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15"/>
-      <c r="AJ15" t="n">
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="10" t="n">
         <v>294722.203403515</v>
       </c>
+      <c r="AL15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1966,74 +2165,74 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="2" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="2" t="n">
         <v>2859616.9693</v>
       </c>
-      <c r="R2" s="10" t="n">
+      <c r="R2" s="2" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="2" t="n">
         <v>6905530.6119</v>
       </c>
-      <c r="T2" s="10" t="n">
+      <c r="T2" s="2" t="n">
         <v>2964059.6022</v>
       </c>
-      <c r="U2" s="10" t="n">
+      <c r="U2" s="2" t="n">
         <v>2483962.762</v>
       </c>
-      <c r="V2" s="10" t="n">
+      <c r="V2" s="2" t="n">
         <v>20853329.1778</v>
       </c>
-      <c r="W2" s="10" t="n">
+      <c r="W2" s="2" t="n">
         <v>18042618.5187</v>
       </c>
-      <c r="X2" s="10" t="n">
+      <c r="X2" s="2" t="n">
         <v>748090.0618</v>
       </c>
-      <c r="Y2" s="10" t="n">
+      <c r="Y2" s="2" t="n">
         <v>673627.1341</v>
       </c>
-      <c r="Z2" s="10" t="n">
+      <c r="Z2" s="2" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="2" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="2" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="2" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10" t="n">
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="2" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="2" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="2" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="2" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="2" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AM2" s="10"/>
+      <c r="AM2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2051,34 +2250,34 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10" t="n">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="n">
         <v>35030</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2096,60 +2295,60 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="P4" s="2" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" s="10" t="n">
+      <c r="Q4" s="2" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" s="10" t="n">
+      <c r="R4" s="2" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" s="10" t="n">
+      <c r="S4" s="2" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" s="10" t="n">
+      <c r="T4" s="2" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" s="10" t="n">
+      <c r="U4" s="2" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" s="10" t="n">
+      <c r="V4" s="2" t="n">
         <v>67611390</v>
       </c>
-      <c r="W4" s="10" t="n">
+      <c r="W4" s="2" t="n">
         <v>-37033.4688</v>
       </c>
-      <c r="X4" s="10" t="n">
+      <c r="X4" s="2" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10" t="n">
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="2" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="2" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="2" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10" t="n">
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2167,32 +2366,32 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2210,58 +2409,58 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="2" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" s="10" t="n">
+      <c r="Q6" s="2" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" s="10" t="n">
+      <c r="R6" s="2" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" s="10" t="n">
+      <c r="S6" s="2" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" s="10" t="n">
+      <c r="T6" s="2" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" s="10" t="n">
+      <c r="U6" s="2" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" s="10" t="n">
+      <c r="V6" s="2" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10" t="n">
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
         <v>-151143.5508</v>
       </c>
-      <c r="Y6" s="10" t="n">
+      <c r="Y6" s="2" t="n">
         <v>14525.3794</v>
       </c>
-      <c r="Z6" s="10" t="n">
+      <c r="Z6" s="2" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2279,44 +2478,44 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10" t="n">
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" s="10" t="n">
+      <c r="R7" s="2" t="n">
         <v>523464.7188</v>
       </c>
-      <c r="S7" s="10" t="n">
+      <c r="S7" s="2" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="n">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2334,46 +2533,46 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="2" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" s="10" t="n">
+      <c r="Q8" s="2" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" s="10" t="n">
+      <c r="R8" s="2" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" s="10" t="n">
+      <c r="S8" s="2" t="n">
         <v>37618</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10" t="n">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" s="10" t="n">
+      <c r="V8" s="2" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" s="10" t="n">
+      <c r="W8" s="2" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" s="10" t="n">
+      <c r="X8" s="2" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2389,70 +2588,70 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="2" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="2" t="n">
         <v>2233679.1083</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="2" t="n">
         <v>11165.0754</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="2" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="T9" s="2" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="2" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" s="10" t="n">
+      <c r="V9" s="2" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10" t="n">
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="10" t="n">
+      <c r="Y9" s="2" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Z9" s="2" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="10" t="n">
+      <c r="AA9" s="2" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10" t="n">
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="2" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="10" t="n">
+      <c r="AF9" s="2" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AG9" s="2" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="10" t="n">
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ9" s="10" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10" t="n">
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="10"/>
+      <c r="AM9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2467,74 +2666,74 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="10" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="10" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="10" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="10" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="10" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="10" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2638,74 +2837,74 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="2" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" s="10" t="n">
+      <c r="Q14" s="2" t="n">
         <v>4510980.397657</v>
       </c>
-      <c r="R14" s="10" t="n">
+      <c r="R14" s="2" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" s="10" t="n">
+      <c r="S14" s="2" t="n">
         <v>10522912.2745836</v>
       </c>
-      <c r="T14" s="10" t="n">
+      <c r="T14" s="2" t="n">
         <v>4408977.38726487</v>
       </c>
-      <c r="U14" s="10" t="n">
+      <c r="U14" s="2" t="n">
         <v>3585984.53121384</v>
       </c>
-      <c r="V14" s="10" t="n">
+      <c r="V14" s="2" t="n">
         <v>29155764.8718985</v>
       </c>
-      <c r="W14" s="10" t="n">
+      <c r="W14" s="2" t="n">
         <v>24552700.9928803</v>
       </c>
-      <c r="X14" s="10" t="n">
+      <c r="X14" s="2" t="n">
         <v>997215.850995582</v>
       </c>
-      <c r="Y14" s="10" t="n">
+      <c r="Y14" s="2" t="n">
         <v>888922.404373904</v>
       </c>
-      <c r="Z14" s="10" t="n">
+      <c r="Z14" s="2" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" s="10" t="n">
+      <c r="AA14" s="2" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="2" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" s="10" t="n">
+      <c r="AC14" s="2" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10" t="n">
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="2" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL14" s="10" t="n">
+      <c r="AL14" s="2" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AM14" s="10"/>
+      <c r="AM14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2723,34 +2922,34 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10" t="n">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -2768,60 +2967,60 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="10" t="n">
+      <c r="P16" s="2" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" s="10" t="n">
+      <c r="Q16" s="2" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" s="10" t="n">
+      <c r="R16" s="2" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" s="10" t="n">
+      <c r="S16" s="2" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" s="10" t="n">
+      <c r="T16" s="2" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" s="10" t="n">
+      <c r="U16" s="2" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" s="10" t="n">
+      <c r="V16" s="2" t="n">
         <v>94529836.108893</v>
       </c>
-      <c r="W16" s="10" t="n">
+      <c r="W16" s="2" t="n">
         <v>-50395.7718350672</v>
       </c>
-      <c r="X16" s="10" t="n">
+      <c r="X16" s="2" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10" t="n">
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" s="10" t="n">
+      <c r="AA16" s="2" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="2" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" s="10" t="n">
+      <c r="AC16" s="2" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10" t="n">
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -2839,32 +3038,32 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -2882,58 +3081,58 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="10" t="n">
+      <c r="P18" s="2" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" s="10" t="n">
+      <c r="Q18" s="2" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" s="10" t="n">
+      <c r="R18" s="2" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" s="10" t="n">
+      <c r="S18" s="2" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" s="10" t="n">
+      <c r="T18" s="2" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" s="10" t="n">
+      <c r="U18" s="2" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" s="10" t="n">
+      <c r="V18" s="2" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10" t="n">
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
         <v>-201476.736999898</v>
       </c>
-      <c r="Y18" s="10" t="n">
+      <c r="Y18" s="2" t="n">
         <v>19167.777732027</v>
       </c>
-      <c r="Z18" s="10" t="n">
+      <c r="Z18" s="2" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -2951,44 +3150,44 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10" t="n">
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" s="10" t="n">
+      <c r="R19" s="2" t="n">
         <v>812922.826960562</v>
       </c>
-      <c r="S19" s="10" t="n">
+      <c r="S19" s="2" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="n">
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -3006,46 +3205,46 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="2" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" s="10" t="n">
+      <c r="Q20" s="2" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" s="10" t="n">
+      <c r="R20" s="2" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" s="10" t="n">
+      <c r="S20" s="2" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10" t="n">
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" s="10" t="n">
+      <c r="V20" s="2" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" s="10" t="n">
+      <c r="W20" s="2" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" s="10" t="n">
+      <c r="X20" s="2" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -3061,70 +3260,70 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="2" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" s="10" t="n">
+      <c r="Q21" s="2" t="n">
         <v>3523577.73099373</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="2" t="n">
         <v>17338.9807018945</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="2" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="2" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" s="10" t="n">
+      <c r="U21" s="2" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" s="10" t="n">
+      <c r="V21" s="2" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="10" t="n">
+      <c r="W21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="2" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" s="10" t="n">
+      <c r="Z21" s="2" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" s="10" t="n">
+      <c r="AA21" s="2" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10" t="n">
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="2" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" s="10" t="n">
+      <c r="AF21" s="2" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="2" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="10" t="n">
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AJ21" s="10" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10" t="n">
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AM21" s="10"/>
+      <c r="AM21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -3133,30 +3332,30 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -225,8 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
@@ -234,7 +235,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -270,9 +271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -281,7 +283,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,52 +1188,52 @@
       <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10" t="n">
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>25000</v>
       </c>
-      <c r="R2" s="10" t="n">
+      <c r="R2" s="2" t="n">
         <v>1008658.0938</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="2" t="n">
         <v>-7400</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10" t="n">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
         <v>-8083</v>
       </c>
-      <c r="X2" s="10" t="n">
+      <c r="X2" s="2" t="n">
         <v>-4570.1802</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
         <v>514330.9375</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1246,72 +1248,72 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="O3" s="2" t="n">
         <v>27267805.0086</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="2" t="n">
         <v>8888055.1128</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="Q3" s="2" t="n">
         <v>39684406.7842</v>
       </c>
-      <c r="R3" s="10" t="n">
+      <c r="R3" s="2" t="n">
         <v>71426429.6506</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="2" t="n">
         <v>5077939.746</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="T3" s="2" t="n">
         <v>2870495</v>
       </c>
-      <c r="U3" s="10" t="n">
+      <c r="U3" s="2" t="n">
         <v>101347014.6806</v>
       </c>
-      <c r="V3" s="10" t="n">
+      <c r="V3" s="2" t="n">
         <v>18050012.0499</v>
       </c>
-      <c r="W3" s="10" t="n">
+      <c r="W3" s="2" t="n">
         <v>434590.0786</v>
       </c>
-      <c r="X3" s="10" t="n">
+      <c r="X3" s="2" t="n">
         <v>651359.784</v>
       </c>
-      <c r="Y3" s="10" t="n">
+      <c r="Y3" s="2" t="n">
         <v>-225463.3186</v>
       </c>
-      <c r="Z3" s="10" t="n">
+      <c r="Z3" s="2" t="n">
         <v>-108059.5713</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="2" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="2" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10" t="n">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="n">
         <v>3582107.8809</v>
       </c>
-      <c r="AE3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="2" t="n">
         <v>465885</v>
       </c>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10" t="n">
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2" t="n">
         <v>376316</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>228600.1484</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="2" t="n">
         <v>16138.8101</v>
       </c>
-      <c r="AL3" s="10"/>
+      <c r="AL3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1326,40 +1328,40 @@
       <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="n">
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="n">
         <v>2350</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10" t="n">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="n">
         <v>59772.4893</v>
       </c>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1374,72 +1376,72 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="O5" s="2" t="n">
         <v>22446</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="2" t="n">
         <v>311148.8301</v>
       </c>
-      <c r="Q5" s="10" t="n">
+      <c r="Q5" s="2" t="n">
         <v>41107091.14</v>
       </c>
-      <c r="R5" s="10" t="n">
+      <c r="R5" s="2" t="n">
         <v>2995459.4296</v>
       </c>
-      <c r="S5" s="10" t="n">
+      <c r="S5" s="2" t="n">
         <v>38350</v>
       </c>
-      <c r="T5" s="10" t="n">
+      <c r="T5" s="2" t="n">
         <v>415117</v>
       </c>
-      <c r="U5" s="10" t="n">
+      <c r="U5" s="2" t="n">
         <v>6847111.0876</v>
       </c>
-      <c r="V5" s="10" t="n">
+      <c r="V5" s="2" t="n">
         <v>-2427</v>
       </c>
-      <c r="W5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10" t="n">
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
         <v>48177.3391</v>
       </c>
-      <c r="Y5" s="10" t="n">
+      <c r="Y5" s="2" t="n">
         <v>-1374</v>
       </c>
-      <c r="Z5" s="10" t="n">
+      <c r="Z5" s="2" t="n">
         <v>-4965.14</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10" t="n">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="2" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="2" t="n">
         <v>1345852</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="2" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AG5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AI5" s="10" t="n">
+      <c r="AI5" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>162046.2031</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="AL5" s="10"/>
+      <c r="AL5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1454,62 +1456,62 @@
       <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="10" t="n">
+      <c r="O6" s="2" t="n">
         <v>2213101</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="2" t="n">
         <v>626030</v>
       </c>
-      <c r="Q6" s="10" t="n">
+      <c r="Q6" s="2" t="n">
         <v>3257853.25</v>
       </c>
-      <c r="R6" s="10" t="n">
+      <c r="R6" s="2" t="n">
         <v>310453</v>
       </c>
-      <c r="S6" s="10" t="n">
+      <c r="S6" s="2" t="n">
         <v>1969306.0366</v>
       </c>
-      <c r="T6" s="10" t="n">
+      <c r="T6" s="2" t="n">
         <v>514674.1223</v>
       </c>
-      <c r="U6" s="10" t="n">
+      <c r="U6" s="2" t="n">
         <v>1554169.0395</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10" t="n">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="n">
         <v>-58463.8594</v>
       </c>
-      <c r="X6" s="10" t="n">
+      <c r="X6" s="2" t="n">
         <v>291201.1904</v>
       </c>
-      <c r="Y6" s="10" t="n">
+      <c r="Y6" s="2" t="n">
         <v>-27082.3394</v>
       </c>
-      <c r="Z6" s="10" t="n">
+      <c r="Z6" s="2" t="n">
         <v>-27800.39</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10" t="n">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2" t="n">
         <v>-2316.6801</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="2" t="n">
         <v>-245</v>
       </c>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10" t="n">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="2" t="n">
         <v>308998.4317</v>
       </c>
-      <c r="AL6" s="10"/>
+      <c r="AL6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1524,74 +1526,74 @@
       <c r="N7" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="10" t="str">
+      <c r="O7" s="2" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="10" t="str">
+      <c r="P7" s="2" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="10" t="str">
+      <c r="Q7" s="2" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="10" t="str">
+      <c r="R7" s="2" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="10" t="str">
+      <c r="S7" s="2" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="10" t="str">
+      <c r="T7" s="2" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="10" t="str">
+      <c r="U7" s="2" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="10" t="str">
+      <c r="V7" s="2" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="10" t="str">
+      <c r="W7" s="2" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="10" t="str">
+      <c r="X7" s="2" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="10" t="str">
+      <c r="Y7" s="2" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="10" t="str">
+      <c r="Z7" s="2" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="10" t="str">
+      <c r="AA7" s="2" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="10" t="str">
+      <c r="AB7" s="2" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="10" t="str">
+      <c r="AC7" s="2" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="10" t="str">
+      <c r="AD7" s="2" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="10" t="str">
+      <c r="AE7" s="2" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="10" t="str">
+      <c r="AF7" s="2" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="10" t="str">
+      <c r="AG7" s="2" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="10" t="str">
+      <c r="AH7" s="2" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="10" t="str">
+      <c r="AI7" s="2" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="10" t="str">
+      <c r="AJ7" s="2" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1689,52 +1691,52 @@
       <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10" t="n">
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
         <v>38824.1460104571</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="2" t="n">
         <v>1537031.87092031</v>
       </c>
-      <c r="S11" s="10" t="n">
+      <c r="S11" s="2" t="n">
         <v>-11007.3470322742</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="10" t="n">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
         <v>-10774.7664822638</v>
       </c>
-      <c r="X11" s="10" t="n">
+      <c r="X11" s="2" t="n">
         <v>-6030.83718893504</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="10" t="n">
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
         <v>514330.9375</v>
       </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1749,72 +1751,72 @@
       <c r="N12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="10" t="n">
+      <c r="O12" s="2" t="n">
         <v>44057411.9436413</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="2" t="n">
         <v>14020703.757731</v>
       </c>
-      <c r="Q12" s="10" t="n">
+      <c r="Q12" s="2" t="n">
         <v>61628528.1331262</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="2" t="n">
         <v>108842331.681907</v>
       </c>
-      <c r="S12" s="10" t="n">
+      <c r="S12" s="2" t="n">
         <v>7553330.40448654</v>
       </c>
-      <c r="T12" s="10" t="n">
+      <c r="T12" s="2" t="n">
         <v>4144003.61567363</v>
       </c>
-      <c r="U12" s="10" t="n">
+      <c r="U12" s="2" t="n">
         <v>141696786.412507</v>
       </c>
-      <c r="V12" s="10" t="n">
+      <c r="V12" s="2" t="n">
         <v>24562762.2354127</v>
       </c>
-      <c r="W12" s="10" t="n">
+      <c r="W12" s="2" t="n">
         <v>579315.428977319</v>
       </c>
-      <c r="X12" s="10" t="n">
+      <c r="X12" s="2" t="n">
         <v>859538.275695101</v>
       </c>
-      <c r="Y12" s="10" t="n">
+      <c r="Y12" s="2" t="n">
         <v>-294957.362353477</v>
       </c>
-      <c r="Z12" s="10" t="n">
+      <c r="Z12" s="2" t="n">
         <v>-138573.745494734</v>
       </c>
-      <c r="AA12" s="10" t="n">
+      <c r="AA12" s="2" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB12" s="10" t="n">
+      <c r="AB12" s="2" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10" t="n">
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2" t="n">
         <v>4261239.80435698</v>
       </c>
-      <c r="AE12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="10" t="n">
+      <c r="AE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AG12" s="10" t="n">
+      <c r="AG12" s="2" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10" t="n">
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AJ12" s="10" t="n">
+      <c r="AJ12" s="2" t="n">
         <v>228600.1484</v>
       </c>
-      <c r="AK12" s="10" t="n">
+      <c r="AK12" s="2" t="n">
         <v>15393.1709193944</v>
       </c>
-      <c r="AL12" s="10"/>
+      <c r="AL12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1829,40 +1831,40 @@
       <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10" t="n">
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2" t="n">
         <v>3392.58855940632</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10" t="n">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2" t="n">
         <v>59772.4893</v>
       </c>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1877,72 +1879,72 @@
       <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="10" t="n">
+      <c r="O14" s="2" t="n">
         <v>36266.6766971188</v>
       </c>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="2" t="n">
         <v>490830.166558492</v>
       </c>
-      <c r="Q14" s="10" t="n">
+      <c r="Q14" s="2" t="n">
         <v>63837908.3393811</v>
       </c>
-      <c r="R14" s="10" t="n">
+      <c r="R14" s="2" t="n">
         <v>4564595.91178068</v>
       </c>
-      <c r="S14" s="10" t="n">
+      <c r="S14" s="2" t="n">
         <v>57044.8322550968</v>
       </c>
-      <c r="T14" s="10" t="n">
+      <c r="T14" s="2" t="n">
         <v>599285.610644712</v>
       </c>
-      <c r="U14" s="10" t="n">
+      <c r="U14" s="2" t="n">
         <v>9573184.17695912</v>
       </c>
-      <c r="V14" s="10" t="n">
+      <c r="V14" s="2" t="n">
         <v>-3302.70272288693</v>
       </c>
-      <c r="W14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="10" t="n">
+      <c r="W14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="n">
         <v>63575.105486697</v>
       </c>
-      <c r="Y14" s="10" t="n">
+      <c r="Y14" s="2" t="n">
         <v>-1797.50488190356</v>
       </c>
-      <c r="Z14" s="10" t="n">
+      <c r="Z14" s="2" t="n">
         <v>-6367.2105897548</v>
       </c>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10" t="n">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AD14" s="2" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AE14" s="2" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AG14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>162046.2031</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AL14" s="10"/>
+      <c r="AL14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1957,62 +1959,62 @@
       <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="10" t="n">
+      <c r="O15" s="2" t="n">
         <v>3575773.7888742</v>
       </c>
-      <c r="P15" s="10" t="n">
+      <c r="P15" s="2" t="n">
         <v>987548.013829452</v>
       </c>
-      <c r="Q15" s="10" t="n">
+      <c r="Q15" s="2" t="n">
         <v>5059334.81034569</v>
       </c>
-      <c r="R15" s="10" t="n">
+      <c r="R15" s="2" t="n">
         <v>473080.182825003</v>
       </c>
-      <c r="S15" s="10" t="n">
+      <c r="S15" s="2" t="n">
         <v>2929302.02129847</v>
       </c>
-      <c r="T15" s="10" t="n">
+      <c r="T15" s="2" t="n">
         <v>743011.718781901</v>
       </c>
-      <c r="U15" s="10" t="n">
+      <c r="U15" s="2" t="n">
         <v>2172937.79331339</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10" t="n">
+      <c r="V15" s="2"/>
+      <c r="W15" s="2" t="n">
         <v>-77933.24665185</v>
       </c>
-      <c r="X15" s="10" t="n">
+      <c r="X15" s="2" t="n">
         <v>384270.836525543</v>
       </c>
-      <c r="Y15" s="10" t="n">
+      <c r="Y15" s="2" t="n">
         <v>-35429.8670195553</v>
       </c>
-      <c r="Z15" s="10" t="n">
+      <c r="Z15" s="2" t="n">
         <v>-35650.7445122018</v>
       </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10" t="n">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2" t="n">
         <v>-2755.8995385704</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="2" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10" t="n">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK15" s="10" t="n">
+      <c r="AK15" s="2" t="n">
         <v>294722.203403515</v>
       </c>
-      <c r="AL15" s="10"/>
+      <c r="AL15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -2021,30 +2023,30 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2165,74 +2167,74 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="11" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="11" t="n">
         <v>2859616.9693</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="11" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="11" t="n">
         <v>6905530.6119</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="11" t="n">
         <v>2964059.6022</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="11" t="n">
         <v>2483962.762</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="11" t="n">
         <v>20853329.1778</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="11" t="n">
         <v>18042618.5187</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="11" t="n">
         <v>748090.0618</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="11" t="n">
         <v>673627.1341</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="11" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="11" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="11" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="11" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="n">
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="11" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="11" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="11" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AI2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="11" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="11" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AM2" s="2"/>
+      <c r="AM2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2250,34 +2252,34 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="n">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="n">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11" t="n">
         <v>35030</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2295,60 +2297,60 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="11" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="11" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="11" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="11" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="11" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="11" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="11" t="n">
         <v>67611390</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="11" t="n">
         <v>-37033.4688</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="11" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Y4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="11" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="11" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="11" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2" t="n">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2366,32 +2368,32 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
+      <c r="P5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2409,58 +2411,58 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="11" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="11" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="11" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="11" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="11" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="11" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="11" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="n">
+      <c r="W6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11" t="n">
         <v>-151143.5508</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="11" t="n">
         <v>14525.3794</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="11" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2478,44 +2480,44 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
+      <c r="P7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="11" t="n">
         <v>523464.7188</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="11" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="n">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2533,46 +2535,46 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="11" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="11" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="11" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="11" t="n">
         <v>37618</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="n">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="11" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="11" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="11" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2588,70 +2590,70 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="11" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="11" t="n">
         <v>2233679.1083</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="11" t="n">
         <v>11165.0754</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="11" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="11" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="11" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="11" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="n">
+      <c r="W9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Y9" s="11" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="2" t="n">
+      <c r="Z9" s="11" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="2" t="n">
+      <c r="AA9" s="11" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2" t="n">
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="2" t="n">
+      <c r="AE9" s="11" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AF9" s="11" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" s="2" t="n">
+      <c r="AG9" s="11" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2" t="n">
+      <c r="AH9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="11" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ9" s="2" t="n">
+      <c r="AJ9" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2" t="n">
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="2"/>
+      <c r="AM9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2666,74 +2668,74 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="2" t="str">
+      <c r="P10" s="11" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="2" t="str">
+      <c r="Q10" s="11" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="2" t="str">
+      <c r="R10" s="11" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="2" t="str">
+      <c r="S10" s="11" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="2" t="str">
+      <c r="T10" s="11" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="2" t="str">
+      <c r="U10" s="11" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="V10" s="11" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="2" t="str">
+      <c r="W10" s="11" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="X10" s="11" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="2" t="str">
+      <c r="Y10" s="11" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="2" t="str">
+      <c r="Z10" s="11" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="2" t="str">
+      <c r="AA10" s="11" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="2" t="str">
+      <c r="AB10" s="11" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="2" t="str">
+      <c r="AC10" s="11" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="2" t="str">
+      <c r="AD10" s="11" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="2" t="str">
+      <c r="AE10" s="11" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="2" t="str">
+      <c r="AF10" s="11" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="2" t="str">
+      <c r="AG10" s="11" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="2" t="str">
+      <c r="AH10" s="11" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="2" t="str">
+      <c r="AI10" s="11" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="2" t="str">
+      <c r="AJ10" s="11" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="2" t="str">
+      <c r="AK10" s="11" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2837,74 +2839,74 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="11" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="11" t="n">
         <v>4510980.397657</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="11" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="11" t="n">
         <v>10522912.2745836</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="11" t="n">
         <v>4408977.38726487</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="11" t="n">
         <v>3585984.53121384</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="11" t="n">
         <v>29155764.8718985</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="11" t="n">
         <v>24552700.9928803</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="11" t="n">
         <v>997215.850995582</v>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Y14" s="11" t="n">
         <v>888922.404373904</v>
       </c>
-      <c r="Z14" s="2" t="n">
+      <c r="Z14" s="11" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" s="2" t="n">
+      <c r="AA14" s="11" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AB14" s="11" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AC14" s="11" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2" t="n">
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" s="2" t="n">
+      <c r="AF14" s="11" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" s="2" t="n">
+      <c r="AG14" s="11" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AH14" s="2" t="n">
+      <c r="AH14" s="11" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
+      <c r="AI14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" s="2" t="n">
+      <c r="AK14" s="11" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL14" s="2" t="n">
+      <c r="AL14" s="11" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AM14" s="2"/>
+      <c r="AM14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2922,34 +2924,34 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2" t="n">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2" t="n">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -2967,60 +2969,60 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="11" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="11" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="11" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="11" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="11" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="11" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="11" t="n">
         <v>94529836.108893</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="11" t="n">
         <v>-50395.7718350672</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="11" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
+      <c r="Y16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" s="2" t="n">
+      <c r="AA16" s="11" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AB16" s="11" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" s="2" t="n">
+      <c r="AC16" s="11" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2" t="n">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -3038,32 +3040,32 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
+      <c r="P17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -3081,58 +3083,58 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="11" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="11" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" s="11" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="11" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="11" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="11" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="11" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2" t="n">
+      <c r="W18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="11" t="n">
         <v>-201476.736999898</v>
       </c>
-      <c r="Y18" s="2" t="n">
+      <c r="Y18" s="11" t="n">
         <v>19167.777732027</v>
       </c>
-      <c r="Z18" s="2" t="n">
+      <c r="Z18" s="11" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -3150,44 +3152,44 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2" t="n">
+      <c r="P19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="R19" s="11" t="n">
         <v>812922.826960562</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="11" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2" t="n">
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -3205,46 +3207,46 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="11" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="Q20" s="11" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" s="11" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="11" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2" t="n">
+      <c r="T20" s="11"/>
+      <c r="U20" s="11" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="11" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="11" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="11" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -3260,70 +3262,70 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="11" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="Q21" s="11" t="n">
         <v>3523577.73099373</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="11" t="n">
         <v>17338.9807018945</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="11" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="11" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="11" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="11" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2" t="n">
+      <c r="W21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Y21" s="11" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" s="2" t="n">
+      <c r="Z21" s="11" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" s="2" t="n">
+      <c r="AA21" s="11" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2" t="n">
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" s="2" t="n">
+      <c r="AE21" s="11" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" s="2" t="n">
+      <c r="AF21" s="11" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" s="2" t="n">
+      <c r="AG21" s="11" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2" t="n">
+      <c r="AH21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="11" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AJ21" s="2" t="n">
+      <c r="AJ21" s="11" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2" t="n">
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AM21" s="2"/>
+      <c r="AM21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -3332,30 +3334,30 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3458,72 +3460,72 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="n">
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>706619</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <v>49117194</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>799505</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <v>1724347</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>72817815.07</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>17949329.7799</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="4" t="n">
         <v>607122.832</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="4" t="n">
         <v>740014.064</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="4" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="n">
+      <c r="AA2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AE2" s="4" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AF2" s="4" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AG2" s="4" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AH2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3" t="n">
+      <c r="AH2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AK2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AK2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AM2" s="3"/>
+      <c r="AM2" s="4"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -3532,1162 +3534,74 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>201634.95</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>271382.0206</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <v>783968.7195</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <v>743138.2439</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <v>1982656.0366</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="4" t="n">
         <v>747418.1223</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="4" t="n">
         <v>390867.2895</v>
       </c>
-      <c r="W3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3" t="n">
+      <c r="W3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="Y3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="4" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="4" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="4" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AL3" s="3" t="n">
-        <v>304883.1617</v>
-      </c>
-      <c r="AM3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="n">
-        <v>7800</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>470776.0781</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>542500.9312</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>620175.2402</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>460229.8087</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>216395.7656</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="n">
-        <v>629147.75</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>5212.27</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>-8772.9297</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>-32729.2511</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>-14921.4499</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>-2570.84</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>-1574.29</v>
-      </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3" t="n">
-        <v>-2315.6101</v>
-      </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3" t="n">
-        <v>16169.9902</v>
-      </c>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>3049178</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>1011697</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>39925920</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>5338005</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>1411950</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>103650</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>7029712.3506</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>118813.3594</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>263786.5391</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>-3177.3301</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>-62617.5313</v>
-      </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3" t="n">
-        <v>-245</v>
-      </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3" t="n">
-        <v>465885</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
-        <v>376316</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>59840</v>
-      </c>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>26302680.0243</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>7293017.4607</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>39787465.7045</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>20082433.1214</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>2667688.9804</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1227221</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>28880752.3476</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>93043</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>-202294.9525</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>-17632.4698</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>-24569.5601</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>-2829.1001</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>-47572.2695</v>
-      </c>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3" t="n">
-        <v>3582106.8109</v>
-      </c>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3" t="n">
-        <v>20254.0801</v>
-      </c>
-      <c r="AM7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>-520917.0438</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>-7782.4696</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="n">
-        <v>-2322.43</v>
-      </c>
-      <c r="AA8" s="3" t="n">
-        <v>-2312.08</v>
-      </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="n">
-        <v>-42074.6211</v>
-      </c>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-    </row>
-    <row r="13">
-      <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="N14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>1114675.31904885</v>
-      </c>
-      <c r="R14" s="3" t="n">
-        <v>4591842.80124401</v>
-      </c>
-      <c r="S14" s="3" t="n">
-        <v>74846663.1579375</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>1189247.16068086</v>
-      </c>
-      <c r="U14" s="3" t="n">
-        <v>2489361.66155175</v>
-      </c>
-      <c r="V14" s="3" t="n">
-        <v>101809120.096108</v>
-      </c>
-      <c r="W14" s="3" t="n">
-        <v>24425752.0964446</v>
-      </c>
-      <c r="X14" s="3" t="n">
-        <v>809304.310386079</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>976526.995041935</v>
-      </c>
-      <c r="Z14" s="3" t="n">
-        <v>-232598.227359032</v>
-      </c>
-      <c r="AA14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3" t="n">
-        <v>35983.4270122674</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>2067.7810695267</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>1572929.39623693</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>-242993.47650284</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
-        <v>10692.875949243</v>
-      </c>
-      <c r="AK14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3" t="n">
-        <v>9537.98379435319</v>
-      </c>
-      <c r="AM14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>325787.647798704</v>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>428098.933649431</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>1217476.64133996</v>
-      </c>
-      <c r="S15" s="3" t="n">
-        <v>1132422.54476028</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>2949159.87033643</v>
-      </c>
-      <c r="U15" s="3" t="n">
-        <v>1079013.6897055</v>
-      </c>
-      <c r="V15" s="3" t="n">
-        <v>546485.153119352</v>
-      </c>
-      <c r="W15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3" t="n">
-        <v>-195720.160644237</v>
-      </c>
-      <c r="Y15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="n">
-        <v>-49574.2548854623</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>-46684.4823248724</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>-1357.34909774102</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>-10514.0852766771</v>
-      </c>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AL15" s="3" t="n">
-        <v>290797.065546576</v>
-      </c>
-      <c r="AM15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="n">
-        <v>12304.3216904457</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>760647.056098648</v>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>855782.817288609</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>963110.963103804</v>
-      </c>
-      <c r="S17" s="3" t="n">
-        <v>701315.825716976</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>321884.228145117</v>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3" t="n">
-        <v>879633.353134417</v>
-      </c>
-      <c r="W17" s="3" t="n">
-        <v>7092.94533227105</v>
-      </c>
-      <c r="X17" s="3" t="n">
-        <v>-11694.453653695</v>
-      </c>
-      <c r="Y17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3" t="n">
-        <v>-42817.3134157914</v>
-      </c>
-      <c r="AA17" s="3" t="n">
-        <v>-19135.0120676911</v>
-      </c>
-      <c r="AB17" s="3" t="n">
-        <v>-3237.45881138229</v>
-      </c>
-      <c r="AC17" s="3" t="n">
-        <v>-1946.87557313036</v>
-      </c>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3" t="n">
-        <v>-2754.62667724342</v>
-      </c>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3" t="n">
-        <v>16169.9902</v>
-      </c>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>4926648.52169506</v>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>1595928.88990498</v>
-      </c>
-      <c r="R18" s="3" t="n">
-        <v>62003589.9072731</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>8134256.65501954</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>2100246.43813778</v>
-      </c>
-      <c r="U18" s="3" t="n">
-        <v>149634.810290411</v>
-      </c>
-      <c r="V18" s="3" t="n">
-        <v>9828485.35424104</v>
-      </c>
-      <c r="W18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" t="n">
-        <v>158380.081963167</v>
-      </c>
-      <c r="Y18" s="3" t="n">
-        <v>348094.298326518</v>
-      </c>
-      <c r="Z18" s="3" t="n">
-        <v>-4156.67129997752</v>
-      </c>
-      <c r="AA18" s="3" t="n">
-        <v>-80299.6508452254</v>
-      </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3" t="n">
-        <v>-286.337355131209</v>
-      </c>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3" t="n">
-        <v>521779.598543694</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
-        <v>402390.030571531</v>
-      </c>
-      <c r="AK18" s="3" t="n">
-        <v>59840</v>
-      </c>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="N19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>42498030.5047248</v>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>11504568.3244218</v>
-      </c>
-      <c r="R19" s="3" t="n">
-        <v>61788575.1159025</v>
-      </c>
-      <c r="S19" s="3" t="n">
-        <v>30602381.4639988</v>
-      </c>
-      <c r="T19" s="3" t="n">
-        <v>3968132.21370764</v>
-      </c>
-      <c r="U19" s="3" t="n">
-        <v>1771683.37211199</v>
-      </c>
-      <c r="V19" s="3" t="n">
-        <v>40379184.4261766</v>
-      </c>
-      <c r="W19" s="3" t="n">
-        <v>126614.490912884</v>
-      </c>
-      <c r="X19" s="3" t="n">
-        <v>-269662.362208109</v>
-      </c>
-      <c r="Y19" s="3" t="n">
-        <v>-23267.9128500478</v>
-      </c>
-      <c r="Z19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3" t="n">
-        <v>-31507.5835231911</v>
-      </c>
-      <c r="AB19" s="3" t="n">
-        <v>-3562.68575525024</v>
-      </c>
-      <c r="AC19" s="3" t="n">
-        <v>-58831.1489293108</v>
-      </c>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3" t="n">
-        <v>4261238.53149565</v>
-      </c>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3" t="n">
-        <v>19318.3087763331</v>
-      </c>
-      <c r="AM19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="N20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>-841661.321104584</v>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>-12276.6678851941</v>
-      </c>
-      <c r="R20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="n">
-        <v>-3038.26729467196</v>
-      </c>
-      <c r="AA20" s="3" t="n">
-        <v>-2964.97183571063</v>
-      </c>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="n">
-        <v>-52032.3778136845</v>
-      </c>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>706619</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>2956821.51</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>49117194</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>799505</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1724347</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>72817815.07</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>17949329.7799</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>607122.832</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>740014.064</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>-177796.4375</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="n">
-        <v>30000</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1738.23</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>-212795.3672</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>201634.95</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>271382.0206</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>783968.7195</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>743138.2439</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>1982656.0366</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>747418.1223</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>390867.2895</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>-146825.09</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>-37894.2093</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>-36404.48</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>-1077.86</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>-8501.94</v>
-      </c>
-      <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4" t="n">
         <v>904909.7783</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AL3" s="4" t="n">
         <v>304883.1617</v>
       </c>
-      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
     </row>
     <row r="4">
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -4709,235 +3623,235 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
     </row>
     <row r="5">
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="P5" s="4" t="n">
         <v>470776.0781</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="Q5" s="4" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="R5" s="4" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="S5" s="4" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="T5" s="4" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="n">
         <v>629147.75</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="W5" s="4" t="n">
         <v>5212.27</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="X5" s="4" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>-32729.2511</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="AA5" s="4" t="n">
         <v>-14921.4499</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AB5" s="4" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AC5" s="4" t="n">
         <v>-1574.29</v>
       </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-      <c r="AJ5" s="4" t="n">
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
     </row>
     <row r="6">
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="P6" s="4" t="n">
         <v>3049178</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="Q6" s="4" t="n">
         <v>1011697</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="R6" s="4" t="n">
         <v>39925920</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="S6" s="4" t="n">
         <v>5338005</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="T6" s="4" t="n">
         <v>1411950</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="U6" s="4" t="n">
         <v>103650</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="V6" s="4" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="Y6" s="4" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Z6" s="4" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="AA6" s="4" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4" t="n">
         <v>-245</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4" t="n">
         <v>465885</v>
       </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
         <v>376316</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AK6" s="4" t="n">
         <v>59840</v>
       </c>
-      <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
     </row>
     <row r="7">
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="P7" s="4" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="Q7" s="4" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="R7" s="4" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="S7" s="4" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="T7" s="4" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="U7" s="4" t="n">
         <v>1227221</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="V7" s="4" t="n">
         <v>28880752.3476</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="W7" s="4" t="n">
         <v>93043</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="X7" s="4" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="Y7" s="4" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="Y7" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>-24569.5601</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AB7" s="4" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AC7" s="4" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4" t="n">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4" t="n">
         <v>20254.0801</v>
       </c>
-      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
     </row>
     <row r="8">
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>52</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="P8" s="4" t="n">
         <v>-520917.0438</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="Q8" s="4" t="n">
         <v>-7782.4696</v>
       </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="n">
         <v>-2322.43</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="AA8" s="4" t="n">
         <v>-2312.08</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4" t="n">
         <v>-42074.6211</v>
       </c>
-      <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -4947,17 +3861,15 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
     </row>
     <row r="9">
-      <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O9"/>
+      <c r="P9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4" t="n">
         <v>0</v>
       </c>
@@ -4979,11 +3891,13 @@
       <c r="X9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4"/>
+      <c r="Y9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -4995,234 +3909,234 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
     </row>
     <row r="13">
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>48</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>3</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>4</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>5</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>6</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>7</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>8</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>9</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>10</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>11</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>12</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>14</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>15</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>17</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>18</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>19</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>20</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>21</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>22</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14">
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="n">
         <v>1114675.31904885</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="R14" s="4" t="n">
         <v>4591842.80124401</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="S14" s="4" t="n">
         <v>74846663.1579375</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="T14" s="4" t="n">
         <v>1189247.16068086</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="U14" s="4" t="n">
         <v>2489361.66155175</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="V14" s="4" t="n">
         <v>101809120.096108</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="W14" s="4" t="n">
         <v>24425752.0964446</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="X14" s="4" t="n">
         <v>809304.310386079</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="Y14" s="4" t="n">
         <v>976526.995041935</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Z14" s="4" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="Z14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AE14" s="4" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AF14" s="4" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AG14" s="4" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AJ14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AK14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="4" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
     </row>
     <row r="15">
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>49</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="P15" s="4" t="n">
         <v>325787.647798704</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="Q15" s="4" t="n">
         <v>428098.933649431</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="R15" s="4" t="n">
         <v>1217476.64133996</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="S15" s="4" t="n">
         <v>1132422.54476028</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="T15" s="4" t="n">
         <v>2949159.87033643</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="U15" s="4" t="n">
         <v>1079013.6897055</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="V15" s="4" t="n">
         <v>546485.153119352</v>
       </c>
-      <c r="V15" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4" t="n">
         <v>-195720.160644237</v>
       </c>
-      <c r="X15" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4" t="n">
         <v>-49574.2548854623</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="AA15" s="4" t="n">
         <v>-46684.4823248724</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AB15" s="4" t="n">
         <v>-1357.34909774102</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AC15" s="4" t="n">
         <v>-10514.0852766771</v>
       </c>
-      <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4" t="n">
         <v>904909.7783</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AL15" s="4" t="n">
         <v>290797.065546576</v>
       </c>
-      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
     </row>
     <row r="16">
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -5244,235 +4158,235 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
     </row>
     <row r="17">
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="P17" s="4" t="n">
         <v>760647.056098648</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="Q17" s="4" t="n">
         <v>855782.817288609</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="R17" s="4" t="n">
         <v>963110.963103804</v>
       </c>
-      <c r="R17" s="4" t="n">
+      <c r="S17" s="4" t="n">
         <v>701315.825716976</v>
       </c>
-      <c r="S17" s="4" t="n">
+      <c r="T17" s="4" t="n">
         <v>321884.228145117</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="n">
         <v>879633.353134417</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="W17" s="4" t="n">
         <v>7092.94533227105</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="X17" s="4" t="n">
         <v>-11694.453653695</v>
       </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4" t="n">
         <v>-42817.3134157914</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="AA17" s="4" t="n">
         <v>-19135.0120676911</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AB17" s="4" t="n">
         <v>-3237.45881138229</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AC17" s="4" t="n">
         <v>-1946.87557313036</v>
       </c>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4" t="n">
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="4" t="n">
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
     </row>
     <row r="18">
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>52</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="P18" s="4" t="n">
         <v>4926648.52169506</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="Q18" s="4" t="n">
         <v>1595928.88990498</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="R18" s="4" t="n">
         <v>62003589.9072731</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="S18" s="4" t="n">
         <v>8134256.65501954</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="T18" s="4" t="n">
         <v>2100246.43813778</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="U18" s="4" t="n">
         <v>149634.810290411</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="V18" s="4" t="n">
         <v>9828485.35424104</v>
       </c>
-      <c r="V18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4" t="n">
         <v>158380.081963167</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="Y18" s="4" t="n">
         <v>348094.298326518</v>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Z18" s="4" t="n">
         <v>-4156.67129997752</v>
       </c>
-      <c r="Z18" s="4" t="n">
+      <c r="AA18" s="4" t="n">
         <v>-80299.6508452254</v>
       </c>
-      <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4" t="n">
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AK18" s="4" t="n">
         <v>59840</v>
       </c>
-      <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
     </row>
     <row r="19">
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>52</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="P19" s="4" t="n">
         <v>42498030.5047248</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="Q19" s="4" t="n">
         <v>11504568.3244218</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="R19" s="4" t="n">
         <v>61788575.1159025</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="S19" s="4" t="n">
         <v>30602381.4639988</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="T19" s="4" t="n">
         <v>3968132.21370764</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="U19" s="4" t="n">
         <v>1771683.37211199</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="V19" s="4" t="n">
         <v>40379184.4261766</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="W19" s="4" t="n">
         <v>126614.490912884</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="X19" s="4" t="n">
         <v>-269662.362208109</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="Y19" s="4" t="n">
         <v>-23267.9128500478</v>
       </c>
-      <c r="Y19" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4" t="n">
         <v>-31507.5835231911</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AB19" s="4" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AC19" s="4" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4" t="n">
         <v>4261238.53149565</v>
       </c>
-      <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4" t="n">
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4" t="n">
         <v>19318.3087763331</v>
       </c>
-      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
     </row>
     <row r="20">
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>52</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="P20" s="4" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="Q20" s="4" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="Q20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="Z20" s="4" t="n">
+      <c r="AA20" s="4" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4" t="n">
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
@@ -5482,17 +4396,15 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
     </row>
     <row r="21">
-      <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O21"/>
+      <c r="P21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4"/>
       <c r="R21" s="4" t="n">
         <v>0</v>
       </c>
@@ -5514,11 +4426,13 @@
       <c r="X21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4"/>
+      <c r="Y21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -5530,6 +4444,1094 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>706619</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>2956821.51</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>49117194</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>799505</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>1724347</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>72817815.07</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>17949329.7799</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>607122.832</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>740014.064</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>-177796.4375</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>1738.23</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>1345852</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>314555.625</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>201634.95</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>271382.0206</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>783968.7195</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>743138.2439</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>1982656.0366</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>747418.1223</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>390867.2895</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>-146825.09</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>-37894.2093</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>-36404.48</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>-1077.86</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>-8501.94</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>304883.1617</v>
+      </c>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="n">
+        <v>7800</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>470776.0781</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>542500.9312</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>620175.2402</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>460229.8087</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>216395.7656</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
+        <v>629147.75</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>5212.27</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>-8772.9297</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>-32729.2511</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>-14921.4499</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>-2570.84</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>-1574.29</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="n">
+        <v>-2315.6101</v>
+      </c>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5" t="n">
+        <v>16169.9902</v>
+      </c>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>3049178</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1011697</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>39925920</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>5338005</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>1411950</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>103650</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>7029712.3506</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>118813.3594</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>263786.5391</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>-3177.3301</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>-62617.5313</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5" t="n">
+        <v>-245</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>376316</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>59840</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>26302680.0243</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>7293017.4607</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>39787465.7045</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>20082433.1214</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>2667688.9804</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>1227221</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>28880752.3476</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>93043</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>-202294.9525</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>-17632.4698</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>-24569.5601</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>-2829.1001</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>-47572.2695</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5" t="n">
+        <v>3582106.8109</v>
+      </c>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5" t="n">
+        <v>20254.0801</v>
+      </c>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-520917.0438</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-7782.4696</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5" t="n">
+        <v>-2322.43</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>-2312.08</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5" t="n">
+        <v>-42074.6211</v>
+      </c>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>1114675.31904885</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>4591842.80124401</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>74846663.1579375</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>1189247.16068086</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>2489361.66155175</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>101809120.096108</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>24425752.0964446</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>809304.310386079</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>976526.995041935</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>-232598.227359032</v>
+      </c>
+      <c r="Z14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5" t="n">
+        <v>35983.4270122674</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>2067.7810695267</v>
+      </c>
+      <c r="AE14" s="5" t="n">
+        <v>1572929.39623693</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AI14" s="5" t="n">
+        <v>10692.875949243</v>
+      </c>
+      <c r="AJ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5" t="n">
+        <v>9537.98379435319</v>
+      </c>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>325787.647798704</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>428098.933649431</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1217476.64133996</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>1132422.54476028</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>2949159.87033643</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>1079013.6897055</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>546485.153119352</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>-195720.160644237</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>-49574.2548854623</v>
+      </c>
+      <c r="Z15" s="5" t="n">
+        <v>-46684.4823248724</v>
+      </c>
+      <c r="AA15" s="5" t="n">
+        <v>-1357.34909774102</v>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <v>-10514.0852766771</v>
+      </c>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5" t="n">
+        <v>904909.7783</v>
+      </c>
+      <c r="AK15" s="5" t="n">
+        <v>290797.065546576</v>
+      </c>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="n">
+        <v>12304.3216904457</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>760647.056098648</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>855782.817288609</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>963110.963103804</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>701315.825716976</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>321884.228145117</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5" t="n">
+        <v>879633.353134417</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>7092.94533227105</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>-11694.453653695</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>-42817.3134157914</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>-19135.0120676911</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>-3237.45881138229</v>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>-1946.87557313036</v>
+      </c>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5" t="n">
+        <v>-2754.62667724342</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5" t="n">
+        <v>16169.9902</v>
+      </c>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>4926648.52169506</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>1595928.88990498</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>62003589.9072731</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>8134256.65501954</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>2100246.43813778</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>149634.810290411</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>9828485.35424104</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>158380.081963167</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>348094.298326518</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>-4156.67129997752</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>-80299.6508452254</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5" t="n">
+        <v>-286.337355131209</v>
+      </c>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>402390.030571531</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>59840</v>
+      </c>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>42498030.5047248</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>11504568.3244218</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>61788575.1159025</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>30602381.4639988</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>3968132.21370764</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>1771683.37211199</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>40379184.4261766</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>126614.490912884</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>-269662.362208109</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>-23267.9128500478</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>-31507.5835231911</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>-3562.68575525024</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>-58831.1489293108</v>
+      </c>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5" t="n">
+        <v>4261238.53149565</v>
+      </c>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5" t="n">
+        <v>19318.3087763331</v>
+      </c>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-841661.321104584</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-12276.6678851941</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5" t="n">
+        <v>-3038.26729467196</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>-2964.97183571063</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5" t="n">
+        <v>-52032.3778136845</v>
+      </c>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5630,77 +5632,77 @@
         <f>M2</f>
       </c>
       <c r="M2"/>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="7" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="7" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="7" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="7" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="7" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="7" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="7" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="7" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="7" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y2" s="6" t="n">
+      <c r="Y2" s="7" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z2" s="6" t="n">
+      <c r="Z2" s="7" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA2" s="6" t="n">
+      <c r="AA2" s="7" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB2" s="6" t="n">
+      <c r="AB2" s="7" t="n">
         <v>30000</v>
       </c>
-      <c r="AC2" s="6" t="n">
+      <c r="AC2" s="7" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD2" s="6" t="n">
+      <c r="AD2" s="7" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE2" s="6" t="n">
+      <c r="AE2" s="7" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF2" s="6" t="n">
+      <c r="AF2" s="7" t="n">
         <v>465885</v>
       </c>
-      <c r="AG2" s="6" t="n">
+      <c r="AG2" s="7" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH2" s="6" t="n">
+      <c r="AH2" s="7" t="n">
         <v>386316</v>
       </c>
-      <c r="AI2" s="6" t="n">
+      <c r="AI2" s="7" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="6" t="n">
+      <c r="AJ2" s="7" t="n">
         <v>335137.2418</v>
       </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5709,77 +5711,77 @@
       <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="7" t="str">
         <f>Sum(N2:N2)</f>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="7" t="str">
         <f>Sum(O2:O2)</f>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="7" t="str">
         <f>Sum(P2:P2)</f>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="7" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="6" t="str">
+      <c r="R3" s="7" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="6" t="str">
+      <c r="S3" s="7" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="6" t="str">
+      <c r="T3" s="7" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="6" t="str">
+      <c r="U3" s="7" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="6" t="str">
+      <c r="V3" s="7" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="6" t="str">
+      <c r="W3" s="7" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="6" t="str">
+      <c r="X3" s="7" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="6" t="str">
+      <c r="Y3" s="7" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="6" t="str">
+      <c r="Z3" s="7" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="6" t="str">
+      <c r="AA3" s="7" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="6" t="str">
+      <c r="AB3" s="7" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="6" t="str">
+      <c r="AC3" s="7" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="6" t="str">
+      <c r="AD3" s="7" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="6" t="str">
+      <c r="AE3" s="7" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="6" t="str">
+      <c r="AF3" s="7" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="6" t="str">
+      <c r="AG3" s="7" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="6" t="str">
+      <c r="AH3" s="7" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="6" t="str">
+      <c r="AI3" s="7" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="6" t="str">
+      <c r="AJ3" s="7" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
     </row>
     <row r="4">
       <c r="M4" t="str">
@@ -5899,211 +5901,211 @@
       <c r="A7" t="str">
         <f>M7</f>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="7" t="str">
         <f>AB7</f>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="7" t="str">
         <f>AH7</f>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="7" t="str">
         <f>AI7</f>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="7" t="str">
         <f>AJ7</f>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="6" t="str">
         <f>AI7/AH7-1</f>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="6" t="str">
         <f>AI7/AB7-1</f>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="6" t="str">
         <f>AJ7/AI7</f>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="6" t="str">
         <f>AI7/Sum(AI$6:AI$7)</f>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="6" t="str">
         <f>AJ7/Sum(AJ6:AJ$7)</f>
       </c>
       <c r="M7"/>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="7" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="7" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="7" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="7" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="7" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="7" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="7" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="V7" s="7" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="W7" s="7" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="X7" s="7" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Y7" s="7" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z7" s="6" t="n">
+      <c r="Z7" s="7" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="7" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB7" s="6" t="n">
+      <c r="AB7" s="7" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="7" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD7" s="6" t="n">
+      <c r="AD7" s="7" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE7" s="6" t="n">
+      <c r="AE7" s="7" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF7" s="6" t="n">
+      <c r="AF7" s="7" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG7" s="6" t="n">
+      <c r="AG7" s="7" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH7" s="6" t="n">
+      <c r="AH7" s="7" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI7" s="6" t="n">
+      <c r="AI7" s="7" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ7" s="6" t="n">
+      <c r="AJ7" s="7" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="7" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="7" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="7" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="7" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="6" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="6" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="6" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="6" t="str">
         <f>Sum(I$6:I$7)</f>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="6" t="str">
         <f>Sum(J$6:J$7)</f>
       </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="7" t="str">
         <f>Sum(N7:N7)</f>
       </c>
-      <c r="O8" s="6" t="str">
+      <c r="O8" s="7" t="str">
         <f>Sum(O7:O7)</f>
       </c>
-      <c r="P8" s="6" t="str">
+      <c r="P8" s="7" t="str">
         <f>Sum(P7:P7)</f>
       </c>
-      <c r="Q8" s="6" t="str">
+      <c r="Q8" s="7" t="str">
         <f>Sum(Q7:Q7)</f>
       </c>
-      <c r="R8" s="6" t="str">
+      <c r="R8" s="7" t="str">
         <f>Sum(R7:R7)</f>
       </c>
-      <c r="S8" s="6" t="str">
+      <c r="S8" s="7" t="str">
         <f>Sum(S7:S7)</f>
       </c>
-      <c r="T8" s="6" t="str">
+      <c r="T8" s="7" t="str">
         <f>Sum(T7:T7)</f>
       </c>
-      <c r="U8" s="6" t="str">
+      <c r="U8" s="7" t="str">
         <f>Sum(U7:U7)</f>
       </c>
-      <c r="V8" s="6" t="str">
+      <c r="V8" s="7" t="str">
         <f>Sum(V7:V7)</f>
       </c>
-      <c r="W8" s="6" t="str">
+      <c r="W8" s="7" t="str">
         <f>Sum(W7:W7)</f>
       </c>
-      <c r="X8" s="6" t="str">
+      <c r="X8" s="7" t="str">
         <f>Sum(X7:X7)</f>
       </c>
-      <c r="Y8" s="6" t="str">
+      <c r="Y8" s="7" t="str">
         <f>Sum(Y7:Y7)</f>
       </c>
-      <c r="Z8" s="6" t="str">
+      <c r="Z8" s="7" t="str">
         <f>Sum(Z7:Z7)</f>
       </c>
-      <c r="AA8" s="6" t="str">
+      <c r="AA8" s="7" t="str">
         <f>Sum(AA7:AA7)</f>
       </c>
-      <c r="AB8" s="6" t="str">
+      <c r="AB8" s="7" t="str">
         <f>Sum(AB7:AB7)</f>
       </c>
-      <c r="AC8" s="6" t="str">
+      <c r="AC8" s="7" t="str">
         <f>Sum(AC7:AC7)</f>
       </c>
-      <c r="AD8" s="6" t="str">
+      <c r="AD8" s="7" t="str">
         <f>Sum(AD7:AD7)</f>
       </c>
-      <c r="AE8" s="6" t="str">
+      <c r="AE8" s="7" t="str">
         <f>Sum(AE7:AE7)</f>
       </c>
-      <c r="AF8" s="6" t="str">
+      <c r="AF8" s="7" t="str">
         <f>Sum(AF7:AF7)</f>
       </c>
-      <c r="AG8" s="6" t="str">
+      <c r="AG8" s="7" t="str">
         <f>Sum(AG7:AG7)</f>
       </c>
-      <c r="AH8" s="6" t="str">
+      <c r="AH8" s="7" t="str">
         <f>Sum(AH7:AH7)</f>
       </c>
-      <c r="AI8" s="6" t="str">
+      <c r="AI8" s="7" t="str">
         <f>Sum(AI7:AI7)</f>
       </c>
-      <c r="AJ8" s="6" t="str">
+      <c r="AJ8" s="7" t="str">
         <f>Sum(AJ7:AJ7)</f>
       </c>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
     </row>
     <row r="9">
       <c r="M9" t="str">
@@ -6256,112 +6258,112 @@
       <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="n">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AJ2" s="8" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <f>M3</f>
       </c>
       <c r="M3"/>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="8" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="8" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="P3" s="8" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="8" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R3" s="7" t="n">
+      <c r="R3" s="8" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="8" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T3" s="7" t="n">
+      <c r="T3" s="8" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="8" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V3" s="7" t="n">
+      <c r="V3" s="8" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="W3" s="8" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X3" s="7" t="n">
+      <c r="X3" s="8" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="7" t="n">
+      <c r="Y3" s="8" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="7" t="n">
+      <c r="Z3" s="8" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="7" t="n">
+      <c r="AA3" s="8" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="7" t="n">
+      <c r="AB3" s="8" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="7" t="n">
+      <c r="AC3" s="8" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="7" t="n">
+      <c r="AD3" s="8" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="8" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF3" s="7" t="n">
+      <c r="AF3" s="8" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="7" t="n">
+      <c r="AG3" s="8" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH3" s="7" t="n">
+      <c r="AH3" s="8" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="7" t="n">
+      <c r="AI3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -6370,77 +6372,77 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="7" t="str">
+      <c r="N4" s="8" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="7" t="str">
+      <c r="O4" s="8" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="7" t="str">
+      <c r="P4" s="8" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="7" t="str">
+      <c r="Q4" s="8" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="7" t="str">
+      <c r="R4" s="8" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="7" t="str">
+      <c r="S4" s="8" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="7" t="str">
+      <c r="T4" s="8" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="7" t="str">
+      <c r="U4" s="8" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="7" t="str">
+      <c r="V4" s="8" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="7" t="str">
+      <c r="W4" s="8" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="7" t="str">
+      <c r="X4" s="8" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="7" t="str">
+      <c r="Y4" s="8" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="7" t="str">
+      <c r="Z4" s="8" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="7" t="str">
+      <c r="AA4" s="8" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="7" t="str">
+      <c r="AB4" s="8" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="7" t="str">
+      <c r="AC4" s="8" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="7" t="str">
+      <c r="AD4" s="8" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="7" t="str">
+      <c r="AE4" s="8" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="7" t="str">
+      <c r="AF4" s="8" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="7" t="str">
+      <c r="AG4" s="8" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="7" t="str">
+      <c r="AH4" s="8" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="7" t="str">
+      <c r="AI4" s="8" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="7" t="str">
+      <c r="AJ4" s="8" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6550,275 +6552,275 @@
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="8" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="8" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="8" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="8" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="6" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="6" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="6" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="6" t="str">
         <f>AI8/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="6" t="str">
         <f>AJ8/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="n">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="8" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <f>M9</f>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="8" t="str">
         <f>AB9</f>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="8" t="str">
         <f>AH9</f>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="8" t="str">
         <f>AI9</f>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="8" t="str">
         <f>AJ9</f>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="6" t="str">
         <f>AI9/AH9-1</f>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="6" t="str">
         <f>AI9/AB9-1</f>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="6" t="str">
         <f>AJ9/AI9</f>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="6" t="str">
         <f>AI9/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="6" t="str">
         <f>AJ9/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M9"/>
-      <c r="N9" s="7" t="n">
+      <c r="N9" s="8" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="8" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="P9" s="8" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="Q9" s="8" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="R9" s="8" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="8" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="T9" s="8" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U9" s="7" t="n">
+      <c r="U9" s="8" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V9" s="7" t="n">
+      <c r="V9" s="8" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W9" s="7" t="n">
+      <c r="W9" s="8" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X9" s="7" t="n">
+      <c r="X9" s="8" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="7" t="n">
+      <c r="Y9" s="8" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="7" t="n">
+      <c r="Z9" s="8" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="7" t="n">
+      <c r="AA9" s="8" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="7" t="n">
+      <c r="AB9" s="8" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="7" t="n">
+      <c r="AC9" s="8" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="7" t="n">
+      <c r="AD9" s="8" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="7" t="n">
+      <c r="AE9" s="8" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF9" s="7" t="n">
+      <c r="AF9" s="8" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="7" t="n">
+      <c r="AG9" s="8" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH9" s="7" t="n">
+      <c r="AH9" s="8" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AI9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="8" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="8" t="str">
         <f>AB10</f>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="8" t="str">
         <f>AH10</f>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="8" t="str">
         <f>AI10</f>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="8" t="str">
         <f>AJ10</f>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="6" t="str">
         <f>AI10/AH10-1</f>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="6" t="str">
         <f>AI10/AB10-1</f>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="6" t="str">
         <f>AJ10/AI10</f>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="6" t="str">
         <f>Sum(I$7:I$9)</f>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="6" t="str">
         <f>Sum(J$7:J$9)</f>
       </c>
       <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="7" t="str">
+      <c r="N10" s="8" t="str">
         <f>Sum(N8:N9)</f>
       </c>
-      <c r="O10" s="7" t="str">
+      <c r="O10" s="8" t="str">
         <f>Sum(O8:O9)</f>
       </c>
-      <c r="P10" s="7" t="str">
+      <c r="P10" s="8" t="str">
         <f>Sum(P8:P9)</f>
       </c>
-      <c r="Q10" s="7" t="str">
+      <c r="Q10" s="8" t="str">
         <f>Sum(Q8:Q9)</f>
       </c>
-      <c r="R10" s="7" t="str">
+      <c r="R10" s="8" t="str">
         <f>Sum(R8:R9)</f>
       </c>
-      <c r="S10" s="7" t="str">
+      <c r="S10" s="8" t="str">
         <f>Sum(S8:S9)</f>
       </c>
-      <c r="T10" s="7" t="str">
+      <c r="T10" s="8" t="str">
         <f>Sum(T8:T9)</f>
       </c>
-      <c r="U10" s="7" t="str">
+      <c r="U10" s="8" t="str">
         <f>Sum(U8:U9)</f>
       </c>
-      <c r="V10" s="7" t="str">
+      <c r="V10" s="8" t="str">
         <f>Sum(V8:V9)</f>
       </c>
-      <c r="W10" s="7" t="str">
+      <c r="W10" s="8" t="str">
         <f>Sum(W8:W9)</f>
       </c>
-      <c r="X10" s="7" t="str">
+      <c r="X10" s="8" t="str">
         <f>Sum(X8:X9)</f>
       </c>
-      <c r="Y10" s="7" t="str">
+      <c r="Y10" s="8" t="str">
         <f>Sum(Y8:Y9)</f>
       </c>
-      <c r="Z10" s="7" t="str">
+      <c r="Z10" s="8" t="str">
         <f>Sum(Z8:Z9)</f>
       </c>
-      <c r="AA10" s="7" t="str">
+      <c r="AA10" s="8" t="str">
         <f>Sum(AA8:AA9)</f>
       </c>
-      <c r="AB10" s="7" t="str">
+      <c r="AB10" s="8" t="str">
         <f>Sum(AB8:AB9)</f>
       </c>
-      <c r="AC10" s="7" t="str">
+      <c r="AC10" s="8" t="str">
         <f>Sum(AC8:AC9)</f>
       </c>
-      <c r="AD10" s="7" t="str">
+      <c r="AD10" s="8" t="str">
         <f>Sum(AD8:AD9)</f>
       </c>
-      <c r="AE10" s="7" t="str">
+      <c r="AE10" s="8" t="str">
         <f>Sum(AE8:AE9)</f>
       </c>
-      <c r="AF10" s="7" t="str">
+      <c r="AF10" s="8" t="str">
         <f>Sum(AF8:AF9)</f>
       </c>
-      <c r="AG10" s="7" t="str">
+      <c r="AG10" s="8" t="str">
         <f>Sum(AG8:AG9)</f>
       </c>
-      <c r="AH10" s="7" t="str">
+      <c r="AH10" s="8" t="str">
         <f>Sum(AH8:AH9)</f>
       </c>
-      <c r="AI10" s="7" t="str">
+      <c r="AI10" s="8" t="str">
         <f>Sum(AI8:AI9)</f>
       </c>
-      <c r="AJ10" s="7" t="str">
+      <c r="AJ10" s="8" t="str">
         <f>Sum(AJ8:AJ9)</f>
       </c>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6917,76 +6919,76 @@
     <row r="2">
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="9" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="9" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="9" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="9" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="S2" s="8" t="n">
+      <c r="S2" s="9" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="T2" s="9" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="U2" s="9" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="V2" s="8" t="n">
+      <c r="V2" s="9" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="W2" s="8" t="n">
+      <c r="W2" s="9" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="X2" s="8" t="n">
+      <c r="X2" s="9" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="Y2" s="8" t="n">
+      <c r="Y2" s="9" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Z2" s="8" t="n">
+      <c r="Z2" s="9" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AA2" s="8" t="n">
+      <c r="AA2" s="9" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB2" s="8" t="n">
+      <c r="AB2" s="9" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC2" s="8" t="n">
+      <c r="AC2" s="9" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD2" s="8" t="n">
+      <c r="AD2" s="9" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AE2" s="8" t="n">
+      <c r="AE2" s="9" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AF2" s="8" t="n">
+      <c r="AF2" s="9" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG2" s="8" t="n">
+      <c r="AG2" s="9" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH2" s="8" t="n">
+      <c r="AH2" s="9" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI2" s="8" t="n">
+      <c r="AI2" s="9" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AJ2" s="8" t="n">
+      <c r="AJ2" s="9" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AK2" s="8" t="n">
+      <c r="AK2" s="9" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AL2" s="8"/>
+      <c r="AL2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7122,105 +7124,105 @@
       <c r="B2" t="str">
         <f>P2</f>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="10" t="str">
         <f>AE2</f>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="10" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="10" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="F2" s="10" t="str">
         <f>AM2</f>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="6" t="str">
         <f>AL2/AK2-1</f>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="6" t="str">
         <f>AL2/AE2-1</f>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="6" t="str">
         <f>AM2/AL2</f>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="6" t="str">
         <f>AL2/Sum(AL$1:AL$2)</f>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="6" t="str">
         <f>AM2/Sum(AM1:AM$2)</f>
       </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="9" t="n">
+      <c r="Q2" s="10" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="10" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="10" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="10" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="10" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="10" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="10" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="10" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="10" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="10" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="AA2" s="9" t="n">
+      <c r="AA2" s="10" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="AB2" s="9" t="n">
+      <c r="AB2" s="10" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AC2" s="9" t="n">
+      <c r="AC2" s="10" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AD2" s="9" t="n">
+      <c r="AD2" s="10" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AE2" s="9" t="n">
+      <c r="AE2" s="10" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AF2" s="9" t="n">
+      <c r="AF2" s="10" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AG2" s="9" t="n">
+      <c r="AG2" s="10" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AH2" s="9" t="n">
+      <c r="AH2" s="10" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AI2" s="9" t="n">
+      <c r="AI2" s="10" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AJ2" s="9" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AK2" s="9" t="n">
+      <c r="AK2" s="10" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AL2" s="9" t="n">
+      <c r="AL2" s="10" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AM2" s="9" t="n">
+      <c r="AM2" s="10" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AN2" s="9"/>
+      <c r="AN2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7229,31 +7231,31 @@
       <c r="B3" t="str">
         <f>P3</f>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="10" t="str">
         <f>AE3</f>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="10" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="10" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="10" t="str">
         <f>AM3</f>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="6" t="str">
         <f>AL3/AK3-1</f>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="6" t="str">
         <f>AL3/AE3-1</f>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="6" t="str">
         <f>AM3/AL3</f>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="6" t="str">
         <f>Sum(J$1:J$2)</f>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="6" t="str">
         <f>Sum(K$1:K$2)</f>
       </c>
       <c r="O3" t="s">
@@ -7262,74 +7264,74 @@
       <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="9" t="str">
+      <c r="Q3" s="10" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="9" t="str">
+      <c r="R3" s="10" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="9" t="str">
+      <c r="S3" s="10" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="9" t="str">
+      <c r="T3" s="10" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="9" t="str">
+      <c r="U3" s="10" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="9" t="str">
+      <c r="V3" s="10" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="9" t="str">
+      <c r="W3" s="10" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="9" t="str">
+      <c r="X3" s="10" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="9" t="str">
+      <c r="Y3" s="10" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="9" t="str">
+      <c r="Z3" s="10" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="9" t="str">
+      <c r="AA3" s="10" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="9" t="str">
+      <c r="AB3" s="10" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="9" t="str">
+      <c r="AC3" s="10" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="9" t="str">
+      <c r="AD3" s="10" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="9" t="str">
+      <c r="AE3" s="10" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="9" t="str">
+      <c r="AF3" s="10" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="9" t="str">
+      <c r="AG3" s="10" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="9" t="str">
+      <c r="AH3" s="10" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="9" t="str">
+      <c r="AI3" s="10" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="9" t="str">
+      <c r="AJ3" s="10" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="9" t="str">
+      <c r="AK3" s="10" t="str">
         <f>Sum(AK2:AK2)</f>
       </c>
-      <c r="AL3" s="9" t="str">
+      <c r="AL3" s="10" t="str">
         <f>Sum(AL2:AL2)</f>
       </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4">
       <c r="P4" t="str">

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -220,6 +221,21 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
 </sst>
 </file>
 
@@ -228,14 +244,14 @@
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -283,7 +299,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,6 +1097,956 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>8679377.7246</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>1596870.1641</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>16808055.3186</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>3968703.75</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>-112251</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>2340590</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>601880.3516</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>-111</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>-8515.14</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>6144828.9043</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>2382814.1323</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>31386571.0246</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>14864769.5701</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>455672.5765</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>729275.9702</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>83248289.9502</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>16900543.2487</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>-35540.8955</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>-62365.6992</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>-34818.901</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>-69425.5112</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>-5399.9401</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>-91092.8906</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>1400384.93</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>-245</v>
+      </c>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>5956520.8585</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>1902753.4899</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>17859658.3575</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>48657777.0876</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>1121344.9166</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>1193549.7023</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>14754579.1777</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>1046359.5312</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>627237.2772</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>179877.6403</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>-15387.8599</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>-55029.2601</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>-622.16</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>-3400.79</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11" t="n">
+        <v>2181721.8809</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>376316</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>790919.499</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>128415.2867</v>
+      </c>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>8641021.0712</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>3097382.296</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>17286987.9545</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>5233952.9025</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>5443014.0295</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>1939359.5397</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>9404835.6798</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>100682.27</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>-223653.1625</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>-36503.1594</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>-203508.1571</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>-10848.28</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>-455.7</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>-5229.44</v>
+      </c>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11" t="n">
+        <v>-2315.6101</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11" t="n">
+        <v>190000.2695</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>196721.9551</v>
+      </c>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>81603.45</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>845413.8606</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>733078.519</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>3015796.8638</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>33164.26</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>52701.9101</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11" t="n">
+        <v>303279</v>
+      </c>
+      <c r="V6" s="11" t="n">
+        <v>-93.74</v>
+      </c>
+      <c r="W6" s="11" t="n">
+        <v>2993.09</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AA6" s="11" t="n">
+        <v>1738.23</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>1345852</v>
+      </c>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="n">
+        <v>314555.625</v>
+      </c>
+      <c r="AF6" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="11" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>14023531.4029334</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>2519026.17909759</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>26102335.7536466</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>6047662.9171832</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>37186.9832171426</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>-162051.684417838</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>3272460.29253524</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>794244.920084021</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>-145.213276485658</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>-10919.6698544743</v>
+      </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>9928384.71136768</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>3758834.82209737</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>48742272.6490661</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>22651505.7218789</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>677803.538192705</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>1052822.68644701</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>116392329.832858</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>22998545.6142356</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>-47376.5742401385</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>-82298.150530103</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>-45551.0513318898</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>-89030.087794459</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>-6800.14456663253</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>-112651.750055566</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>23988.9513415116</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>1665883.94418718</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>-286.337355131209</v>
+      </c>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>9624129.74315531</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>3001550.13299331</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>27735439.3507384</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>74146586.0547654</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>1667977.38376929</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>1723073.64472587</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>20628890.3618705</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>1423903.77948617</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>836117.18307571</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>237367.612458502</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>-20130.8248124439</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>-70568.5816825087</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>-783.486087850511</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>-4205.65142403624</v>
+      </c>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11" t="n">
+        <v>2595354.58730848</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>-242993.47650284</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>521779.598543694</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>402390.030571531</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>790919.499</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>122482.292349182</v>
+      </c>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>13961557.4054264</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>4886049.7651635</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>26846101.7770608</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>7975698.07994175</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>8096370.85462753</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>2799765.52636669</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>13149227.8955153</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>137010.138968042</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>-298133.192992366</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>-48169.787970974</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>-266235.01156801</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>-13911.6486738793</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>-573.863009890507</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>-6467.08611320077</v>
+      </c>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11" t="n">
+        <v>-2754.62667724342</v>
+      </c>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11" t="n">
+        <v>190000.2695</v>
+      </c>
+      <c r="AH14" s="11" t="n">
+        <v>187633.081973728</v>
+      </c>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>131849.146329836</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>1333621.03876718</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>1138445.89835143</v>
+      </c>
+      <c r="O15" s="11" t="n">
+        <v>4595586.87366389</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>49331.1512011582</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>76083.3605379235</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11" t="n">
+        <v>400208.78647696</v>
+      </c>
+      <c r="V15" s="11" t="n">
+        <v>-122.633266105997</v>
+      </c>
+      <c r="W15" s="11" t="n">
+        <v>3838.28740863081</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11" t="n">
+        <v>11994.4756707558</v>
+      </c>
+      <c r="AA15" s="11" t="n">
+        <v>2067.7810695267</v>
+      </c>
+      <c r="AB15" s="11" t="n">
+        <v>1572929.39623693</v>
+      </c>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11" t="n">
+        <v>347656.572563343</v>
+      </c>
+      <c r="AF15" s="11" t="n">
+        <v>10692.875949243</v>
+      </c>
+      <c r="AG15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="11" t="n">
+        <v>9537.98379435319</v>
+      </c>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -2167,74 +3133,74 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="3" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="3" t="n">
         <v>2859616.9693</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="3" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="3" t="n">
         <v>6905530.6119</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="3" t="n">
         <v>2964059.6022</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="3" t="n">
         <v>2483962.762</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="3" t="n">
         <v>20853329.1778</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="3" t="n">
         <v>18042618.5187</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="3" t="n">
         <v>748090.0618</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="3" t="n">
         <v>673627.1341</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="3" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="3" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="3" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="3" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11" t="n">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="3" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="3" t="n">
         <v>-233000.0781</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="3" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AI2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="3" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="3" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AM2" s="11"/>
+      <c r="AM2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2252,34 +3218,34 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11" t="n">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="n">
         <v>35030</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2297,60 +3263,60 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="3" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="3" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="3" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="3" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="3" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="3" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="3" t="n">
         <v>67611390</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="3" t="n">
         <v>-37033.4688</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="3" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="3" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="3" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="3" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11" t="n">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2368,32 +3334,32 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2411,58 +3377,58 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="3" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="3" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="3" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="3" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" s="11" t="n">
+      <c r="U6" s="3" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="3" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11" t="n">
+      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
         <v>-151143.5508</v>
       </c>
-      <c r="Y6" s="11" t="n">
+      <c r="Y6" s="3" t="n">
         <v>14525.3794</v>
       </c>
-      <c r="Z6" s="11" t="n">
+      <c r="Z6" s="3" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2480,44 +3446,44 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11" t="n">
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" s="11" t="n">
+      <c r="R7" s="3" t="n">
         <v>523464.7188</v>
       </c>
-      <c r="S7" s="11" t="n">
+      <c r="S7" s="3" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2535,46 +3501,46 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="11" t="n">
+      <c r="P8" s="3" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" s="11" t="n">
+      <c r="Q8" s="3" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" s="11" t="n">
+      <c r="R8" s="3" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" s="11" t="n">
+      <c r="S8" s="3" t="n">
         <v>37618</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11" t="n">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" s="11" t="n">
+      <c r="V8" s="3" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" s="11" t="n">
+      <c r="W8" s="3" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" s="11" t="n">
+      <c r="X8" s="3" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2590,70 +3556,70 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="3" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="3" t="n">
         <v>2233679.1083</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="3" t="n">
         <v>11165.0754</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="3" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="3" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="3" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="3" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11" t="n">
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="3" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="3" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="3" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="3" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="3" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="3" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11" t="n">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="11"/>
+      <c r="AM9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2668,74 +3634,74 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2839,74 +3805,74 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="3" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="3" t="n">
         <v>4510980.397657</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="3" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="3" t="n">
         <v>10522912.2745836</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="3" t="n">
         <v>4408977.38726487</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="3" t="n">
         <v>3585984.53121384</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="3" t="n">
         <v>29155764.8718985</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="3" t="n">
         <v>24552700.9928803</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="3" t="n">
         <v>997215.850995582</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="3" t="n">
         <v>888922.404373904</v>
       </c>
-      <c r="Z14" s="11" t="n">
+      <c r="Z14" s="3" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="3" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="3" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="3" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11" t="n">
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="3" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="3" t="n">
         <v>-266065.46819104</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="3" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AI14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="3" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="3" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AM14" s="11"/>
+      <c r="AM14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2924,34 +3890,34 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11" t="n">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -2969,60 +3935,60 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="11" t="n">
+      <c r="P16" s="3" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" s="11" t="n">
+      <c r="Q16" s="3" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" s="11" t="n">
+      <c r="R16" s="3" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" s="11" t="n">
+      <c r="S16" s="3" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" s="11" t="n">
+      <c r="T16" s="3" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" s="11" t="n">
+      <c r="U16" s="3" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" s="11" t="n">
+      <c r="V16" s="3" t="n">
         <v>94529836.108893</v>
       </c>
-      <c r="W16" s="11" t="n">
+      <c r="W16" s="3" t="n">
         <v>-50395.7718350672</v>
       </c>
-      <c r="X16" s="11" t="n">
+      <c r="X16" s="3" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11" t="n">
+      <c r="Y16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="3" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="3" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="3" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11" t="n">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -3040,32 +4006,32 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
+      <c r="P17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -3083,58 +4049,58 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="11" t="n">
+      <c r="P18" s="3" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" s="11" t="n">
+      <c r="Q18" s="3" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" s="11" t="n">
+      <c r="R18" s="3" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" s="11" t="n">
+      <c r="S18" s="3" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" s="11" t="n">
+      <c r="T18" s="3" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" s="11" t="n">
+      <c r="U18" s="3" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" s="11" t="n">
+      <c r="V18" s="3" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="11" t="n">
+      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
         <v>-201476.736999898</v>
       </c>
-      <c r="Y18" s="11" t="n">
+      <c r="Y18" s="3" t="n">
         <v>19167.777732027</v>
       </c>
-      <c r="Z18" s="11" t="n">
+      <c r="Z18" s="3" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -3152,44 +4118,44 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11" t="n">
+      <c r="P19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" s="11" t="n">
+      <c r="R19" s="3" t="n">
         <v>812922.826960562</v>
       </c>
-      <c r="S19" s="11" t="n">
+      <c r="S19" s="3" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -3207,46 +4173,46 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="11" t="n">
+      <c r="P20" s="3" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" s="11" t="n">
+      <c r="Q20" s="3" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" s="11" t="n">
+      <c r="R20" s="3" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" s="11" t="n">
+      <c r="S20" s="3" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11" t="n">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" s="11" t="n">
+      <c r="V20" s="3" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" s="11" t="n">
+      <c r="W20" s="3" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" s="11" t="n">
+      <c r="X20" s="3" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -3262,70 +4228,70 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="3" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="3" t="n">
         <v>3523577.73099373</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="3" t="n">
         <v>17338.9807018945</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="3" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="3" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="3" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="3" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="11" t="n">
+      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="3" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="3" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="3" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11" t="n">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="3" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="3" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="3" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11" t="n">
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AM21" s="11"/>
+      <c r="AM21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -3334,30 +4300,30 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -252,6 +252,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -287,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -300,6 +301,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,55 +1194,55 @@
       <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="12" t="n">
         <v>8679377.7246</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>1596870.1641</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>16808055.3186</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="12" t="n">
         <v>3968703.75</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>25000</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>-112251</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>2340590</v>
       </c>
-      <c r="S2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11" t="n">
+      <c r="S2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12" t="n">
         <v>601880.3516</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>-111</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>-8515.14</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1249,65 +1251,65 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>6144828.9043</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>2382814.1323</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>31386571.0246</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>14864769.5701</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>455672.5765</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>729275.9702</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>83248289.9502</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>16900543.2487</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>-35540.8955</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>-62365.6992</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>-34818.901</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>-69425.5112</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>-5399.9401</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>-91092.8906</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>20000</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>1400384.93</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>-245</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1316,75 +1318,75 @@
       <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <v>5956520.8585</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12" t="n">
         <v>1902753.4899</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>17859658.3575</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12" t="n">
         <v>48657777.0876</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>1121344.9166</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12" t="n">
         <v>1193549.7023</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <v>14754579.1777</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12" t="n">
         <v>1046359.5312</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>627237.2772</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>179877.6403</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12" t="n">
         <v>-15387.8599</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12" t="n">
         <v>-55029.2601</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12" t="n">
         <v>-622.16</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="12" t="n">
         <v>-3400.79</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11" t="n">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="n">
         <v>2181721.8809</v>
       </c>
-      <c r="AB4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AB4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="12" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="12" t="n">
         <v>465885</v>
       </c>
-      <c r="AE4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AE4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="12" t="n">
         <v>376316</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>790919.499</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="12" t="n">
         <v>128415.2867</v>
       </c>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1393,65 +1395,65 @@
       <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>8641021.0712</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="12" t="n">
         <v>3097382.296</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>17286987.9545</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="12" t="n">
         <v>5233952.9025</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="12" t="n">
         <v>5443014.0295</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="12" t="n">
         <v>1939359.5397</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <v>9404835.6798</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="12" t="n">
         <v>100682.27</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>-223653.1625</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>-36503.1594</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="12" t="n">
         <v>-203508.1571</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="12" t="n">
         <v>-10848.28</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="12" t="n">
         <v>-455.7</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="12" t="n">
         <v>-5229.44</v>
       </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11" t="n">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11" t="n">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="12" t="n">
         <v>196721.9551</v>
       </c>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1460,65 +1462,65 @@
       <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>81603.45</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="12" t="n">
         <v>845413.8606</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="12" t="n">
         <v>733078.519</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="12" t="n">
         <v>3015796.8638</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="12" t="n">
         <v>33164.26</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="12" t="n">
         <v>52701.9101</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11" t="n">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12" t="n">
         <v>303279</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="12" t="n">
         <v>-93.74</v>
       </c>
-      <c r="W6" s="11" t="n">
+      <c r="W6" s="12" t="n">
         <v>2993.09</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="12" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>1345852</v>
       </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11" t="n">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AG6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AG6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1527,77 +1529,77 @@
       <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="11" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1683,55 +1685,55 @@
       <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>14023531.4029334</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="12" t="n">
         <v>2519026.17909759</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>26102335.7536466</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>6047662.9171832</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="12" t="n">
         <v>37186.9832171426</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>-162051.684417838</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="12" t="n">
         <v>3272460.29253524</v>
       </c>
-      <c r="S11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11" t="n">
+      <c r="S11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12" t="n">
         <v>794244.920084021</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="12" t="n">
         <v>-145.213276485658</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="12" t="n">
         <v>-10919.6698544743</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1740,65 +1742,65 @@
       <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>9928384.71136768</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="12" t="n">
         <v>3758834.82209737</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>48742272.6490661</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="12" t="n">
         <v>22651505.7218789</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="12" t="n">
         <v>677803.538192705</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="12" t="n">
         <v>1052822.68644701</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="12" t="n">
         <v>116392329.832858</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="12" t="n">
         <v>22998545.6142356</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="12" t="n">
         <v>-47376.5742401385</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="12" t="n">
         <v>-82298.150530103</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="12" t="n">
         <v>-45551.0513318898</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>-89030.087794459</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>-6800.14456663253</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="12" t="n">
         <v>-112651.750055566</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="12" t="n">
         <v>23988.9513415116</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="12" t="n">
         <v>1665883.94418718</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="12" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1807,75 +1809,75 @@
       <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>9624129.74315531</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="12" t="n">
         <v>3001550.13299331</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="12" t="n">
         <v>27735439.3507384</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="12" t="n">
         <v>74146586.0547654</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="12" t="n">
         <v>1667977.38376929</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="12" t="n">
         <v>1723073.64472587</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="12" t="n">
         <v>20628890.3618705</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="12" t="n">
         <v>1423903.77948617</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>836117.18307571</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="12" t="n">
         <v>237367.612458502</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>-20130.8248124439</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="12" t="n">
         <v>-70568.5816825087</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="12" t="n">
         <v>-783.486087850511</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="12" t="n">
         <v>-4205.65142403624</v>
       </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11" t="n">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12" t="n">
         <v>2595354.58730848</v>
       </c>
-      <c r="AB13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AB13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="12" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AE13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AE13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="12" t="n">
         <v>790919.499</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="12" t="n">
         <v>122482.292349182</v>
       </c>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1884,65 +1886,65 @@
       <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>13961557.4054264</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="12" t="n">
         <v>4886049.7651635</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="12" t="n">
         <v>26846101.7770608</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="12" t="n">
         <v>7975698.07994175</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="12" t="n">
         <v>8096370.85462753</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="12" t="n">
         <v>2799765.52636669</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="12" t="n">
         <v>13149227.8955153</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="12" t="n">
         <v>137010.138968042</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="12" t="n">
         <v>-298133.192992366</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="12" t="n">
         <v>-48169.787970974</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="12" t="n">
         <v>-266235.01156801</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="12" t="n">
         <v>-13911.6486738793</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="12" t="n">
         <v>-573.863009890507</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="12" t="n">
         <v>-6467.08611320077</v>
       </c>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11" t="n">
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11" t="n">
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="12" t="n">
         <v>187633.081973728</v>
       </c>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1951,95 +1953,95 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>131849.146329836</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="12" t="n">
         <v>1333621.03876718</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>1138445.89835143</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="12" t="n">
         <v>4595586.87366389</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="12" t="n">
         <v>49331.1512011582</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="12" t="n">
         <v>76083.3605379235</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11" t="n">
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12" t="n">
         <v>400208.78647696</v>
       </c>
-      <c r="V15" s="11" t="n">
+      <c r="V15" s="12" t="n">
         <v>-122.633266105997</v>
       </c>
-      <c r="W15" s="11" t="n">
+      <c r="W15" s="12" t="n">
         <v>3838.28740863081</v>
       </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>11994.4756707558</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="12" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="12" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11" t="n">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="12" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AG15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AG15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="12" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -251,8 +251,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -300,8 +300,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,7 +1270,7 @@
         <v>729275.9702</v>
       </c>
       <c r="R3" s="12" t="n">
-        <v>83248289.9502</v>
+        <v>82810289.9502</v>
       </c>
       <c r="S3" s="12" t="n">
         <v>16900543.2487</v>
@@ -1306,7 +1306,9 @@
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
+      <c r="AG3" s="12" t="n">
+        <v>111730.1484</v>
+      </c>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
@@ -1337,7 +1339,7 @@
         <v>1193549.7023</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>14754579.1777</v>
+        <v>15192579.1777</v>
       </c>
       <c r="S4" s="12" t="n">
         <v>1046359.5312</v>
@@ -1380,10 +1382,10 @@
         <v>376316</v>
       </c>
       <c r="AG4" s="12" t="n">
-        <v>790919.499</v>
+        <v>115998.4131</v>
       </c>
       <c r="AH4" s="12" t="n">
-        <v>128415.2867</v>
+        <v>127266.4766</v>
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
@@ -1514,10 +1516,10 @@
         <v>10000</v>
       </c>
       <c r="AG6" s="12" t="n">
-        <v>0</v>
+        <v>563190.9375</v>
       </c>
       <c r="AH6" s="12" t="n">
-        <v>10000</v>
+        <v>11148.8101</v>
       </c>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
@@ -1761,13 +1763,13 @@
         <v>1052822.68644701</v>
       </c>
       <c r="R12" s="12" t="n">
-        <v>116392329.832858</v>
+        <v>115779946.797756</v>
       </c>
       <c r="S12" s="12" t="n">
         <v>22998545.6142356</v>
       </c>
       <c r="T12" s="12" t="n">
-        <v>-47376.5742401385</v>
+        <v>-47376.5742401386</v>
       </c>
       <c r="U12" s="12" t="n">
         <v>-82298.150530103</v>
@@ -1797,7 +1799,9 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
+      <c r="AG12" s="12" t="n">
+        <v>111730.1484</v>
+      </c>
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="12"/>
@@ -1828,7 +1832,7 @@
         <v>1723073.64472587</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>20628890.3618705</v>
+        <v>21241273.3969729</v>
       </c>
       <c r="S13" s="12" t="n">
         <v>1423903.77948617</v>
@@ -1871,10 +1875,10 @@
         <v>402390.030571531</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>790919.499</v>
+        <v>115998.4131</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>122482.292349182</v>
+        <v>121386.559137523</v>
       </c>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
@@ -2005,10 +2009,10 @@
         <v>10692.875949243</v>
       </c>
       <c r="AG15" s="12" t="n">
-        <v>0</v>
+        <v>563190.9375</v>
       </c>
       <c r="AH15" s="12" t="n">
-        <v>9537.98379435319</v>
+        <v>10633.7170060121</v>
       </c>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -236,6 +236,9 @@
   <si>
     <t xml:space="preserve">Small</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -251,8 +254,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -300,8 +303,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,55 +1197,55 @@
       <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="11" t="n">
         <v>8679377.7246</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>1596870.1641</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="11" t="n">
         <v>16808055.3186</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="11" t="n">
         <v>3968703.75</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="11" t="n">
         <v>25000</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="11" t="n">
         <v>-112251</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="11" t="n">
         <v>2340590</v>
       </c>
-      <c r="S2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="12" t="n">
+      <c r="S2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11" t="n">
         <v>601880.3516</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="11" t="n">
         <v>-111</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="11" t="n">
         <v>-8515.14</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1251,67 +1254,67 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="11" t="n">
         <v>6144828.9043</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <v>2382814.1323</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="11" t="n">
         <v>31386571.0246</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="11" t="n">
         <v>14864769.5701</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="11" t="n">
         <v>455672.5765</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="11" t="n">
         <v>729275.9702</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="11" t="n">
         <v>82810289.9502</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="11" t="n">
         <v>16900543.2487</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="11" t="n">
         <v>-35540.8955</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="11" t="n">
         <v>-62365.6992</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="11" t="n">
         <v>-34818.901</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="11" t="n">
         <v>-69425.5112</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="11" t="n">
         <v>-5399.9401</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="11" t="n">
         <v>-91092.8906</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="11" t="n">
         <v>20000</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="11" t="n">
         <v>1400384.93</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="11" t="n">
         <v>-245</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12" t="n">
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11" t="n">
         <v>111730.1484</v>
       </c>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1320,75 +1323,75 @@
       <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="11" t="n">
         <v>5956520.8585</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="11" t="n">
         <v>1902753.4899</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="11" t="n">
         <v>17859658.3575</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="11" t="n">
         <v>48657777.0876</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="11" t="n">
         <v>1121344.9166</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="11" t="n">
         <v>1193549.7023</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="11" t="n">
         <v>15192579.1777</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="11" t="n">
         <v>1046359.5312</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="11" t="n">
         <v>627237.2772</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="11" t="n">
         <v>179877.6403</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="11" t="n">
         <v>-15387.8599</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="11" t="n">
         <v>-55029.2601</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="11" t="n">
         <v>-622.16</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="11" t="n">
         <v>-3400.79</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12" t="n">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11" t="n">
         <v>2181721.8809</v>
       </c>
-      <c r="AB4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AB4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="11" t="n">
         <v>465885</v>
       </c>
-      <c r="AE4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AE4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11" t="n">
         <v>376316</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="11" t="n">
         <v>115998.4131</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="11" t="n">
         <v>127266.4766</v>
       </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1397,65 +1400,65 @@
       <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="11" t="n">
         <v>8641021.0712</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="11" t="n">
         <v>3097382.296</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="11" t="n">
         <v>17286987.9545</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="11" t="n">
         <v>5233952.9025</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="11" t="n">
         <v>5443014.0295</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="11" t="n">
         <v>1939359.5397</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="11" t="n">
         <v>9404835.6798</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="11" t="n">
         <v>100682.27</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <v>-223653.1625</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="11" t="n">
         <v>-36503.1594</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="11" t="n">
         <v>-203508.1571</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="11" t="n">
         <v>-10848.28</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="11" t="n">
         <v>-455.7</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="11" t="n">
         <v>-5229.44</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12" t="n">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12" t="n">
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="11" t="n">
         <v>196721.9551</v>
       </c>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1464,65 +1467,65 @@
       <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>81603.45</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>845413.8606</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>733078.519</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <v>3015796.8638</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>33164.26</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>52701.9101</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="12" t="n">
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11" t="n">
         <v>303279</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="11" t="n">
         <v>-93.74</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="11" t="n">
         <v>2993.09</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="11" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>1345852</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12" t="n">
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="11" t="n">
         <v>563190.9375</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="11" t="n">
         <v>11148.8101</v>
       </c>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1531,77 +1534,77 @@
       <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="11" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="11" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="11" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="11" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="11" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="11" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="11" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1687,55 +1690,55 @@
       <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11" t="n">
         <v>14023531.4029334</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11" t="n">
         <v>2519026.17909759</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11" t="n">
         <v>26102335.7536466</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="11" t="n">
         <v>6047662.9171832</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <v>37186.9832171426</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="11" t="n">
         <v>-162051.684417838</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11" t="n">
         <v>3272460.29253524</v>
       </c>
-      <c r="S11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12" t="n">
+      <c r="S11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11" t="n">
         <v>794244.920084021</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="11" t="n">
         <v>-145.213276485658</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="11" t="n">
         <v>-10919.6698544743</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1744,67 +1747,67 @@
       <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="11" t="n">
         <v>9928384.71136768</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="11" t="n">
         <v>3758834.82209737</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="11" t="n">
         <v>48742272.6490661</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="11" t="n">
         <v>22651505.7218789</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="11" t="n">
         <v>677803.538192705</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>1052822.68644701</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="11" t="n">
         <v>115779946.797756</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="11" t="n">
         <v>22998545.6142356</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="11" t="n">
         <v>-47376.5742401386</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="11" t="n">
         <v>-82298.150530103</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="11" t="n">
         <v>-45551.0513318898</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="11" t="n">
         <v>-89030.087794459</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="11" t="n">
         <v>-6800.14456663253</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>-112651.750055566</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>23988.9513415116</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>1665883.94418718</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12" t="n">
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11" t="n">
         <v>111730.1484</v>
       </c>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1813,75 +1816,75 @@
       <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="11" t="n">
         <v>9624129.74315531</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="11" t="n">
         <v>3001550.13299331</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="11" t="n">
         <v>27735439.3507384</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="11" t="n">
         <v>74146586.0547654</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="11" t="n">
         <v>1667977.38376929</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="11" t="n">
         <v>1723073.64472587</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="11" t="n">
         <v>21241273.3969729</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="11" t="n">
         <v>1423903.77948617</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="11" t="n">
         <v>836117.18307571</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="11" t="n">
         <v>237367.612458502</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="11" t="n">
         <v>-20130.8248124439</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="11" t="n">
         <v>-70568.5816825087</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="11" t="n">
         <v>-783.486087850511</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="11" t="n">
         <v>-4205.65142403624</v>
       </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12" t="n">
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11" t="n">
         <v>2595354.58730848</v>
       </c>
-      <c r="AB13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AB13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="11" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="11" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AE13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AE13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="11" t="n">
         <v>115998.4131</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="11" t="n">
         <v>121386.559137523</v>
       </c>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1890,65 +1893,65 @@
       <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="11" t="n">
         <v>13961557.4054264</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="11" t="n">
         <v>4886049.7651635</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="11" t="n">
         <v>26846101.7770608</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="11" t="n">
         <v>7975698.07994175</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="11" t="n">
         <v>8096370.85462753</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="11" t="n">
         <v>2799765.52636669</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11" t="n">
         <v>13149227.8955153</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="11" t="n">
         <v>137010.138968042</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="11" t="n">
         <v>-298133.192992366</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="11" t="n">
         <v>-48169.787970974</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="11" t="n">
         <v>-266235.01156801</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="11" t="n">
         <v>-13911.6486738793</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="11" t="n">
         <v>-573.863009890507</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="11" t="n">
         <v>-6467.08611320077</v>
       </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12" t="n">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12" t="n">
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="11" t="n">
         <v>187633.081973728</v>
       </c>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1957,95 +1960,95 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="11" t="n">
         <v>131849.146329836</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="11" t="n">
         <v>1333621.03876718</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="11" t="n">
         <v>1138445.89835143</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="11" t="n">
         <v>4595586.87366389</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="11" t="n">
         <v>49331.1512011582</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="11" t="n">
         <v>76083.3605379235</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="12" t="n">
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11" t="n">
         <v>400208.78647696</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="11" t="n">
         <v>-122.633266105997</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="11" t="n">
         <v>3838.28740863081</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11" t="n">
         <v>11994.4756707558</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="11" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="11" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12" t="n">
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="11" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="11" t="n">
         <v>563190.9375</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="11" t="n">
         <v>10633.7170060121</v>
       </c>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3134,79 +3137,79 @@
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="12" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" s="3" t="n">
-        <v>2859616.9693</v>
-      </c>
-      <c r="R2" s="3" t="n">
+      <c r="Q2" s="12" t="n">
+        <v>2859616.9694</v>
+      </c>
+      <c r="R2" s="12" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" s="3" t="n">
-        <v>6905530.6119</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>2964059.6022</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>2483962.762</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>20853329.1778</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>18042618.5187</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>748090.0618</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>673627.1341</v>
-      </c>
-      <c r="Z2" s="3" t="n">
+      <c r="S2" s="12" t="n">
+        <v>6905530.6118</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>2964059.6056</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>2483962.7607</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>20853329.178</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>18042618.09</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>748090.0627</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>673627.15</v>
+      </c>
+      <c r="Z2" s="12" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="12" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="12" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="12" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3" t="n">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AF2" s="12" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" s="3" t="n">
-        <v>-233000.0781</v>
-      </c>
-      <c r="AH2" s="3" t="n">
+      <c r="AG2" s="12" t="n">
+        <v>-233000.08</v>
+      </c>
+      <c r="AH2" s="12" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AI2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" s="3" t="n">
-        <v>980919.7685</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>325137.2418</v>
-      </c>
-      <c r="AM2" s="3"/>
+      <c r="AK2" s="12" t="n">
+        <v>980919.7602</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>2461452.5461</v>
+      </c>
+      <c r="AM2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3224,34 +3227,34 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="n">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="n">
+      <c r="U3" s="12"/>
+      <c r="V3" s="12" t="n">
         <v>35030</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3269,60 +3272,60 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="12" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="12" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="12" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="12" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="12" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="12" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" s="3" t="n">
-        <v>67611390</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>-37033.4688</v>
-      </c>
-      <c r="X4" s="3" t="n">
+      <c r="V4" s="12" t="n">
+        <v>67611392</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>-37033.47</v>
+      </c>
+      <c r="X4" s="12" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Y4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="12" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="12" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="12" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3" t="n">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3340,32 +3343,32 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
+      <c r="P5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3383,58 +3386,58 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="12" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="12" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="12" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="12" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="T6" s="12" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="12" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="12" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>-151143.5508</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>14525.3794</v>
-      </c>
-      <c r="Z6" s="3" t="n">
+      <c r="W6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>-151143.5506</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>14525.3795</v>
+      </c>
+      <c r="Z6" s="12" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3452,44 +3455,44 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="n">
+      <c r="P7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" s="3" t="n">
-        <v>523464.7188</v>
-      </c>
-      <c r="S7" s="3" t="n">
+      <c r="R7" s="12" t="n">
+        <v>523464.72</v>
+      </c>
+      <c r="S7" s="12" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3507,46 +3510,46 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="12" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="12" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="12" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="12" t="n">
         <v>37618</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3" t="n">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="12" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="12" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="X8" s="12" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3562,70 +3565,70 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="12" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="3" t="n">
-        <v>2233679.1083</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>11165.0754</v>
-      </c>
-      <c r="S9" s="3" t="n">
+      <c r="Q9" s="12" t="n">
+        <v>2233679.1084</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>11165.0753</v>
+      </c>
+      <c r="S9" s="12" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="12" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="12" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="12" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="n">
+      <c r="W9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="12" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="12" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="12" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3" t="n">
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="12" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="12" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="12" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AH9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3" t="n">
+      <c r="AJ9" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="3"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3640,74 +3643,74 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="12" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="12" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="12" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="12" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="12" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="12" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="12" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="12" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="12" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="12" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="12" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="12" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="12" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="12" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="12" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="12" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="12" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="12" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="12" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="12" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="12" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="12" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3806,79 +3809,79 @@
         <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="12" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" s="3" t="n">
-        <v>4510980.397657</v>
-      </c>
-      <c r="R14" s="3" t="n">
+      <c r="Q14" s="12" t="n">
+        <v>4510980.39781475</v>
+      </c>
+      <c r="R14" s="12" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" s="3" t="n">
-        <v>10522912.2745836</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>4408977.38726487</v>
-      </c>
-      <c r="U14" s="3" t="n">
-        <v>3585984.53121384</v>
-      </c>
-      <c r="V14" s="3" t="n">
-        <v>29155764.8718985</v>
-      </c>
-      <c r="W14" s="3" t="n">
-        <v>24552700.9928803</v>
-      </c>
-      <c r="X14" s="3" t="n">
-        <v>997215.850995582</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>888922.404373904</v>
-      </c>
-      <c r="Z14" s="3" t="n">
+      <c r="S14" s="12" t="n">
+        <v>10522912.2744312</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>4408977.3923223</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>3585984.52933709</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>29155764.8721781</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>24552700.4094981</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>997215.852195297</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>888922.425355639</v>
+      </c>
+      <c r="Z14" s="12" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" s="3" t="n">
+      <c r="AA14" s="12" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" s="3" t="n">
+      <c r="AB14" s="12" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" s="3" t="n">
+      <c r="AC14" s="12" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3" t="n">
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" s="3" t="n">
+      <c r="AF14" s="12" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" s="3" t="n">
-        <v>-266065.46819104</v>
-      </c>
-      <c r="AH14" s="3" t="n">
+      <c r="AG14" s="12" t="n">
+        <v>-266065.470360671</v>
+      </c>
+      <c r="AH14" s="12" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AI14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" s="3" t="n">
-        <v>980919.7685</v>
-      </c>
-      <c r="AL14" s="3" t="n">
-        <v>310115.37432291</v>
-      </c>
-      <c r="AM14" s="3"/>
+      <c r="AK14" s="12" t="n">
+        <v>980919.7602</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>2347729.44952712</v>
+      </c>
+      <c r="AM14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3896,34 +3899,34 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="n">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3" t="n">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3941,60 +3944,60 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="12" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="12" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="12" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" s="3" t="n">
+      <c r="S16" s="12" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="12" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" s="3" t="n">
+      <c r="U16" s="12" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" s="3" t="n">
-        <v>94529836.108893</v>
-      </c>
-      <c r="W16" s="3" t="n">
-        <v>-50395.7718350672</v>
-      </c>
-      <c r="X16" s="3" t="n">
+      <c r="V16" s="12" t="n">
+        <v>94529838.9051626</v>
+      </c>
+      <c r="W16" s="12" t="n">
+        <v>-50395.7734680475</v>
+      </c>
+      <c r="X16" s="12" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3" t="n">
+      <c r="Y16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="12" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="12" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AC16" s="12" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3" t="n">
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4012,32 +4015,32 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
+      <c r="P17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4055,58 +4058,58 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="12" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="Q18" s="12" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="R18" s="12" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" s="3" t="n">
+      <c r="S18" s="12" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="12" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" s="3" t="n">
+      <c r="U18" s="12" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="12" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" t="n">
-        <v>-201476.736999898</v>
-      </c>
-      <c r="Y18" s="3" t="n">
-        <v>19167.777732027</v>
-      </c>
-      <c r="Z18" s="3" t="n">
+      <c r="W18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>-201476.736733295</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>19167.7778639876</v>
+      </c>
+      <c r="Z18" s="12" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4124,44 +4127,44 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="n">
+      <c r="P19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" s="3" t="n">
-        <v>812922.826960562</v>
-      </c>
-      <c r="S19" s="3" t="n">
+      <c r="R19" s="12" t="n">
+        <v>812922.828824121</v>
+      </c>
+      <c r="S19" s="12" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4179,46 +4182,46 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="12" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="12" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="12" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" s="3" t="n">
+      <c r="S20" s="12" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3" t="n">
+      <c r="T20" s="12"/>
+      <c r="U20" s="12" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="12" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="12" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" s="3" t="n">
+      <c r="X20" s="12" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -4234,70 +4237,70 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="12" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" s="3" t="n">
-        <v>3523577.73099373</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>17338.9807018945</v>
-      </c>
-      <c r="S21" s="3" t="n">
+      <c r="Q21" s="12" t="n">
+        <v>3523577.73115148</v>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>17338.980546598</v>
+      </c>
+      <c r="S21" s="12" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="12" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="12" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="12" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3" t="n">
+      <c r="W21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="12" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="12" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="12" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" s="3" t="n">
+      <c r="AA21" s="12" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3" t="n">
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="12" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="12" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" s="3" t="n">
+      <c r="AG21" s="12" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AH21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="12" t="n">
+        <v>11052.3082384345</v>
+      </c>
+      <c r="AJ21" s="12" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3" t="n">
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AM21" s="3"/>
+      <c r="AM21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -4306,30 +4309,30 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -245,9 +245,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -255,7 +255,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -293,9 +293,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -304,7 +304,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,35 +685,35 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="n">
-        <v>980919.7685</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>325137.2418</v>
-      </c>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12" t="n">
+        <v>980919.7602</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>2461452.5461</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -722,77 +722,77 @@
       <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="12" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>9825233.9429</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>84074351.1742</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>75741000.174</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>7078195.7826</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>3802636.1223</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>109748294.8077</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>18047585.0499</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>368043.2192</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>986168.1333</v>
-      </c>
-      <c r="X3" s="1" t="n">
+      <c r="O3" s="12" t="n">
+        <v>9825233.9431</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>84074351.1753</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>75741000.1739</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>7078195.786</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>3802636.121</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>109748296.8079</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>18047584.62</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>368043.2203</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>986168.1493</v>
+      </c>
+      <c r="X3" s="12" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="12" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="Z3" s="12" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="12" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AB3" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AC3" s="12" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AD3" s="12" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="1" t="n">
-        <v>-212795.3672</v>
-      </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AE3" s="12" t="n">
+        <v>-212795.3691</v>
+      </c>
+      <c r="AF3" s="12" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="1" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AG3" s="12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AH3" s="12" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AI3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -801,77 +801,77 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="N4" s="12" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="1" t="str">
+      <c r="O4" s="12" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="1" t="str">
+      <c r="P4" s="12" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="1" t="str">
+      <c r="Q4" s="12" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="1" t="str">
+      <c r="R4" s="12" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="1" t="str">
+      <c r="S4" s="12" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="1" t="str">
+      <c r="T4" s="12" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="1" t="str">
+      <c r="U4" s="12" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="1" t="str">
+      <c r="V4" s="12" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="1" t="str">
+      <c r="W4" s="12" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="1" t="str">
+      <c r="X4" s="12" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="1" t="str">
+      <c r="Y4" s="12" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="1" t="str">
+      <c r="Z4" s="12" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="1" t="str">
+      <c r="AA4" s="12" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="1" t="str">
+      <c r="AB4" s="12" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="1" t="str">
+      <c r="AC4" s="12" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="1" t="str">
+      <c r="AD4" s="12" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="1" t="str">
+      <c r="AE4" s="12" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="1" t="str">
+      <c r="AF4" s="12" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="1" t="str">
+      <c r="AG4" s="12" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="1" t="str">
+      <c r="AH4" s="12" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="1" t="str">
+      <c r="AI4" s="12" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="1" t="str">
+      <c r="AJ4" s="12" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -957,35 +957,35 @@
       <c r="M8" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1" t="n">
-        <v>980919.7685</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>310115.37432291</v>
-      </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12" t="n">
+        <v>980919.7602</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
+        <v>2347729.44952712</v>
+      </c>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -994,107 +994,107 @@
       <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="12" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="1" t="n">
-        <v>15499081.938119</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>130564595.428863</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>115417039.647433</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>10528669.9110078</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>5489693.53365965</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>153442908.382779</v>
-      </c>
-      <c r="U9" s="1" t="n">
-        <v>24559459.5326898</v>
-      </c>
-      <c r="V9" s="1" t="n">
-        <v>490607.415843205</v>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>1301353.38051841</v>
-      </c>
-      <c r="X9" s="1" t="n">
+      <c r="O9" s="12" t="n">
+        <v>15499081.9384344</v>
+      </c>
+      <c r="P9" s="12" t="n">
+        <v>130564595.430572</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>115417039.647281</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>10528669.9160653</v>
+      </c>
+      <c r="S9" s="12" t="n">
+        <v>5489693.5317829</v>
+      </c>
+      <c r="T9" s="12" t="n">
+        <v>153442911.179328</v>
+      </c>
+      <c r="U9" s="12" t="n">
+        <v>24559458.9476746</v>
+      </c>
+      <c r="V9" s="12" t="n">
+        <v>490607.417309523</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <v>1301353.4016321</v>
+      </c>
+      <c r="X9" s="12" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Y9" s="12" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="Z9" s="12" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AA9" s="12" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AB9" s="12" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AC9" s="12" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AD9" s="12" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="1" t="n">
-        <v>-242993.47650284</v>
-      </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AE9" s="12" t="n">
+        <v>-242993.478672472</v>
+      </c>
+      <c r="AF9" s="12" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="1" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AH9" s="1" t="n">
+      <c r="AG9" s="12" t="n">
+        <v>11052.3082384345</v>
+      </c>
+      <c r="AH9" s="12" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AI9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="12" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3142,74 +3142,74 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="3" t="n">
         <v>259970.3387</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="3" t="n">
         <v>2859616.9694</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="3" t="n">
         <v>37395112.3396</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="3" t="n">
         <v>6905530.6118</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="3" t="n">
         <v>2964059.6056</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="3" t="n">
         <v>2483962.7607</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="3" t="n">
         <v>20853329.178</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="3" t="n">
         <v>18042618.09</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="3" t="n">
         <v>748090.0627</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="3" t="n">
         <v>673627.15</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="3" t="n">
         <v>-47306.6795</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>-140641.9013</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>-3648.7</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>-52150.8511</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12" t="n">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3" t="n">
         <v>3579792.2708</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>-245</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>-233000.08</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>465885</v>
       </c>
-      <c r="AI2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
         <v>376316</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>980919.7602</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>2461452.5461</v>
       </c>
-      <c r="AM2" s="12"/>
+      <c r="AM2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3227,34 +3227,34 @@
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="n">
         <v>2885.2</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12" t="n">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="n">
         <v>35030</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3272,60 +3272,60 @@
       <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="3" t="n">
         <v>21752651.142</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="3" t="n">
         <v>3205250.8653</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="3" t="n">
         <v>36446887.0404</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="3" t="n">
         <v>52492571.5798</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="3" t="n">
         <v>2676800.9804</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="3" t="n">
         <v>863359</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="3" t="n">
         <v>67611392</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="3" t="n">
         <v>-37033.47</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="3" t="n">
         <v>-192700.6617</v>
       </c>
-      <c r="Y4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="n">
         <v>-24487.7109</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>-3.86</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12" t="n">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3343,32 +3343,32 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3386,58 +3386,58 @@
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="3" t="n">
         <v>1968247</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1506412</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="3" t="n">
         <v>9236544</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="3" t="n">
         <v>16133355</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="3" t="n">
         <v>1436950</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="3" t="n">
         <v>431106.3301</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="3" t="n">
         <v>9419920.8799</v>
       </c>
-      <c r="W6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="12" t="n">
+      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
         <v>-151143.5506</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="3" t="n">
         <v>14525.3795</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="3" t="n">
         <v>-2907.3301</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3455,44 +3455,44 @@
       <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12" t="n">
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
         <v>7800</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="3" t="n">
         <v>523464.72</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="3" t="n">
         <v>21271.0625</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3510,46 +3510,46 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="12" t="n">
+      <c r="P8" s="3" t="n">
         <v>48443</v>
       </c>
-      <c r="Q8" s="12" t="n">
+      <c r="Q8" s="3" t="n">
         <v>12475</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="3" t="n">
         <v>461178</v>
       </c>
-      <c r="S8" s="12" t="n">
+      <c r="S8" s="3" t="n">
         <v>37618</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12" t="n">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="n">
         <v>5986</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="3" t="n">
         <v>11200894</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="3" t="n">
         <v>42000</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="3" t="n">
         <v>-28097.4801</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3565,70 +3565,70 @@
         <v>45</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>2233679.1084</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>11165.0753</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>18222.0302</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12" t="n">
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12" t="n">
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>1345852</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>20204.7109</v>
       </c>
-      <c r="AH9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12" t="n">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="12"/>
+      <c r="AM9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3643,74 +3643,74 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3814,74 +3814,74 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="3" t="n">
         <v>420041.888286259</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="3" t="n">
         <v>4510980.39781475</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="3" t="n">
         <v>58073332.062003</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="3" t="n">
         <v>10522912.2744312</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="3" t="n">
         <v>4408977.3923223</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="3" t="n">
         <v>3585984.52933709</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="3" t="n">
         <v>29155764.8721781</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="3" t="n">
         <v>24552700.4094981</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="3" t="n">
         <v>997215.852195297</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="3" t="n">
         <v>888922.425355639</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="3" t="n">
         <v>-61887.9092779453</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>-180356.768050973</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>-4594.80790912331</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>-64493.338663492</v>
       </c>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12" t="n">
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3" t="n">
         <v>4258485.17767974</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>-266065.470360671</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AI14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>980919.7602</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>2347729.44952712</v>
       </c>
-      <c r="AM14" s="12"/>
+      <c r="AM14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3899,34 +3899,34 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="n">
         <v>4291.67535912399</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12" t="n">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="n">
         <v>48976.6614603623</v>
       </c>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3944,60 +3944,60 @@
       <c r="O16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="3" t="n">
         <v>35146412.1122751</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="3" t="n">
         <v>5056209.96733726</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="3" t="n">
         <v>56600770.563325</v>
       </c>
-      <c r="S16" s="12" t="n">
+      <c r="S16" s="3" t="n">
         <v>79990192.9114113</v>
       </c>
-      <c r="T16" s="12" t="n">
+      <c r="T16" s="3" t="n">
         <v>3981686.12535063</v>
       </c>
-      <c r="U16" s="12" t="n">
+      <c r="U16" s="3" t="n">
         <v>1246392.28342999</v>
       </c>
-      <c r="V16" s="12" t="n">
+      <c r="V16" s="3" t="n">
         <v>94529838.9051626</v>
       </c>
-      <c r="W16" s="12" t="n">
+      <c r="W16" s="3" t="n">
         <v>-50395.7734680475</v>
       </c>
-      <c r="X16" s="12" t="n">
+      <c r="X16" s="3" t="n">
         <v>-256873.021253893</v>
       </c>
-      <c r="Y16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12" t="n">
+      <c r="Y16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" t="n">
         <v>-32035.5021029061</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>-4.94999796107532</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>-3562.68575525024</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>-58831.1489293108</v>
       </c>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12" t="n">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3" t="n">
         <v>-1.27286132697835</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4015,32 +4015,32 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
+      <c r="P17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4058,58 +4058,58 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="3" t="n">
         <v>3180155.82326802</v>
       </c>
-      <c r="Q18" s="12" t="n">
+      <c r="Q18" s="3" t="n">
         <v>2376330.4931215</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="3" t="n">
         <v>14344037.3155205</v>
       </c>
-      <c r="S18" s="12" t="n">
+      <c r="S18" s="3" t="n">
         <v>24584624.832038</v>
       </c>
-      <c r="T18" s="12" t="n">
+      <c r="T18" s="3" t="n">
         <v>2137433.42135492</v>
       </c>
-      <c r="U18" s="12" t="n">
+      <c r="U18" s="3" t="n">
         <v>622368.682291448</v>
       </c>
-      <c r="V18" s="12" t="n">
+      <c r="V18" s="3" t="n">
         <v>13170319.0384887</v>
       </c>
-      <c r="W18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12" t="n">
+      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
         <v>-201476.736733295</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="3" t="n">
         <v>19167.7778639876</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="3" t="n">
         <v>-3803.44981663403</v>
       </c>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4127,44 +4127,44 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12" t="n">
+      <c r="P19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="n">
         <v>12304.3216904457</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="3" t="n">
         <v>812922.828824121</v>
       </c>
-      <c r="S19" s="12" t="n">
+      <c r="S19" s="3" t="n">
         <v>32413.6604780178</v>
       </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>-232598.227359032</v>
       </c>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4182,46 +4182,46 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="12" t="n">
+      <c r="P20" s="3" t="n">
         <v>78270.810800968</v>
       </c>
-      <c r="Q20" s="12" t="n">
+      <c r="Q20" s="3" t="n">
         <v>19679.0273190141</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="3" t="n">
         <v>716193.680352423</v>
       </c>
-      <c r="S20" s="12" t="n">
+      <c r="S20" s="3" t="n">
         <v>57323.7505113849</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12" t="n">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="n">
         <v>8641.71707089626</v>
       </c>
-      <c r="V20" s="12" t="n">
+      <c r="V20" s="3" t="n">
         <v>15660359.5058922</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="3" t="n">
         <v>57154.3116445204</v>
       </c>
-      <c r="X20" s="12" t="n">
+      <c r="X20" s="3" t="n">
         <v>-37454.3841169806</v>
       </c>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -4237,70 +4237,70 @@
         <v>45</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>8844571.77458233</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>3523577.73115148</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>17338.980546598</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>229572.218410798</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>-3718.69832171426</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>26306.3196534793</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>877652.196146426</v>
       </c>
-      <c r="W21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="12" t="n">
+      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="n">
         <v>-10804.2927816059</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>393263.198412475</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>-1859.64569841769</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>-229.982547756282</v>
       </c>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12" t="n">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>23071.9916881998</v>
       </c>
-      <c r="AH21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
         <v>11052.3082384345</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12" t="n">
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AM21" s="12"/>
+      <c r="AM21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -4309,30 +4309,30 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -239,23 +239,51 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="12">
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -291,12 +319,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -304,7 +333,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,35 +714,35 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="n">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="n">
         <v>980919.7602</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>2461452.5461</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -722,77 +751,77 @@
       <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="1" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="1" t="n">
         <v>9825233.9431</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="1" t="n">
         <v>84074351.1753</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="1" t="n">
         <v>75741000.1739</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="1" t="n">
         <v>7078195.786</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="1" t="n">
         <v>3802636.121</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="1" t="n">
         <v>109748296.8079</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="1" t="n">
         <v>18047584.62</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="1" t="n">
         <v>368043.2203</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="1" t="n">
         <v>986168.1493</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="1" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="1" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="1" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="1" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="1" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="1" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="1" t="n">
         <v>-212795.3691</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="1" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="1" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AI3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -801,77 +830,77 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="12" t="str">
+      <c r="N4" s="1" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="12" t="str">
+      <c r="O4" s="1" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="12" t="str">
+      <c r="P4" s="1" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="12" t="str">
+      <c r="Q4" s="1" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="12" t="str">
+      <c r="R4" s="1" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="12" t="str">
+      <c r="S4" s="1" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="12" t="str">
+      <c r="T4" s="1" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="12" t="str">
+      <c r="U4" s="1" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="12" t="str">
+      <c r="V4" s="1" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="12" t="str">
+      <c r="W4" s="1" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="12" t="str">
+      <c r="X4" s="1" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="12" t="str">
+      <c r="Y4" s="1" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="12" t="str">
+      <c r="Z4" s="1" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="12" t="str">
+      <c r="AA4" s="1" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="12" t="str">
+      <c r="AB4" s="1" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="12" t="str">
+      <c r="AC4" s="1" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="12" t="str">
+      <c r="AD4" s="1" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="12" t="str">
+      <c r="AE4" s="1" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="12" t="str">
+      <c r="AF4" s="1" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="12" t="str">
+      <c r="AG4" s="1" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="12" t="str">
+      <c r="AH4" s="1" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="12" t="str">
+      <c r="AI4" s="1" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="12" t="str">
+      <c r="AJ4" s="1" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -957,35 +986,35 @@
       <c r="M8" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12" t="n">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1" t="n">
         <v>980919.7602</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>2347729.44952712</v>
       </c>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -994,107 +1023,107 @@
       <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="1" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="1" t="n">
         <v>15499081.9384344</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="1" t="n">
         <v>130564595.430572</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="1" t="n">
         <v>115417039.647281</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="1" t="n">
         <v>10528669.9160653</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="1" t="n">
         <v>5489693.5317829</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="1" t="n">
         <v>153442911.179328</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="1" t="n">
         <v>24559458.9476746</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="1" t="n">
         <v>490607.417309523</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="1" t="n">
         <v>1301353.4016321</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="1" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="1" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="1" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="1" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="1" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-242993.478672472</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="1" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="1" t="n">
         <v>11052.3082384345</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="1" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1197,55 +1226,55 @@
       <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="12" t="n">
         <v>8679377.7246</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>1596870.1641</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>16808055.3186</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="12" t="n">
         <v>3968703.75</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>25000</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>-112251</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>2340590</v>
       </c>
-      <c r="S2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11" t="n">
+      <c r="S2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12" t="n">
         <v>601880.3516</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>-111</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>-8515.14</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1254,67 +1283,67 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>6144828.9043</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>2382814.1323</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>31386571.0246</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>14864769.5701</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>455672.5765</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>729275.9702</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>82810289.9502</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>16900543.2487</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>-35540.8955</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>-62365.6992</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>-34818.901</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>-69425.5112</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>-5399.9401</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>-91092.8906</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>20000</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>1400384.93</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>-245</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11" t="n">
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12" t="n">
         <v>111730.1484</v>
       </c>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1323,75 +1352,75 @@
       <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <v>5956520.8585</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12" t="n">
         <v>1902753.4899</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>17859658.3575</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12" t="n">
         <v>48657777.0876</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>1121344.9166</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12" t="n">
         <v>1193549.7023</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <v>15192579.1777</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12" t="n">
         <v>1046359.5312</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>627237.2772</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>179877.6403</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12" t="n">
         <v>-15387.8599</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12" t="n">
         <v>-55029.2601</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12" t="n">
         <v>-622.16</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="12" t="n">
         <v>-3400.79</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11" t="n">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="n">
         <v>2181721.8809</v>
       </c>
-      <c r="AB4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AB4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="12" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="12" t="n">
         <v>465885</v>
       </c>
-      <c r="AE4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AE4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="12" t="n">
         <v>376316</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>115998.4131</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="12" t="n">
         <v>127266.4766</v>
       </c>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1400,65 +1429,65 @@
       <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>8641021.0712</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="12" t="n">
         <v>3097382.296</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>17286987.9545</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="12" t="n">
         <v>5233952.9025</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="12" t="n">
         <v>5443014.0295</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="12" t="n">
         <v>1939359.5397</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <v>9404835.6798</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="12" t="n">
         <v>100682.27</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>-223653.1625</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>-36503.1594</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="12" t="n">
         <v>-203508.1571</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="12" t="n">
         <v>-10848.28</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="12" t="n">
         <v>-455.7</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="12" t="n">
         <v>-5229.44</v>
       </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11" t="n">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11" t="n">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="12" t="n">
         <v>196721.9551</v>
       </c>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1467,65 +1496,65 @@
       <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>81603.45</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="12" t="n">
         <v>845413.8606</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="12" t="n">
         <v>733078.519</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="12" t="n">
         <v>3015796.8638</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="12" t="n">
         <v>33164.26</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="12" t="n">
         <v>52701.9101</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11" t="n">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12" t="n">
         <v>303279</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="12" t="n">
         <v>-93.74</v>
       </c>
-      <c r="W6" s="11" t="n">
+      <c r="W6" s="12" t="n">
         <v>2993.09</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="12" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>1345852</v>
       </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11" t="n">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="12" t="n">
         <v>10000</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="12" t="n">
         <v>563190.9375</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="12" t="n">
         <v>11148.8101</v>
       </c>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1534,77 +1563,77 @@
       <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="11" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1690,55 +1719,55 @@
       <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>14023531.4029334</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="12" t="n">
         <v>2519026.17909759</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>26102335.7536466</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>6047662.9171832</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="12" t="n">
         <v>37186.9832171426</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>-162051.684417838</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="12" t="n">
         <v>3272460.29253524</v>
       </c>
-      <c r="S11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11" t="n">
+      <c r="S11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12" t="n">
         <v>794244.920084021</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="12" t="n">
         <v>-145.213276485658</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="12" t="n">
         <v>-10919.6698544743</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1747,67 +1776,67 @@
       <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>9928384.71136768</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="12" t="n">
         <v>3758834.82209737</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>48742272.6490661</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="12" t="n">
         <v>22651505.7218789</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="12" t="n">
         <v>677803.538192705</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="12" t="n">
         <v>1052822.68644701</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="12" t="n">
         <v>115779946.797756</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="12" t="n">
         <v>22998545.6142356</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="12" t="n">
         <v>-47376.5742401386</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="12" t="n">
         <v>-82298.150530103</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="12" t="n">
         <v>-45551.0513318898</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>-89030.087794459</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>-6800.14456663253</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="12" t="n">
         <v>-112651.750055566</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="12" t="n">
         <v>23988.9513415116</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="12" t="n">
         <v>1665883.94418718</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="12" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11" t="n">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12" t="n">
         <v>111730.1484</v>
       </c>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1816,75 +1845,75 @@
       <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>9624129.74315531</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="12" t="n">
         <v>3001550.13299331</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="12" t="n">
         <v>27735439.3507384</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="12" t="n">
         <v>74146586.0547654</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="12" t="n">
         <v>1667977.38376929</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="12" t="n">
         <v>1723073.64472587</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="12" t="n">
         <v>21241273.3969729</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="12" t="n">
         <v>1423903.77948617</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>836117.18307571</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="12" t="n">
         <v>237367.612458502</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>-20130.8248124439</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="12" t="n">
         <v>-70568.5816825087</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="12" t="n">
         <v>-783.486087850511</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="12" t="n">
         <v>-4205.65142403624</v>
       </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11" t="n">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12" t="n">
         <v>2595354.58730848</v>
       </c>
-      <c r="AB13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AB13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="12" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AE13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AE13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="12" t="n">
         <v>115998.4131</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="12" t="n">
         <v>121386.559137523</v>
       </c>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1893,65 +1922,65 @@
       <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>13961557.4054264</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="12" t="n">
         <v>4886049.7651635</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="12" t="n">
         <v>26846101.7770608</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="12" t="n">
         <v>7975698.07994175</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="12" t="n">
         <v>8096370.85462753</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="12" t="n">
         <v>2799765.52636669</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="12" t="n">
         <v>13149227.8955153</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="12" t="n">
         <v>137010.138968042</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="12" t="n">
         <v>-298133.192992366</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="12" t="n">
         <v>-48169.787970974</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="12" t="n">
         <v>-266235.01156801</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="12" t="n">
         <v>-13911.6486738793</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="12" t="n">
         <v>-573.863009890507</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="12" t="n">
         <v>-6467.08611320077</v>
       </c>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11" t="n">
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11" t="n">
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="12" t="n">
         <v>187633.081973728</v>
       </c>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1960,95 +1989,95 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>131849.146329836</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="12" t="n">
         <v>1333621.03876718</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>1138445.89835143</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="12" t="n">
         <v>4595586.87366389</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="12" t="n">
         <v>49331.1512011582</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="12" t="n">
         <v>76083.3605379235</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11" t="n">
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12" t="n">
         <v>400208.78647696</v>
       </c>
-      <c r="V15" s="11" t="n">
+      <c r="V15" s="12" t="n">
         <v>-122.633266105997</v>
       </c>
-      <c r="W15" s="11" t="n">
+      <c r="W15" s="12" t="n">
         <v>3838.28740863081</v>
       </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>11994.4756707558</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="12" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="12" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11" t="n">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="12" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="12" t="n">
         <v>563190.9375</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="12" t="n">
         <v>10633.7170060121</v>
       </c>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4352,6 +4381,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>47</v>
       </c>
@@ -4359,1019 +4394,1507 @@
         <v>48</v>
       </c>
       <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK1" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>23</v>
       </c>
+      <c r="AT1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>49</v>
       </c>
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="n">
+      <c r="P2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>4773197</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="n">
+        <v>154412.99</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13" t="n">
         <v>706619</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="X2" s="13" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="Y2" s="13" t="n">
         <v>49117194</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="Z2" s="13" t="n">
         <v>799505</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="AA2" s="13" t="n">
         <v>1724347</v>
       </c>
-      <c r="V2" s="4" t="n">
-        <v>72817815.07</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>17949329.7799</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>607122.832</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>740014.064</v>
-      </c>
-      <c r="Z2" s="4" t="n">
+      <c r="AB2" s="13" t="n">
+        <v>72817817.07</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>17949329.35</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>607122.83</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>740014.08</v>
+      </c>
+      <c r="AF2" s="13" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="n">
+      <c r="AG2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13" t="n">
         <v>30000</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AL2" s="13" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF2" s="4" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>-212795.3672</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AM2" s="13" t="n">
+        <v>32000</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>-212795.37</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="13" t="n">
         <v>10000</v>
       </c>
-      <c r="AK2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>10000</v>
       </c>
-      <c r="AM2" s="4"/>
+      <c r="AR2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>49</v>
       </c>
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13" t="n">
+        <v>24338</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13" t="n">
+        <v>13320</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>26120</v>
+      </c>
+      <c r="V3" s="13" t="n">
         <v>201634.95</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>271382.0206</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>783968.7195</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>743138.2439</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>1982656.0366</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>747418.1223</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>390867.2895</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4" t="n">
+      <c r="W3" s="13" t="n">
+        <v>271382.02</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>783968.72</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>743138.25</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>1982656.04</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>747418.12</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>390867.29</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="13" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n">
+      <c r="AE3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AG3" s="13" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AH3" s="13" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AI3" s="13" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>304883.1617</v>
-      </c>
-      <c r="AM3" s="4"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13" t="n">
+        <v>904909.77</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>1856285.31</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>1106353.94</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>601331.82</v>
+      </c>
+      <c r="AV3" s="13"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="n">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13" t="n">
+        <v>2281363.7</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="n">
         <v>7800</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>30514.95</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>43455.95</v>
+      </c>
+      <c r="AV4" s="13"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>52</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>470776.0781</v>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="n">
+        <v>205927</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>494807.0781</v>
+      </c>
+      <c r="W5" s="13" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="X5" s="13" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="Y5" s="13" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="Z5" s="13" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4" t="n">
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13" t="n">
         <v>629147.75</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="AC5" s="13" t="n">
         <v>5212.27</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="AD5" s="13" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>-32729.2511</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>-14921.4499</v>
-      </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AE5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>-35051.6811</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>-15719.4499</v>
+      </c>
+      <c r="AH5" s="13" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>-1574.29</v>
-      </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4" t="n">
-        <v>-2315.6101</v>
-      </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4" t="n">
+      <c r="AI5" s="13" t="n">
+        <v>-43648.9111</v>
+      </c>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13" t="n">
+        <v>-2315.61</v>
+      </c>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
+      <c r="AS5" s="13" t="n">
+        <v>574529.6625</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>419352.23</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>63018.84</v>
+      </c>
+      <c r="AV5" s="13"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>52</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>3049178</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1011697</v>
-      </c>
-      <c r="R6" s="4" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13" t="n">
+        <v>13158650.32</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>2504229.9562</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>1003914.5304</v>
+      </c>
+      <c r="X6" s="13" t="n">
         <v>39925920</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="Y6" s="13" t="n">
         <v>5338005</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="Z6" s="13" t="n">
         <v>1411950</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="AA6" s="13" t="n">
         <v>103650</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="AB6" s="13" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
+      <c r="AC6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="AE6" s="13" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="AF6" s="13" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AG6" s="13" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4" t="n">
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13" t="n">
+        <v>449040</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13" t="n">
         <v>-245</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4" t="n">
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13" t="n">
         <v>465885</v>
       </c>
-      <c r="AI6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AP6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
         <v>376316</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AR6" s="13" t="n">
         <v>59840</v>
       </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13" t="n">
+        <v>-1323.75</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>2031211.5</v>
+      </c>
+      <c r="AV6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13" t="n">
+        <v>363498</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>33893609.95</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>15776681.99</v>
+      </c>
+      <c r="V7" s="13" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="W7" s="13" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="X7" s="13" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="Y7" s="13" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="Z7" s="13" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="AA7" s="13" t="n">
         <v>1227221</v>
       </c>
-      <c r="V7" s="4" t="n">
-        <v>28880752.3476</v>
-      </c>
-      <c r="W7" s="4" t="n">
+      <c r="AB7" s="13" t="n">
+        <v>29397433.3476</v>
+      </c>
+      <c r="AC7" s="13" t="n">
         <v>93043</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="AD7" s="13" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="AE7" s="13" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="Z7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>-24569.5601</v>
-      </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AF7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>-25868.6401</v>
+      </c>
+      <c r="AH7" s="13" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AI7" s="13" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4" t="n">
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4" t="n">
-        <v>20254.0801</v>
-      </c>
-      <c r="AM7" s="4"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13" t="n">
+        <v>30637.5606</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>998155.57</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>105000</v>
+      </c>
+      <c r="AV7" s="13"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>52</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>-520917.0438</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>-7782.4696</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>-2322.43</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>-2312.08</v>
-      </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4" t="n">
-        <v>-42074.6211</v>
-      </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13" t="n">
+        <v>-215</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
     </row>
     <row r="9">
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="13" t="str">
+        <f>Sum(P2:P8)</f>
+      </c>
+      <c r="Q9" s="13" t="str">
+        <f>Sum(Q2:Q8)</f>
+      </c>
+      <c r="R9" s="13" t="str">
+        <f>Sum(R2:R8)</f>
+      </c>
+      <c r="S9" s="13" t="str">
+        <f>Sum(S2:S8)</f>
+      </c>
+      <c r="T9" s="13" t="str">
+        <f>Sum(T2:T8)</f>
+      </c>
+      <c r="U9" s="13" t="str">
+        <f>Sum(U2:U8)</f>
+      </c>
+      <c r="V9" s="13" t="str">
+        <f>Sum(V2:V8)</f>
+      </c>
+      <c r="W9" s="13" t="str">
+        <f>Sum(W2:W8)</f>
+      </c>
+      <c r="X9" s="13" t="str">
+        <f>Sum(X2:X8)</f>
+      </c>
+      <c r="Y9" s="13" t="str">
+        <f>Sum(Y2:Y8)</f>
+      </c>
+      <c r="Z9" s="13" t="str">
+        <f>Sum(Z2:Z8)</f>
+      </c>
+      <c r="AA9" s="13" t="str">
+        <f>Sum(AA2:AA8)</f>
+      </c>
+      <c r="AB9" s="13" t="str">
+        <f>Sum(AB2:AB8)</f>
+      </c>
+      <c r="AC9" s="13" t="str">
+        <f>Sum(AC2:AC8)</f>
+      </c>
+      <c r="AD9" s="13" t="str">
+        <f>Sum(AD2:AD8)</f>
+      </c>
+      <c r="AE9" s="13" t="str">
+        <f>Sum(AE2:AE8)</f>
+      </c>
+      <c r="AF9" s="13" t="str">
+        <f>Sum(AF2:AF8)</f>
+      </c>
+      <c r="AG9" s="13" t="str">
+        <f>Sum(AG2:AG8)</f>
+      </c>
+      <c r="AH9" s="13" t="str">
+        <f>Sum(AH2:AH8)</f>
+      </c>
+      <c r="AI9" s="13" t="str">
+        <f>Sum(AI2:AI8)</f>
+      </c>
+      <c r="AJ9" s="13" t="str">
+        <f>Sum(AJ2:AJ8)</f>
+      </c>
+      <c r="AK9" s="13" t="str">
+        <f>Sum(AK2:AK8)</f>
+      </c>
+      <c r="AL9" s="13" t="str">
+        <f>Sum(AL2:AL8)</f>
+      </c>
+      <c r="AM9" s="13" t="str">
+        <f>Sum(AM2:AM8)</f>
+      </c>
+      <c r="AN9" s="13" t="str">
+        <f>Sum(AN2:AN8)</f>
+      </c>
+      <c r="AO9" s="13" t="str">
+        <f>Sum(AO2:AO8)</f>
+      </c>
+      <c r="AP9" s="13" t="str">
+        <f>Sum(AP2:AP8)</f>
+      </c>
+      <c r="AQ9" s="13" t="str">
+        <f>Sum(AQ2:AQ8)</f>
+      </c>
+      <c r="AR9" s="13" t="str">
+        <f>Sum(AR2:AR8)</f>
+      </c>
+      <c r="AS9" s="13" t="str">
+        <f>Sum(AS2:AS8)</f>
+      </c>
+      <c r="AT9" s="13" t="str">
+        <f>Sum(AT2:AT8)</f>
+      </c>
+      <c r="AU9" s="13" t="str">
+        <f>Sum(AU2:AU8)</f>
+      </c>
+      <c r="AV9" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>O12</f>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>8706876.24378308</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13" t="n">
+        <v>264996.39645516</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>1159835.70366125</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>4778120.22555046</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>77876813.4535822</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>1237423.29598367</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>2590021.39047316</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>105933392.041181</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>25412603.0419742</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>842080.261653279</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>1016010.78274473</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>-242011.720759033</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13" t="n">
+        <v>37536.9003683804</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>2157.67476297287</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>39062.4000075039</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>-254117.890892549</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>11573.9072704938</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>11188.817598517</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>9739.88670259903</v>
+      </c>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>1114675.31904885</v>
-      </c>
-      <c r="R14" s="4" t="n">
-        <v>4591842.80124401</v>
-      </c>
-      <c r="S14" s="4" t="n">
-        <v>74846663.1579375</v>
-      </c>
-      <c r="T14" s="4" t="n">
-        <v>1189247.16068086</v>
-      </c>
-      <c r="U14" s="4" t="n">
-        <v>2489361.66155175</v>
-      </c>
-      <c r="V14" s="4" t="n">
-        <v>101809120.096108</v>
-      </c>
-      <c r="W14" s="4" t="n">
-        <v>24425752.0964446</v>
-      </c>
-      <c r="X14" s="4" t="n">
-        <v>809304.310386079</v>
-      </c>
-      <c r="Y14" s="4" t="n">
-        <v>976526.995041935</v>
-      </c>
-      <c r="Z14" s="4" t="n">
-        <v>-232598.227359032</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4" t="n">
-        <v>35983.4270122674</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>2067.7810695267</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>1572929.39623693</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>-242993.47650284</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>10692.875949243</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>9537.98379435319</v>
-      </c>
-      <c r="AM14" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13" t="n">
+        <v>43574.9436661632</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13" t="n">
+        <v>23142.2203431156</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>44825.9299648869</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>338983.312711584</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>445443.097521734</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>1266866.0534842</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>1178268.42603166</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>3068629.67938753</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>1122644.64079865</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>568623.168528117</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>-203646.616623635</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>-51580.5768014668</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>-48577.7752125464</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>-1412.65160243094</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>-10944.1296577568</v>
+      </c>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13" t="n">
+        <v>946306.31050512</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>1856285.31</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>1077576.2028574</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>573115.047393344</v>
+      </c>
+      <c r="AV14" s="13"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <v>325787.647798704</v>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>428098.933649431</v>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v>1217476.64133996</v>
-      </c>
-      <c r="S15" s="4" t="n">
-        <v>1132422.54476028</v>
-      </c>
-      <c r="T15" s="4" t="n">
-        <v>2949159.87033643</v>
-      </c>
-      <c r="U15" s="4" t="n">
-        <v>1079013.6897055</v>
-      </c>
-      <c r="V15" s="4" t="n">
-        <v>546485.153119352</v>
-      </c>
-      <c r="W15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>-195720.160644237</v>
-      </c>
-      <c r="Y15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4" t="n">
-        <v>-49574.2548854623</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>-46684.4823248724</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>-1357.34909774102</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>-10514.0852766771</v>
-      </c>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>290797.065546576</v>
-      </c>
-      <c r="AM15" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13" t="n">
+        <v>3915170.34611926</v>
+      </c>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13" t="n">
+        <v>12802.8237120113</v>
+      </c>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>29721.2155735474</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>41416.8317980791</v>
+      </c>
+      <c r="AV15" s="13"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="n">
-        <v>12304.3216904457</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13" t="n">
+        <v>353402.346090324</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>831856.493566604</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>890454.331507125</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>1002181.51436041</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>729708.438920752</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>334923.685912735</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13" t="n">
+        <v>915267.141124384</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>7379.51518269906</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>-12168.0664475125</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>-47711.403995414</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>-20975.8772466214</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>-3369.36266824407</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>-56187.0987678462</v>
+      </c>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13" t="n">
+        <v>-2874.37983344414</v>
+      </c>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13" t="n">
+        <v>16909.7121882836</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>574529.6625</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>408444.320868225</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>60061.7567074258</v>
+      </c>
+      <c r="AV16" s="13"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>52</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="4" t="n">
-        <v>760647.056098648</v>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>855782.817288609</v>
-      </c>
-      <c r="R17" s="4" t="n">
-        <v>963110.963103804</v>
-      </c>
-      <c r="S17" s="4" t="n">
-        <v>701315.825716976</v>
-      </c>
-      <c r="T17" s="4" t="n">
-        <v>321884.228145117</v>
-      </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4" t="n">
-        <v>879633.353134417</v>
-      </c>
-      <c r="W17" s="4" t="n">
-        <v>7092.94533227105</v>
-      </c>
-      <c r="X17" s="4" t="n">
-        <v>-11694.453653695</v>
-      </c>
-      <c r="Y17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4" t="n">
-        <v>-42817.3134157914</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>-19135.0120676911</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>-3237.45881138229</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>-1946.87557313036</v>
-      </c>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4" t="n">
-        <v>-2754.62667724342</v>
-      </c>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4" t="n">
-        <v>16169.9902</v>
-      </c>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="n">
+        <v>22582264.0764455</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>4210044.76825204</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>1647812.91726126</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>64518891.3941949</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>8463570.2031205</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>2185326.94950518</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>155685.437514922</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>10226635.5177467</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>164794.304920896</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>362168.741530587</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>-4324.89613252498</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>-83556.2095614602</v>
+      </c>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13" t="n">
+        <v>567671.010781381</v>
+      </c>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13" t="n">
+        <v>-299.071500057452</v>
+      </c>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="AP17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
+        <v>421053.108340354</v>
+      </c>
+      <c r="AR17" s="13" t="n">
+        <v>62577.4762279629</v>
+      </c>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13" t="n">
+        <v>-1289.31750225655</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>1935899.34270966</v>
+      </c>
+      <c r="AV17" s="13"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <v>4926648.52169506</v>
-      </c>
-      <c r="Q18" s="4" t="n">
-        <v>1595928.88990498</v>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v>62003589.9072731</v>
-      </c>
-      <c r="S18" s="4" t="n">
-        <v>8134256.65501954</v>
-      </c>
-      <c r="T18" s="4" t="n">
-        <v>2100246.43813778</v>
-      </c>
-      <c r="U18" s="4" t="n">
-        <v>149634.810290411</v>
-      </c>
-      <c r="V18" s="4" t="n">
-        <v>9828485.35424104</v>
-      </c>
-      <c r="W18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="n">
-        <v>158380.081963167</v>
-      </c>
-      <c r="Y18" s="4" t="n">
-        <v>348094.298326518</v>
-      </c>
-      <c r="Z18" s="4" t="n">
-        <v>-4156.67129997752</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>-80299.6508452254</v>
-      </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4" t="n">
-        <v>-286.337355131209</v>
-      </c>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4" t="n">
-        <v>521779.598543694</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>402390.030571531</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>59840</v>
-      </c>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13" t="n">
+        <v>650809.634019351</v>
+      </c>
+      <c r="S18" s="13" t="n">
+        <v>59625204.902429</v>
+      </c>
+      <c r="T18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13" t="n">
+        <v>27075208.3446414</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>44219365.7787503</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>11970668.830508</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>64295154.0913494</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>31841311.9831175</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>4128880.35820399</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>1843323.09032803</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>42766591.4349252</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>131729.981590338</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>-280583.397814801</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>-24208.7007901537</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>-34518.8554769101</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>-3707.84034077016</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>-61237.445279754</v>
+      </c>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13" t="n">
+        <v>4446489.51183224</v>
+      </c>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13" t="n">
+        <v>30637.5606</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>972192.216336816</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>100073.001252954</v>
+      </c>
+      <c r="AV18" s="13"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="4" t="n">
-        <v>42498030.5047248</v>
-      </c>
-      <c r="Q19" s="4" t="n">
-        <v>11504568.3244218</v>
-      </c>
-      <c r="R19" s="4" t="n">
-        <v>61788575.1159025</v>
-      </c>
-      <c r="S19" s="4" t="n">
-        <v>30602381.4639988</v>
-      </c>
-      <c r="T19" s="4" t="n">
-        <v>3968132.21370764</v>
-      </c>
-      <c r="U19" s="4" t="n">
-        <v>1771683.37211199</v>
-      </c>
-      <c r="V19" s="4" t="n">
-        <v>40379184.4261766</v>
-      </c>
-      <c r="W19" s="4" t="n">
-        <v>126614.490912884</v>
-      </c>
-      <c r="X19" s="4" t="n">
-        <v>-269662.362208109</v>
-      </c>
-      <c r="Y19" s="4" t="n">
-        <v>-23267.9128500478</v>
-      </c>
-      <c r="Z19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>-31507.5835231911</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>-3562.68575525024</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>-58831.1489293108</v>
-      </c>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4" t="n">
-        <v>4261238.53149565</v>
-      </c>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4" t="n">
-        <v>19318.3087763331</v>
-      </c>
-      <c r="AM19" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13" t="n">
+        <v>-286.893856764263</v>
+      </c>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>52</v>
       </c>
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="13" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="13" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="R20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
+      <c r="R20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="13" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4" t="n">
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
     </row>
     <row r="21">
       <c r="N21"/>
@@ -5439,6 +5962,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>47</v>
       </c>
@@ -5446,76 +5975,109 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>23</v>
       </c>
+      <c r="AS1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>49</v>
       </c>
@@ -5526,134 +6088,182 @@
         <v>0</v>
       </c>
       <c r="P2" s="5" t="n">
+        <v>4773197</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="n">
+        <v>154412.99</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5" t="n">
         <v>706619</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="W2" s="5" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="X2" s="5" t="n">
         <v>49117194</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="Y2" s="5" t="n">
         <v>799505</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1724347</v>
       </c>
-      <c r="U2" s="5" t="n">
-        <v>72817815.07</v>
-      </c>
-      <c r="V2" s="5" t="n">
-        <v>17949329.7799</v>
-      </c>
-      <c r="W2" s="5" t="n">
-        <v>607122.832</v>
-      </c>
-      <c r="X2" s="5" t="n">
-        <v>740014.064</v>
-      </c>
-      <c r="Y2" s="5" t="n">
+      <c r="AA2" s="5" t="n">
+        <v>72817817.07</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>17949329.35</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>607122.83</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>740014.08</v>
+      </c>
+      <c r="AE2" s="5" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="Z2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="n">
+      <c r="AF2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5" t="n">
         <v>30000</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AK2" s="5" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AE2" s="5" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AF2" s="5" t="n">
-        <v>-212795.3672</v>
-      </c>
-      <c r="AG2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="5" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AI2" s="5" t="n">
+      <c r="AL2" s="5" t="n">
+        <v>32000</v>
+      </c>
+      <c r="AM2" s="5" t="n">
+        <v>-212795.37</v>
+      </c>
+      <c r="AN2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="5" t="n">
+      <c r="AP2" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="AL2" s="5"/>
+      <c r="AQ2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AS2" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="n">
+        <v>24338</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="n">
+        <v>13320</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>26120</v>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>201634.95</v>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>271382.0206</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>783968.7195</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>743138.2439</v>
-      </c>
-      <c r="S3" s="5" t="n">
-        <v>1982656.0366</v>
-      </c>
-      <c r="T3" s="5" t="n">
-        <v>747418.1223</v>
-      </c>
-      <c r="U3" s="5" t="n">
-        <v>390867.2895</v>
-      </c>
       <c r="V3" s="5" t="n">
-        <v>0</v>
+        <v>271382.02</v>
       </c>
       <c r="W3" s="5" t="n">
+        <v>783968.72</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>743138.25</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>1982656.04</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>747418.12</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>390867.29</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="X3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5" t="n">
+      <c r="AD3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="AF3" s="5" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AG3" s="5" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AH3" s="5" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="5" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AK3" s="5" t="n">
-        <v>304883.1617</v>
-      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5" t="n">
+        <v>904909.77</v>
+      </c>
+      <c r="AR3" s="5" t="n">
+        <v>1856285.31</v>
+      </c>
+      <c r="AS3" s="5" t="n">
+        <v>1106353.94</v>
+      </c>
+      <c r="AT3" s="5" t="n">
+        <v>601331.82</v>
+      </c>
+      <c r="AU3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>52</v>
       </c>
@@ -5661,15 +6271,17 @@
         <v>53</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="5" t="n">
-        <v>7800</v>
-      </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="T4" s="5" t="n">
+        <v>2281363.7</v>
+      </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="V4" s="5" t="n">
+        <v>7800</v>
+      </c>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -5686,493 +6298,780 @@
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="5" t="n">
+        <v>30514.95</v>
+      </c>
+      <c r="AT4" s="5" t="n">
+        <v>43455.95</v>
+      </c>
+      <c r="AU4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>52</v>
       </c>
       <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>470776.0781</v>
-      </c>
-      <c r="P5" s="5" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="n">
+        <v>205927</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>494807.0781</v>
+      </c>
+      <c r="V5" s="5" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="W5" s="5" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="X5" s="5" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="Y5" s="5" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5" t="n">
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="n">
         <v>629147.75</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="AB5" s="5" t="n">
         <v>5212.27</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="AC5" s="5" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="X5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5" t="n">
-        <v>-32729.2511</v>
-      </c>
-      <c r="Z5" s="5" t="n">
-        <v>-14921.4499</v>
-      </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>-35051.6811</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>-15719.4499</v>
+      </c>
+      <c r="AG5" s="5" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AB5" s="5" t="n">
-        <v>-1574.29</v>
-      </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5" t="n">
-        <v>-2315.6101</v>
-      </c>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
+      <c r="AH5" s="5" t="n">
+        <v>-43648.9111</v>
+      </c>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="5" t="n">
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5" t="n">
+        <v>-2315.61</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AR5" s="5" t="n">
+        <v>574529.6625</v>
+      </c>
+      <c r="AS5" s="5" t="n">
+        <v>419352.23</v>
+      </c>
+      <c r="AT5" s="5" t="n">
+        <v>63018.84</v>
+      </c>
+      <c r="AU5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>52</v>
       </c>
       <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>3049178</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>1011697</v>
-      </c>
-      <c r="Q6" s="5" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="n">
+        <v>13158650.32</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>2504229.9562</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>1003914.5304</v>
+      </c>
+      <c r="W6" s="5" t="n">
         <v>39925920</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="X6" s="5" t="n">
         <v>5338005</v>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="Y6" s="5" t="n">
         <v>1411950</v>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="Z6" s="5" t="n">
         <v>103650</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="AA6" s="5" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="V6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n">
+      <c r="AB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="AD6" s="5" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="AE6" s="5" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="Z6" s="5" t="n">
+      <c r="AF6" s="5" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5" t="n">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5" t="n">
+        <v>449040</v>
+      </c>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5" t="n">
         <v>-245</v>
       </c>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5" t="n">
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5" t="n">
         <v>465885</v>
       </c>
-      <c r="AH6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5" t="n">
+      <c r="AO6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="5" t="n">
         <v>376316</v>
       </c>
-      <c r="AJ6" s="5" t="n">
+      <c r="AQ6" s="5" t="n">
         <v>59840</v>
       </c>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5" t="n">
+        <v>-1323.75</v>
+      </c>
+      <c r="AT6" s="5" t="n">
+        <v>2031211.5</v>
+      </c>
+      <c r="AU6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>52</v>
       </c>
       <c r="N7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="n">
+        <v>363498</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>33893609.95</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>15776681.99</v>
+      </c>
+      <c r="U7" s="5" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="V7" s="5" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="W7" s="5" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="X7" s="5" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="Y7" s="5" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="Z7" s="5" t="n">
         <v>1227221</v>
       </c>
-      <c r="U7" s="5" t="n">
-        <v>28880752.3476</v>
-      </c>
-      <c r="V7" s="5" t="n">
+      <c r="AA7" s="5" t="n">
+        <v>29397433.3476</v>
+      </c>
+      <c r="AB7" s="5" t="n">
         <v>93043</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="AC7" s="5" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="AD7" s="5" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="Y7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5" t="n">
-        <v>-24569.5601</v>
-      </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>-25868.6401</v>
+      </c>
+      <c r="AG7" s="5" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AB7" s="5" t="n">
+      <c r="AH7" s="5" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5" t="n">
-        <v>3582106.8109</v>
-      </c>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5" t="n">
-        <v>20254.0801</v>
+        <v>3582106.8109</v>
       </c>
       <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5" t="n">
+        <v>30637.5606</v>
+      </c>
+      <c r="AS7" s="5" t="n">
+        <v>998155.57</v>
+      </c>
+      <c r="AT7" s="5" t="n">
+        <v>105000</v>
+      </c>
+      <c r="AU7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>52</v>
       </c>
       <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>-520917.0438</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>-7782.4696</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5" t="n">
-        <v>-2322.43</v>
-      </c>
-      <c r="Z8" s="5" t="n">
-        <v>-2312.08</v>
-      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="5" t="n">
-        <v>-42074.6211</v>
-      </c>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
+      <c r="AF8" s="5" t="n">
+        <v>-215</v>
+      </c>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
     </row>
     <row r="9">
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="5" t="str">
+        <f>Sum(O2:O8)</f>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f>Sum(P2:P8)</f>
+      </c>
+      <c r="Q9" s="5" t="str">
+        <f>Sum(Q2:Q8)</f>
+      </c>
+      <c r="R9" s="5" t="str">
+        <f>Sum(R2:R8)</f>
+      </c>
+      <c r="S9" s="5" t="str">
+        <f>Sum(S2:S8)</f>
+      </c>
+      <c r="T9" s="5" t="str">
+        <f>Sum(T2:T8)</f>
+      </c>
+      <c r="U9" s="5" t="str">
+        <f>Sum(U2:U8)</f>
+      </c>
+      <c r="V9" s="5" t="str">
+        <f>Sum(V2:V8)</f>
+      </c>
+      <c r="W9" s="5" t="str">
+        <f>Sum(W2:W8)</f>
+      </c>
+      <c r="X9" s="5" t="str">
+        <f>Sum(X2:X8)</f>
+      </c>
+      <c r="Y9" s="5" t="str">
+        <f>Sum(Y2:Y8)</f>
+      </c>
+      <c r="Z9" s="5" t="str">
+        <f>Sum(Z2:Z8)</f>
+      </c>
+      <c r="AA9" s="5" t="str">
+        <f>Sum(AA2:AA8)</f>
+      </c>
+      <c r="AB9" s="5" t="str">
+        <f>Sum(AB2:AB8)</f>
+      </c>
+      <c r="AC9" s="5" t="str">
+        <f>Sum(AC2:AC8)</f>
+      </c>
+      <c r="AD9" s="5" t="str">
+        <f>Sum(AD2:AD8)</f>
+      </c>
+      <c r="AE9" s="5" t="str">
+        <f>Sum(AE2:AE8)</f>
+      </c>
+      <c r="AF9" s="5" t="str">
+        <f>Sum(AF2:AF8)</f>
+      </c>
+      <c r="AG9" s="5" t="str">
+        <f>Sum(AG2:AG8)</f>
+      </c>
+      <c r="AH9" s="5" t="str">
+        <f>Sum(AH2:AH8)</f>
+      </c>
+      <c r="AI9" s="5" t="str">
+        <f>Sum(AI2:AI8)</f>
+      </c>
+      <c r="AJ9" s="5" t="str">
+        <f>Sum(AJ2:AJ8)</f>
+      </c>
+      <c r="AK9" s="5" t="str">
+        <f>Sum(AK2:AK8)</f>
+      </c>
+      <c r="AL9" s="5" t="str">
+        <f>Sum(AL2:AL8)</f>
+      </c>
+      <c r="AM9" s="5" t="str">
+        <f>Sum(AM2:AM8)</f>
+      </c>
+      <c r="AN9" s="5" t="str">
+        <f>Sum(AN2:AN8)</f>
+      </c>
+      <c r="AO9" s="5" t="str">
+        <f>Sum(AO2:AO8)</f>
+      </c>
+      <c r="AP9" s="5" t="str">
+        <f>Sum(AP2:AP8)</f>
+      </c>
+      <c r="AQ9" s="5" t="str">
+        <f>Sum(AQ2:AQ8)</f>
+      </c>
+      <c r="AR9" s="5" t="str">
+        <f>Sum(AR2:AR8)</f>
+      </c>
+      <c r="AS9" s="5" t="str">
+        <f>Sum(AS2:AS8)</f>
+      </c>
+      <c r="AT9" s="5" t="str">
+        <f>Sum(AT2:AT8)</f>
+      </c>
+      <c r="AU9" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>8706876.24378308</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5" t="n">
+        <v>264996.39645516</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <v>1159835.70366125</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>4778120.22555046</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>77876813.4535822</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>1237423.29598367</v>
+      </c>
+      <c r="Z13" s="5" t="n">
+        <v>2590021.39047316</v>
+      </c>
+      <c r="AA13" s="5" t="n">
+        <v>105933392.041181</v>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>25412603.0419742</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>842080.261653279</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>1016010.78274473</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>-242011.720759033</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5" t="n">
+        <v>37536.9003683804</v>
+      </c>
+      <c r="AK13" s="5" t="n">
+        <v>2157.67476297287</v>
+      </c>
+      <c r="AL13" s="5" t="n">
+        <v>39062.4000075039</v>
+      </c>
+      <c r="AM13" s="5" t="n">
+        <v>-254117.890892549</v>
+      </c>
+      <c r="AN13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="5" t="n">
+        <v>11573.9072704938</v>
+      </c>
+      <c r="AP13" s="5" t="n">
+        <v>11188.817598517</v>
+      </c>
+      <c r="AQ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AS13" s="5" t="n">
+        <v>9739.88670259903</v>
+      </c>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>49</v>
       </c>
       <c r="N14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="n">
-        <v>1114675.31904885</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5" t="n">
-        <v>4591842.80124401</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>74846663.1579375</v>
-      </c>
+        <v>43574.9436661632</v>
+      </c>
+      <c r="R14" s="5"/>
       <c r="S14" s="5" t="n">
-        <v>1189247.16068086</v>
+        <v>23142.2203431156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2489361.66155175</v>
+        <v>44825.9299648869</v>
       </c>
       <c r="U14" s="5" t="n">
-        <v>101809120.096108</v>
+        <v>338983.312711584</v>
       </c>
       <c r="V14" s="5" t="n">
-        <v>24425752.0964446</v>
+        <v>445443.097521734</v>
       </c>
       <c r="W14" s="5" t="n">
-        <v>809304.310386079</v>
+        <v>1266866.0534842</v>
       </c>
       <c r="X14" s="5" t="n">
-        <v>976526.995041935</v>
+        <v>1178268.42603166</v>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>-232598.227359032</v>
+        <v>3068629.67938753</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+        <v>1122644.64079865</v>
+      </c>
+      <c r="AA14" s="5" t="n">
+        <v>568623.168528117</v>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AC14" s="5" t="n">
-        <v>35983.4270122674</v>
+        <v>-203646.616623635</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>2067.7810695267</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>1572929.39623693</v>
+        <v>-51580.5768014668</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>-242993.47650284</v>
+        <v>-48577.7752125464</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>0</v>
+        <v>-1412.65160243094</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AI14" s="5" t="n">
-        <v>10692.875949243</v>
-      </c>
-      <c r="AJ14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="5" t="n">
-        <v>9537.98379435319</v>
-      </c>
+        <v>-10944.1296577568</v>
+      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5" t="n">
+        <v>946306.31050512</v>
+      </c>
+      <c r="AR14" s="5" t="n">
+        <v>1856285.31</v>
+      </c>
+      <c r="AS14" s="5" t="n">
+        <v>1077576.2028574</v>
+      </c>
+      <c r="AT14" s="5" t="n">
+        <v>573115.047393344</v>
+      </c>
+      <c r="AU14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="5" t="n">
-        <v>325787.647798704</v>
-      </c>
-      <c r="P15" s="5" t="n">
-        <v>428098.933649431</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>1217476.64133996</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>1132422.54476028</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>2949159.87033643</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="5" t="n">
-        <v>1079013.6897055</v>
-      </c>
-      <c r="U15" s="5" t="n">
-        <v>546485.153119352</v>
-      </c>
+        <v>3915170.34611926</v>
+      </c>
+      <c r="U15" s="5"/>
       <c r="V15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="n">
-        <v>-195720.160644237</v>
-      </c>
-      <c r="X15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5" t="n">
-        <v>-49574.2548854623</v>
-      </c>
-      <c r="Z15" s="5" t="n">
-        <v>-46684.4823248724</v>
-      </c>
-      <c r="AA15" s="5" t="n">
-        <v>-1357.34909774102</v>
-      </c>
-      <c r="AB15" s="5" t="n">
-        <v>-10514.0852766771</v>
-      </c>
+        <v>12802.8237120113</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -6180,243 +7079,352 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="5" t="n">
-        <v>904909.7783</v>
-      </c>
-      <c r="AK15" s="5" t="n">
-        <v>290797.065546576</v>
-      </c>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="5" t="n">
+        <v>29721.2155735474</v>
+      </c>
+      <c r="AT15" s="5" t="n">
+        <v>41416.8317980791</v>
+      </c>
+      <c r="AU15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" s="5"/>
-      <c r="P16" s="5" t="n">
-        <v>12304.3216904457</v>
-      </c>
+      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="T16" s="5" t="n">
+        <v>353402.346090324</v>
+      </c>
+      <c r="U16" s="5" t="n">
+        <v>831856.493566604</v>
+      </c>
+      <c r="V16" s="5" t="n">
+        <v>890454.331507125</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>1002181.51436041</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>729708.438920752</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>334923.685912735</v>
+      </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
+      <c r="AA16" s="5" t="n">
+        <v>915267.141124384</v>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>7379.51518269906</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <v>-12168.0664475125</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>-47711.403995414</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>-20975.8772466214</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>-3369.36266824407</v>
+      </c>
+      <c r="AH16" s="5" t="n">
+        <v>-56187.0987678462</v>
+      </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
+      <c r="AK16" s="5" t="n">
+        <v>-2874.37983344414</v>
+      </c>
       <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5" t="n">
+        <v>16909.7121882836</v>
+      </c>
+      <c r="AR16" s="5" t="n">
+        <v>574529.6625</v>
+      </c>
+      <c r="AS16" s="5" t="n">
+        <v>408444.320868225</v>
+      </c>
+      <c r="AT16" s="5" t="n">
+        <v>60061.7567074258</v>
+      </c>
+      <c r="AU16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>52</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="5" t="n">
-        <v>760647.056098648</v>
-      </c>
-      <c r="P17" s="5" t="n">
-        <v>855782.817288609</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>963110.963103804</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5" t="n">
-        <v>701315.825716976</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>321884.228145117</v>
-      </c>
-      <c r="T17" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5" t="n">
+        <v>22582264.0764455</v>
+      </c>
       <c r="U17" s="5" t="n">
-        <v>879633.353134417</v>
+        <v>4210044.76825204</v>
       </c>
       <c r="V17" s="5" t="n">
-        <v>7092.94533227105</v>
+        <v>1647812.91726126</v>
       </c>
       <c r="W17" s="5" t="n">
-        <v>-11694.453653695</v>
+        <v>64518891.3941949</v>
       </c>
       <c r="X17" s="5" t="n">
-        <v>0</v>
+        <v>8463570.2031205</v>
       </c>
       <c r="Y17" s="5" t="n">
-        <v>-42817.3134157914</v>
+        <v>2185326.94950518</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>-19135.0120676911</v>
+        <v>155685.437514922</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>-3237.45881138229</v>
+        <v>10226635.5177467</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>-1946.87557313036</v>
-      </c>
-      <c r="AC17" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>164794.304920896</v>
+      </c>
       <c r="AD17" s="5" t="n">
-        <v>-2754.62667724342</v>
-      </c>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
+        <v>362168.741530587</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>-4324.89613252498</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>-83556.2095614602</v>
+      </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5" t="n">
-        <v>16169.9902</v>
-      </c>
+      <c r="AI17" s="5" t="n">
+        <v>567671.010781381</v>
+      </c>
+      <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AL17" s="5" t="n">
+        <v>-299.071500057452</v>
+      </c>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="AO17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="5" t="n">
+        <v>421053.108340354</v>
+      </c>
+      <c r="AQ17" s="5" t="n">
+        <v>62577.4762279629</v>
+      </c>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5" t="n">
+        <v>-1289.31750225655</v>
+      </c>
+      <c r="AT17" s="5" t="n">
+        <v>1935899.34270966</v>
+      </c>
+      <c r="AU17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <v>4926648.52169506</v>
-      </c>
-      <c r="P18" s="5" t="n">
-        <v>1595928.88990498</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5" t="n">
-        <v>62003589.9072731</v>
+        <v>650809.634019351</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>8134256.65501954</v>
+        <v>59625204.902429</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2100246.43813778</v>
+        <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149634.810290411</v>
+        <v>27075208.3446414</v>
       </c>
       <c r="U18" s="5" t="n">
-        <v>9828485.35424104</v>
+        <v>44219365.7787503</v>
       </c>
       <c r="V18" s="5" t="n">
-        <v>0</v>
+        <v>11970668.830508</v>
       </c>
       <c r="W18" s="5" t="n">
-        <v>158380.081963167</v>
+        <v>64295154.0913494</v>
       </c>
       <c r="X18" s="5" t="n">
-        <v>348094.298326518</v>
+        <v>31841311.9831175</v>
       </c>
       <c r="Y18" s="5" t="n">
-        <v>-4156.67129997752</v>
+        <v>4128880.35820399</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>-80299.6508452254</v>
-      </c>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
+        <v>1843323.09032803</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>42766591.4349252</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>131729.981590338</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>-280583.397814801</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>-24208.7007901537</v>
+      </c>
       <c r="AE18" s="5" t="n">
-        <v>-286.337355131209</v>
-      </c>
-      <c r="AF18" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>-34518.8554769101</v>
+      </c>
       <c r="AG18" s="5" t="n">
-        <v>521779.598543694</v>
+        <v>-3707.84034077016</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="5" t="n">
-        <v>402390.030571531</v>
-      </c>
-      <c r="AJ18" s="5" t="n">
-        <v>59840</v>
-      </c>
-      <c r="AK18" s="5"/>
+        <v>-61237.445279754</v>
+      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5" t="n">
+        <v>4446489.51183224</v>
+      </c>
       <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5" t="n">
+        <v>30637.5606</v>
+      </c>
+      <c r="AS18" s="5" t="n">
+        <v>972192.216336816</v>
+      </c>
+      <c r="AT18" s="5" t="n">
+        <v>100073.001252954</v>
+      </c>
+      <c r="AU18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>52</v>
       </c>
       <c r="N19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="5" t="n">
-        <v>42498030.5047248</v>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>11504568.3244218</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>61788575.1159025</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>30602381.4639988</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>3968132.21370764</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1771683.37211199</v>
-      </c>
-      <c r="U19" s="5" t="n">
-        <v>40379184.4261766</v>
-      </c>
-      <c r="V19" s="5" t="n">
-        <v>126614.490912884</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
       <c r="W19" s="5" t="n">
-        <v>-269662.362208109</v>
-      </c>
-      <c r="X19" s="5" t="n">
-        <v>-23267.9128500478</v>
-      </c>
-      <c r="Y19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5" t="n">
-        <v>-31507.5835231911</v>
-      </c>
-      <c r="AA19" s="5" t="n">
-        <v>-3562.68575525024</v>
-      </c>
-      <c r="AB19" s="5" t="n">
-        <v>-58831.1489293108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="5" t="n">
-        <v>4261238.53149565</v>
-      </c>
+      <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="AF19" s="5" t="n">
+        <v>-286.893856764263</v>
+      </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
-      <c r="AK19" s="5" t="n">
-        <v>19318.3087763331</v>
-      </c>
+      <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>52</v>
       </c>
@@ -6459,54 +7467,63 @@
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
     </row>
     <row r="21">
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="O21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6607,77 +7624,77 @@
         <f>M2</f>
       </c>
       <c r="M2"/>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="8" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="8" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="8" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="8" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="8" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="8" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T2" s="7" t="n">
+      <c r="T2" s="8" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="8" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="V2" s="8" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="W2" s="8" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X2" s="7" t="n">
+      <c r="X2" s="8" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Y2" s="8" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z2" s="7" t="n">
+      <c r="Z2" s="8" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA2" s="7" t="n">
+      <c r="AA2" s="8" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB2" s="7" t="n">
+      <c r="AB2" s="8" t="n">
         <v>30000</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AC2" s="8" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AD2" s="8" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE2" s="7" t="n">
+      <c r="AE2" s="8" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF2" s="7" t="n">
+      <c r="AF2" s="8" t="n">
         <v>465885</v>
       </c>
-      <c r="AG2" s="7" t="n">
+      <c r="AG2" s="8" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH2" s="7" t="n">
+      <c r="AH2" s="8" t="n">
         <v>386316</v>
       </c>
-      <c r="AI2" s="7" t="n">
+      <c r="AI2" s="8" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AJ2" s="8" t="n">
         <v>335137.2418</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6686,77 +7703,77 @@
       <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="7" t="str">
+      <c r="N3" s="8" t="str">
         <f>Sum(N2:N2)</f>
       </c>
-      <c r="O3" s="7" t="str">
+      <c r="O3" s="8" t="str">
         <f>Sum(O2:O2)</f>
       </c>
-      <c r="P3" s="7" t="str">
+      <c r="P3" s="8" t="str">
         <f>Sum(P2:P2)</f>
       </c>
-      <c r="Q3" s="7" t="str">
+      <c r="Q3" s="8" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="7" t="str">
+      <c r="R3" s="8" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="7" t="str">
+      <c r="S3" s="8" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="7" t="str">
+      <c r="T3" s="8" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="7" t="str">
+      <c r="U3" s="8" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="7" t="str">
+      <c r="V3" s="8" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="7" t="str">
+      <c r="W3" s="8" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="7" t="str">
+      <c r="X3" s="8" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="7" t="str">
+      <c r="Y3" s="8" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="7" t="str">
+      <c r="Z3" s="8" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="7" t="str">
+      <c r="AA3" s="8" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="7" t="str">
+      <c r="AB3" s="8" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="7" t="str">
+      <c r="AC3" s="8" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="7" t="str">
+      <c r="AD3" s="8" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="7" t="str">
+      <c r="AE3" s="8" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="7" t="str">
+      <c r="AF3" s="8" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="7" t="str">
+      <c r="AG3" s="8" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="7" t="str">
+      <c r="AH3" s="8" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="7" t="str">
+      <c r="AI3" s="8" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="7" t="str">
+      <c r="AJ3" s="8" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
     </row>
     <row r="4">
       <c r="M4" t="str">
@@ -6876,211 +7893,211 @@
       <c r="A7" t="str">
         <f>M7</f>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="8" t="str">
         <f>AB7</f>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="8" t="str">
         <f>AH7</f>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="8" t="str">
         <f>AI7</f>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="8" t="str">
         <f>AJ7</f>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F7" s="7" t="str">
         <f>AI7/AH7-1</f>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="7" t="str">
         <f>AI7/AB7-1</f>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="7" t="str">
         <f>AJ7/AI7</f>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="7" t="str">
         <f>AI7/Sum(AI$6:AI$7)</f>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="7" t="str">
         <f>AJ7/Sum(AJ6:AJ$7)</f>
       </c>
       <c r="M7"/>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="8" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="8" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="8" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="8" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R7" s="7" t="n">
+      <c r="R7" s="8" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="S7" s="8" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T7" s="7" t="n">
+      <c r="T7" s="8" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U7" s="7" t="n">
+      <c r="U7" s="8" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V7" s="7" t="n">
+      <c r="V7" s="8" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="W7" s="8" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X7" s="7" t="n">
+      <c r="X7" s="8" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y7" s="7" t="n">
+      <c r="Y7" s="8" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z7" s="7" t="n">
+      <c r="Z7" s="8" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA7" s="7" t="n">
+      <c r="AA7" s="8" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB7" s="7" t="n">
+      <c r="AB7" s="8" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC7" s="7" t="n">
+      <c r="AC7" s="8" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD7" s="7" t="n">
+      <c r="AD7" s="8" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE7" s="7" t="n">
+      <c r="AE7" s="8" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF7" s="7" t="n">
+      <c r="AF7" s="8" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG7" s="7" t="n">
+      <c r="AG7" s="8" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH7" s="7" t="n">
+      <c r="AH7" s="8" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI7" s="7" t="n">
+      <c r="AI7" s="8" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ7" s="7" t="n">
+      <c r="AJ7" s="8" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="8" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="8" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="8" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="8" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="7" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="7" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="7" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="7" t="str">
         <f>Sum(I$6:I$7)</f>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="J8" s="7" t="str">
         <f>Sum(J$6:J$7)</f>
       </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="7" t="str">
+      <c r="N8" s="8" t="str">
         <f>Sum(N7:N7)</f>
       </c>
-      <c r="O8" s="7" t="str">
+      <c r="O8" s="8" t="str">
         <f>Sum(O7:O7)</f>
       </c>
-      <c r="P8" s="7" t="str">
+      <c r="P8" s="8" t="str">
         <f>Sum(P7:P7)</f>
       </c>
-      <c r="Q8" s="7" t="str">
+      <c r="Q8" s="8" t="str">
         <f>Sum(Q7:Q7)</f>
       </c>
-      <c r="R8" s="7" t="str">
+      <c r="R8" s="8" t="str">
         <f>Sum(R7:R7)</f>
       </c>
-      <c r="S8" s="7" t="str">
+      <c r="S8" s="8" t="str">
         <f>Sum(S7:S7)</f>
       </c>
-      <c r="T8" s="7" t="str">
+      <c r="T8" s="8" t="str">
         <f>Sum(T7:T7)</f>
       </c>
-      <c r="U8" s="7" t="str">
+      <c r="U8" s="8" t="str">
         <f>Sum(U7:U7)</f>
       </c>
-      <c r="V8" s="7" t="str">
+      <c r="V8" s="8" t="str">
         <f>Sum(V7:V7)</f>
       </c>
-      <c r="W8" s="7" t="str">
+      <c r="W8" s="8" t="str">
         <f>Sum(W7:W7)</f>
       </c>
-      <c r="X8" s="7" t="str">
+      <c r="X8" s="8" t="str">
         <f>Sum(X7:X7)</f>
       </c>
-      <c r="Y8" s="7" t="str">
+      <c r="Y8" s="8" t="str">
         <f>Sum(Y7:Y7)</f>
       </c>
-      <c r="Z8" s="7" t="str">
+      <c r="Z8" s="8" t="str">
         <f>Sum(Z7:Z7)</f>
       </c>
-      <c r="AA8" s="7" t="str">
+      <c r="AA8" s="8" t="str">
         <f>Sum(AA7:AA7)</f>
       </c>
-      <c r="AB8" s="7" t="str">
+      <c r="AB8" s="8" t="str">
         <f>Sum(AB7:AB7)</f>
       </c>
-      <c r="AC8" s="7" t="str">
+      <c r="AC8" s="8" t="str">
         <f>Sum(AC7:AC7)</f>
       </c>
-      <c r="AD8" s="7" t="str">
+      <c r="AD8" s="8" t="str">
         <f>Sum(AD7:AD7)</f>
       </c>
-      <c r="AE8" s="7" t="str">
+      <c r="AE8" s="8" t="str">
         <f>Sum(AE7:AE7)</f>
       </c>
-      <c r="AF8" s="7" t="str">
+      <c r="AF8" s="8" t="str">
         <f>Sum(AF7:AF7)</f>
       </c>
-      <c r="AG8" s="7" t="str">
+      <c r="AG8" s="8" t="str">
         <f>Sum(AG7:AG7)</f>
       </c>
-      <c r="AH8" s="7" t="str">
+      <c r="AH8" s="8" t="str">
         <f>Sum(AH7:AH7)</f>
       </c>
-      <c r="AI8" s="7" t="str">
+      <c r="AI8" s="8" t="str">
         <f>Sum(AI7:AI7)</f>
       </c>
-      <c r="AJ8" s="7" t="str">
+      <c r="AJ8" s="8" t="str">
         <f>Sum(AJ7:AJ7)</f>
       </c>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
     <row r="9">
       <c r="M9" t="str">
@@ -7233,112 +8250,112 @@
       <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8" t="n">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="8" t="n">
+      <c r="AJ2" s="9" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <f>M3</f>
       </c>
       <c r="M3"/>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="9" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="9" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="9" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="9" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="9" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S3" s="8" t="n">
+      <c r="S3" s="9" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T3" s="8" t="n">
+      <c r="T3" s="9" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U3" s="8" t="n">
+      <c r="U3" s="9" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V3" s="8" t="n">
+      <c r="V3" s="9" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W3" s="8" t="n">
+      <c r="W3" s="9" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X3" s="8" t="n">
+      <c r="X3" s="9" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="8" t="n">
+      <c r="Y3" s="9" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="8" t="n">
+      <c r="Z3" s="9" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="8" t="n">
+      <c r="AA3" s="9" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="8" t="n">
+      <c r="AB3" s="9" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="8" t="n">
+      <c r="AC3" s="9" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="8" t="n">
+      <c r="AD3" s="9" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="8" t="n">
+      <c r="AE3" s="9" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF3" s="8" t="n">
+      <c r="AF3" s="9" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="8" t="n">
+      <c r="AG3" s="9" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH3" s="8" t="n">
+      <c r="AH3" s="9" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8" t="n">
+      <c r="AI3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7347,77 +8364,77 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="8" t="str">
+      <c r="N4" s="9" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="8" t="str">
+      <c r="O4" s="9" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="8" t="str">
+      <c r="P4" s="9" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="8" t="str">
+      <c r="Q4" s="9" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="8" t="str">
+      <c r="R4" s="9" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="8" t="str">
+      <c r="S4" s="9" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="8" t="str">
+      <c r="T4" s="9" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="8" t="str">
+      <c r="U4" s="9" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="8" t="str">
+      <c r="V4" s="9" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="8" t="str">
+      <c r="W4" s="9" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="8" t="str">
+      <c r="X4" s="9" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="8" t="str">
+      <c r="Y4" s="9" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="8" t="str">
+      <c r="Z4" s="9" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="8" t="str">
+      <c r="AA4" s="9" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="8" t="str">
+      <c r="AB4" s="9" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="8" t="str">
+      <c r="AC4" s="9" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="8" t="str">
+      <c r="AD4" s="9" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="8" t="str">
+      <c r="AE4" s="9" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="8" t="str">
+      <c r="AF4" s="9" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="8" t="str">
+      <c r="AG4" s="9" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="8" t="str">
+      <c r="AH4" s="9" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="8" t="str">
+      <c r="AI4" s="9" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="8" t="str">
+      <c r="AJ4" s="9" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7527,275 +8544,275 @@
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="9" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="9" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="9" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="9" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="7" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="7" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="7" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="7" t="str">
         <f>AI8/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="J8" s="7" t="str">
         <f>AJ8/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8" t="n">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ8" s="8" t="n">
+      <c r="AJ8" s="9" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <f>M9</f>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="9" t="str">
         <f>AB9</f>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="9" t="str">
         <f>AH9</f>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="9" t="str">
         <f>AI9</f>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="9" t="str">
         <f>AJ9</f>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="7" t="str">
         <f>AI9/AH9-1</f>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="7" t="str">
         <f>AI9/AB9-1</f>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="7" t="str">
         <f>AJ9/AI9</f>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="7" t="str">
         <f>AI9/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="J9" s="7" t="str">
         <f>AJ9/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M9"/>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="9" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="9" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="9" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="9" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R9" s="8" t="n">
+      <c r="R9" s="9" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S9" s="8" t="n">
+      <c r="S9" s="9" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T9" s="8" t="n">
+      <c r="T9" s="9" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U9" s="8" t="n">
+      <c r="U9" s="9" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V9" s="8" t="n">
+      <c r="V9" s="9" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W9" s="8" t="n">
+      <c r="W9" s="9" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="X9" s="9" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Y9" s="9" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="9" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="8" t="n">
+      <c r="AA9" s="9" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="8" t="n">
+      <c r="AB9" s="9" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="8" t="n">
+      <c r="AC9" s="9" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="8" t="n">
+      <c r="AD9" s="9" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="8" t="n">
+      <c r="AE9" s="9" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF9" s="8" t="n">
+      <c r="AF9" s="9" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="8" t="n">
+      <c r="AG9" s="9" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH9" s="8" t="n">
+      <c r="AH9" s="9" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="8" t="n">
+      <c r="AI9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="9" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="9" t="str">
         <f>AB10</f>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="9" t="str">
         <f>AH10</f>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="9" t="str">
         <f>AI10</f>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="9" t="str">
         <f>AJ10</f>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="7" t="str">
         <f>AI10/AH10-1</f>
       </c>
-      <c r="G10" s="6" t="str">
+      <c r="G10" s="7" t="str">
         <f>AI10/AB10-1</f>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="7" t="str">
         <f>AJ10/AI10</f>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="7" t="str">
         <f>Sum(I$7:I$9)</f>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="J10" s="7" t="str">
         <f>Sum(J$7:J$9)</f>
       </c>
       <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="9" t="str">
         <f>Sum(N8:N9)</f>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="O10" s="9" t="str">
         <f>Sum(O8:O9)</f>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="P10" s="9" t="str">
         <f>Sum(P8:P9)</f>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="Q10" s="9" t="str">
         <f>Sum(Q8:Q9)</f>
       </c>
-      <c r="R10" s="8" t="str">
+      <c r="R10" s="9" t="str">
         <f>Sum(R8:R9)</f>
       </c>
-      <c r="S10" s="8" t="str">
+      <c r="S10" s="9" t="str">
         <f>Sum(S8:S9)</f>
       </c>
-      <c r="T10" s="8" t="str">
+      <c r="T10" s="9" t="str">
         <f>Sum(T8:T9)</f>
       </c>
-      <c r="U10" s="8" t="str">
+      <c r="U10" s="9" t="str">
         <f>Sum(U8:U9)</f>
       </c>
-      <c r="V10" s="8" t="str">
+      <c r="V10" s="9" t="str">
         <f>Sum(V8:V9)</f>
       </c>
-      <c r="W10" s="8" t="str">
+      <c r="W10" s="9" t="str">
         <f>Sum(W8:W9)</f>
       </c>
-      <c r="X10" s="8" t="str">
+      <c r="X10" s="9" t="str">
         <f>Sum(X8:X9)</f>
       </c>
-      <c r="Y10" s="8" t="str">
+      <c r="Y10" s="9" t="str">
         <f>Sum(Y8:Y9)</f>
       </c>
-      <c r="Z10" s="8" t="str">
+      <c r="Z10" s="9" t="str">
         <f>Sum(Z8:Z9)</f>
       </c>
-      <c r="AA10" s="8" t="str">
+      <c r="AA10" s="9" t="str">
         <f>Sum(AA8:AA9)</f>
       </c>
-      <c r="AB10" s="8" t="str">
+      <c r="AB10" s="9" t="str">
         <f>Sum(AB8:AB9)</f>
       </c>
-      <c r="AC10" s="8" t="str">
+      <c r="AC10" s="9" t="str">
         <f>Sum(AC8:AC9)</f>
       </c>
-      <c r="AD10" s="8" t="str">
+      <c r="AD10" s="9" t="str">
         <f>Sum(AD8:AD9)</f>
       </c>
-      <c r="AE10" s="8" t="str">
+      <c r="AE10" s="9" t="str">
         <f>Sum(AE8:AE9)</f>
       </c>
-      <c r="AF10" s="8" t="str">
+      <c r="AF10" s="9" t="str">
         <f>Sum(AF8:AF9)</f>
       </c>
-      <c r="AG10" s="8" t="str">
+      <c r="AG10" s="9" t="str">
         <f>Sum(AG8:AG9)</f>
       </c>
-      <c r="AH10" s="8" t="str">
+      <c r="AH10" s="9" t="str">
         <f>Sum(AH8:AH9)</f>
       </c>
-      <c r="AI10" s="8" t="str">
+      <c r="AI10" s="9" t="str">
         <f>Sum(AI8:AI9)</f>
       </c>
-      <c r="AJ10" s="8" t="str">
+      <c r="AJ10" s="9" t="str">
         <f>Sum(AJ8:AJ9)</f>
       </c>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7894,76 +8911,76 @@
     <row r="2">
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="10" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="P2" s="10" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="Q2" s="10" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="10" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="10" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="10" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="10" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="10" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="10" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="10" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="10" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="10" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AA2" s="9" t="n">
+      <c r="AA2" s="10" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB2" s="9" t="n">
+      <c r="AB2" s="10" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC2" s="9" t="n">
+      <c r="AC2" s="10" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD2" s="9" t="n">
+      <c r="AD2" s="10" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AE2" s="9" t="n">
+      <c r="AE2" s="10" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AF2" s="9" t="n">
+      <c r="AF2" s="10" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG2" s="9" t="n">
+      <c r="AG2" s="10" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH2" s="9" t="n">
+      <c r="AH2" s="10" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI2" s="9" t="n">
+      <c r="AI2" s="10" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AJ2" s="9" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AK2" s="9" t="n">
+      <c r="AK2" s="10" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AL2" s="9"/>
+      <c r="AL2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8099,105 +9116,105 @@
       <c r="B2" t="str">
         <f>P2</f>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="11" t="str">
         <f>AE2</f>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="11" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="10" t="str">
+      <c r="E2" s="11" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="11" t="str">
         <f>AM2</f>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="G2" s="7" t="str">
         <f>AL2/AK2-1</f>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="7" t="str">
         <f>AL2/AE2-1</f>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="I2" s="7" t="str">
         <f>AM2/AL2</f>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="J2" s="7" t="str">
         <f>AL2/Sum(AL$1:AL$2)</f>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="K2" s="7" t="str">
         <f>AM2/Sum(AM1:AM$2)</f>
       </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="11" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="R2" s="10" t="n">
+      <c r="R2" s="11" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="11" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="T2" s="10" t="n">
+      <c r="T2" s="11" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="U2" s="10" t="n">
+      <c r="U2" s="11" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="V2" s="10" t="n">
+      <c r="V2" s="11" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="W2" s="10" t="n">
+      <c r="W2" s="11" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="X2" s="10" t="n">
+      <c r="X2" s="11" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="Y2" s="10" t="n">
+      <c r="Y2" s="11" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="Z2" s="10" t="n">
+      <c r="Z2" s="11" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="11" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="11" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="11" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="11" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="11" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="11" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="11" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="11" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="11" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="11" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="11" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="11" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AN2" s="10"/>
+      <c r="AN2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -8206,31 +9223,31 @@
       <c r="B3" t="str">
         <f>P3</f>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="11" t="str">
         <f>AE3</f>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="11" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="11" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="11" t="str">
         <f>AM3</f>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="7" t="str">
         <f>AL3/AK3-1</f>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="7" t="str">
         <f>AL3/AE3-1</f>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="7" t="str">
         <f>AM3/AL3</f>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="J3" s="7" t="str">
         <f>Sum(J$1:J$2)</f>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="7" t="str">
         <f>Sum(K$1:K$2)</f>
       </c>
       <c r="O3" t="s">
@@ -8239,74 +9256,74 @@
       <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="10" t="str">
+      <c r="Q3" s="11" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="10" t="str">
+      <c r="R3" s="11" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="10" t="str">
+      <c r="S3" s="11" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="10" t="str">
+      <c r="T3" s="11" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="10" t="str">
+      <c r="U3" s="11" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="10" t="str">
+      <c r="V3" s="11" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="10" t="str">
+      <c r="W3" s="11" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="10" t="str">
+      <c r="X3" s="11" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="10" t="str">
+      <c r="Y3" s="11" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="10" t="str">
+      <c r="Z3" s="11" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="10" t="str">
+      <c r="AA3" s="11" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="10" t="str">
+      <c r="AB3" s="11" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="10" t="str">
+      <c r="AC3" s="11" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="10" t="str">
+      <c r="AD3" s="11" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="10" t="str">
+      <c r="AE3" s="11" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="10" t="str">
+      <c r="AF3" s="11" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="10" t="str">
+      <c r="AG3" s="11" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="10" t="str">
+      <c r="AH3" s="11" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="10" t="str">
+      <c r="AI3" s="11" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="10" t="str">
+      <c r="AJ3" s="11" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="10" t="str">
+      <c r="AK3" s="11" t="str">
         <f>Sum(AK2:AK2)</f>
       </c>
-      <c r="AL3" s="10" t="str">
+      <c r="AL3" s="11" t="str">
         <f>Sum(AL2:AL2)</f>
       </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
     </row>
     <row r="4">
       <c r="P4" t="str">

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -271,19 +271,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -319,13 +320,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -333,7 +335,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,55 +1228,55 @@
       <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="13" t="n">
         <v>8679377.7246</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="13" t="n">
         <v>1596870.1641</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="13" t="n">
         <v>16808055.3186</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="13" t="n">
         <v>3968703.75</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="13" t="n">
         <v>25000</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="13" t="n">
         <v>-112251</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="13" t="n">
         <v>2340590</v>
       </c>
-      <c r="S2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="12" t="n">
+      <c r="S2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="13" t="n">
         <v>601880.3516</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="13" t="n">
         <v>-111</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="13" t="n">
         <v>-8515.14</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1283,67 +1285,67 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="13" t="n">
         <v>6144828.9043</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="13" t="n">
         <v>2382814.1323</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="13" t="n">
         <v>31386571.0246</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="13" t="n">
         <v>14864769.5701</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="13" t="n">
         <v>455672.5765</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="13" t="n">
         <v>729275.9702</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="13" t="n">
         <v>82810289.9502</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>16900543.2487</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="13" t="n">
         <v>-35540.8955</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="13" t="n">
         <v>-62365.6992</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="13" t="n">
         <v>-34818.901</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="13" t="n">
         <v>-69425.5112</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="13" t="n">
         <v>-5399.9401</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="13" t="n">
         <v>-91092.8906</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="13" t="n">
         <v>20000</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="13" t="n">
         <v>1400384.93</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>-245</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12" t="n">
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13" t="n">
         <v>111730.1484</v>
       </c>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1352,75 +1354,75 @@
       <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="13" t="n">
         <v>5956520.8585</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="13" t="n">
         <v>1902753.4899</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="13" t="n">
         <v>17859658.3575</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="13" t="n">
         <v>48657777.0876</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="13" t="n">
         <v>1121344.9166</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="13" t="n">
         <v>1193549.7023</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="13" t="n">
         <v>15192579.1777</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>1046359.5312</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="13" t="n">
         <v>627237.2772</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="13" t="n">
         <v>179877.6403</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="13" t="n">
         <v>-15387.8599</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="13" t="n">
         <v>-55029.2601</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="13" t="n">
         <v>-622.16</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="13" t="n">
         <v>-3400.79</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12" t="n">
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13" t="n">
         <v>2181721.8809</v>
       </c>
-      <c r="AB4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="13" t="n">
         <v>465885</v>
       </c>
-      <c r="AE4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AE4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="13" t="n">
         <v>376316</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="13" t="n">
         <v>115998.4131</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="13" t="n">
         <v>127266.4766</v>
       </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1429,65 +1431,65 @@
       <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <v>8641021.0712</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <v>3097382.296</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="13" t="n">
         <v>17286987.9545</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="13" t="n">
         <v>5233952.9025</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="13" t="n">
         <v>5443014.0295</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="13" t="n">
         <v>1939359.5397</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="13" t="n">
         <v>9404835.6798</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>100682.27</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="13" t="n">
         <v>-223653.1625</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="13" t="n">
         <v>-36503.1594</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="13" t="n">
         <v>-203508.1571</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="13" t="n">
         <v>-10848.28</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="13" t="n">
         <v>-455.7</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="13" t="n">
         <v>-5229.44</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12" t="n">
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13" t="n">
         <v>-2315.6101</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12" t="n">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="13" t="n">
         <v>196721.9551</v>
       </c>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1496,65 +1498,65 @@
       <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>81603.45</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>845413.8606</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>733078.519</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="13" t="n">
         <v>3015796.8638</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="13" t="n">
         <v>33164.26</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="13" t="n">
         <v>52701.9101</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="12" t="n">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13" t="n">
         <v>303279</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="13" t="n">
         <v>-93.74</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="13" t="n">
         <v>2993.09</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13" t="n">
         <v>10000</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="13" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="13" t="n">
         <v>1345852</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12" t="n">
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="13" t="n">
         <v>10000</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="13" t="n">
         <v>563190.9375</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="13" t="n">
         <v>11148.8101</v>
       </c>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1563,77 +1565,77 @@
       <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="13" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="13" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="13" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1719,55 +1721,55 @@
       <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="13" t="n">
         <v>14023531.4029334</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="13" t="n">
         <v>2519026.17909759</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="13" t="n">
         <v>26102335.7536466</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="13" t="n">
         <v>6047662.9171832</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="13" t="n">
         <v>37186.9832171426</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="13" t="n">
         <v>-162051.684417838</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="13" t="n">
         <v>3272460.29253524</v>
       </c>
-      <c r="S11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12" t="n">
+      <c r="S11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13" t="n">
         <v>794244.920084021</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="13" t="n">
         <v>-145.213276485658</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="13" t="n">
         <v>-10919.6698544743</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1776,67 +1778,67 @@
       <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="13" t="n">
         <v>9928384.71136768</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>3758834.82209737</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="13" t="n">
         <v>48742272.6490661</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="13" t="n">
         <v>22651505.7218789</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="13" t="n">
         <v>677803.538192705</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="13" t="n">
         <v>1052822.68644701</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="13" t="n">
         <v>115779946.797756</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="13" t="n">
         <v>22998545.6142356</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="13" t="n">
         <v>-47376.5742401386</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="13" t="n">
         <v>-82298.150530103</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="13" t="n">
         <v>-45551.0513318898</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="13" t="n">
         <v>-89030.087794459</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="13" t="n">
         <v>-6800.14456663253</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="13" t="n">
         <v>-112651.750055566</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="13" t="n">
         <v>23988.9513415116</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="13" t="n">
         <v>1665883.94418718</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="13" t="n">
         <v>-286.337355131209</v>
       </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12" t="n">
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13" t="n">
         <v>111730.1484</v>
       </c>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1845,75 +1847,75 @@
       <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="13" t="n">
         <v>9624129.74315531</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>3001550.13299331</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="13" t="n">
         <v>27735439.3507384</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="13" t="n">
         <v>74146586.0547654</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="13" t="n">
         <v>1667977.38376929</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="13" t="n">
         <v>1723073.64472587</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="13" t="n">
         <v>21241273.3969729</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="13" t="n">
         <v>1423903.77948617</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="13" t="n">
         <v>836117.18307571</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="13" t="n">
         <v>237367.612458502</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="13" t="n">
         <v>-20130.8248124439</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="13" t="n">
         <v>-70568.5816825087</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="13" t="n">
         <v>-783.486087850511</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="13" t="n">
         <v>-4205.65142403624</v>
       </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12" t="n">
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13" t="n">
         <v>2595354.58730848</v>
       </c>
-      <c r="AB13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AB13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="13" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AE13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AE13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13" t="n">
         <v>402390.030571531</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="13" t="n">
         <v>115998.4131</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="13" t="n">
         <v>121386.559137523</v>
       </c>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1922,65 +1924,65 @@
       <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>13961557.4054264</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>4886049.7651635</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>26846101.7770608</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="13" t="n">
         <v>7975698.07994175</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="13" t="n">
         <v>8096370.85462753</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="13" t="n">
         <v>2799765.52636669</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="13" t="n">
         <v>13149227.8955153</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="13" t="n">
         <v>137010.138968042</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="13" t="n">
         <v>-298133.192992366</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="13" t="n">
         <v>-48169.787970974</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="13" t="n">
         <v>-266235.01156801</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="13" t="n">
         <v>-13911.6486738793</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="13" t="n">
         <v>-573.863009890507</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="13" t="n">
         <v>-6467.08611320077</v>
       </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12" t="n">
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13" t="n">
         <v>-2754.62667724342</v>
       </c>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12" t="n">
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13" t="n">
         <v>190000.2695</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="13" t="n">
         <v>187633.081973728</v>
       </c>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1989,95 +1991,95 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="13" t="n">
         <v>131849.146329836</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>1333621.03876718</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="13" t="n">
         <v>1138445.89835143</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="13" t="n">
         <v>4595586.87366389</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="13" t="n">
         <v>49331.1512011582</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="13" t="n">
         <v>76083.3605379235</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="12" t="n">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13" t="n">
         <v>400208.78647696</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="13" t="n">
         <v>-122.633266105997</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="13" t="n">
         <v>3838.28740863081</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13" t="n">
         <v>11994.4756707558</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="13" t="n">
         <v>2067.7810695267</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="13" t="n">
         <v>1572929.39623693</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12" t="n">
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="13" t="n">
         <v>10692.875949243</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="13" t="n">
         <v>563190.9375</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="13" t="n">
         <v>10633.7170060121</v>
       </c>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4503,89 +4505,89 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="13" t="n">
+      <c r="P2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="n">
         <v>4773197</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13" t="n">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="n">
         <v>154412.99</v>
       </c>
-      <c r="V2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="13" t="n">
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14" t="n">
         <v>706619</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="14" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="14" t="n">
         <v>49117194</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="14" t="n">
         <v>799505</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="14" t="n">
         <v>1724347</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="14" t="n">
         <v>72817817.07</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="14" t="n">
         <v>17949329.35</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="14" t="n">
         <v>607122.83</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="14" t="n">
         <v>740014.08</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="14" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AG2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13" t="n">
+      <c r="AG2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14" t="n">
         <v>30000</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="14" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="14" t="n">
         <v>32000</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="14" t="n">
         <v>-212795.37</v>
       </c>
-      <c r="AO2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AO2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AR2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AR2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4600,81 +4602,81 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="n">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14" t="n">
         <v>24338</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13" t="n">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14" t="n">
         <v>13320</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="14" t="n">
         <v>26120</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="14" t="n">
         <v>201634.95</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="14" t="n">
         <v>271382.02</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="14" t="n">
         <v>783968.72</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="14" t="n">
         <v>743138.25</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="14" t="n">
         <v>1982656.04</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="14" t="n">
         <v>747418.12</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="14" t="n">
         <v>390867.29</v>
       </c>
-      <c r="AC3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AC3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="AE3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AE3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="14" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="14" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="14" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13" t="n">
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14" t="n">
         <v>904909.77</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="14" t="n">
         <v>1856285.31</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="14" t="n">
         <v>1106353.94</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="14" t="n">
         <v>601331.82</v>
       </c>
-      <c r="AV3" s="13"/>
+      <c r="AV3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4689,49 +4691,49 @@
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13" t="n">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14" t="n">
         <v>2281363.7</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13" t="n">
+      <c r="V4" s="14"/>
+      <c r="W4" s="14" t="n">
         <v>7800</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="13" t="n">
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="14" t="n">
         <v>30514.95</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="14" t="n">
         <v>43455.95</v>
       </c>
-      <c r="AV4" s="13"/>
+      <c r="AV4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4746,77 +4748,77 @@
       <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13" t="n">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14" t="n">
         <v>205927</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="14" t="n">
         <v>494807.0781</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="14" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="14" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="14" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="14" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13" t="n">
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14" t="n">
         <v>629147.75</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="14" t="n">
         <v>5212.27</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="14" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="AE5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AE5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14" t="n">
         <v>-35051.6811</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="14" t="n">
         <v>-15719.4499</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="14" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="14" t="n">
         <v>-43648.9111</v>
       </c>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13" t="n">
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14" t="n">
         <v>-2315.61</v>
       </c>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13" t="n">
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="14" t="n">
         <v>574529.6625</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="14" t="n">
         <v>419352.23</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="14" t="n">
         <v>63018.84</v>
       </c>
-      <c r="AV5" s="13"/>
+      <c r="AV5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4831,83 +4833,83 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13" t="n">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14" t="n">
         <v>13158650.32</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="14" t="n">
         <v>2504229.9562</v>
       </c>
-      <c r="W6" s="13" t="n">
+      <c r="W6" s="14" t="n">
         <v>1003914.5304</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="14" t="n">
         <v>39925920</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="14" t="n">
         <v>5338005</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="14" t="n">
         <v>1411950</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="14" t="n">
         <v>103650</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="14" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="AC6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AC6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="14" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="14" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="14" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13" t="n">
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14" t="n">
         <v>449040</v>
       </c>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13" t="n">
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14" t="n">
         <v>-245</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13" t="n">
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14" t="n">
         <v>465885</v>
       </c>
-      <c r="AP6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AP6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="14" t="n">
         <v>376316</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="14" t="n">
         <v>59840</v>
       </c>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13" t="n">
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14" t="n">
         <v>-1323.75</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="14" t="n">
         <v>2031211.5</v>
       </c>
-      <c r="AV6" s="13"/>
+      <c r="AV6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4922,85 +4924,85 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13" t="n">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14" t="n">
         <v>363498</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="14" t="n">
         <v>33893609.95</v>
       </c>
-      <c r="T7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13" t="n">
+      <c r="T7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14" t="n">
         <v>15776681.99</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="14" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="14" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="14" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="14" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="14" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="14" t="n">
         <v>1227221</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="14" t="n">
         <v>29397433.3476</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="14" t="n">
         <v>93043</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="14" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="14" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="AF7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AF7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14" t="n">
         <v>-25868.6401</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="14" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="14" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13" t="n">
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13" t="n">
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="14" t="n">
         <v>998155.57</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="14" t="n">
         <v>105000</v>
       </c>
-      <c r="AV7" s="13"/>
+      <c r="AV7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5015,43 +5017,43 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13" t="n">
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14" t="n">
         <v>-215</v>
       </c>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5066,103 +5068,103 @@
       <c r="O9" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="13" t="str">
+      <c r="P9" s="14" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="Q9" s="14" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="14" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="S9" s="14" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="13" t="str">
+      <c r="T9" s="14" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="13" t="str">
+      <c r="U9" s="14" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="13" t="str">
+      <c r="V9" s="14" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="13" t="str">
+      <c r="W9" s="14" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="13" t="str">
+      <c r="X9" s="14" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="13" t="str">
+      <c r="Y9" s="14" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="13" t="str">
+      <c r="Z9" s="14" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="13" t="str">
+      <c r="AA9" s="14" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="13" t="str">
+      <c r="AB9" s="14" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="13" t="str">
+      <c r="AC9" s="14" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="13" t="str">
+      <c r="AD9" s="14" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="13" t="str">
+      <c r="AE9" s="14" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="13" t="str">
+      <c r="AF9" s="14" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="13" t="str">
+      <c r="AG9" s="14" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="13" t="str">
+      <c r="AH9" s="14" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="13" t="str">
+      <c r="AI9" s="14" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="13" t="str">
+      <c r="AJ9" s="14" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="13" t="str">
+      <c r="AK9" s="14" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="13" t="str">
+      <c r="AL9" s="14" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="13" t="str">
+      <c r="AM9" s="14" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="13" t="str">
+      <c r="AN9" s="14" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="13" t="str">
+      <c r="AO9" s="14" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="13" t="str">
+      <c r="AP9" s="14" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="13" t="str">
+      <c r="AQ9" s="14" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="13" t="str">
+      <c r="AR9" s="14" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="13" t="str">
+      <c r="AS9" s="14" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="13" t="str">
+      <c r="AT9" s="14" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="13" t="str">
+      <c r="AU9" s="14" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="13"/>
+      <c r="AV9" s="14"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -5287,89 +5289,89 @@
       <c r="O13" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13" t="n">
+      <c r="P13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14" t="n">
         <v>8706876.24378308</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13" t="n">
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14" t="n">
         <v>264996.39645516</v>
       </c>
-      <c r="V13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13" t="n">
+      <c r="V13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14" t="n">
         <v>1159835.70366125</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="14" t="n">
         <v>4778120.22555046</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="14" t="n">
         <v>77876813.4535822</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="14" t="n">
         <v>1237423.29598367</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="14" t="n">
         <v>2590021.39047316</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="14" t="n">
         <v>105933392.041181</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="14" t="n">
         <v>25412603.0419742</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="14" t="n">
         <v>842080.261653279</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="14" t="n">
         <v>1016010.78274473</v>
       </c>
-      <c r="AF13" s="13" t="n">
+      <c r="AF13" s="14" t="n">
         <v>-242011.720759033</v>
       </c>
-      <c r="AG13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13" t="n">
+      <c r="AG13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14" t="n">
         <v>37536.9003683804</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AL13" s="14" t="n">
         <v>2157.67476297287</v>
       </c>
-      <c r="AM13" s="13" t="n">
+      <c r="AM13" s="14" t="n">
         <v>39062.4000075039</v>
       </c>
-      <c r="AN13" s="13" t="n">
+      <c r="AN13" s="14" t="n">
         <v>-254117.890892549</v>
       </c>
-      <c r="AO13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="13" t="n">
+      <c r="AO13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="14" t="n">
         <v>11573.9072704938</v>
       </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AQ13" s="14" t="n">
         <v>11188.817598517</v>
       </c>
-      <c r="AR13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="13" t="n">
+      <c r="AR13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AT13" s="13" t="n">
+      <c r="AT13" s="14" t="n">
         <v>9739.88670259903</v>
       </c>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -5384,81 +5386,81 @@
       <c r="O14" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13" t="n">
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14" t="n">
         <v>43574.9436661632</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13" t="n">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14" t="n">
         <v>23142.2203431156</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="14" t="n">
         <v>44825.9299648869</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="14" t="n">
         <v>338983.312711584</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="14" t="n">
         <v>445443.097521734</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="14" t="n">
         <v>1266866.0534842</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="14" t="n">
         <v>1178268.42603166</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="14" t="n">
         <v>3068629.67938753</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="14" t="n">
         <v>1122644.64079865</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="14" t="n">
         <v>568623.168528117</v>
       </c>
-      <c r="AC14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AC14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14" t="n">
         <v>-203646.616623635</v>
       </c>
-      <c r="AE14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AE14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14" t="n">
         <v>-51580.5768014668</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="14" t="n">
         <v>-48577.7752125464</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="14" t="n">
         <v>-1412.65160243094</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="14" t="n">
         <v>-10944.1296577568</v>
       </c>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13" t="n">
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14" t="n">
         <v>946306.31050512</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="14" t="n">
         <v>1856285.31</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="14" t="n">
         <v>1077576.2028574</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="14" t="n">
         <v>573115.047393344</v>
       </c>
-      <c r="AV14" s="13"/>
+      <c r="AV14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5473,49 +5475,49 @@
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13" t="n">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14" t="n">
         <v>3915170.34611926</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13" t="n">
+      <c r="V15" s="14"/>
+      <c r="W15" s="14" t="n">
         <v>12802.8237120113</v>
       </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="13" t="n">
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="14" t="n">
         <v>29721.2155735474</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="14" t="n">
         <v>41416.8317980791</v>
       </c>
-      <c r="AV15" s="13"/>
+      <c r="AV15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5530,77 +5532,77 @@
       <c r="O16" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13" t="n">
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14" t="n">
         <v>353402.346090324</v>
       </c>
-      <c r="V16" s="13" t="n">
+      <c r="V16" s="14" t="n">
         <v>831856.493566604</v>
       </c>
-      <c r="W16" s="13" t="n">
+      <c r="W16" s="14" t="n">
         <v>890454.331507125</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="14" t="n">
         <v>1002181.51436041</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="14" t="n">
         <v>729708.438920752</v>
       </c>
-      <c r="Z16" s="13" t="n">
+      <c r="Z16" s="14" t="n">
         <v>334923.685912735</v>
       </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13" t="n">
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14" t="n">
         <v>915267.141124384</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="14" t="n">
         <v>7379.51518269906</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="14" t="n">
         <v>-12168.0664475125</v>
       </c>
-      <c r="AE16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AE16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14" t="n">
         <v>-47711.403995414</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="14" t="n">
         <v>-20975.8772466214</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="14" t="n">
         <v>-3369.36266824407</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="14" t="n">
         <v>-56187.0987678462</v>
       </c>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13" t="n">
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14" t="n">
         <v>-2874.37983344414</v>
       </c>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13" t="n">
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14" t="n">
         <v>16909.7121882836</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="14" t="n">
         <v>574529.6625</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="14" t="n">
         <v>408444.320868225</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="14" t="n">
         <v>60061.7567074258</v>
       </c>
-      <c r="AV16" s="13"/>
+      <c r="AV16" s="14"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5615,83 +5617,83 @@
       <c r="O17" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13" t="n">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14" t="n">
         <v>22582264.0764455</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="14" t="n">
         <v>4210044.76825204</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="14" t="n">
         <v>1647812.91726126</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="14" t="n">
         <v>64518891.3941949</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="14" t="n">
         <v>8463570.2031205</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="14" t="n">
         <v>2185326.94950518</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="14" t="n">
         <v>155685.437514922</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="14" t="n">
         <v>10226635.5177467</v>
       </c>
-      <c r="AC17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AC17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14" t="n">
         <v>164794.304920896</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="14" t="n">
         <v>362168.741530587</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="14" t="n">
         <v>-4324.89613252498</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="14" t="n">
         <v>-83556.2095614602</v>
       </c>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13" t="n">
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14" t="n">
         <v>567671.010781381</v>
       </c>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13" t="n">
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14" t="n">
         <v>-299.071500057452</v>
       </c>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13" t="n">
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14" t="n">
         <v>546254.749528136</v>
       </c>
-      <c r="AP17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AP17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="14" t="n">
         <v>421053.108340354</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="14" t="n">
         <v>62577.4762279629</v>
       </c>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13" t="n">
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14" t="n">
         <v>-1289.31750225655</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="14" t="n">
         <v>1935899.34270966</v>
       </c>
-      <c r="AV17" s="13"/>
+      <c r="AV17" s="14"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5706,85 +5708,85 @@
       <c r="O18" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13" t="n">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14" t="n">
         <v>650809.634019351</v>
       </c>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="14" t="n">
         <v>59625204.902429</v>
       </c>
-      <c r="T18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="13" t="n">
+      <c r="T18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14" t="n">
         <v>27075208.3446414</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="14" t="n">
         <v>44219365.7787503</v>
       </c>
-      <c r="W18" s="13" t="n">
+      <c r="W18" s="14" t="n">
         <v>11970668.830508</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="14" t="n">
         <v>64295154.0913494</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="14" t="n">
         <v>31841311.9831175</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="14" t="n">
         <v>4128880.35820399</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="14" t="n">
         <v>1843323.09032803</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="14" t="n">
         <v>42766591.4349252</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="14" t="n">
         <v>131729.981590338</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="14" t="n">
         <v>-280583.397814801</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="14" t="n">
         <v>-24208.7007901537</v>
       </c>
-      <c r="AF18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AF18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14" t="n">
         <v>-34518.8554769101</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="14" t="n">
         <v>-3707.84034077016</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="14" t="n">
         <v>-61237.445279754</v>
       </c>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13" t="n">
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14" t="n">
         <v>4446489.51183224</v>
       </c>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13" t="n">
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="14" t="n">
         <v>972192.216336816</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="14" t="n">
         <v>100073.001252954</v>
       </c>
-      <c r="AV18" s="13"/>
+      <c r="AV18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5799,43 +5801,43 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13" t="n">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14" t="n">
         <v>-286.893856764263</v>
       </c>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5850,99 +5852,99 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="13" t="n">
+      <c r="P20" s="14" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="Q20" s="13" t="n">
+      <c r="Q20" s="14" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="R20" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13" t="n">
+      <c r="R20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="14" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13" t="n">
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="P21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6084,89 +6086,89 @@
       <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="n">
+      <c r="O2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>4773197</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="n">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="n">
         <v>154412.99</v>
       </c>
-      <c r="U2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5" t="n">
+      <c r="U2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6" t="n">
         <v>706619</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>49117194</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6" t="n">
         <v>799505</v>
       </c>
-      <c r="Z2" s="5" t="n">
+      <c r="Z2" s="6" t="n">
         <v>1724347</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="6" t="n">
         <v>72817817.07</v>
       </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AB2" s="6" t="n">
         <v>17949329.35</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="AC2" s="6" t="n">
         <v>607122.83</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AD2" s="6" t="n">
         <v>740014.08</v>
       </c>
-      <c r="AE2" s="5" t="n">
+      <c r="AE2" s="6" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AF2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5" t="n">
+      <c r="AF2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6" t="n">
         <v>30000</v>
       </c>
-      <c r="AK2" s="5" t="n">
+      <c r="AK2" s="6" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AL2" s="5" t="n">
+      <c r="AL2" s="6" t="n">
         <v>32000</v>
       </c>
-      <c r="AM2" s="5" t="n">
+      <c r="AM2" s="6" t="n">
         <v>-212795.37</v>
       </c>
-      <c r="AN2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="5" t="n">
+      <c r="AN2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AP2" s="5" t="n">
+      <c r="AP2" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AQ2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="5" t="n">
+      <c r="AQ2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AS2" s="5" t="n">
+      <c r="AS2" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6181,81 +6183,81 @@
       <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="n">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="n">
         <v>24338</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="n">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="n">
         <v>13320</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>26120</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>201634.95</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>271382.02</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>783968.72</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>743138.25</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="6" t="n">
         <v>1982656.04</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="6" t="n">
         <v>747418.12</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="6" t="n">
         <v>390867.29</v>
       </c>
-      <c r="AB3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AB3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="AD3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AD3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AF3" s="5" t="n">
+      <c r="AF3" s="6" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AG3" s="5" t="n">
+      <c r="AG3" s="6" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AH3" s="5" t="n">
+      <c r="AH3" s="6" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5" t="n">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6" t="n">
         <v>904909.77</v>
       </c>
-      <c r="AR3" s="5" t="n">
+      <c r="AR3" s="6" t="n">
         <v>1856285.31</v>
       </c>
-      <c r="AS3" s="5" t="n">
+      <c r="AS3" s="6" t="n">
         <v>1106353.94</v>
       </c>
-      <c r="AT3" s="5" t="n">
+      <c r="AT3" s="6" t="n">
         <v>601331.82</v>
       </c>
-      <c r="AU3" s="5"/>
+      <c r="AU3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -6270,49 +6272,49 @@
       <c r="N4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="n">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="n">
         <v>2281363.7</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="n">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="n">
         <v>7800</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="5" t="n">
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="6" t="n">
         <v>30514.95</v>
       </c>
-      <c r="AT4" s="5" t="n">
+      <c r="AT4" s="6" t="n">
         <v>43455.95</v>
       </c>
-      <c r="AU4" s="5"/>
+      <c r="AU4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -6327,77 +6329,77 @@
       <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5" t="n">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="n">
         <v>205927</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>494807.0781</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="6" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5" t="n">
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="n">
         <v>629147.75</v>
       </c>
-      <c r="AB5" s="5" t="n">
+      <c r="AB5" s="6" t="n">
         <v>5212.27</v>
       </c>
-      <c r="AC5" s="5" t="n">
+      <c r="AC5" s="6" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="AD5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AD5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6" t="n">
         <v>-35051.6811</v>
       </c>
-      <c r="AF5" s="5" t="n">
+      <c r="AF5" s="6" t="n">
         <v>-15719.4499</v>
       </c>
-      <c r="AG5" s="5" t="n">
+      <c r="AG5" s="6" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AH5" s="5" t="n">
+      <c r="AH5" s="6" t="n">
         <v>-43648.9111</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5" t="n">
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6" t="n">
         <v>-2315.61</v>
       </c>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5" t="n">
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AR5" s="5" t="n">
+      <c r="AR5" s="6" t="n">
         <v>574529.6625</v>
       </c>
-      <c r="AS5" s="5" t="n">
+      <c r="AS5" s="6" t="n">
         <v>419352.23</v>
       </c>
-      <c r="AT5" s="5" t="n">
+      <c r="AT5" s="6" t="n">
         <v>63018.84</v>
       </c>
-      <c r="AU5" s="5"/>
+      <c r="AU5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -6412,83 +6414,83 @@
       <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5" t="n">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6" t="n">
         <v>13158650.32</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>2504229.9562</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>1003914.5304</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>39925920</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="6" t="n">
         <v>5338005</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="6" t="n">
         <v>1411950</v>
       </c>
-      <c r="Z6" s="5" t="n">
+      <c r="Z6" s="6" t="n">
         <v>103650</v>
       </c>
-      <c r="AA6" s="5" t="n">
+      <c r="AA6" s="6" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="AB6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5" t="n">
+      <c r="AB6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="AD6" s="5" t="n">
+      <c r="AD6" s="6" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="AE6" s="5" t="n">
+      <c r="AE6" s="6" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="AF6" s="5" t="n">
+      <c r="AF6" s="6" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5" t="n">
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6" t="n">
         <v>449040</v>
       </c>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5" t="n">
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6" t="n">
         <v>-245</v>
       </c>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5" t="n">
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6" t="n">
         <v>465885</v>
       </c>
-      <c r="AO6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="5" t="n">
+      <c r="AO6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="6" t="n">
         <v>376316</v>
       </c>
-      <c r="AQ6" s="5" t="n">
+      <c r="AQ6" s="6" t="n">
         <v>59840</v>
       </c>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5" t="n">
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6" t="n">
         <v>-1323.75</v>
       </c>
-      <c r="AT6" s="5" t="n">
+      <c r="AT6" s="6" t="n">
         <v>2031211.5</v>
       </c>
-      <c r="AU6" s="5"/>
+      <c r="AU6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6503,85 +6505,85 @@
       <c r="N7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5" t="n">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="n">
         <v>363498</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="6" t="n">
         <v>33893609.95</v>
       </c>
-      <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="n">
+      <c r="S7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="n">
         <v>15776681.99</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="6" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="6" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="Z7" s="5" t="n">
+      <c r="Z7" s="6" t="n">
         <v>1227221</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="6" t="n">
         <v>29397433.3476</v>
       </c>
-      <c r="AB7" s="5" t="n">
+      <c r="AB7" s="6" t="n">
         <v>93043</v>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="6" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="AD7" s="5" t="n">
+      <c r="AD7" s="6" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="AE7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5" t="n">
+      <c r="AE7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6" t="n">
         <v>-25868.6401</v>
       </c>
-      <c r="AG7" s="5" t="n">
+      <c r="AG7" s="6" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AH7" s="5" t="n">
+      <c r="AH7" s="6" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5" t="n">
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5" t="n">
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AS7" s="5" t="n">
+      <c r="AS7" s="6" t="n">
         <v>998155.57</v>
       </c>
-      <c r="AT7" s="5" t="n">
+      <c r="AT7" s="6" t="n">
         <v>105000</v>
       </c>
-      <c r="AU7" s="5"/>
+      <c r="AU7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6596,43 +6598,43 @@
       <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5" t="n">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6" t="n">
         <v>-215</v>
       </c>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6647,103 +6649,103 @@
       <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="5" t="str">
+      <c r="O9" s="6" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="5" t="str">
+      <c r="P9" s="6" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="5" t="str">
+      <c r="Q9" s="6" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="5" t="str">
+      <c r="R9" s="6" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="5" t="str">
+      <c r="S9" s="6" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="5" t="str">
+      <c r="T9" s="6" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="5" t="str">
+      <c r="U9" s="6" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="5" t="str">
+      <c r="V9" s="6" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="5" t="str">
+      <c r="W9" s="6" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="5" t="str">
+      <c r="X9" s="6" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="5" t="str">
+      <c r="Y9" s="6" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="5" t="str">
+      <c r="Z9" s="6" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="5" t="str">
+      <c r="AA9" s="6" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="5" t="str">
+      <c r="AB9" s="6" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="5" t="str">
+      <c r="AC9" s="6" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="5" t="str">
+      <c r="AD9" s="6" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="5" t="str">
+      <c r="AE9" s="6" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="5" t="str">
+      <c r="AF9" s="6" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="5" t="str">
+      <c r="AG9" s="6" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="5" t="str">
+      <c r="AH9" s="6" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="5" t="str">
+      <c r="AI9" s="6" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="5" t="str">
+      <c r="AJ9" s="6" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="5" t="str">
+      <c r="AK9" s="6" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="5" t="str">
+      <c r="AL9" s="6" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="5" t="str">
+      <c r="AM9" s="6" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="5" t="str">
+      <c r="AN9" s="6" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="5" t="str">
+      <c r="AO9" s="6" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="5" t="str">
+      <c r="AP9" s="6" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="5" t="str">
+      <c r="AQ9" s="6" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="5" t="str">
+      <c r="AR9" s="6" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="5" t="str">
+      <c r="AS9" s="6" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="5" t="str">
+      <c r="AT9" s="6" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="5"/>
+      <c r="AU9" s="6"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -6868,89 +6870,89 @@
       <c r="N13" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="n">
+      <c r="O13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="n">
         <v>8706876.24378308</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5" t="n">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6" t="n">
         <v>264996.39645516</v>
       </c>
-      <c r="U13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5" t="n">
+      <c r="U13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6" t="n">
         <v>1159835.70366125</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>4778120.22555046</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="6" t="n">
         <v>77876813.4535822</v>
       </c>
-      <c r="Y13" s="5" t="n">
+      <c r="Y13" s="6" t="n">
         <v>1237423.29598367</v>
       </c>
-      <c r="Z13" s="5" t="n">
+      <c r="Z13" s="6" t="n">
         <v>2590021.39047316</v>
       </c>
-      <c r="AA13" s="5" t="n">
+      <c r="AA13" s="6" t="n">
         <v>105933392.041181</v>
       </c>
-      <c r="AB13" s="5" t="n">
+      <c r="AB13" s="6" t="n">
         <v>25412603.0419742</v>
       </c>
-      <c r="AC13" s="5" t="n">
+      <c r="AC13" s="6" t="n">
         <v>842080.261653279</v>
       </c>
-      <c r="AD13" s="5" t="n">
+      <c r="AD13" s="6" t="n">
         <v>1016010.78274473</v>
       </c>
-      <c r="AE13" s="5" t="n">
+      <c r="AE13" s="6" t="n">
         <v>-242011.720759033</v>
       </c>
-      <c r="AF13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5" t="n">
+      <c r="AF13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6" t="n">
         <v>37536.9003683804</v>
       </c>
-      <c r="AK13" s="5" t="n">
+      <c r="AK13" s="6" t="n">
         <v>2157.67476297287</v>
       </c>
-      <c r="AL13" s="5" t="n">
+      <c r="AL13" s="6" t="n">
         <v>39062.4000075039</v>
       </c>
-      <c r="AM13" s="5" t="n">
+      <c r="AM13" s="6" t="n">
         <v>-254117.890892549</v>
       </c>
-      <c r="AN13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="5" t="n">
+      <c r="AN13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="6" t="n">
         <v>11573.9072704938</v>
       </c>
-      <c r="AP13" s="5" t="n">
+      <c r="AP13" s="6" t="n">
         <v>11188.817598517</v>
       </c>
-      <c r="AQ13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="5" t="n">
+      <c r="AQ13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AS13" s="5" t="n">
+      <c r="AS13" s="6" t="n">
         <v>9739.88670259903</v>
       </c>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6965,81 +6967,81 @@
       <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5" t="n">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="n">
         <v>43574.9436661632</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5" t="n">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="n">
         <v>23142.2203431156</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>44825.9299648869</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>338983.312711584</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>445443.097521734</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>1266866.0534842</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="6" t="n">
         <v>1178268.42603166</v>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Y14" s="6" t="n">
         <v>3068629.67938753</v>
       </c>
-      <c r="Z14" s="5" t="n">
+      <c r="Z14" s="6" t="n">
         <v>1122644.64079865</v>
       </c>
-      <c r="AA14" s="5" t="n">
+      <c r="AA14" s="6" t="n">
         <v>568623.168528117</v>
       </c>
-      <c r="AB14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="5" t="n">
+      <c r="AB14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6" t="n">
         <v>-203646.616623635</v>
       </c>
-      <c r="AD14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="5" t="n">
+      <c r="AD14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6" t="n">
         <v>-51580.5768014668</v>
       </c>
-      <c r="AF14" s="5" t="n">
+      <c r="AF14" s="6" t="n">
         <v>-48577.7752125464</v>
       </c>
-      <c r="AG14" s="5" t="n">
+      <c r="AG14" s="6" t="n">
         <v>-1412.65160243094</v>
       </c>
-      <c r="AH14" s="5" t="n">
+      <c r="AH14" s="6" t="n">
         <v>-10944.1296577568</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5" t="n">
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6" t="n">
         <v>946306.31050512</v>
       </c>
-      <c r="AR14" s="5" t="n">
+      <c r="AR14" s="6" t="n">
         <v>1856285.31</v>
       </c>
-      <c r="AS14" s="5" t="n">
+      <c r="AS14" s="6" t="n">
         <v>1077576.2028574</v>
       </c>
-      <c r="AT14" s="5" t="n">
+      <c r="AT14" s="6" t="n">
         <v>573115.047393344</v>
       </c>
-      <c r="AU14" s="5"/>
+      <c r="AU14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -7054,49 +7056,49 @@
       <c r="N15" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5" t="n">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6" t="n">
         <v>3915170.34611926</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="n">
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="n">
         <v>12802.8237120113</v>
       </c>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="5" t="n">
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="6" t="n">
         <v>29721.2155735474</v>
       </c>
-      <c r="AT15" s="5" t="n">
+      <c r="AT15" s="6" t="n">
         <v>41416.8317980791</v>
       </c>
-      <c r="AU15" s="5"/>
+      <c r="AU15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -7111,77 +7113,77 @@
       <c r="N16" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5" t="n">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6" t="n">
         <v>353402.346090324</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>831856.493566604</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>890454.331507125</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>1002181.51436041</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="6" t="n">
         <v>729708.438920752</v>
       </c>
-      <c r="Y16" s="5" t="n">
+      <c r="Y16" s="6" t="n">
         <v>334923.685912735</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5" t="n">
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="n">
         <v>915267.141124384</v>
       </c>
-      <c r="AB16" s="5" t="n">
+      <c r="AB16" s="6" t="n">
         <v>7379.51518269906</v>
       </c>
-      <c r="AC16" s="5" t="n">
+      <c r="AC16" s="6" t="n">
         <v>-12168.0664475125</v>
       </c>
-      <c r="AD16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5" t="n">
+      <c r="AD16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6" t="n">
         <v>-47711.403995414</v>
       </c>
-      <c r="AF16" s="5" t="n">
+      <c r="AF16" s="6" t="n">
         <v>-20975.8772466214</v>
       </c>
-      <c r="AG16" s="5" t="n">
+      <c r="AG16" s="6" t="n">
         <v>-3369.36266824407</v>
       </c>
-      <c r="AH16" s="5" t="n">
+      <c r="AH16" s="6" t="n">
         <v>-56187.0987678462</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5" t="n">
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6" t="n">
         <v>-2874.37983344414</v>
       </c>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5" t="n">
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6" t="n">
         <v>16909.7121882836</v>
       </c>
-      <c r="AR16" s="5" t="n">
+      <c r="AR16" s="6" t="n">
         <v>574529.6625</v>
       </c>
-      <c r="AS16" s="5" t="n">
+      <c r="AS16" s="6" t="n">
         <v>408444.320868225</v>
       </c>
-      <c r="AT16" s="5" t="n">
+      <c r="AT16" s="6" t="n">
         <v>60061.7567074258</v>
       </c>
-      <c r="AU16" s="5"/>
+      <c r="AU16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -7196,83 +7198,83 @@
       <c r="N17" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5" t="n">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6" t="n">
         <v>22582264.0764455</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>4210044.76825204</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="6" t="n">
         <v>1647812.91726126</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>64518891.3941949</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="6" t="n">
         <v>8463570.2031205</v>
       </c>
-      <c r="Y17" s="5" t="n">
+      <c r="Y17" s="6" t="n">
         <v>2185326.94950518</v>
       </c>
-      <c r="Z17" s="5" t="n">
+      <c r="Z17" s="6" t="n">
         <v>155685.437514922</v>
       </c>
-      <c r="AA17" s="5" t="n">
+      <c r="AA17" s="6" t="n">
         <v>10226635.5177467</v>
       </c>
-      <c r="AB17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="5" t="n">
+      <c r="AB17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6" t="n">
         <v>164794.304920896</v>
       </c>
-      <c r="AD17" s="5" t="n">
+      <c r="AD17" s="6" t="n">
         <v>362168.741530587</v>
       </c>
-      <c r="AE17" s="5" t="n">
+      <c r="AE17" s="6" t="n">
         <v>-4324.89613252498</v>
       </c>
-      <c r="AF17" s="5" t="n">
+      <c r="AF17" s="6" t="n">
         <v>-83556.2095614602</v>
       </c>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5" t="n">
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6" t="n">
         <v>567671.010781381</v>
       </c>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5" t="n">
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6" t="n">
         <v>-299.071500057452</v>
       </c>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5" t="n">
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6" t="n">
         <v>546254.749528136</v>
       </c>
-      <c r="AO17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="5" t="n">
+      <c r="AO17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="6" t="n">
         <v>421053.108340354</v>
       </c>
-      <c r="AQ17" s="5" t="n">
+      <c r="AQ17" s="6" t="n">
         <v>62577.4762279629</v>
       </c>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5" t="n">
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6" t="n">
         <v>-1289.31750225655</v>
       </c>
-      <c r="AT17" s="5" t="n">
+      <c r="AT17" s="6" t="n">
         <v>1935899.34270966</v>
       </c>
-      <c r="AU17" s="5"/>
+      <c r="AU17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -7287,85 +7289,85 @@
       <c r="N18" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="n">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="n">
         <v>650809.634019351</v>
       </c>
-      <c r="R18" s="5" t="n">
+      <c r="R18" s="6" t="n">
         <v>59625204.902429</v>
       </c>
-      <c r="S18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5" t="n">
+      <c r="S18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="n">
         <v>27075208.3446414</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>44219365.7787503</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>11970668.830508</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>64295154.0913494</v>
       </c>
-      <c r="X18" s="5" t="n">
+      <c r="X18" s="6" t="n">
         <v>31841311.9831175</v>
       </c>
-      <c r="Y18" s="5" t="n">
+      <c r="Y18" s="6" t="n">
         <v>4128880.35820399</v>
       </c>
-      <c r="Z18" s="5" t="n">
+      <c r="Z18" s="6" t="n">
         <v>1843323.09032803</v>
       </c>
-      <c r="AA18" s="5" t="n">
+      <c r="AA18" s="6" t="n">
         <v>42766591.4349252</v>
       </c>
-      <c r="AB18" s="5" t="n">
+      <c r="AB18" s="6" t="n">
         <v>131729.981590338</v>
       </c>
-      <c r="AC18" s="5" t="n">
+      <c r="AC18" s="6" t="n">
         <v>-280583.397814801</v>
       </c>
-      <c r="AD18" s="5" t="n">
+      <c r="AD18" s="6" t="n">
         <v>-24208.7007901537</v>
       </c>
-      <c r="AE18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="5" t="n">
+      <c r="AE18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6" t="n">
         <v>-34518.8554769101</v>
       </c>
-      <c r="AG18" s="5" t="n">
+      <c r="AG18" s="6" t="n">
         <v>-3707.84034077016</v>
       </c>
-      <c r="AH18" s="5" t="n">
+      <c r="AH18" s="6" t="n">
         <v>-61237.445279754</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5" t="n">
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6" t="n">
         <v>4446489.51183224</v>
       </c>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5" t="n">
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AS18" s="5" t="n">
+      <c r="AS18" s="6" t="n">
         <v>972192.216336816</v>
       </c>
-      <c r="AT18" s="5" t="n">
+      <c r="AT18" s="6" t="n">
         <v>100073.001252954</v>
       </c>
-      <c r="AU18" s="5"/>
+      <c r="AU18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7380,43 +7382,43 @@
       <c r="N19" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5" t="n">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6" t="n">
         <v>-286.893856764263</v>
       </c>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7431,99 +7433,99 @@
       <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="6" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="Q20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5" t="n">
+      <c r="Q20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="Z20" s="5" t="n">
+      <c r="Z20" s="6" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5" t="n">
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
     </row>
     <row r="21">
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
+      <c r="O21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7624,77 +7626,77 @@
         <f>M2</f>
       </c>
       <c r="M2"/>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="9" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="9" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="9" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="9" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S2" s="8" t="n">
+      <c r="S2" s="9" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="T2" s="9" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="U2" s="9" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V2" s="8" t="n">
+      <c r="V2" s="9" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W2" s="8" t="n">
+      <c r="W2" s="9" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X2" s="8" t="n">
+      <c r="X2" s="9" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y2" s="8" t="n">
+      <c r="Y2" s="9" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z2" s="8" t="n">
+      <c r="Z2" s="9" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA2" s="8" t="n">
+      <c r="AA2" s="9" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB2" s="8" t="n">
+      <c r="AB2" s="9" t="n">
         <v>30000</v>
       </c>
-      <c r="AC2" s="8" t="n">
+      <c r="AC2" s="9" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD2" s="8" t="n">
+      <c r="AD2" s="9" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE2" s="8" t="n">
+      <c r="AE2" s="9" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF2" s="8" t="n">
+      <c r="AF2" s="9" t="n">
         <v>465885</v>
       </c>
-      <c r="AG2" s="8" t="n">
+      <c r="AG2" s="9" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH2" s="8" t="n">
+      <c r="AH2" s="9" t="n">
         <v>386316</v>
       </c>
-      <c r="AI2" s="8" t="n">
+      <c r="AI2" s="9" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="8" t="n">
+      <c r="AJ2" s="9" t="n">
         <v>335137.2418</v>
       </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7703,77 +7705,77 @@
       <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="8" t="str">
+      <c r="N3" s="9" t="str">
         <f>Sum(N2:N2)</f>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="O3" s="9" t="str">
         <f>Sum(O2:O2)</f>
       </c>
-      <c r="P3" s="8" t="str">
+      <c r="P3" s="9" t="str">
         <f>Sum(P2:P2)</f>
       </c>
-      <c r="Q3" s="8" t="str">
+      <c r="Q3" s="9" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="8" t="str">
+      <c r="R3" s="9" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="8" t="str">
+      <c r="S3" s="9" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="8" t="str">
+      <c r="T3" s="9" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="8" t="str">
+      <c r="U3" s="9" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="8" t="str">
+      <c r="V3" s="9" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="8" t="str">
+      <c r="W3" s="9" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="8" t="str">
+      <c r="X3" s="9" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="8" t="str">
+      <c r="Y3" s="9" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="8" t="str">
+      <c r="Z3" s="9" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="8" t="str">
+      <c r="AA3" s="9" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="8" t="str">
+      <c r="AB3" s="9" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="8" t="str">
+      <c r="AC3" s="9" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="8" t="str">
+      <c r="AD3" s="9" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="8" t="str">
+      <c r="AE3" s="9" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="8" t="str">
+      <c r="AF3" s="9" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="8" t="str">
+      <c r="AG3" s="9" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="8" t="str">
+      <c r="AH3" s="9" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="8" t="str">
+      <c r="AI3" s="9" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="8" t="str">
+      <c r="AJ3" s="9" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
     </row>
     <row r="4">
       <c r="M4" t="str">
@@ -7893,211 +7895,211 @@
       <c r="A7" t="str">
         <f>M7</f>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="9" t="str">
         <f>AB7</f>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="9" t="str">
         <f>AH7</f>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="9" t="str">
         <f>AI7</f>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="9" t="str">
         <f>AJ7</f>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="8" t="str">
         <f>AI7/AH7-1</f>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="G7" s="8" t="str">
         <f>AI7/AB7-1</f>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="8" t="str">
         <f>AJ7/AI7</f>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="8" t="str">
         <f>AI7/Sum(AI$6:AI$7)</f>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J7" s="8" t="str">
         <f>AJ7/Sum(AJ6:AJ$7)</f>
       </c>
       <c r="M7"/>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="9" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="9" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="9" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="9" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="9" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S7" s="8" t="n">
+      <c r="S7" s="9" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="T7" s="9" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="U7" s="9" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V7" s="8" t="n">
+      <c r="V7" s="9" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="W7" s="9" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X7" s="8" t="n">
+      <c r="X7" s="9" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y7" s="8" t="n">
+      <c r="Y7" s="9" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z7" s="8" t="n">
+      <c r="Z7" s="9" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA7" s="8" t="n">
+      <c r="AA7" s="9" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB7" s="8" t="n">
+      <c r="AB7" s="9" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC7" s="8" t="n">
+      <c r="AC7" s="9" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD7" s="8" t="n">
+      <c r="AD7" s="9" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE7" s="8" t="n">
+      <c r="AE7" s="9" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF7" s="8" t="n">
+      <c r="AF7" s="9" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG7" s="8" t="n">
+      <c r="AG7" s="9" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH7" s="8" t="n">
+      <c r="AH7" s="9" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI7" s="8" t="n">
+      <c r="AI7" s="9" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ7" s="8" t="n">
+      <c r="AJ7" s="9" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="9" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="9" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="9" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="9" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="8" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="8" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="8" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="8" t="str">
         <f>Sum(I$6:I$7)</f>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="J8" s="8" t="str">
         <f>Sum(J$6:J$7)</f>
       </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="9" t="str">
         <f>Sum(N7:N7)</f>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="O8" s="9" t="str">
         <f>Sum(O7:O7)</f>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="P8" s="9" t="str">
         <f>Sum(P7:P7)</f>
       </c>
-      <c r="Q8" s="8" t="str">
+      <c r="Q8" s="9" t="str">
         <f>Sum(Q7:Q7)</f>
       </c>
-      <c r="R8" s="8" t="str">
+      <c r="R8" s="9" t="str">
         <f>Sum(R7:R7)</f>
       </c>
-      <c r="S8" s="8" t="str">
+      <c r="S8" s="9" t="str">
         <f>Sum(S7:S7)</f>
       </c>
-      <c r="T8" s="8" t="str">
+      <c r="T8" s="9" t="str">
         <f>Sum(T7:T7)</f>
       </c>
-      <c r="U8" s="8" t="str">
+      <c r="U8" s="9" t="str">
         <f>Sum(U7:U7)</f>
       </c>
-      <c r="V8" s="8" t="str">
+      <c r="V8" s="9" t="str">
         <f>Sum(V7:V7)</f>
       </c>
-      <c r="W8" s="8" t="str">
+      <c r="W8" s="9" t="str">
         <f>Sum(W7:W7)</f>
       </c>
-      <c r="X8" s="8" t="str">
+      <c r="X8" s="9" t="str">
         <f>Sum(X7:X7)</f>
       </c>
-      <c r="Y8" s="8" t="str">
+      <c r="Y8" s="9" t="str">
         <f>Sum(Y7:Y7)</f>
       </c>
-      <c r="Z8" s="8" t="str">
+      <c r="Z8" s="9" t="str">
         <f>Sum(Z7:Z7)</f>
       </c>
-      <c r="AA8" s="8" t="str">
+      <c r="AA8" s="9" t="str">
         <f>Sum(AA7:AA7)</f>
       </c>
-      <c r="AB8" s="8" t="str">
+      <c r="AB8" s="9" t="str">
         <f>Sum(AB7:AB7)</f>
       </c>
-      <c r="AC8" s="8" t="str">
+      <c r="AC8" s="9" t="str">
         <f>Sum(AC7:AC7)</f>
       </c>
-      <c r="AD8" s="8" t="str">
+      <c r="AD8" s="9" t="str">
         <f>Sum(AD7:AD7)</f>
       </c>
-      <c r="AE8" s="8" t="str">
+      <c r="AE8" s="9" t="str">
         <f>Sum(AE7:AE7)</f>
       </c>
-      <c r="AF8" s="8" t="str">
+      <c r="AF8" s="9" t="str">
         <f>Sum(AF7:AF7)</f>
       </c>
-      <c r="AG8" s="8" t="str">
+      <c r="AG8" s="9" t="str">
         <f>Sum(AG7:AG7)</f>
       </c>
-      <c r="AH8" s="8" t="str">
+      <c r="AH8" s="9" t="str">
         <f>Sum(AH7:AH7)</f>
       </c>
-      <c r="AI8" s="8" t="str">
+      <c r="AI8" s="9" t="str">
         <f>Sum(AI7:AI7)</f>
       </c>
-      <c r="AJ8" s="8" t="str">
+      <c r="AJ8" s="9" t="str">
         <f>Sum(AJ7:AJ7)</f>
       </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
     </row>
     <row r="9">
       <c r="M9" t="str">
@@ -8250,112 +8252,112 @@
       <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9" t="n">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ2" s="9" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>325137.2418</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <f>M3</f>
       </c>
       <c r="M3"/>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="10" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="10" t="n">
         <v>9825233.9429</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="10" t="n">
         <v>84074351.1742</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="10" t="n">
         <v>75741000.174</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="10" t="n">
         <v>7078195.7826</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="10" t="n">
         <v>3802636.1223</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="10" t="n">
         <v>109748294.8077</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="10" t="n">
         <v>18047585.0499</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="10" t="n">
         <v>368043.2192</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="10" t="n">
         <v>986168.1333</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="10" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="10" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Z3" s="10" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="9" t="n">
+      <c r="AA3" s="10" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="9" t="n">
+      <c r="AB3" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="9" t="n">
+      <c r="AC3" s="10" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AD3" s="9" t="n">
+      <c r="AD3" s="10" t="n">
         <v>1345607</v>
       </c>
-      <c r="AE3" s="9" t="n">
+      <c r="AE3" s="10" t="n">
         <v>-212795.3672</v>
       </c>
-      <c r="AF3" s="9" t="n">
+      <c r="AF3" s="10" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="9" t="n">
+      <c r="AG3" s="10" t="n">
         <v>314555.625</v>
       </c>
-      <c r="AH3" s="9" t="n">
+      <c r="AH3" s="10" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="9" t="n">
+      <c r="AI3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -8364,77 +8366,77 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="9" t="str">
+      <c r="N4" s="10" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="9" t="str">
+      <c r="O4" s="10" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="9" t="str">
+      <c r="P4" s="10" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="9" t="str">
+      <c r="Q4" s="10" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="9" t="str">
+      <c r="R4" s="10" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="9" t="str">
+      <c r="S4" s="10" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="9" t="str">
+      <c r="T4" s="10" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="9" t="str">
+      <c r="U4" s="10" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="9" t="str">
+      <c r="V4" s="10" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="9" t="str">
+      <c r="W4" s="10" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="9" t="str">
+      <c r="X4" s="10" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="9" t="str">
+      <c r="Y4" s="10" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="9" t="str">
+      <c r="Z4" s="10" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="9" t="str">
+      <c r="AA4" s="10" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="9" t="str">
+      <c r="AB4" s="10" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="9" t="str">
+      <c r="AC4" s="10" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="9" t="str">
+      <c r="AD4" s="10" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="9" t="str">
+      <c r="AE4" s="10" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="9" t="str">
+      <c r="AF4" s="10" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="9" t="str">
+      <c r="AG4" s="10" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="9" t="str">
+      <c r="AH4" s="10" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="9" t="str">
+      <c r="AI4" s="10" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="9" t="str">
+      <c r="AJ4" s="10" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -8544,275 +8546,275 @@
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="10" t="str">
         <f>AB8</f>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="10" t="str">
         <f>AH8</f>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="10" t="str">
         <f>AI8</f>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="10" t="str">
         <f>AJ8</f>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="8" t="str">
         <f>AI8/AH8-1</f>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="8" t="str">
         <f>AI8/AB8-1</f>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="8" t="str">
         <f>AJ8/AI8</f>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="8" t="str">
         <f>AI8/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="J8" s="8" t="str">
         <f>AJ8/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9" t="n">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AJ8" s="9" t="n">
+      <c r="AJ8" s="10" t="n">
         <v>310115.37432291</v>
       </c>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <f>M9</f>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="10" t="str">
         <f>AB9</f>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="10" t="str">
         <f>AH9</f>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="10" t="str">
         <f>AI9</f>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="10" t="str">
         <f>AJ9</f>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="8" t="str">
         <f>AI9/AH9-1</f>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G9" s="8" t="str">
         <f>AI9/AB9-1</f>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="8" t="str">
         <f>AJ9/AI9</f>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="8" t="str">
         <f>AI9/Sum(AI$7:AI$9)</f>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="8" t="str">
         <f>AJ9/Sum(AJ7:AJ$9)</f>
       </c>
       <c r="M9"/>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="10" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="10" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="10" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="Q9" s="9" t="n">
+      <c r="Q9" s="10" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="R9" s="9" t="n">
+      <c r="R9" s="10" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="S9" s="9" t="n">
+      <c r="S9" s="10" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="T9" s="9" t="n">
+      <c r="T9" s="10" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="U9" s="9" t="n">
+      <c r="U9" s="10" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="10" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="W9" s="9" t="n">
+      <c r="W9" s="10" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="X9" s="10" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Y9" s="9" t="n">
+      <c r="Y9" s="10" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="Z9" s="9" t="n">
+      <c r="Z9" s="10" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AA9" s="9" t="n">
+      <c r="AA9" s="10" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AB9" s="9" t="n">
+      <c r="AB9" s="10" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AC9" s="9" t="n">
+      <c r="AC9" s="10" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AD9" s="9" t="n">
+      <c r="AD9" s="10" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AE9" s="9" t="n">
+      <c r="AE9" s="10" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AF9" s="9" t="n">
+      <c r="AF9" s="10" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AG9" s="9" t="n">
+      <c r="AG9" s="10" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AH9" s="9" t="n">
+      <c r="AH9" s="10" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AI9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="9" t="n">
+      <c r="AI9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="10" t="n">
         <v>9537.98379435319</v>
       </c>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="10" t="str">
         <f>AB10</f>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="10" t="str">
         <f>AH10</f>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="10" t="str">
         <f>AI10</f>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="10" t="str">
         <f>AJ10</f>
       </c>
-      <c r="F10" s="7" t="str">
+      <c r="F10" s="8" t="str">
         <f>AI10/AH10-1</f>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="G10" s="8" t="str">
         <f>AI10/AB10-1</f>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="8" t="str">
         <f>AJ10/AI10</f>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="8" t="str">
         <f>Sum(I$7:I$9)</f>
       </c>
-      <c r="J10" s="7" t="str">
+      <c r="J10" s="8" t="str">
         <f>Sum(J$7:J$9)</f>
       </c>
       <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="9" t="str">
+      <c r="N10" s="10" t="str">
         <f>Sum(N8:N9)</f>
       </c>
-      <c r="O10" s="9" t="str">
+      <c r="O10" s="10" t="str">
         <f>Sum(O8:O9)</f>
       </c>
-      <c r="P10" s="9" t="str">
+      <c r="P10" s="10" t="str">
         <f>Sum(P8:P9)</f>
       </c>
-      <c r="Q10" s="9" t="str">
+      <c r="Q10" s="10" t="str">
         <f>Sum(Q8:Q9)</f>
       </c>
-      <c r="R10" s="9" t="str">
+      <c r="R10" s="10" t="str">
         <f>Sum(R8:R9)</f>
       </c>
-      <c r="S10" s="9" t="str">
+      <c r="S10" s="10" t="str">
         <f>Sum(S8:S9)</f>
       </c>
-      <c r="T10" s="9" t="str">
+      <c r="T10" s="10" t="str">
         <f>Sum(T8:T9)</f>
       </c>
-      <c r="U10" s="9" t="str">
+      <c r="U10" s="10" t="str">
         <f>Sum(U8:U9)</f>
       </c>
-      <c r="V10" s="9" t="str">
+      <c r="V10" s="10" t="str">
         <f>Sum(V8:V9)</f>
       </c>
-      <c r="W10" s="9" t="str">
+      <c r="W10" s="10" t="str">
         <f>Sum(W8:W9)</f>
       </c>
-      <c r="X10" s="9" t="str">
+      <c r="X10" s="10" t="str">
         <f>Sum(X8:X9)</f>
       </c>
-      <c r="Y10" s="9" t="str">
+      <c r="Y10" s="10" t="str">
         <f>Sum(Y8:Y9)</f>
       </c>
-      <c r="Z10" s="9" t="str">
+      <c r="Z10" s="10" t="str">
         <f>Sum(Z8:Z9)</f>
       </c>
-      <c r="AA10" s="9" t="str">
+      <c r="AA10" s="10" t="str">
         <f>Sum(AA8:AA9)</f>
       </c>
-      <c r="AB10" s="9" t="str">
+      <c r="AB10" s="10" t="str">
         <f>Sum(AB8:AB9)</f>
       </c>
-      <c r="AC10" s="9" t="str">
+      <c r="AC10" s="10" t="str">
         <f>Sum(AC8:AC9)</f>
       </c>
-      <c r="AD10" s="9" t="str">
+      <c r="AD10" s="10" t="str">
         <f>Sum(AD8:AD9)</f>
       </c>
-      <c r="AE10" s="9" t="str">
+      <c r="AE10" s="10" t="str">
         <f>Sum(AE8:AE9)</f>
       </c>
-      <c r="AF10" s="9" t="str">
+      <c r="AF10" s="10" t="str">
         <f>Sum(AF8:AF9)</f>
       </c>
-      <c r="AG10" s="9" t="str">
+      <c r="AG10" s="10" t="str">
         <f>Sum(AG8:AG9)</f>
       </c>
-      <c r="AH10" s="9" t="str">
+      <c r="AH10" s="10" t="str">
         <f>Sum(AH8:AH9)</f>
       </c>
-      <c r="AI10" s="9" t="str">
+      <c r="AI10" s="10" t="str">
         <f>Sum(AI8:AI9)</f>
       </c>
-      <c r="AJ10" s="9" t="str">
+      <c r="AJ10" s="10" t="str">
         <f>Sum(AJ8:AJ9)</f>
       </c>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8911,76 +8913,76 @@
     <row r="2">
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="11" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="11" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="11" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="R2" s="10" t="n">
+      <c r="R2" s="11" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="11" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="T2" s="10" t="n">
+      <c r="T2" s="11" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="U2" s="10" t="n">
+      <c r="U2" s="11" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="V2" s="10" t="n">
+      <c r="V2" s="11" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="W2" s="10" t="n">
+      <c r="W2" s="11" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="X2" s="10" t="n">
+      <c r="X2" s="11" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="Y2" s="10" t="n">
+      <c r="Y2" s="11" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="Z2" s="10" t="n">
+      <c r="Z2" s="11" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="11" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="11" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="11" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="11" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="11" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="11" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="11" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="11" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="11" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="11" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AL2" s="10"/>
+      <c r="AL2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9116,105 +9118,105 @@
       <c r="B2" t="str">
         <f>P2</f>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="12" t="str">
         <f>AE2</f>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="12" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="12" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="12" t="str">
         <f>AM2</f>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="8" t="str">
         <f>AL2/AK2-1</f>
       </c>
-      <c r="H2" s="7" t="str">
+      <c r="H2" s="8" t="str">
         <f>AL2/AE2-1</f>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="8" t="str">
         <f>AM2/AL2</f>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="8" t="str">
         <f>AL2/Sum(AL$1:AL$2)</f>
       </c>
-      <c r="K2" s="7" t="str">
+      <c r="K2" s="8" t="str">
         <f>AM2/Sum(AM1:AM$2)</f>
       </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>47669452.4092127</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>15499081.938119</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="12" t="n">
         <v>130564595.428863</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="12" t="n">
         <v>115417039.647433</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="12" t="n">
         <v>10528669.9110078</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>5489693.53365965</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>153442908.382779</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="12" t="n">
         <v>24559459.5326898</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="12" t="n">
         <v>490607.415843205</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="12" t="n">
         <v>1301353.38051841</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="12" t="n">
         <v>-332184.734254936</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="12" t="n">
         <v>-180591.700596691</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="12" t="n">
         <v>-8157.49366437355</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="12" t="n">
         <v>-123324.487592803</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="12" t="n">
         <v>35983.4270122674</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="12" t="n">
         <v>4260551.68588794</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="12" t="n">
         <v>1572643.0588818</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="12" t="n">
         <v>-242993.47650284</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="12" t="n">
         <v>521779.598543694</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>347656.572563343</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="12" t="n">
         <v>413082.906520774</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="12" t="n">
         <v>980919.7685</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="12" t="n">
         <v>319653.358117263</v>
       </c>
-      <c r="AN2" s="11"/>
+      <c r="AN2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -9223,31 +9225,31 @@
       <c r="B3" t="str">
         <f>P3</f>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="12" t="str">
         <f>AE3</f>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="12" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="12" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="12" t="str">
         <f>AM3</f>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="8" t="str">
         <f>AL3/AK3-1</f>
       </c>
-      <c r="H3" s="7" t="str">
+      <c r="H3" s="8" t="str">
         <f>AL3/AE3-1</f>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="8" t="str">
         <f>AM3/AL3</f>
       </c>
-      <c r="J3" s="7" t="str">
+      <c r="J3" s="8" t="str">
         <f>Sum(J$1:J$2)</f>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K3" s="8" t="str">
         <f>Sum(K$1:K$2)</f>
       </c>
       <c r="O3" t="s">
@@ -9256,74 +9258,74 @@
       <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="11" t="str">
+      <c r="Q3" s="12" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="11" t="str">
+      <c r="R3" s="12" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="11" t="str">
+      <c r="S3" s="12" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="11" t="str">
+      <c r="T3" s="12" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="11" t="str">
+      <c r="U3" s="12" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="11" t="str">
+      <c r="V3" s="12" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="11" t="str">
+      <c r="W3" s="12" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="11" t="str">
+      <c r="X3" s="12" t="str">
         <f>Sum(X2:X2)</f>
       </c>
-      <c r="Y3" s="11" t="str">
+      <c r="Y3" s="12" t="str">
         <f>Sum(Y2:Y2)</f>
       </c>
-      <c r="Z3" s="11" t="str">
+      <c r="Z3" s="12" t="str">
         <f>Sum(Z2:Z2)</f>
       </c>
-      <c r="AA3" s="11" t="str">
+      <c r="AA3" s="12" t="str">
         <f>Sum(AA2:AA2)</f>
       </c>
-      <c r="AB3" s="11" t="str">
+      <c r="AB3" s="12" t="str">
         <f>Sum(AB2:AB2)</f>
       </c>
-      <c r="AC3" s="11" t="str">
+      <c r="AC3" s="12" t="str">
         <f>Sum(AC2:AC2)</f>
       </c>
-      <c r="AD3" s="11" t="str">
+      <c r="AD3" s="12" t="str">
         <f>Sum(AD2:AD2)</f>
       </c>
-      <c r="AE3" s="11" t="str">
+      <c r="AE3" s="12" t="str">
         <f>Sum(AE2:AE2)</f>
       </c>
-      <c r="AF3" s="11" t="str">
+      <c r="AF3" s="12" t="str">
         <f>Sum(AF2:AF2)</f>
       </c>
-      <c r="AG3" s="11" t="str">
+      <c r="AG3" s="12" t="str">
         <f>Sum(AG2:AG2)</f>
       </c>
-      <c r="AH3" s="11" t="str">
+      <c r="AH3" s="12" t="str">
         <f>Sum(AH2:AH2)</f>
       </c>
-      <c r="AI3" s="11" t="str">
+      <c r="AI3" s="12" t="str">
         <f>Sum(AI2:AI2)</f>
       </c>
-      <c r="AJ3" s="11" t="str">
+      <c r="AJ3" s="12" t="str">
         <f>Sum(AJ2:AJ2)</f>
       </c>
-      <c r="AK3" s="11" t="str">
+      <c r="AK3" s="12" t="str">
         <f>Sum(AK2:AK2)</f>
       </c>
-      <c r="AL3" s="11" t="str">
+      <c r="AL3" s="12" t="str">
         <f>Sum(AL2:AL2)</f>
       </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
     </row>
     <row r="4">
       <c r="P4" t="str">

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -272,19 +272,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -322,12 +322,12 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -335,7 +335,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,73 +640,100 @@
         <v>0</v>
       </c>
       <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AJ1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>23</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -737,14 +764,27 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="n">
-        <v>980919.7602</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>2461452.5461</v>
-      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1" t="n">
+        <v>980919.7602</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>2461452.5331</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>1412896.51</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>473967.16</v>
+      </c>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -754,76 +794,103 @@
         <v>25</v>
       </c>
       <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>4773197</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>387836</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>33893609.95</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>13320</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>31603156</v>
+      </c>
+      <c r="T3" s="1" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>9825233.9431</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>84074351.1753</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>75741000.1739</v>
-      </c>
-      <c r="R3" s="1" t="n">
+      <c r="U3" s="1" t="n">
+        <v>9825233.9423</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>84074351.1747</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>75741000.1801</v>
+      </c>
+      <c r="X3" s="1" t="n">
         <v>7078195.786</v>
       </c>
-      <c r="S3" s="1" t="n">
-        <v>3802636.121</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>109748296.8079</v>
-      </c>
-      <c r="U3" s="1" t="n">
+      <c r="Y3" s="1" t="n">
+        <v>3802636.12</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>110264977.8082</v>
+      </c>
+      <c r="AA3" s="1" t="n">
         <v>18047584.62</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>368043.2203</v>
-      </c>
-      <c r="W3" s="1" t="n">
+      <c r="AB3" s="1" t="n">
+        <v>368043.2172</v>
+      </c>
+      <c r="AC3" s="1" t="n">
         <v>986168.1493</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="AD3" s="1" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="AF3" s="1" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AG3" s="1" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AH3" s="1" t="n">
+        <v>449040</v>
+      </c>
+      <c r="AI3" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="AC3" s="1" t="n">
-        <v>3581529.4308</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>1345607</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>-212795.3691</v>
-      </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AJ3" s="1" t="n">
+        <v>3581529.4309</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>31755</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>-212795.37</v>
+      </c>
+      <c r="AM3" s="1" t="n">
         <v>465885</v>
       </c>
-      <c r="AG3" s="1" t="n">
+      <c r="AN3" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AO3" s="1" t="n">
         <v>386316</v>
       </c>
-      <c r="AI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AP3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="AR3" s="1" t="n">
+        <v>1150156.43</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>2370050.95</v>
+      </c>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -901,8 +968,37 @@
       <c r="AJ4" s="1" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AK4" s="1" t="str">
+        <f>Sum(AK2:AK3)</f>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f>Sum(AL2:AL3)</f>
+      </c>
+      <c r="AM4" s="1" t="str">
+        <f>Sum(AM2:AM3)</f>
+      </c>
+      <c r="AN4" s="1" t="str">
+        <f>Sum(AN2:AN3)</f>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f>Sum(AO2:AO3)</f>
+      </c>
+      <c r="AP4" s="1" t="str">
+        <f>Sum(AP2:AP3)</f>
+      </c>
+      <c r="AQ4" s="1" t="str">
+        <f>Sum(AQ2:AQ3)</f>
+      </c>
+      <c r="AR4" s="1" t="str">
+        <f>Sum(AR2:AR3)</f>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f>Sum(AS2:AS3)</f>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <f>Sum(AT2:AT3)</f>
+      </c>
+      <c r="AU4" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -912,73 +1008,100 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="U7" t="s">
         <v>2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="W7" t="s">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
+      <c r="X7" t="s">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
+      <c r="Y7" t="s">
         <v>6</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Z7" t="s">
         <v>7</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AA7" t="s">
         <v>8</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AB7" t="s">
         <v>9</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AC7" t="s">
         <v>10</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AD7" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AE7" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AF7" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AG7" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AH7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AJ7" t="s">
         <v>16</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AK7" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AL7" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AM7" t="s">
         <v>19</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AO7" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AP7" t="s">
         <v>22</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AQ7" t="s">
         <v>23</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -1009,14 +1132,27 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1" t="n">
-        <v>980919.7602</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>2347729.44952712</v>
-      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1" t="n">
+        <v>1025793.49892137</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>2461452.5331</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>1376145.19298976</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>451726.82091942</v>
+      </c>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1026,76 +1162,103 @@
         <v>25</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>47669452.4092127</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>15499081.9384344</v>
+        <v>8706876.24378308</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>130564595.430572</v>
+        <v>694384.577685514</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>115417039.647281</v>
+        <v>59625204.902429</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>10528669.9160653</v>
+        <v>23142.2203431156</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>5489693.5317829</v>
+        <v>54235867.4397165</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>153442911.179328</v>
+        <v>49600250.3532805</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>24559458.9476746</v>
+        <v>16127017.7041714</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>490607.417309523</v>
+        <v>135861213.278939</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>1301353.4016321</v>
+        <v>120089672.504773</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>-332184.734254936</v>
+        <v>10955183.9689931</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>-180591.700596691</v>
+        <v>5711674.55911476</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>-8157.49366437355</v>
+        <v>160410509.303506</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>-123324.487592803</v>
+        <v>25551712.5387472</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>35983.4270122674</v>
+        <v>510476.485688227</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <v>4260551.68588794</v>
+        <v>1353970.82348517</v>
       </c>
       <c r="AD9" s="1" t="n">
-        <v>1572643.0588818</v>
+        <v>-345628.597688439</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>-242993.478672472</v>
+        <v>-187915.611354302</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>521779.598543694</v>
+        <v>-8489.85461144517</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>11052.3082384345</v>
+        <v>-128368.673705357</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>413082.906520774</v>
+        <v>567671.010781381</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0</v>
+        <v>37536.9003683804</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>9537.98379435319</v>
-      </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
+        <v>4445772.80676177</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>38763.3285074464</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>-254117.890892549</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>11573.9072704938</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>432241.925938871</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AR9" s="1" t="n">
+        <v>1120239.33184658</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>2258839.15894205</v>
+      </c>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1126,6 +1289,15 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,73 +2284,100 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>23</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -2194,52 +2393,69 @@
       <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="n">
+        <v>189052</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14" t="n">
         <v>25000</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>1008658.0938</v>
-      </c>
-      <c r="S2" s="2" t="n">
+      <c r="X2" s="14" t="n">
+        <v>1008658.1</v>
+      </c>
+      <c r="Y2" s="14" t="n">
         <v>-7400</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="14" t="n">
         <v>-8083</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="AD2" s="14" t="n">
         <v>-4570.1802</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>514330.9375</v>
-      </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="14" t="n">
+        <v>514330.93</v>
+      </c>
+      <c r="AR2" s="14" t="n">
+        <v>87486.28</v>
+      </c>
+      <c r="AS2" s="14" t="n">
+        <v>201436.04</v>
+      </c>
+      <c r="AT2" s="14" t="n">
+        <v>22379.04</v>
+      </c>
+      <c r="AU2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2254,72 +2470,97 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14" t="n">
+        <v>4773197</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>24338</v>
+      </c>
+      <c r="R3" s="14" t="n">
+        <v>33713298.95</v>
+      </c>
+      <c r="S3" s="14" t="n">
+        <v>13320</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>31259691.01</v>
+      </c>
+      <c r="U3" s="14" t="n">
         <v>27267805.0086</v>
       </c>
-      <c r="P3" s="2" t="n">
-        <v>8888055.1128</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>39684406.7842</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>71426429.6506</v>
-      </c>
-      <c r="S3" s="2" t="n">
+      <c r="V3" s="14" t="n">
+        <v>8888055.1123</v>
+      </c>
+      <c r="W3" s="14" t="n">
+        <v>39684406.7843</v>
+      </c>
+      <c r="X3" s="14" t="n">
+        <v>71426429.6505</v>
+      </c>
+      <c r="Y3" s="14" t="n">
         <v>5077939.746</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="Z3" s="14" t="n">
         <v>2870495</v>
       </c>
-      <c r="U3" s="2" t="n">
-        <v>101347014.6806</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>18050012.0499</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>434590.0786</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>651359.784</v>
-      </c>
-      <c r="Y3" s="2" t="n">
+      <c r="AA3" s="14" t="n">
+        <v>101863697.6806</v>
+      </c>
+      <c r="AB3" s="14" t="n">
+        <v>18050011.62</v>
+      </c>
+      <c r="AC3" s="14" t="n">
+        <v>434590.0766</v>
+      </c>
+      <c r="AD3" s="14" t="n">
+        <v>651359.8</v>
+      </c>
+      <c r="AE3" s="14" t="n">
         <v>-225463.3186</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="AF3" s="14" t="n">
         <v>-108059.5713</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AG3" s="14" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AH3" s="14" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="n">
+      <c r="AI3" s="14" t="n">
+        <v>449040</v>
+      </c>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14" t="n">
         <v>3582107.8809</v>
       </c>
-      <c r="AE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>-233000.0781</v>
-      </c>
-      <c r="AG3" s="2" t="n">
+      <c r="AL3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="14" t="n">
+        <v>-233000.08</v>
+      </c>
+      <c r="AN3" s="14" t="n">
         <v>465885</v>
       </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2" t="n">
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14" t="n">
         <v>376316</v>
       </c>
-      <c r="AJ3" s="2" t="n">
-        <v>228600.1484</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>16138.8101</v>
-      </c>
-      <c r="AL3" s="2"/>
+      <c r="AQ3" s="14" t="n">
+        <v>228600.15</v>
+      </c>
+      <c r="AR3" s="14" t="n">
+        <v>601439.56</v>
+      </c>
+      <c r="AS3" s="14" t="n">
+        <v>528945.61</v>
+      </c>
+      <c r="AT3" s="14" t="n">
+        <v>247143.45</v>
+      </c>
+      <c r="AU3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2334,40 +2575,53 @@
       <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="n">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14" t="n">
         <v>2350</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2" t="n">
-        <v>59772.4893</v>
-      </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14" t="n">
+        <v>59772.49</v>
+      </c>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14" t="n">
+        <v>49236</v>
+      </c>
+      <c r="AT4" s="14" t="n">
+        <v>51696</v>
+      </c>
+      <c r="AU4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2382,72 +2636,93 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14" t="n">
+        <v>363498</v>
+      </c>
+      <c r="R5" s="14" t="n">
+        <v>180311</v>
+      </c>
+      <c r="S5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14" t="n">
         <v>22446</v>
       </c>
-      <c r="P5" s="2" t="n">
-        <v>311148.8301</v>
-      </c>
-      <c r="Q5" s="2" t="n">
+      <c r="V5" s="14" t="n">
+        <v>311148.83</v>
+      </c>
+      <c r="W5" s="14" t="n">
         <v>41107091.14</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="X5" s="14" t="n">
         <v>2995459.4296</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="Y5" s="14" t="n">
         <v>38350</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="Z5" s="14" t="n">
         <v>415117</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="AA5" s="14" t="n">
         <v>6847111.0876</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="AB5" s="14" t="n">
         <v>-2427</v>
       </c>
-      <c r="W5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="n">
+      <c r="AC5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14" t="n">
         <v>48177.3391</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="AE5" s="14" t="n">
         <v>-1374</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="AF5" s="14" t="n">
         <v>-4965.14</v>
       </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2" t="n">
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14" t="n">
         <v>30000</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AK5" s="14" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AE5" s="2" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>20204.7109</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>314555.625</v>
-      </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AL5" s="14" t="n">
+        <v>32000</v>
+      </c>
+      <c r="AM5" s="14" t="n">
+        <v>20204.71</v>
+      </c>
+      <c r="AN5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ5" s="2" t="n">
-        <v>162046.2031</v>
-      </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AP5" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="AL5" s="2"/>
+      <c r="AQ5" s="14" t="n">
+        <v>162046.2</v>
+      </c>
+      <c r="AR5" s="14" t="n">
+        <v>476853.46</v>
+      </c>
+      <c r="AS5" s="14" t="n">
+        <v>531932.98</v>
+      </c>
+      <c r="AT5" s="14" t="n">
+        <v>101181</v>
+      </c>
+      <c r="AU5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2462,62 +2737,77 @@
       <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14" t="n">
+        <v>154412.99</v>
+      </c>
+      <c r="U6" s="14" t="n">
         <v>2213101</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="V6" s="14" t="n">
         <v>626030</v>
       </c>
-      <c r="Q6" s="2" t="n">
-        <v>3257853.25</v>
-      </c>
-      <c r="R6" s="2" t="n">
+      <c r="W6" s="14" t="n">
+        <v>3257853.2504</v>
+      </c>
+      <c r="X6" s="14" t="n">
         <v>310453</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <v>1969306.0366</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>514674.1223</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>1554169.0395</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="n">
+      <c r="Y6" s="14" t="n">
+        <v>1969306.04</v>
+      </c>
+      <c r="Z6" s="14" t="n">
+        <v>514674.12</v>
+      </c>
+      <c r="AA6" s="14" t="n">
+        <v>1554169.04</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14" t="n">
         <v>-58463.8594</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="AD6" s="14" t="n">
         <v>291201.1904</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="AE6" s="14" t="n">
         <v>-27082.3394</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="AF6" s="14" t="n">
         <v>-27800.39</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2" t="n">
-        <v>-2316.6801</v>
-      </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14" t="n">
+        <v>-2316.68</v>
+      </c>
+      <c r="AL6" s="14" t="n">
         <v>-245</v>
       </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2" t="n">
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AK6" s="2" t="n">
-        <v>308998.4317</v>
-      </c>
-      <c r="AL6" s="2"/>
+      <c r="AR6" s="14" t="n">
+        <v>1305673.2331</v>
+      </c>
+      <c r="AS6" s="14" t="n">
+        <v>1251502.31</v>
+      </c>
+      <c r="AT6" s="14" t="n">
+        <v>2421618.62</v>
+      </c>
+      <c r="AU6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2532,74 +2822,103 @@
       <c r="N7" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="14" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="14" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="14" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="14" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="14" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="14" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="14" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="14" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="14" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="14" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="14" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="14" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="14" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="14" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="14" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="14" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="14" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="14" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="14" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="14" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="14" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="14" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="AK7" s="14" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="14" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="14" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="14" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="14" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="14" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="14" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="14" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="14" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="14" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="14"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2615,73 +2934,100 @@
         <v>27</v>
       </c>
       <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s">
         <v>1</v>
       </c>
-      <c r="P10" t="s">
+      <c r="V10" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="W10" t="s">
         <v>3</v>
       </c>
-      <c r="R10" t="s">
+      <c r="X10" t="s">
         <v>4</v>
       </c>
-      <c r="S10" t="s">
+      <c r="Y10" t="s">
         <v>5</v>
       </c>
-      <c r="T10" t="s">
+      <c r="Z10" t="s">
         <v>6</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AA10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" t="s">
+      <c r="AB10" t="s">
         <v>8</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AC10" t="s">
         <v>9</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AD10" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AE10" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AF10" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AG10" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AH10" t="s">
         <v>14</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AI10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>15</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AK10" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AL10" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AM10" t="s">
         <v>18</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AN10" t="s">
         <v>19</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AO10" t="s">
         <v>20</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AP10" t="s">
         <v>21</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AQ10" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AR10" t="s">
         <v>23</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -2697,52 +3043,69 @@
       <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>38824.1460104571</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>1537031.87092031</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>-11007.3470322742</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>-10774.7664822638</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>-6030.83718893504</v>
-      </c>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>514330.9375</v>
-      </c>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14" t="n">
+        <v>324442.255425796</v>
+      </c>
+      <c r="U11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14" t="n">
+        <v>40399.1263032855</v>
+      </c>
+      <c r="X11" s="14" t="n">
+        <v>1599258.26976485</v>
+      </c>
+      <c r="Y11" s="14" t="n">
+        <v>-11453.25218764</v>
+      </c>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14" t="n">
+        <v>-11211.1329349013</v>
+      </c>
+      <c r="AD11" s="14" t="n">
+        <v>-6274.68110104943</v>
+      </c>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="14" t="n">
+        <v>537859.818605967</v>
+      </c>
+      <c r="AR11" s="14" t="n">
+        <v>87486.28</v>
+      </c>
+      <c r="AS11" s="14" t="n">
+        <v>196196.420742021</v>
+      </c>
+      <c r="AT11" s="14" t="n">
+        <v>21328.930456761</v>
+      </c>
+      <c r="AU11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2757,72 +3120,97 @@
       <c r="N12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>44057411.9436413</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>14020703.757731</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>61628528.1331262</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>108842331.681907</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>7553330.40448654</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>4144003.61567363</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>141696786.412507</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>24562762.2354127</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>579315.428977319</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>859538.275695101</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>-294957.362353477</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>-138573.745494734</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>-8157.49366437355</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>-123324.487592803</v>
-      </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2" t="n">
-        <v>4261239.80435698</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>-266065.46819104</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>521779.598543694</v>
-      </c>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2" t="n">
-        <v>402390.030571531</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>228600.1484</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>15393.1709193944</v>
-      </c>
-      <c r="AL12" s="2"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14" t="n">
+        <v>8706876.24378308</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>43574.9436661632</v>
+      </c>
+      <c r="R12" s="14" t="n">
+        <v>59308004.0985895</v>
+      </c>
+      <c r="S12" s="14" t="n">
+        <v>23142.2203431156</v>
+      </c>
+      <c r="T12" s="14" t="n">
+        <v>53646428.7878355</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>45841908.2217084</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>14588743.9417202</v>
+      </c>
+      <c r="W12" s="14" t="n">
+        <v>64128614.4779958</v>
+      </c>
+      <c r="X12" s="14" t="n">
+        <v>113248788.958657</v>
+      </c>
+      <c r="Y12" s="14" t="n">
+        <v>7859314.12224038</v>
+      </c>
+      <c r="Z12" s="14" t="n">
+        <v>4311570.38069846</v>
+      </c>
+      <c r="AA12" s="14" t="n">
+        <v>148188554.056629</v>
+      </c>
+      <c r="AB12" s="14" t="n">
+        <v>25555148.677579</v>
+      </c>
+      <c r="AC12" s="14" t="n">
+        <v>602777.07793536</v>
+      </c>
+      <c r="AD12" s="14" t="n">
+        <v>894291.876509232</v>
+      </c>
+      <c r="AE12" s="14" t="n">
+        <v>-306894.595131739</v>
+      </c>
+      <c r="AF12" s="14" t="n">
+        <v>-144193.614746743</v>
+      </c>
+      <c r="AG12" s="14" t="n">
+        <v>-8489.85461144517</v>
+      </c>
+      <c r="AH12" s="14" t="n">
+        <v>-128368.673705357</v>
+      </c>
+      <c r="AI12" s="14" t="n">
+        <v>567671.010781381</v>
+      </c>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14" t="n">
+        <v>4446490.84002931</v>
+      </c>
+      <c r="AL12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="14" t="n">
+        <v>-278246.133397523</v>
+      </c>
+      <c r="AN12" s="14" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14" t="n">
+        <v>421053.108340354</v>
+      </c>
+      <c r="AQ12" s="14" t="n">
+        <v>239057.828414668</v>
+      </c>
+      <c r="AR12" s="14" t="n">
+        <v>601439.56</v>
+      </c>
+      <c r="AS12" s="14" t="n">
+        <v>515187.031323713</v>
+      </c>
+      <c r="AT12" s="14" t="n">
+        <v>235546.54077628</v>
+      </c>
+      <c r="AU12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2837,40 +3225,53 @@
       <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2" t="n">
-        <v>3392.58855940632</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2" t="n">
-        <v>59772.4893</v>
-      </c>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14" t="n">
+        <v>3529.77113516707</v>
+      </c>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14" t="n">
+        <v>62506.8778753535</v>
+      </c>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14" t="n">
+        <v>47955.3061689166</v>
+      </c>
+      <c r="AT13" s="14" t="n">
+        <v>49270.2273597401</v>
+      </c>
+      <c r="AU13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2885,72 +3286,93 @@
       <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>36266.6766971188</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>490830.166558492</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>63837908.3393811</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>4564595.91178068</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>57044.8322550968</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>599285.610644712</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>9573184.17695912</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>-3302.70272288693</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>63575.105486697</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>-1797.50488190356</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>-6367.2105897548</v>
-      </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2" t="n">
-        <v>35983.4270122674</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>2067.7810695267</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>1572929.39623693</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>23071.9916881998</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>347656.572563343</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>10692.875949243</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>162046.2031</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>9537.98379435319</v>
-      </c>
-      <c r="AL14" s="2"/>
+      <c r="O14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14" t="n">
+        <v>650809.634019351</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>317200.803839482</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14" t="n">
+        <v>37735.6179428428</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>510715.848549818</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>66427622.6770211</v>
+      </c>
+      <c r="X14" s="14" t="n">
+        <v>4749392.54890523</v>
+      </c>
+      <c r="Y14" s="14" t="n">
+        <v>59355.7055940535</v>
+      </c>
+      <c r="Z14" s="14" t="n">
+        <v>623518.299709424</v>
+      </c>
+      <c r="AA14" s="14" t="n">
+        <v>9960992.13596285</v>
+      </c>
+      <c r="AB14" s="14" t="n">
+        <v>-3436.13883172027</v>
+      </c>
+      <c r="AC14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14" t="n">
+        <v>66145.6279447405</v>
+      </c>
+      <c r="AE14" s="14" t="n">
+        <v>-1870.25178343583</v>
+      </c>
+      <c r="AF14" s="14" t="n">
+        <v>-6625.43332081168</v>
+      </c>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14" t="n">
+        <v>37536.9003683804</v>
+      </c>
+      <c r="AK14" s="14" t="n">
+        <v>2157.67476297287</v>
+      </c>
+      <c r="AL14" s="14" t="n">
+        <v>39062.4000075039</v>
+      </c>
+      <c r="AM14" s="14" t="n">
+        <v>24128.2425049737</v>
+      </c>
+      <c r="AN14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="14" t="n">
+        <v>11573.9072704938</v>
+      </c>
+      <c r="AP14" s="14" t="n">
+        <v>11188.817598517</v>
+      </c>
+      <c r="AQ14" s="14" t="n">
+        <v>169459.261837094</v>
+      </c>
+      <c r="AR14" s="14" t="n">
+        <v>476853.46</v>
+      </c>
+      <c r="AS14" s="14" t="n">
+        <v>518096.695857588</v>
+      </c>
+      <c r="AT14" s="14" t="n">
+        <v>96433.2032359537</v>
+      </c>
+      <c r="AU14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2965,62 +3387,77 @@
       <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>3575773.7888742</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>987548.013829452</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>5059334.81034569</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>473080.182825003</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>2929302.02129847</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>743011.718781901</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>2172937.79331339</v>
-      </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2" t="n">
-        <v>-77933.24665185</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>384270.836525543</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>-35429.8670195553</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>-35650.7445122018</v>
-      </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2" t="n">
-        <v>-2755.8995385704</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>-286.337355131209</v>
-      </c>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2" t="n">
-        <v>16169.9902</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>294722.203403515</v>
-      </c>
-      <c r="AL15" s="2"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14" t="n">
+        <v>264996.39645516</v>
+      </c>
+      <c r="U15" s="14" t="n">
+        <v>3720606.51362931</v>
+      </c>
+      <c r="V15" s="14" t="n">
+        <v>1027557.91390134</v>
+      </c>
+      <c r="W15" s="14" t="n">
+        <v>5264576.99761915</v>
+      </c>
+      <c r="X15" s="14" t="n">
+        <v>492232.72744581</v>
+      </c>
+      <c r="Y15" s="14" t="n">
+        <v>3047967.39334632</v>
+      </c>
+      <c r="Z15" s="14" t="n">
+        <v>773056.107571707</v>
+      </c>
+      <c r="AA15" s="14" t="n">
+        <v>2260963.11091445</v>
+      </c>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14" t="n">
+        <v>-81089.4593122326</v>
+      </c>
+      <c r="AD15" s="14" t="n">
+        <v>399808.000132244</v>
+      </c>
+      <c r="AE15" s="14" t="n">
+        <v>-36863.7507732637</v>
+      </c>
+      <c r="AF15" s="14" t="n">
+        <v>-37096.5632867472</v>
+      </c>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14" t="n">
+        <v>-2875.70803051609</v>
+      </c>
+      <c r="AL15" s="14" t="n">
+        <v>-299.071500057452</v>
+      </c>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14" t="n">
+        <v>16909.7121882836</v>
+      </c>
+      <c r="AR15" s="14" t="n">
+        <v>1305673.2331</v>
+      </c>
+      <c r="AS15" s="14" t="n">
+        <v>1218949.0707441</v>
+      </c>
+      <c r="AT15" s="14" t="n">
+        <v>2307987.07803273</v>
+      </c>
+      <c r="AU15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3029,30 +3466,39 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3088,73 +3534,100 @@
         <v>34</v>
       </c>
       <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK1" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>23</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -3168,79 +3641,46 @@
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>259970.3387</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>2859616.9694</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>37395112.3396</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>6905530.6118</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>2964059.6056</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>2483962.7607</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="3" t="n">
-        <v>20853329.178</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>18042618.09</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>748090.0627</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>673627.15</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>-47306.6795</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>-140641.9013</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>-3648.7</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>-52150.8511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="3" t="n">
-        <v>3579792.2708</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>-245</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>-233000.08</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>465885</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>376316</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>980919.7602</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>2461452.5461</v>
-      </c>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3252,31 +3692,41 @@
       <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3" t="n">
-        <v>2885.2</v>
-      </c>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="n">
-        <v>35030</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+        <v>48443</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>12475</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>461178</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>37618</v>
+      </c>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
+      <c r="AA3" s="3" t="n">
+        <v>5986</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>11200894</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>42000</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>-28097.4801</v>
+      </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -3286,6 +3736,15 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3297,66 +3756,99 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>21752651.142</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>3205250.8653</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3" t="n">
-        <v>36446887.0404</v>
+        <v>387836</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>52492571.5798</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>2676800.9804</v>
-      </c>
+        <v>180311</v>
+      </c>
+      <c r="T4" s="3"/>
       <c r="U4" s="3" t="n">
-        <v>863359</v>
+        <v>2877941.61</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>67611392</v>
+        <v>259970.3387</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>-37033.47</v>
+        <v>2859616.9688</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>-192700.6617</v>
+        <v>37395112.339</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>0</v>
+        <v>6905530.618</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>-24487.7109</v>
+        <v>2964059.6056</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>-3.86</v>
+        <v>2483962.76</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>-2829.1001</v>
+        <v>21370010.1783</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>-47572.2695</v>
-      </c>
-      <c r="AD4" s="3"/>
+        <v>18042618.09</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>748090.0596</v>
+      </c>
       <c r="AE4" s="3" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
+        <v>673627.15</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>-47306.6795</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>-140641.9013</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>-3648.7</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>-52150.8511</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>449040</v>
+      </c>
       <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
+      <c r="AL4" s="3" t="n">
+        <v>3579792.2709</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>-245</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>-233000.08</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>465885</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>376316</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>980919.7602</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>2461452.5331</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>2548876.11</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>2708018.11</v>
+      </c>
+      <c r="AV4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3368,38 +3860,77 @@
       <c r="M5" t="s">
         <v>40</v>
       </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="S5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>27789</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>1968247</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>1506412</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>9236544</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>16133355</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>1436950</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>431106.33</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>9419920.8799</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>-151143.5506</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>14525.3795</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>-2907.3301</v>
+      </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
+      <c r="AL5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3411,64 +3942,47 @@
       <c r="M6" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>1968247</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>1506412</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>9236544</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>16133355</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>1436950</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>431106.3301</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>9419920.8799</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>-151143.5506</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>14525.3795</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
       <c r="Z6" s="3" t="n">
-        <v>-2907.3301</v>
+        <v>2885.2</v>
       </c>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+      <c r="AB6" s="3" t="n">
+        <v>35030</v>
+      </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3480,50 +3994,75 @@
       <c r="M7" t="s">
         <v>43</v>
       </c>
-      <c r="N7" t="s">
-        <v>43</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>7800</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>523464.72</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>21271.0625</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="n">
+        <v>28443012.4</v>
+      </c>
       <c r="V7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3"/>
+        <v>21752651.142</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>3205250.8653</v>
+      </c>
       <c r="X7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3"/>
+        <v>36446887.0404</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>52492571.5798</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>-177796.4375</v>
-      </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+        <v>2676800.9804</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>863359</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>67611392</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>-37033.47</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>-192700.6617</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>-24487.7109</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>-2829.1001</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>-47572.2695</v>
+      </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
+      <c r="AL7" s="3" t="n">
+        <v>-1.07</v>
+      </c>
       <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3535,45 +4074,45 @@
       <c r="M8" t="s">
         <v>45</v>
       </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>48443</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3" t="n">
-        <v>12475</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>461178</v>
-      </c>
+        <v>676019</v>
+      </c>
+      <c r="R8" s="3"/>
       <c r="S8" s="3" t="n">
-        <v>37618</v>
+        <v>33713298.95</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="3" t="n">
-        <v>5986</v>
-      </c>
+      <c r="U8" s="3"/>
       <c r="V8" s="3" t="n">
-        <v>11200894</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>42000</v>
+        <v>7800</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>-28097.4801</v>
-      </c>
-      <c r="Y8" s="3"/>
+        <v>523464.72</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>21271.0625</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="AB8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3" t="n">
+        <v>-177796.4375</v>
+      </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
@@ -3581,6 +4120,19 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="n">
+        <v>4176.83</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>136000</v>
+      </c>
+      <c r="AV8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3592,74 +4144,93 @@
       <c r="M9" t="s">
         <v>45</v>
       </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>4097178</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3" t="n">
+        <v>13320</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>254412.99</v>
+      </c>
+      <c r="V9" s="3" t="n">
         <v>5474040.5279</v>
       </c>
-      <c r="Q9" s="3" t="n">
-        <v>2233679.1084</v>
-      </c>
-      <c r="R9" s="3" t="n">
+      <c r="W9" s="3" t="n">
+        <v>2233679.1082</v>
+      </c>
+      <c r="X9" s="3" t="n">
         <v>11165.0753</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="Y9" s="3" t="n">
         <v>150653.9198</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="Z9" s="3" t="n">
         <v>-2500</v>
       </c>
-      <c r="U9" s="3" t="n">
-        <v>18222.0302</v>
-      </c>
-      <c r="V9" s="3" t="n">
+      <c r="AA9" s="3" t="n">
+        <v>18222.03</v>
+      </c>
+      <c r="AB9" s="3" t="n">
         <v>627730.75</v>
       </c>
-      <c r="W9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="n">
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
         <v>-8105.15</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="AE9" s="3" t="n">
         <v>298015.6198</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="AF9" s="3" t="n">
         <v>-1421.5</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AG9" s="3" t="n">
         <v>-179.34</v>
       </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3" t="n">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AL9" s="3" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AF9" s="3" t="n">
-        <v>1345852</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>20204.7109</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3" t="n">
+      <c r="AM9" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>20204.71</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3" t="n">
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="AM9" s="3"/>
+      <c r="AT9" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AU9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3740,8 +4311,37 @@
       <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
+      <c r="AL10" s="3" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="3" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="3" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="3" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="3" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="3" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="3" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="3" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="3" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="3" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3760,73 +4360,100 @@
         <v>34</v>
       </c>
       <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="W13" t="s">
         <v>2</v>
       </c>
-      <c r="R13" t="s">
+      <c r="X13" t="s">
         <v>3</v>
       </c>
-      <c r="S13" t="s">
+      <c r="Y13" t="s">
         <v>4</v>
       </c>
-      <c r="T13" t="s">
+      <c r="Z13" t="s">
         <v>5</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AA13" t="s">
         <v>6</v>
       </c>
-      <c r="V13" t="s">
+      <c r="AB13" t="s">
         <v>7</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AC13" t="s">
         <v>8</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AD13" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AE13" t="s">
         <v>10</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AF13" t="s">
         <v>11</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AG13" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AH13" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AI13" t="s">
         <v>14</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AJ13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s">
         <v>15</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AL13" t="s">
         <v>16</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AM13" t="s">
         <v>17</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AN13" t="s">
         <v>18</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AO13" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AP13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AQ13" t="s">
         <v>21</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AR13" t="s">
         <v>22</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AS13" t="s">
         <v>23</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -3840,79 +4467,46 @@
         <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>420041.888286259</v>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>4510980.39781475</v>
-      </c>
-      <c r="R14" s="3" t="n">
-        <v>58073332.062003</v>
-      </c>
-      <c r="S14" s="3" t="n">
-        <v>10522912.2744312</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>4408977.3923223</v>
-      </c>
-      <c r="U14" s="3" t="n">
-        <v>3585984.52933709</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="3" t="n">
-        <v>29155764.8721781</v>
-      </c>
-      <c r="W14" s="3" t="n">
-        <v>24552700.4094981</v>
-      </c>
-      <c r="X14" s="3" t="n">
-        <v>997215.852195297</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>888922.425355639</v>
-      </c>
-      <c r="Z14" s="3" t="n">
-        <v>-61887.9092779453</v>
-      </c>
-      <c r="AA14" s="3" t="n">
-        <v>-180356.768050973</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>-4594.80790912331</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>-64493.338663492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3" t="n">
-        <v>4258485.17767974</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>-286.337355131209</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>-266065.470360671</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>521779.598543694</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
-        <v>402390.030571531</v>
-      </c>
-      <c r="AK14" s="3" t="n">
-        <v>980919.7602</v>
-      </c>
-      <c r="AL14" s="3" t="n">
-        <v>2347729.44952712</v>
-      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3924,31 +4518,41 @@
       <c r="M15" t="s">
         <v>37</v>
       </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3" t="n">
-        <v>4291.67535912399</v>
-      </c>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="n">
-        <v>48976.6614603623</v>
-      </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+        <v>81441.0825984646</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>20476.3110009412</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>745247.530811864</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>59644.4896362943</v>
+      </c>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
+      <c r="AA15" s="3" t="n">
+        <v>8991.15319791918</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>16294757.8361637</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>59463.4655674707</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>-38971.2463858521</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -3958,6 +4562,15 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3969,66 +4582,99 @@
       <c r="M16" t="s">
         <v>37</v>
       </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="3" t="n">
-        <v>35146412.1122751</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <v>5056209.96733726</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3" t="n">
-        <v>56600770.563325</v>
+        <v>694384.577685514</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>79990192.9114113</v>
-      </c>
-      <c r="T16" s="3" t="n">
-        <v>3981686.12535063</v>
-      </c>
+        <v>317200.803839482</v>
+      </c>
+      <c r="T16" s="3"/>
       <c r="U16" s="3" t="n">
-        <v>1246392.28342999</v>
+        <v>4938989.62683361</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>94529838.9051626</v>
+        <v>437055.215969645</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>-50395.7734680475</v>
+        <v>4693739.99172084</v>
       </c>
       <c r="X16" s="3" t="n">
-        <v>-256873.021253893</v>
+        <v>60429194.6603525</v>
       </c>
       <c r="Y16" s="3" t="n">
-        <v>0</v>
+        <v>10948930.016971</v>
       </c>
       <c r="Z16" s="3" t="n">
-        <v>-32035.5021029061</v>
+        <v>4587584.07596401</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>-4.94999796107532</v>
+        <v>3730987.25577784</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>-3562.68575525024</v>
+        <v>31088513.1858003</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>-58831.1489293108</v>
-      </c>
-      <c r="AD16" s="3"/>
+        <v>25544680.94147</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>1037602.01725273</v>
+      </c>
       <c r="AE16" s="3" t="n">
-        <v>-1.27286132697835</v>
-      </c>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+        <v>924864.089004366</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>-64392.5776588806</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>-187671.151100539</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>-4782.01427067501</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>-67131.228425603</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>567671.010781381</v>
+      </c>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
+      <c r="AL16" s="3" t="n">
+        <v>4443616.46019587</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>-299.071500057452</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>-278246.133397523</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>421053.108340354</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>1025793.49892137</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>2461452.5331</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>2482576.45303613</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>2580947.61633383</v>
+      </c>
+      <c r="AV16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4040,38 +4686,77 @@
       <c r="M17" t="s">
         <v>40</v>
       </c>
-      <c r="N17" t="s">
-        <v>40</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="S17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>47690.1901912037</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>3308964.48405714</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>2472606.06072543</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>14925932.3064742</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>25579927.8296602</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>2224020.36905802</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>647534.757370982</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>13703846.2799302</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>-209636.32785223</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>19942.785677077</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>-3957.37940652231</v>
+      </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
+      <c r="AL17" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4083,64 +4768,47 @@
       <c r="M18" t="s">
         <v>41</v>
       </c>
-      <c r="N18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>3180155.82326802</v>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>2376330.4931215</v>
-      </c>
-      <c r="R18" s="3" t="n">
-        <v>14344037.3155205</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>24584624.832038</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>2137433.42135492</v>
-      </c>
-      <c r="U18" s="3" t="n">
-        <v>622368.682291448</v>
-      </c>
-      <c r="V18" s="3" t="n">
-        <v>13170319.0384887</v>
-      </c>
-      <c r="W18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" t="n">
-        <v>-201476.736733295</v>
-      </c>
-      <c r="Y18" s="3" t="n">
-        <v>19167.7778639876</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
       <c r="Z18" s="3" t="n">
-        <v>-3803.44981663403</v>
+        <v>4465.53016375393</v>
       </c>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="AB18" s="3" t="n">
+        <v>50960.6971551391</v>
+      </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4152,50 +4820,75 @@
       <c r="M19" t="s">
         <v>43</v>
       </c>
-      <c r="N19" t="s">
-        <v>43</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>12304.3216904457</v>
-      </c>
-      <c r="R19" s="3" t="n">
-        <v>812922.828824121</v>
-      </c>
-      <c r="S19" s="3" t="n">
-        <v>32413.6604780178</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="n">
+        <v>48812575.8741504</v>
+      </c>
       <c r="V19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3"/>
+        <v>36569978.2918318</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>5261059.20271893</v>
+      </c>
       <c r="X19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3"/>
+        <v>58896895.716268</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>83228577.8503327</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>-232598.227359032</v>
-      </c>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
+        <v>4142983.33576261</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>1296791.352122</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>98359225.5766313</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>-52431.8682902133</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>-267276.102308813</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>-33332.0123602517</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>-5.15074552144211</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>-3707.84034077016</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>-61237.445279754</v>
+      </c>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
+      <c r="AL19" s="3" t="n">
+        <v>-1.32819707195306</v>
+      </c>
       <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4207,45 +4900,45 @@
       <c r="M20" t="s">
         <v>45</v>
       </c>
-      <c r="N20" t="s">
-        <v>45</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>78270.810800968</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P20" s="3"/>
       <c r="Q20" s="3" t="n">
-        <v>19679.0273190141</v>
-      </c>
-      <c r="R20" s="3" t="n">
-        <v>716193.680352423</v>
-      </c>
+        <v>1233138.66397008</v>
+      </c>
+      <c r="R20" s="3"/>
       <c r="S20" s="3" t="n">
-        <v>57323.7505113849</v>
+        <v>59308004.0985895</v>
       </c>
       <c r="T20" s="3"/>
-      <c r="U20" s="3" t="n">
-        <v>8641.71707089626</v>
-      </c>
+      <c r="U20" s="3"/>
       <c r="V20" s="3" t="n">
-        <v>15660359.5058922</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="n">
-        <v>57154.3116445204</v>
+        <v>12802.8237120113</v>
       </c>
       <c r="X20" s="3" t="n">
-        <v>-37454.3841169806</v>
-      </c>
-      <c r="Y20" s="3"/>
+        <v>845900.693543759</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>33725.9202199537</v>
+      </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="AD20" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AF20" s="3" t="n">
+        <v>-242011.720759033</v>
+      </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
@@ -4253,6 +4946,19 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3" t="n">
+        <v>4068.18509760167</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>129618.363527636</v>
+      </c>
+      <c r="AV20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -4264,74 +4970,93 @@
       <c r="M21" t="s">
         <v>45</v>
       </c>
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>8844571.77458233</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>3523577.73115148</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>17338.980546598</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>229572.218410798</v>
-      </c>
+        <v>7473737.579813</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
       <c r="T21" s="3" t="n">
-        <v>-3718.69832171426</v>
+        <v>23142.2203431156</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>26306.3196534793</v>
+        <v>436611.748541251</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>877652.196146426</v>
+        <v>9202811.27882349</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>0</v>
+        <v>3666333.31429324</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>-10804.2927816059</v>
+        <v>18042.3714892157</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>393263.198412475</v>
+        <v>238866.397952528</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>-1859.64569841769</v>
+        <v>-3869.3419552838</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>-229.982547756282</v>
-      </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
+        <v>27370.0406460206</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>913205.727825245</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AD21" s="3" t="n">
-        <v>35983.4270122674</v>
+        <v>-11241.8550176067</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>2067.7810695267</v>
+        <v>409163.948803724</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>1572929.39623693</v>
+        <v>-1934.90750375111</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>23071.9916881998</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>11052.3082384345</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
-        <v>10692.875949243</v>
-      </c>
-      <c r="AK21" s="3"/>
+        <v>-239.309508242339</v>
+      </c>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3" t="n">
+        <v>37536.9003683804</v>
+      </c>
       <c r="AL21" s="3" t="n">
-        <v>9537.98379435319</v>
-      </c>
-      <c r="AM21" s="3"/>
+        <v>2157.67476297287</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>39062.4000075039</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>24128.2425049737</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>11573.9072704938</v>
+      </c>
+      <c r="AQ21" s="3" t="n">
+        <v>11188.817598517</v>
+      </c>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AT21" s="3" t="n">
+        <v>9739.88670259903</v>
+      </c>
+      <c r="AU21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -4364,6 +5089,15 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4505,89 +5239,89 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14" t="n">
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>4773197</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14" t="n">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="n">
         <v>154412.99</v>
       </c>
-      <c r="V2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14" t="n">
+      <c r="V2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>706619</v>
       </c>
-      <c r="X2" s="14" t="n">
+      <c r="X2" s="4" t="n">
         <v>2956821.51</v>
       </c>
-      <c r="Y2" s="14" t="n">
+      <c r="Y2" s="4" t="n">
         <v>49117194</v>
       </c>
-      <c r="Z2" s="14" t="n">
+      <c r="Z2" s="4" t="n">
         <v>799505</v>
       </c>
-      <c r="AA2" s="14" t="n">
+      <c r="AA2" s="4" t="n">
         <v>1724347</v>
       </c>
-      <c r="AB2" s="14" t="n">
+      <c r="AB2" s="4" t="n">
         <v>72817817.07</v>
       </c>
-      <c r="AC2" s="14" t="n">
+      <c r="AC2" s="4" t="n">
         <v>17949329.35</v>
       </c>
-      <c r="AD2" s="14" t="n">
+      <c r="AD2" s="4" t="n">
         <v>607122.83</v>
       </c>
-      <c r="AE2" s="14" t="n">
+      <c r="AE2" s="4" t="n">
         <v>740014.08</v>
       </c>
-      <c r="AF2" s="14" t="n">
+      <c r="AF2" s="4" t="n">
         <v>-177796.4375</v>
       </c>
-      <c r="AG2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="n">
+      <c r="AG2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="AL2" s="14" t="n">
+      <c r="AL2" s="4" t="n">
         <v>1738.23</v>
       </c>
-      <c r="AM2" s="14" t="n">
+      <c r="AM2" s="4" t="n">
         <v>32000</v>
       </c>
-      <c r="AN2" s="14" t="n">
+      <c r="AN2" s="4" t="n">
         <v>-212795.37</v>
       </c>
-      <c r="AO2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="14" t="n">
+      <c r="AO2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AQ2" s="14" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AR2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="14" t="n">
+      <c r="AR2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AT2" s="14" t="n">
+      <c r="AT2" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4602,81 +5336,81 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="n">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
         <v>24338</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14" t="n">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="n">
         <v>13320</v>
       </c>
-      <c r="U3" s="14" t="n">
+      <c r="U3" s="4" t="n">
         <v>26120</v>
       </c>
-      <c r="V3" s="14" t="n">
+      <c r="V3" s="4" t="n">
         <v>201634.95</v>
       </c>
-      <c r="W3" s="14" t="n">
+      <c r="W3" s="4" t="n">
         <v>271382.02</v>
       </c>
-      <c r="X3" s="14" t="n">
+      <c r="X3" s="4" t="n">
         <v>783968.72</v>
       </c>
-      <c r="Y3" s="14" t="n">
+      <c r="Y3" s="4" t="n">
         <v>743138.25</v>
       </c>
-      <c r="Z3" s="14" t="n">
+      <c r="Z3" s="4" t="n">
         <v>1982656.04</v>
       </c>
-      <c r="AA3" s="14" t="n">
+      <c r="AA3" s="4" t="n">
         <v>747418.12</v>
       </c>
-      <c r="AB3" s="14" t="n">
+      <c r="AB3" s="4" t="n">
         <v>390867.29</v>
       </c>
-      <c r="AC3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="14" t="n">
+      <c r="AC3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>-146825.09</v>
       </c>
-      <c r="AE3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="14" t="n">
+      <c r="AE3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>-37894.2093</v>
       </c>
-      <c r="AG3" s="14" t="n">
+      <c r="AG3" s="4" t="n">
         <v>-36404.48</v>
       </c>
-      <c r="AH3" s="14" t="n">
+      <c r="AH3" s="4" t="n">
         <v>-1077.86</v>
       </c>
-      <c r="AI3" s="14" t="n">
+      <c r="AI3" s="4" t="n">
         <v>-8501.94</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14" t="n">
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4" t="n">
         <v>904909.77</v>
       </c>
-      <c r="AS3" s="14" t="n">
+      <c r="AS3" s="4" t="n">
         <v>1856285.31</v>
       </c>
-      <c r="AT3" s="14" t="n">
+      <c r="AT3" s="4" t="n">
         <v>1106353.94</v>
       </c>
-      <c r="AU3" s="14" t="n">
+      <c r="AU3" s="4" t="n">
         <v>601331.82</v>
       </c>
-      <c r="AV3" s="14"/>
+      <c r="AV3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4691,49 +5425,49 @@
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="n">
         <v>2281363.7</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14" t="n">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="14" t="n">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4" t="n">
         <v>30514.95</v>
       </c>
-      <c r="AU4" s="14" t="n">
+      <c r="AU4" s="4" t="n">
         <v>43455.95</v>
       </c>
-      <c r="AV4" s="14"/>
+      <c r="AV4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4748,77 +5482,77 @@
       <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
         <v>205927</v>
       </c>
-      <c r="V5" s="14" t="n">
+      <c r="V5" s="4" t="n">
         <v>494807.0781</v>
       </c>
-      <c r="W5" s="14" t="n">
+      <c r="W5" s="4" t="n">
         <v>542500.9312</v>
       </c>
-      <c r="X5" s="14" t="n">
+      <c r="X5" s="4" t="n">
         <v>620175.2402</v>
       </c>
-      <c r="Y5" s="14" t="n">
+      <c r="Y5" s="4" t="n">
         <v>460229.8087</v>
       </c>
-      <c r="Z5" s="14" t="n">
+      <c r="Z5" s="4" t="n">
         <v>216395.7656</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14" t="n">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="n">
         <v>629147.75</v>
       </c>
-      <c r="AC5" s="14" t="n">
+      <c r="AC5" s="4" t="n">
         <v>5212.27</v>
       </c>
-      <c r="AD5" s="14" t="n">
+      <c r="AD5" s="4" t="n">
         <v>-8772.9297</v>
       </c>
-      <c r="AE5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="14" t="n">
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
         <v>-35051.6811</v>
       </c>
-      <c r="AG5" s="14" t="n">
+      <c r="AG5" s="4" t="n">
         <v>-15719.4499</v>
       </c>
-      <c r="AH5" s="14" t="n">
+      <c r="AH5" s="4" t="n">
         <v>-2570.84</v>
       </c>
-      <c r="AI5" s="14" t="n">
+      <c r="AI5" s="4" t="n">
         <v>-43648.9111</v>
       </c>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14" t="n">
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4" t="n">
         <v>-2315.61</v>
       </c>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14" t="n">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4" t="n">
         <v>16169.9902</v>
       </c>
-      <c r="AS5" s="14" t="n">
+      <c r="AS5" s="4" t="n">
         <v>574529.6625</v>
       </c>
-      <c r="AT5" s="14" t="n">
+      <c r="AT5" s="4" t="n">
         <v>419352.23</v>
       </c>
-      <c r="AU5" s="14" t="n">
+      <c r="AU5" s="4" t="n">
         <v>63018.84</v>
       </c>
-      <c r="AV5" s="14"/>
+      <c r="AV5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4833,83 +5567,83 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="n">
         <v>13158650.32</v>
       </c>
-      <c r="V6" s="14" t="n">
+      <c r="V6" s="4" t="n">
         <v>2504229.9562</v>
       </c>
-      <c r="W6" s="14" t="n">
+      <c r="W6" s="4" t="n">
         <v>1003914.5304</v>
       </c>
-      <c r="X6" s="14" t="n">
+      <c r="X6" s="4" t="n">
         <v>39925920</v>
       </c>
-      <c r="Y6" s="14" t="n">
+      <c r="Y6" s="4" t="n">
         <v>5338005</v>
       </c>
-      <c r="Z6" s="14" t="n">
+      <c r="Z6" s="4" t="n">
         <v>1411950</v>
       </c>
-      <c r="AA6" s="14" t="n">
+      <c r="AA6" s="4" t="n">
         <v>103650</v>
       </c>
-      <c r="AB6" s="14" t="n">
+      <c r="AB6" s="4" t="n">
         <v>7029712.3506</v>
       </c>
-      <c r="AC6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14" t="n">
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>118813.3594</v>
       </c>
-      <c r="AE6" s="14" t="n">
+      <c r="AE6" s="4" t="n">
         <v>263786.5391</v>
       </c>
-      <c r="AF6" s="14" t="n">
+      <c r="AF6" s="4" t="n">
         <v>-3177.3301</v>
       </c>
-      <c r="AG6" s="14" t="n">
+      <c r="AG6" s="4" t="n">
         <v>-62617.5313</v>
       </c>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14" t="n">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4" t="n">
         <v>449040</v>
       </c>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14" t="n">
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4" t="n">
         <v>-245</v>
       </c>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14" t="n">
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4" t="n">
         <v>465885</v>
       </c>
-      <c r="AP6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="14" t="n">
+      <c r="AP6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
         <v>376316</v>
       </c>
-      <c r="AR6" s="14" t="n">
+      <c r="AR6" s="4" t="n">
         <v>59840</v>
       </c>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14" t="n">
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4" t="n">
         <v>-1323.75</v>
       </c>
-      <c r="AU6" s="14" t="n">
+      <c r="AU6" s="4" t="n">
         <v>2031211.5</v>
       </c>
-      <c r="AV6" s="14"/>
+      <c r="AV6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4924,85 +5658,85 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14" t="n">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="n">
         <v>363498</v>
       </c>
-      <c r="S7" s="14" t="n">
+      <c r="S7" s="4" t="n">
         <v>33893609.95</v>
       </c>
-      <c r="T7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="14" t="n">
+      <c r="T7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="n">
         <v>15776681.99</v>
       </c>
-      <c r="V7" s="14" t="n">
+      <c r="V7" s="4" t="n">
         <v>26302680.0243</v>
       </c>
-      <c r="W7" s="14" t="n">
+      <c r="W7" s="4" t="n">
         <v>7293017.4607</v>
       </c>
-      <c r="X7" s="14" t="n">
+      <c r="X7" s="4" t="n">
         <v>39787465.7045</v>
       </c>
-      <c r="Y7" s="14" t="n">
+      <c r="Y7" s="4" t="n">
         <v>20082433.1214</v>
       </c>
-      <c r="Z7" s="14" t="n">
+      <c r="Z7" s="4" t="n">
         <v>2667688.9804</v>
       </c>
-      <c r="AA7" s="14" t="n">
+      <c r="AA7" s="4" t="n">
         <v>1227221</v>
       </c>
-      <c r="AB7" s="14" t="n">
+      <c r="AB7" s="4" t="n">
         <v>29397433.3476</v>
       </c>
-      <c r="AC7" s="14" t="n">
+      <c r="AC7" s="4" t="n">
         <v>93043</v>
       </c>
-      <c r="AD7" s="14" t="n">
+      <c r="AD7" s="4" t="n">
         <v>-202294.9525</v>
       </c>
-      <c r="AE7" s="14" t="n">
+      <c r="AE7" s="4" t="n">
         <v>-17632.4698</v>
       </c>
-      <c r="AF7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14" t="n">
+      <c r="AF7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>-25868.6401</v>
       </c>
-      <c r="AH7" s="14" t="n">
+      <c r="AH7" s="4" t="n">
         <v>-2829.1001</v>
       </c>
-      <c r="AI7" s="14" t="n">
+      <c r="AI7" s="4" t="n">
         <v>-47572.2695</v>
       </c>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14" t="n">
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4" t="n">
         <v>3582106.8109</v>
       </c>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14" t="n">
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AT7" s="14" t="n">
+      <c r="AT7" s="4" t="n">
         <v>998155.57</v>
       </c>
-      <c r="AU7" s="14" t="n">
+      <c r="AU7" s="4" t="n">
         <v>105000</v>
       </c>
-      <c r="AV7" s="14"/>
+      <c r="AV7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5017,43 +5751,43 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4" t="n">
         <v>-215</v>
       </c>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5068,103 +5802,103 @@
       <c r="O9" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="14" t="str">
+      <c r="P9" s="4" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="4" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="14" t="str">
+      <c r="R9" s="4" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="14" t="str">
+      <c r="S9" s="4" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="14" t="str">
+      <c r="T9" s="4" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="14" t="str">
+      <c r="U9" s="4" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="14" t="str">
+      <c r="V9" s="4" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="14" t="str">
+      <c r="W9" s="4" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="14" t="str">
+      <c r="X9" s="4" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="14" t="str">
+      <c r="Y9" s="4" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="14" t="str">
+      <c r="Z9" s="4" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="14" t="str">
+      <c r="AA9" s="4" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="14" t="str">
+      <c r="AB9" s="4" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="14" t="str">
+      <c r="AC9" s="4" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="14" t="str">
+      <c r="AD9" s="4" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="14" t="str">
+      <c r="AE9" s="4" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="14" t="str">
+      <c r="AF9" s="4" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="14" t="str">
+      <c r="AG9" s="4" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="14" t="str">
+      <c r="AH9" s="4" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="14" t="str">
+      <c r="AI9" s="4" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="14" t="str">
+      <c r="AJ9" s="4" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="14" t="str">
+      <c r="AK9" s="4" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="14" t="str">
+      <c r="AL9" s="4" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="14" t="str">
+      <c r="AM9" s="4" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="14" t="str">
+      <c r="AN9" s="4" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="14" t="str">
+      <c r="AO9" s="4" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="14" t="str">
+      <c r="AP9" s="4" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="14" t="str">
+      <c r="AQ9" s="4" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="14" t="str">
+      <c r="AR9" s="4" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="14" t="str">
+      <c r="AS9" s="4" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="14" t="str">
+      <c r="AT9" s="4" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="14" t="str">
+      <c r="AU9" s="4" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="14"/>
+      <c r="AV9" s="4"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -5289,89 +6023,89 @@
       <c r="O13" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14" t="n">
+      <c r="P13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="n">
         <v>8706876.24378308</v>
       </c>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14" t="n">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="n">
         <v>264996.39645516</v>
       </c>
-      <c r="V13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14" t="n">
+      <c r="V13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="n">
         <v>1159835.70366125</v>
       </c>
-      <c r="X13" s="14" t="n">
+      <c r="X13" s="4" t="n">
         <v>4778120.22555046</v>
       </c>
-      <c r="Y13" s="14" t="n">
+      <c r="Y13" s="4" t="n">
         <v>77876813.4535822</v>
       </c>
-      <c r="Z13" s="14" t="n">
+      <c r="Z13" s="4" t="n">
         <v>1237423.29598367</v>
       </c>
-      <c r="AA13" s="14" t="n">
+      <c r="AA13" s="4" t="n">
         <v>2590021.39047316</v>
       </c>
-      <c r="AB13" s="14" t="n">
+      <c r="AB13" s="4" t="n">
         <v>105933392.041181</v>
       </c>
-      <c r="AC13" s="14" t="n">
+      <c r="AC13" s="4" t="n">
         <v>25412603.0419742</v>
       </c>
-      <c r="AD13" s="14" t="n">
+      <c r="AD13" s="4" t="n">
         <v>842080.261653279</v>
       </c>
-      <c r="AE13" s="14" t="n">
+      <c r="AE13" s="4" t="n">
         <v>1016010.78274473</v>
       </c>
-      <c r="AF13" s="14" t="n">
+      <c r="AF13" s="4" t="n">
         <v>-242011.720759033</v>
       </c>
-      <c r="AG13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14" t="n">
+      <c r="AG13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4" t="n">
         <v>37536.9003683804</v>
       </c>
-      <c r="AL13" s="14" t="n">
+      <c r="AL13" s="4" t="n">
         <v>2157.67476297287</v>
       </c>
-      <c r="AM13" s="14" t="n">
+      <c r="AM13" s="4" t="n">
         <v>39062.4000075039</v>
       </c>
-      <c r="AN13" s="14" t="n">
+      <c r="AN13" s="4" t="n">
         <v>-254117.890892549</v>
       </c>
-      <c r="AO13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="14" t="n">
+      <c r="AO13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="4" t="n">
         <v>11573.9072704938</v>
       </c>
-      <c r="AQ13" s="14" t="n">
+      <c r="AQ13" s="4" t="n">
         <v>11188.817598517</v>
       </c>
-      <c r="AR13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="14" t="n">
+      <c r="AR13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="AT13" s="14" t="n">
+      <c r="AT13" s="4" t="n">
         <v>9739.88670259903</v>
       </c>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -5386,81 +6120,81 @@
       <c r="O14" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14" t="n">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="n">
         <v>43574.9436661632</v>
       </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14" t="n">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="n">
         <v>23142.2203431156</v>
       </c>
-      <c r="U14" s="14" t="n">
+      <c r="U14" s="4" t="n">
         <v>44825.9299648869</v>
       </c>
-      <c r="V14" s="14" t="n">
+      <c r="V14" s="4" t="n">
         <v>338983.312711584</v>
       </c>
-      <c r="W14" s="14" t="n">
+      <c r="W14" s="4" t="n">
         <v>445443.097521734</v>
       </c>
-      <c r="X14" s="14" t="n">
+      <c r="X14" s="4" t="n">
         <v>1266866.0534842</v>
       </c>
-      <c r="Y14" s="14" t="n">
+      <c r="Y14" s="4" t="n">
         <v>1178268.42603166</v>
       </c>
-      <c r="Z14" s="14" t="n">
+      <c r="Z14" s="4" t="n">
         <v>3068629.67938753</v>
       </c>
-      <c r="AA14" s="14" t="n">
+      <c r="AA14" s="4" t="n">
         <v>1122644.64079865</v>
       </c>
-      <c r="AB14" s="14" t="n">
+      <c r="AB14" s="4" t="n">
         <v>568623.168528117</v>
       </c>
-      <c r="AC14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="14" t="n">
+      <c r="AC14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4" t="n">
         <v>-203646.616623635</v>
       </c>
-      <c r="AE14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="14" t="n">
+      <c r="AE14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4" t="n">
         <v>-51580.5768014668</v>
       </c>
-      <c r="AG14" s="14" t="n">
+      <c r="AG14" s="4" t="n">
         <v>-48577.7752125464</v>
       </c>
-      <c r="AH14" s="14" t="n">
+      <c r="AH14" s="4" t="n">
         <v>-1412.65160243094</v>
       </c>
-      <c r="AI14" s="14" t="n">
+      <c r="AI14" s="4" t="n">
         <v>-10944.1296577568</v>
       </c>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14" t="n">
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4" t="n">
         <v>946306.31050512</v>
       </c>
-      <c r="AS14" s="14" t="n">
+      <c r="AS14" s="4" t="n">
         <v>1856285.31</v>
       </c>
-      <c r="AT14" s="14" t="n">
+      <c r="AT14" s="4" t="n">
         <v>1077576.2028574</v>
       </c>
-      <c r="AU14" s="14" t="n">
+      <c r="AU14" s="4" t="n">
         <v>573115.047393344</v>
       </c>
-      <c r="AV14" s="14"/>
+      <c r="AV14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5475,49 +6209,49 @@
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14" t="n">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="n">
         <v>3915170.34611926</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14" t="n">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="n">
         <v>12802.8237120113</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="14" t="n">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4" t="n">
         <v>29721.2155735474</v>
       </c>
-      <c r="AU15" s="14" t="n">
+      <c r="AU15" s="4" t="n">
         <v>41416.8317980791</v>
       </c>
-      <c r="AV15" s="14"/>
+      <c r="AV15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5532,77 +6266,77 @@
       <c r="O16" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14" t="n">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="n">
         <v>353402.346090324</v>
       </c>
-      <c r="V16" s="14" t="n">
+      <c r="V16" s="4" t="n">
         <v>831856.493566604</v>
       </c>
-      <c r="W16" s="14" t="n">
+      <c r="W16" s="4" t="n">
         <v>890454.331507125</v>
       </c>
-      <c r="X16" s="14" t="n">
+      <c r="X16" s="4" t="n">
         <v>1002181.51436041</v>
       </c>
-      <c r="Y16" s="14" t="n">
+      <c r="Y16" s="4" t="n">
         <v>729708.438920752</v>
       </c>
-      <c r="Z16" s="14" t="n">
+      <c r="Z16" s="4" t="n">
         <v>334923.685912735</v>
       </c>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14" t="n">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4" t="n">
         <v>915267.141124384</v>
       </c>
-      <c r="AC16" s="14" t="n">
+      <c r="AC16" s="4" t="n">
         <v>7379.51518269906</v>
       </c>
-      <c r="AD16" s="14" t="n">
+      <c r="AD16" s="4" t="n">
         <v>-12168.0664475125</v>
       </c>
-      <c r="AE16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="14" t="n">
+      <c r="AE16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4" t="n">
         <v>-47711.403995414</v>
       </c>
-      <c r="AG16" s="14" t="n">
+      <c r="AG16" s="4" t="n">
         <v>-20975.8772466214</v>
       </c>
-      <c r="AH16" s="14" t="n">
+      <c r="AH16" s="4" t="n">
         <v>-3369.36266824407</v>
       </c>
-      <c r="AI16" s="14" t="n">
+      <c r="AI16" s="4" t="n">
         <v>-56187.0987678462</v>
       </c>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14" t="n">
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4" t="n">
         <v>-2874.37983344414</v>
       </c>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14" t="n">
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4" t="n">
         <v>16909.7121882836</v>
       </c>
-      <c r="AS16" s="14" t="n">
+      <c r="AS16" s="4" t="n">
         <v>574529.6625</v>
       </c>
-      <c r="AT16" s="14" t="n">
+      <c r="AT16" s="4" t="n">
         <v>408444.320868225</v>
       </c>
-      <c r="AU16" s="14" t="n">
+      <c r="AU16" s="4" t="n">
         <v>60061.7567074258</v>
       </c>
-      <c r="AV16" s="14"/>
+      <c r="AV16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5617,83 +6351,83 @@
       <c r="O17" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
         <v>22582264.0764455</v>
       </c>
-      <c r="V17" s="14" t="n">
+      <c r="V17" s="4" t="n">
         <v>4210044.76825204</v>
       </c>
-      <c r="W17" s="14" t="n">
+      <c r="W17" s="4" t="n">
         <v>1647812.91726126</v>
       </c>
-      <c r="X17" s="14" t="n">
+      <c r="X17" s="4" t="n">
         <v>64518891.3941949</v>
       </c>
-      <c r="Y17" s="14" t="n">
+      <c r="Y17" s="4" t="n">
         <v>8463570.2031205</v>
       </c>
-      <c r="Z17" s="14" t="n">
+      <c r="Z17" s="4" t="n">
         <v>2185326.94950518</v>
       </c>
-      <c r="AA17" s="14" t="n">
+      <c r="AA17" s="4" t="n">
         <v>155685.437514922</v>
       </c>
-      <c r="AB17" s="14" t="n">
+      <c r="AB17" s="4" t="n">
         <v>10226635.5177467</v>
       </c>
-      <c r="AC17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="14" t="n">
+      <c r="AC17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4" t="n">
         <v>164794.304920896</v>
       </c>
-      <c r="AE17" s="14" t="n">
+      <c r="AE17" s="4" t="n">
         <v>362168.741530587</v>
       </c>
-      <c r="AF17" s="14" t="n">
+      <c r="AF17" s="4" t="n">
         <v>-4324.89613252498</v>
       </c>
-      <c r="AG17" s="14" t="n">
+      <c r="AG17" s="4" t="n">
         <v>-83556.2095614602</v>
       </c>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14" t="n">
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4" t="n">
         <v>567671.010781381</v>
       </c>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14" t="n">
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4" t="n">
         <v>-299.071500057452</v>
       </c>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14" t="n">
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4" t="n">
         <v>546254.749528136</v>
       </c>
-      <c r="AP17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="14" t="n">
+      <c r="AP17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4" t="n">
         <v>421053.108340354</v>
       </c>
-      <c r="AR17" s="14" t="n">
+      <c r="AR17" s="4" t="n">
         <v>62577.4762279629</v>
       </c>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14" t="n">
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4" t="n">
         <v>-1289.31750225655</v>
       </c>
-      <c r="AU17" s="14" t="n">
+      <c r="AU17" s="4" t="n">
         <v>1935899.34270966</v>
       </c>
-      <c r="AV17" s="14"/>
+      <c r="AV17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5708,85 +6442,85 @@
       <c r="O18" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="n">
         <v>650809.634019351</v>
       </c>
-      <c r="S18" s="14" t="n">
+      <c r="S18" s="4" t="n">
         <v>59625204.902429</v>
       </c>
-      <c r="T18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="14" t="n">
+      <c r="T18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="n">
         <v>27075208.3446414</v>
       </c>
-      <c r="V18" s="14" t="n">
+      <c r="V18" s="4" t="n">
         <v>44219365.7787503</v>
       </c>
-      <c r="W18" s="14" t="n">
+      <c r="W18" s="4" t="n">
         <v>11970668.830508</v>
       </c>
-      <c r="X18" s="14" t="n">
+      <c r="X18" s="4" t="n">
         <v>64295154.0913494</v>
       </c>
-      <c r="Y18" s="14" t="n">
+      <c r="Y18" s="4" t="n">
         <v>31841311.9831175</v>
       </c>
-      <c r="Z18" s="14" t="n">
+      <c r="Z18" s="4" t="n">
         <v>4128880.35820399</v>
       </c>
-      <c r="AA18" s="14" t="n">
+      <c r="AA18" s="4" t="n">
         <v>1843323.09032803</v>
       </c>
-      <c r="AB18" s="14" t="n">
+      <c r="AB18" s="4" t="n">
         <v>42766591.4349252</v>
       </c>
-      <c r="AC18" s="14" t="n">
+      <c r="AC18" s="4" t="n">
         <v>131729.981590338</v>
       </c>
-      <c r="AD18" s="14" t="n">
+      <c r="AD18" s="4" t="n">
         <v>-280583.397814801</v>
       </c>
-      <c r="AE18" s="14" t="n">
+      <c r="AE18" s="4" t="n">
         <v>-24208.7007901537</v>
       </c>
-      <c r="AF18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="14" t="n">
+      <c r="AF18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4" t="n">
         <v>-34518.8554769101</v>
       </c>
-      <c r="AH18" s="14" t="n">
+      <c r="AH18" s="4" t="n">
         <v>-3707.84034077016</v>
       </c>
-      <c r="AI18" s="14" t="n">
+      <c r="AI18" s="4" t="n">
         <v>-61237.445279754</v>
       </c>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14" t="n">
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4" t="n">
         <v>4446489.51183224</v>
       </c>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14" t="n">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AT18" s="14" t="n">
+      <c r="AT18" s="4" t="n">
         <v>972192.216336816</v>
       </c>
-      <c r="AU18" s="14" t="n">
+      <c r="AU18" s="4" t="n">
         <v>100073.001252954</v>
       </c>
-      <c r="AV18" s="14"/>
+      <c r="AV18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5801,43 +6535,43 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14" t="n">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4" t="n">
         <v>-286.893856764263</v>
       </c>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5852,51 +6586,51 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="14" t="n">
+      <c r="P20" s="4" t="n">
         <v>-841661.321104584</v>
       </c>
-      <c r="Q20" s="14" t="n">
+      <c r="Q20" s="4" t="n">
         <v>-12276.6678851941</v>
       </c>
-      <c r="R20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14" t="n">
+      <c r="R20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="n">
         <v>-3038.26729467196</v>
       </c>
-      <c r="AA20" s="14" t="n">
+      <c r="AA20" s="4" t="n">
         <v>-2964.97183571063</v>
       </c>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14" t="n">
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4" t="n">
         <v>-52032.3778136845</v>
       </c>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
     </row>
     <row r="21">
       <c r="N21"/>

--- a/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Unlabeled/DoD_Unlabeled_Contracts.xlsx
@@ -272,19 +272,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -322,12 +322,12 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -335,7 +335,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
